--- a/excel/REG.xlsx
+++ b/excel/REG.xlsx
@@ -5,22 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Debian\home\qvq\REG_DOMUS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Debian\home\qvq\pyKB\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4497C0B-472E-4CBE-BD28-3DD543D78178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE1E07C-6A32-45F9-9204-AC025F2472A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16457" yWindow="0" windowWidth="16457" windowHeight="17914" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1 IAN" sheetId="1" r:id="rId1"/>
+    <sheet name="7 IAN" sheetId="2" r:id="rId2"/>
+    <sheet name="14 IAN" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="32">
   <si>
     <t>PAROHIA DOMUS - VOLUNTARI</t>
   </si>
@@ -28,7 +30,7 @@
     <t>REGISTRU LUMANARI \ COLPORTAJ PANGAR</t>
   </si>
   <si>
-    <t>DATA: 21 IAN 2024</t>
+    <t>DATA: 1 IAN 2024</t>
   </si>
   <si>
     <t>TIP PRODUS</t>
@@ -82,36 +84,21 @@
     <t>Lumanari 100B</t>
   </si>
   <si>
-    <t>kg.</t>
-  </si>
-  <si>
-    <t>75,00</t>
+    <t>buc.</t>
   </si>
   <si>
     <t>Lumanari C20</t>
   </si>
   <si>
-    <t>160,00</t>
-  </si>
-  <si>
     <t>Candele tip 0</t>
   </si>
   <si>
-    <t>1,50</t>
-  </si>
-  <si>
     <t>Candele tip 1</t>
   </si>
   <si>
-    <t>4,00</t>
-  </si>
-  <si>
     <t>Candele tip 2</t>
   </si>
   <si>
-    <t>8,00</t>
-  </si>
-  <si>
     <t>Candele tip 3</t>
   </si>
   <si>
@@ -125,13 +112,19 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>DATA: 7 IAN 2024</t>
+  </si>
+  <si>
+    <t>DATA: 14 IAN 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +152,12 @@
       <name val="Bahnschrift"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -304,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -336,13 +335,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -682,11 +687,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="13.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17.3828125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.53515625" style="1" customWidth="1"/>
@@ -695,15 +700,15 @@
     <col min="5" max="5" width="12.07421875" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.61328125" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.3046875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.23046875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.69140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="16.69140625" style="1" customWidth="1"/>
-    <col min="11" max="15" width="9.23046875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.23046875" style="1"/>
+    <col min="11" max="22" width="9.23046875" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
@@ -713,45 +718,45 @@
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="11" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="11" t="s">
+      <c r="H5" s="17"/>
+      <c r="I5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" ht="30.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" ht="30.55" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="14"/>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -760,7 +765,7 @@
       <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="13" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -775,8 +780,8 @@
     </row>
     <row r="7" spans="1:10" ht="24.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="14"/>
       <c r="F7" s="2" t="s">
         <v>12</v>
@@ -848,7 +853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="22.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
@@ -859,144 +864,148 @@
       <c r="D10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="8">
+        <v>75</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1950</v>
+      </c>
+      <c r="G10" s="6">
+        <v>13</v>
+      </c>
+      <c r="H10" s="8">
+        <v>975</v>
+      </c>
+      <c r="I10" s="6">
+        <v>13</v>
+      </c>
+      <c r="J10" s="8">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1950</v>
-      </c>
-      <c r="G10" s="6">
-        <v>6</v>
-      </c>
-      <c r="H10" s="6">
-        <v>450</v>
-      </c>
-      <c r="I10" s="6">
-        <v>20</v>
-      </c>
-      <c r="J10" s="6">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="22.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1280</v>
+      <c r="E11" s="8">
+        <v>160</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1760</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
+      <c r="H11" s="8"/>
       <c r="I11" s="6">
-        <v>8</v>
-      </c>
-      <c r="J11" s="6">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="22.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="6">
-        <v>480</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6">
-        <v>0</v>
+      <c r="E12" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="8">
+        <v>420</v>
+      </c>
+      <c r="G12" s="6">
+        <v>40</v>
+      </c>
+      <c r="H12" s="8">
+        <v>60</v>
       </c>
       <c r="I12" s="6">
-        <v>320</v>
-      </c>
-      <c r="J12" s="6">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="22.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>240</v>
+      </c>
+      <c r="J12" s="8">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="6">
-        <v>440</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6">
-        <v>0</v>
+      <c r="E13" s="8">
+        <v>4</v>
+      </c>
+      <c r="F13" s="8">
+        <v>100</v>
+      </c>
+      <c r="G13" s="6">
+        <v>15</v>
+      </c>
+      <c r="H13" s="8">
+        <v>60</v>
       </c>
       <c r="I13" s="6">
-        <v>110</v>
-      </c>
-      <c r="J13" s="6">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="22.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+      <c r="J13" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="6">
-        <v>920</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6">
-        <v>0</v>
+      <c r="E14" s="8">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8">
+        <v>320</v>
+      </c>
+      <c r="G14" s="6">
+        <v>5</v>
+      </c>
+      <c r="H14" s="8">
+        <v>40</v>
       </c>
       <c r="I14" s="6">
-        <v>115</v>
-      </c>
-      <c r="J14" s="6">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="22.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+      <c r="J14" s="8">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>20</v>
@@ -1004,27 +1013,29 @@
       <c r="E15" s="8">
         <v>10</v>
       </c>
-      <c r="F15" s="6">
-        <v>1040</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6">
-        <v>0</v>
+      <c r="F15" s="8">
+        <v>340</v>
+      </c>
+      <c r="G15" s="6">
+        <v>10</v>
+      </c>
+      <c r="H15" s="8">
+        <v>100</v>
       </c>
       <c r="I15" s="6">
-        <v>104</v>
-      </c>
-      <c r="J15" s="6">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="22.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+      <c r="J15" s="8">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>20</v>
@@ -1032,62 +1043,932 @@
       <c r="E16" s="8">
         <v>18</v>
       </c>
-      <c r="F16" s="6">
-        <v>1116</v>
+      <c r="F16" s="8">
+        <v>720</v>
       </c>
       <c r="G16" s="6">
-        <v>6</v>
-      </c>
-      <c r="H16" s="6">
-        <v>108</v>
+        <v>4</v>
+      </c>
+      <c r="H16" s="8">
+        <v>72</v>
       </c>
       <c r="I16" s="6">
-        <v>56</v>
-      </c>
-      <c r="J16" s="6">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="22.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+      <c r="J16" s="8">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E17" s="6"/>
-      <c r="F17" s="6">
-        <v>0</v>
-      </c>
+      <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="22.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="6">
-        <v>7226</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" s="6">
-        <v>6668</v>
+      <c r="F18" s="8">
+        <v>5610</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8">
+        <v>1307</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="8">
+        <v>4303</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="B6:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="13.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="17.3828125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.53515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.69140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.23046875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.07421875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.61328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.23046875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.69140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.69140625" style="1" customWidth="1"/>
+    <col min="11" max="22" width="9.23046875" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.23046875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" ht="30.55" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="14"/>
+      <c r="B6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="24.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="14"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="14"/>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="29.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="15"/>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="5">
+        <v>0</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5">
+        <v>6</v>
+      </c>
+      <c r="H9" s="5">
+        <v>7</v>
+      </c>
+      <c r="I9" s="5">
+        <v>8</v>
+      </c>
+      <c r="J9" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="8">
+        <v>75</v>
+      </c>
+      <c r="F10" s="8">
+        <v>975</v>
+      </c>
+      <c r="G10" s="6">
+        <v>13</v>
+      </c>
+      <c r="H10" s="8">
+        <v>975</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6">
+        <v>11</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="8">
+        <v>160</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1760</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8">
+        <v>160</v>
+      </c>
+      <c r="I11" s="6">
+        <v>10</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6">
+        <v>240</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="8">
+        <v>360</v>
+      </c>
+      <c r="G12" s="6">
+        <v>50</v>
+      </c>
+      <c r="H12" s="8">
+        <v>75</v>
+      </c>
+      <c r="I12" s="6">
+        <v>190</v>
+      </c>
+      <c r="J12" s="8">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="8">
+        <v>4</v>
+      </c>
+      <c r="F13" s="8">
+        <v>40</v>
+      </c>
+      <c r="G13" s="6">
+        <v>10</v>
+      </c>
+      <c r="H13" s="8">
+        <v>40</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6">
+        <v>35</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="8">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8">
+        <v>280</v>
+      </c>
+      <c r="G14" s="6">
+        <v>10</v>
+      </c>
+      <c r="H14" s="8">
+        <v>80</v>
+      </c>
+      <c r="I14" s="6">
+        <v>25</v>
+      </c>
+      <c r="J14" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6">
+        <v>24</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="8">
+        <v>10</v>
+      </c>
+      <c r="F15" s="8">
+        <v>240</v>
+      </c>
+      <c r="G15" s="6">
+        <v>10</v>
+      </c>
+      <c r="H15" s="8">
+        <v>100</v>
+      </c>
+      <c r="I15" s="6">
+        <v>14</v>
+      </c>
+      <c r="J15" s="8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6">
+        <v>36</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="8">
+        <v>18</v>
+      </c>
+      <c r="F16" s="8">
+        <v>648</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="6">
+        <v>36</v>
+      </c>
+      <c r="J16" s="8">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8">
+        <v>4303</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8">
+        <v>1430</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="8">
+        <v>2873</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="B6:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="13.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="17.3828125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.53515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.69140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.23046875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.07421875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.61328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.23046875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.69140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.69140625" style="1" customWidth="1"/>
+    <col min="11" max="22" width="9.23046875" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.23046875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" ht="30.55" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="14"/>
+      <c r="B6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="24.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="14"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="14"/>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="29.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="15"/>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="5">
+        <v>0</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5">
+        <v>6</v>
+      </c>
+      <c r="H9" s="5">
+        <v>7</v>
+      </c>
+      <c r="I9" s="5">
+        <v>8</v>
+      </c>
+      <c r="J9" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="6">
+        <v>50</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="8">
+        <v>75</v>
+      </c>
+      <c r="F10" s="8">
+        <v>3750</v>
+      </c>
+      <c r="G10" s="6">
+        <v>18</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1350</v>
+      </c>
+      <c r="I10" s="6">
+        <v>32</v>
+      </c>
+      <c r="J10" s="8">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="8">
+        <v>160</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1600</v>
+      </c>
+      <c r="G11" s="6">
+        <v>2</v>
+      </c>
+      <c r="H11" s="8">
+        <v>320</v>
+      </c>
+      <c r="I11" s="6">
+        <v>8</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="6">
+        <v>230</v>
+      </c>
+      <c r="C12" s="6">
+        <v>190</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="8">
+        <v>630</v>
+      </c>
+      <c r="G12" s="6">
+        <v>100</v>
+      </c>
+      <c r="H12" s="8">
+        <v>150</v>
+      </c>
+      <c r="I12" s="6">
+        <v>320</v>
+      </c>
+      <c r="J12" s="8">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="6">
+        <v>125</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="8">
+        <v>4</v>
+      </c>
+      <c r="F13" s="8">
+        <v>500</v>
+      </c>
+      <c r="G13" s="6">
+        <v>15</v>
+      </c>
+      <c r="H13" s="8">
+        <v>60</v>
+      </c>
+      <c r="I13" s="6">
+        <v>110</v>
+      </c>
+      <c r="J13" s="8">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="6">
+        <v>100</v>
+      </c>
+      <c r="C14" s="6">
+        <v>25</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="8">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="6">
+        <v>10</v>
+      </c>
+      <c r="H14" s="8">
+        <v>80</v>
+      </c>
+      <c r="I14" s="6">
+        <v>115</v>
+      </c>
+      <c r="J14" s="8">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="6">
+        <v>100</v>
+      </c>
+      <c r="C15" s="6">
+        <v>14</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="8">
+        <v>10</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1140</v>
+      </c>
+      <c r="G15" s="6">
+        <v>10</v>
+      </c>
+      <c r="H15" s="8">
+        <v>100</v>
+      </c>
+      <c r="I15" s="6">
+        <v>104</v>
+      </c>
+      <c r="J15" s="8">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="6">
+        <v>38</v>
+      </c>
+      <c r="C16" s="6">
+        <v>36</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="8">
+        <v>18</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1332</v>
+      </c>
+      <c r="G16" s="6">
+        <v>6</v>
+      </c>
+      <c r="H16" s="8">
+        <v>108</v>
+      </c>
+      <c r="I16" s="6">
+        <v>68</v>
+      </c>
+      <c r="J16" s="8">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8">
+        <v>9952</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8">
+        <v>2168</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="8">
+        <v>7784</v>
       </c>
     </row>
   </sheetData>

--- a/excel/REG.xlsx
+++ b/excel/REG.xlsx
@@ -11,6 +11,10 @@
     <sheet name="14 IAN" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="21 IAN" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="28 IAN" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2 FEB" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="11 FEB" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="18 FEB" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="25 FEB" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3340,4 +3344,2100 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23046875" defaultRowHeight="13.75" outlineLevelCol="0"/>
+  <cols>
+    <col width="17.3828125" customWidth="1" style="1" min="1" max="1"/>
+    <col width="10.53515625" customWidth="1" style="1" min="2" max="2"/>
+    <col width="9.69140625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="9.23046875" customWidth="1" style="1" min="4" max="4"/>
+    <col width="12.07421875" customWidth="1" style="1" min="5" max="5"/>
+    <col width="16.61328125" customWidth="1" style="1" min="6" max="6"/>
+    <col width="10.921875" customWidth="1" style="1" min="7" max="7"/>
+    <col width="17.23046875" customWidth="1" style="1" min="8" max="8"/>
+    <col width="17.69140625" customWidth="1" style="1" min="9" max="9"/>
+    <col width="16.69140625" customWidth="1" style="1" min="10" max="10"/>
+    <col width="9.23046875" customWidth="1" style="1" min="11" max="26"/>
+    <col width="9.23046875" customWidth="1" style="1" min="27" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" s="11" t="inlineStr">
+        <is>
+          <t>PAROHIA DOMUS - VOLUNTARI</t>
+        </is>
+      </c>
+      <c r="B1" s="11" t="n"/>
+      <c r="C1" s="11" t="n"/>
+      <c r="D1" s="12" t="n"/>
+      <c r="E1" s="12" t="n"/>
+      <c r="F1" s="12" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>REGISTRU LUMANARI \ COLPORTAJ PANGAR</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="n"/>
+      <c r="C2" s="11" t="n"/>
+      <c r="D2" s="12" t="n"/>
+      <c r="E2" s="12" t="n"/>
+      <c r="F2" s="12" t="inlineStr">
+        <is>
+          <t>DATA: 2 FEB 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="14.15" customHeight="1" thickBot="1"/>
+    <row r="5" ht="30" customHeight="1" thickBot="1" thickTop="1">
+      <c r="A5" s="17" t="inlineStr">
+        <is>
+          <t>TIP PRODUS</t>
+        </is>
+      </c>
+      <c r="B5" s="17" t="inlineStr">
+        <is>
+          <t>INTRARI</t>
+        </is>
+      </c>
+      <c r="C5" s="18" t="n"/>
+      <c r="D5" s="18" t="n"/>
+      <c r="E5" s="18" t="n"/>
+      <c r="F5" s="19" t="n"/>
+      <c r="G5" s="17" t="inlineStr">
+        <is>
+          <t>IESIRI</t>
+        </is>
+      </c>
+      <c r="H5" s="19" t="n"/>
+      <c r="I5" s="17" t="inlineStr">
+        <is>
+          <t>STOCURI</t>
+        </is>
+      </c>
+      <c r="J5" s="19" t="n"/>
+    </row>
+    <row r="6" ht="30.55" customHeight="1" thickBot="1" thickTop="1">
+      <c r="A6" s="20" t="n"/>
+      <c r="B6" s="17" t="inlineStr">
+        <is>
+          <t>Cantitate</t>
+        </is>
+      </c>
+      <c r="C6" s="22" t="n"/>
+      <c r="D6" s="17" t="inlineStr">
+        <is>
+          <t>U.M.</t>
+        </is>
+      </c>
+      <c r="E6" s="17" t="inlineStr">
+        <is>
+          <t>Pret unitar</t>
+        </is>
+      </c>
+      <c r="F6" s="17" t="inlineStr">
+        <is>
+          <t>Valoare totala</t>
+        </is>
+      </c>
+      <c r="G6" s="17" t="inlineStr">
+        <is>
+          <t>Cantitate</t>
+        </is>
+      </c>
+      <c r="H6" s="17" t="inlineStr">
+        <is>
+          <t>Valoare totala</t>
+        </is>
+      </c>
+      <c r="I6" s="17" t="inlineStr">
+        <is>
+          <t>Cantitate</t>
+        </is>
+      </c>
+      <c r="J6" s="17" t="inlineStr">
+        <is>
+          <t>Valoare</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="24.9" customHeight="1" thickBot="1" thickTop="1">
+      <c r="A7" s="20" t="n"/>
+      <c r="B7" s="23" t="n"/>
+      <c r="C7" s="24" t="n"/>
+      <c r="D7" s="20" t="n"/>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>(col. 4 x (col. 1+2)</t>
+        </is>
+      </c>
+      <c r="G7" s="20" t="n"/>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>(col. 3 x col. 5)</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>(col. (1+2) - col. 6)</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>(col. 3 x col. 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="29.15" customHeight="1" thickBot="1" thickTop="1">
+      <c r="A8" s="21" t="n"/>
+      <c r="B8" s="17" t="inlineStr">
+        <is>
+          <t>Adaugat</t>
+        </is>
+      </c>
+      <c r="C8" s="17" t="inlineStr">
+        <is>
+          <t>Anterior</t>
+        </is>
+      </c>
+      <c r="D8" s="21" t="n"/>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>~ LEI ~</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>~ LEI ~</t>
+        </is>
+      </c>
+      <c r="G8" s="21" t="n"/>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
+          <t>~ LEI ~</t>
+        </is>
+      </c>
+      <c r="I8" s="17" t="n"/>
+      <c r="J8" s="4" t="inlineStr">
+        <is>
+          <t>~ LEI ~</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="24" customHeight="1" thickBot="1" thickTop="1">
+      <c r="A9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>Lumanari 100B</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n"/>
+      <c r="C10" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>buc.</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F10" s="8" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="H10" s="8" t="n">
+        <v>1200</v>
+      </c>
+      <c r="I10" s="6" t="n"/>
+      <c r="J10" s="8" t="n"/>
+    </row>
+    <row r="11" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>Lumanari C20</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>buc.</t>
+        </is>
+      </c>
+      <c r="E11" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="F11" s="8" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G11" s="6" t="n"/>
+      <c r="H11" s="8" t="n"/>
+      <c r="I11" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J11" s="8" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="12" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>Candele tip 0</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="6" t="n">
+        <v>270</v>
+      </c>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>buc.</t>
+        </is>
+      </c>
+      <c r="E12" s="8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="8" t="n">
+        <v>405</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="H12" s="8" t="n">
+        <v>75</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>220</v>
+      </c>
+      <c r="J12" s="8" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>Candele tip 1</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="n"/>
+      <c r="C13" s="6" t="n">
+        <v>90</v>
+      </c>
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>buc.</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" s="8" t="n">
+        <v>360</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="H13" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="J13" s="8" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>Candele tip 2</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="6" t="n">
+        <v>115</v>
+      </c>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>buc.</t>
+        </is>
+      </c>
+      <c r="E14" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8" t="n">
+        <v>920</v>
+      </c>
+      <c r="G14" s="6" t="n"/>
+      <c r="H14" s="8" t="n"/>
+      <c r="I14" s="6" t="n">
+        <v>115</v>
+      </c>
+      <c r="J14" s="8" t="n">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="15" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>Candele tip 3</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="6" t="n">
+        <v>84</v>
+      </c>
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>buc.</t>
+        </is>
+      </c>
+      <c r="E15" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" s="8" t="n">
+        <v>840</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="H15" s="8" t="n">
+        <v>140</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>70</v>
+      </c>
+      <c r="J15" s="8" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="16" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>Candele tip 4</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="D16" s="6" t="inlineStr">
+        <is>
+          <t>buc.</t>
+        </is>
+      </c>
+      <c r="E16" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="F16" s="8" t="n">
+        <v>936</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="H16" s="8" t="n">
+        <v>108</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>46</v>
+      </c>
+      <c r="J16" s="8" t="n">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="17" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">COLPORTAJ </t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="6" t="n"/>
+      <c r="D17" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E17" s="6" t="n"/>
+      <c r="F17" s="6" t="n"/>
+      <c r="G17" s="6" t="n"/>
+      <c r="H17" s="6" t="n"/>
+      <c r="I17" s="6" t="n"/>
+      <c r="J17" s="6" t="n"/>
+    </row>
+    <row r="18" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D18" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="n"/>
+      <c r="F18" s="8" t="n">
+        <v>6261</v>
+      </c>
+      <c r="G18" s="8" t="n"/>
+      <c r="H18" s="8" t="n">
+        <v>1563</v>
+      </c>
+      <c r="I18" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J18" s="8" t="n">
+        <v>4698</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="D6:D8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23046875" defaultRowHeight="13.75" outlineLevelCol="0"/>
+  <cols>
+    <col width="17.3828125" customWidth="1" style="1" min="1" max="1"/>
+    <col width="10.53515625" customWidth="1" style="1" min="2" max="2"/>
+    <col width="9.69140625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="9.23046875" customWidth="1" style="1" min="4" max="4"/>
+    <col width="12.07421875" customWidth="1" style="1" min="5" max="5"/>
+    <col width="16.61328125" customWidth="1" style="1" min="6" max="6"/>
+    <col width="10.921875" customWidth="1" style="1" min="7" max="7"/>
+    <col width="17.23046875" customWidth="1" style="1" min="8" max="8"/>
+    <col width="17.69140625" customWidth="1" style="1" min="9" max="9"/>
+    <col width="16.69140625" customWidth="1" style="1" min="10" max="10"/>
+    <col width="9.23046875" customWidth="1" style="1" min="11" max="26"/>
+    <col width="9.23046875" customWidth="1" style="1" min="27" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" s="11" t="inlineStr">
+        <is>
+          <t>PAROHIA DOMUS - VOLUNTARI</t>
+        </is>
+      </c>
+      <c r="B1" s="11" t="n"/>
+      <c r="C1" s="11" t="n"/>
+      <c r="D1" s="12" t="n"/>
+      <c r="E1" s="12" t="n"/>
+      <c r="F1" s="12" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>REGISTRU LUMANARI \ COLPORTAJ PANGAR</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="n"/>
+      <c r="C2" s="11" t="n"/>
+      <c r="D2" s="12" t="n"/>
+      <c r="E2" s="12" t="n"/>
+      <c r="F2" s="12" t="inlineStr">
+        <is>
+          <t>DATA: 11 FEB 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="14.15" customHeight="1" thickBot="1"/>
+    <row r="5" ht="30" customHeight="1" thickBot="1" thickTop="1">
+      <c r="A5" s="17" t="inlineStr">
+        <is>
+          <t>TIP PRODUS</t>
+        </is>
+      </c>
+      <c r="B5" s="17" t="inlineStr">
+        <is>
+          <t>INTRARI</t>
+        </is>
+      </c>
+      <c r="C5" s="18" t="n"/>
+      <c r="D5" s="18" t="n"/>
+      <c r="E5" s="18" t="n"/>
+      <c r="F5" s="19" t="n"/>
+      <c r="G5" s="17" t="inlineStr">
+        <is>
+          <t>IESIRI</t>
+        </is>
+      </c>
+      <c r="H5" s="19" t="n"/>
+      <c r="I5" s="17" t="inlineStr">
+        <is>
+          <t>STOCURI</t>
+        </is>
+      </c>
+      <c r="J5" s="19" t="n"/>
+    </row>
+    <row r="6" ht="30.55" customHeight="1" thickBot="1" thickTop="1">
+      <c r="A6" s="20" t="n"/>
+      <c r="B6" s="17" t="inlineStr">
+        <is>
+          <t>Cantitate</t>
+        </is>
+      </c>
+      <c r="C6" s="22" t="n"/>
+      <c r="D6" s="17" t="inlineStr">
+        <is>
+          <t>U.M.</t>
+        </is>
+      </c>
+      <c r="E6" s="17" t="inlineStr">
+        <is>
+          <t>Pret unitar</t>
+        </is>
+      </c>
+      <c r="F6" s="17" t="inlineStr">
+        <is>
+          <t>Valoare totala</t>
+        </is>
+      </c>
+      <c r="G6" s="17" t="inlineStr">
+        <is>
+          <t>Cantitate</t>
+        </is>
+      </c>
+      <c r="H6" s="17" t="inlineStr">
+        <is>
+          <t>Valoare totala</t>
+        </is>
+      </c>
+      <c r="I6" s="17" t="inlineStr">
+        <is>
+          <t>Cantitate</t>
+        </is>
+      </c>
+      <c r="J6" s="17" t="inlineStr">
+        <is>
+          <t>Valoare</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="24.9" customHeight="1" thickBot="1" thickTop="1">
+      <c r="A7" s="20" t="n"/>
+      <c r="B7" s="23" t="n"/>
+      <c r="C7" s="24" t="n"/>
+      <c r="D7" s="20" t="n"/>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>(col. 4 x (col. 1+2)</t>
+        </is>
+      </c>
+      <c r="G7" s="20" t="n"/>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>(col. 3 x col. 5)</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>(col. (1+2) - col. 6)</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>(col. 3 x col. 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="29.15" customHeight="1" thickBot="1" thickTop="1">
+      <c r="A8" s="21" t="n"/>
+      <c r="B8" s="17" t="inlineStr">
+        <is>
+          <t>Adaugat</t>
+        </is>
+      </c>
+      <c r="C8" s="17" t="inlineStr">
+        <is>
+          <t>Anterior</t>
+        </is>
+      </c>
+      <c r="D8" s="21" t="n"/>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>~ LEI ~</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>~ LEI ~</t>
+        </is>
+      </c>
+      <c r="G8" s="21" t="n"/>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
+          <t>~ LEI ~</t>
+        </is>
+      </c>
+      <c r="I8" s="17" t="n"/>
+      <c r="J8" s="4" t="inlineStr">
+        <is>
+          <t>~ LEI ~</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="24" customHeight="1" thickBot="1" thickTop="1">
+      <c r="A9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>Lumanari 100B</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>buc.</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F10" s="8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="H10" s="8" t="n">
+        <v>1100</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="J10" s="8" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="11" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>Lumanari C20</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>buc.</t>
+        </is>
+      </c>
+      <c r="E11" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="F11" s="8" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G11" s="6" t="n"/>
+      <c r="H11" s="8" t="n"/>
+      <c r="I11" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J11" s="8" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="12" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>Candele tip 0</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="n">
+        <v>250</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>220</v>
+      </c>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>buc.</t>
+        </is>
+      </c>
+      <c r="E12" s="8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="8" t="n">
+        <v>705</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" s="8" t="n">
+        <v>45</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>440</v>
+      </c>
+      <c r="J12" s="8" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="13" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>Candele tip 1</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="n">
+        <v>125</v>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>buc.</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" s="8" t="n">
+        <v>820</v>
+      </c>
+      <c r="G13" s="6" t="n"/>
+      <c r="H13" s="8" t="n"/>
+      <c r="I13" s="6" t="n">
+        <v>205</v>
+      </c>
+      <c r="J13" s="8" t="n">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="14" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>Candele tip 2</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="6" t="n">
+        <v>115</v>
+      </c>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>buc.</t>
+        </is>
+      </c>
+      <c r="E14" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8" t="n">
+        <v>920</v>
+      </c>
+      <c r="G14" s="6" t="n"/>
+      <c r="H14" s="8" t="n"/>
+      <c r="I14" s="6" t="n">
+        <v>115</v>
+      </c>
+      <c r="J14" s="8" t="n">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="15" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>Candele tip 3</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="6" t="n">
+        <v>70</v>
+      </c>
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>buc.</t>
+        </is>
+      </c>
+      <c r="E15" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" s="8" t="n">
+        <v>700</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="H15" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="J15" s="8" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>Candele tip 4</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D16" s="6" t="inlineStr">
+        <is>
+          <t>buc.</t>
+        </is>
+      </c>
+      <c r="E16" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="F16" s="8" t="n">
+        <v>828</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" s="8" t="n">
+        <v>72</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="J16" s="8" t="n">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="17" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">COLPORTAJ </t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="6" t="n"/>
+      <c r="D17" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E17" s="6" t="n"/>
+      <c r="F17" s="6" t="n"/>
+      <c r="G17" s="6" t="n"/>
+      <c r="H17" s="6" t="n"/>
+      <c r="I17" s="6" t="n"/>
+      <c r="J17" s="6" t="n"/>
+    </row>
+    <row r="18" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D18" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="n"/>
+      <c r="F18" s="8" t="n">
+        <v>10573</v>
+      </c>
+      <c r="G18" s="8" t="n"/>
+      <c r="H18" s="8" t="n">
+        <v>1317</v>
+      </c>
+      <c r="I18" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J18" s="8" t="n">
+        <v>9256</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="D6:D8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23046875" defaultRowHeight="13.75" outlineLevelCol="0"/>
+  <cols>
+    <col width="17.3828125" customWidth="1" style="1" min="1" max="1"/>
+    <col width="10.53515625" customWidth="1" style="1" min="2" max="2"/>
+    <col width="9.69140625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="9.23046875" customWidth="1" style="1" min="4" max="4"/>
+    <col width="12.07421875" customWidth="1" style="1" min="5" max="5"/>
+    <col width="16.61328125" customWidth="1" style="1" min="6" max="6"/>
+    <col width="10.921875" customWidth="1" style="1" min="7" max="7"/>
+    <col width="17.23046875" customWidth="1" style="1" min="8" max="8"/>
+    <col width="17.69140625" customWidth="1" style="1" min="9" max="9"/>
+    <col width="16.69140625" customWidth="1" style="1" min="10" max="10"/>
+    <col width="9.23046875" customWidth="1" style="1" min="11" max="26"/>
+    <col width="9.23046875" customWidth="1" style="1" min="27" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" s="11" t="inlineStr">
+        <is>
+          <t>PAROHIA DOMUS - VOLUNTARI</t>
+        </is>
+      </c>
+      <c r="B1" s="11" t="n"/>
+      <c r="C1" s="11" t="n"/>
+      <c r="D1" s="12" t="n"/>
+      <c r="E1" s="12" t="n"/>
+      <c r="F1" s="12" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>REGISTRU LUMANARI \ COLPORTAJ PANGAR</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="n"/>
+      <c r="C2" s="11" t="n"/>
+      <c r="D2" s="12" t="n"/>
+      <c r="E2" s="12" t="n"/>
+      <c r="F2" s="12" t="inlineStr">
+        <is>
+          <t>DATA: 18 FEB 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="14.15" customHeight="1" thickBot="1"/>
+    <row r="5" ht="30" customHeight="1" thickBot="1" thickTop="1">
+      <c r="A5" s="17" t="inlineStr">
+        <is>
+          <t>TIP PRODUS</t>
+        </is>
+      </c>
+      <c r="B5" s="17" t="inlineStr">
+        <is>
+          <t>INTRARI</t>
+        </is>
+      </c>
+      <c r="C5" s="18" t="n"/>
+      <c r="D5" s="18" t="n"/>
+      <c r="E5" s="18" t="n"/>
+      <c r="F5" s="19" t="n"/>
+      <c r="G5" s="17" t="inlineStr">
+        <is>
+          <t>IESIRI</t>
+        </is>
+      </c>
+      <c r="H5" s="19" t="n"/>
+      <c r="I5" s="17" t="inlineStr">
+        <is>
+          <t>STOCURI</t>
+        </is>
+      </c>
+      <c r="J5" s="19" t="n"/>
+    </row>
+    <row r="6" ht="30.55" customHeight="1" thickBot="1" thickTop="1">
+      <c r="A6" s="20" t="n"/>
+      <c r="B6" s="17" t="inlineStr">
+        <is>
+          <t>Cantitate</t>
+        </is>
+      </c>
+      <c r="C6" s="22" t="n"/>
+      <c r="D6" s="17" t="inlineStr">
+        <is>
+          <t>U.M.</t>
+        </is>
+      </c>
+      <c r="E6" s="17" t="inlineStr">
+        <is>
+          <t>Pret unitar</t>
+        </is>
+      </c>
+      <c r="F6" s="17" t="inlineStr">
+        <is>
+          <t>Valoare totala</t>
+        </is>
+      </c>
+      <c r="G6" s="17" t="inlineStr">
+        <is>
+          <t>Cantitate</t>
+        </is>
+      </c>
+      <c r="H6" s="17" t="inlineStr">
+        <is>
+          <t>Valoare totala</t>
+        </is>
+      </c>
+      <c r="I6" s="17" t="inlineStr">
+        <is>
+          <t>Cantitate</t>
+        </is>
+      </c>
+      <c r="J6" s="17" t="inlineStr">
+        <is>
+          <t>Valoare</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="24.9" customHeight="1" thickBot="1" thickTop="1">
+      <c r="A7" s="20" t="n"/>
+      <c r="B7" s="23" t="n"/>
+      <c r="C7" s="24" t="n"/>
+      <c r="D7" s="20" t="n"/>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>(col. 4 x (col. 1+2)</t>
+        </is>
+      </c>
+      <c r="G7" s="20" t="n"/>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>(col. 3 x col. 5)</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>(col. (1+2) - col. 6)</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>(col. 3 x col. 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="29.15" customHeight="1" thickBot="1" thickTop="1">
+      <c r="A8" s="21" t="n"/>
+      <c r="B8" s="17" t="inlineStr">
+        <is>
+          <t>Adaugat</t>
+        </is>
+      </c>
+      <c r="C8" s="17" t="inlineStr">
+        <is>
+          <t>Anterior</t>
+        </is>
+      </c>
+      <c r="D8" s="21" t="n"/>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>~ LEI ~</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>~ LEI ~</t>
+        </is>
+      </c>
+      <c r="G8" s="21" t="n"/>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
+          <t>~ LEI ~</t>
+        </is>
+      </c>
+      <c r="I8" s="17" t="n"/>
+      <c r="J8" s="4" t="inlineStr">
+        <is>
+          <t>~ LEI ~</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="24" customHeight="1" thickBot="1" thickTop="1">
+      <c r="A9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>Lumanari 100B</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n"/>
+      <c r="C10" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>buc.</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F10" s="8" t="n">
+        <v>3900</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="H10" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="J10" s="8" t="n">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="11" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>Lumanari C20</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>buc.</t>
+        </is>
+      </c>
+      <c r="E11" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="F11" s="8" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="J11" s="8" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="12" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>Candele tip 0</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="6" t="n">
+        <v>440</v>
+      </c>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>buc.</t>
+        </is>
+      </c>
+      <c r="E12" s="8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="8" t="n">
+        <v>660</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="H12" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>400</v>
+      </c>
+      <c r="J12" s="8" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>Candele tip 1</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="n"/>
+      <c r="C13" s="6" t="n">
+        <v>205</v>
+      </c>
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>buc.</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" s="8" t="n">
+        <v>820</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="H13" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>195</v>
+      </c>
+      <c r="J13" s="8" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="14" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>Candele tip 2</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="6" t="n">
+        <v>115</v>
+      </c>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>buc.</t>
+        </is>
+      </c>
+      <c r="E14" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8" t="n">
+        <v>920</v>
+      </c>
+      <c r="G14" s="6" t="n"/>
+      <c r="H14" s="8" t="n"/>
+      <c r="I14" s="6" t="n">
+        <v>115</v>
+      </c>
+      <c r="J14" s="8" t="n">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="15" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>Candele tip 3</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>buc.</t>
+        </is>
+      </c>
+      <c r="E15" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" s="8" t="n">
+        <v>600</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="H15" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="J15" s="8" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>Candele tip 4</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="D16" s="6" t="inlineStr">
+        <is>
+          <t>buc.</t>
+        </is>
+      </c>
+      <c r="E16" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="F16" s="8" t="n">
+        <v>756</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="H16" s="8" t="n">
+        <v>108</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="J16" s="8" t="n">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="17" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">COLPORTAJ </t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="6" t="n"/>
+      <c r="D17" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E17" s="6" t="n"/>
+      <c r="F17" s="6" t="n"/>
+      <c r="G17" s="6" t="n"/>
+      <c r="H17" s="6" t="n"/>
+      <c r="I17" s="6" t="n"/>
+      <c r="J17" s="6" t="n"/>
+    </row>
+    <row r="18" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D18" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="n"/>
+      <c r="F18" s="8" t="n">
+        <v>9256</v>
+      </c>
+      <c r="G18" s="8" t="n"/>
+      <c r="H18" s="8" t="n">
+        <v>1508</v>
+      </c>
+      <c r="I18" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J18" s="8" t="n">
+        <v>7748</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="D6:D8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23046875" defaultRowHeight="13.75"/>
+  <cols>
+    <col width="17.3828125" customWidth="1" style="1" min="1" max="1"/>
+    <col width="10.53515625" customWidth="1" style="1" min="2" max="2"/>
+    <col width="9.69140625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="9.23046875" customWidth="1" style="1" min="4" max="4"/>
+    <col width="12.07421875" customWidth="1" style="1" min="5" max="5"/>
+    <col width="16.61328125" customWidth="1" style="1" min="6" max="6"/>
+    <col width="10.921875" customWidth="1" style="1" min="7" max="7"/>
+    <col width="17.23046875" customWidth="1" style="1" min="8" max="8"/>
+    <col width="17.69140625" customWidth="1" style="1" min="9" max="9"/>
+    <col width="16.69140625" customWidth="1" style="1" min="10" max="10"/>
+    <col width="9.23046875" customWidth="1" style="1" min="11" max="26"/>
+    <col width="9.23046875" customWidth="1" style="1" min="27" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" s="11" t="inlineStr">
+        <is>
+          <t>PAROHIA DOMUS - VOLUNTARI</t>
+        </is>
+      </c>
+      <c r="B1" s="11" t="n"/>
+      <c r="C1" s="11" t="n"/>
+      <c r="D1" s="12" t="n"/>
+      <c r="E1" s="12" t="n"/>
+      <c r="F1" s="12" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>REGISTRU LUMANARI \ COLPORTAJ PANGAR</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="n"/>
+      <c r="C2" s="11" t="n"/>
+      <c r="D2" s="12" t="n"/>
+      <c r="E2" s="12" t="n"/>
+      <c r="F2" s="12" t="inlineStr">
+        <is>
+          <t>DATA: 25 FEB 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="14.15" customHeight="1" thickBot="1"/>
+    <row r="5" ht="30" customHeight="1" thickBot="1" thickTop="1">
+      <c r="A5" s="17" t="inlineStr">
+        <is>
+          <t>TIP PRODUS</t>
+        </is>
+      </c>
+      <c r="B5" s="17" t="inlineStr">
+        <is>
+          <t>INTRARI</t>
+        </is>
+      </c>
+      <c r="C5" s="18" t="n"/>
+      <c r="D5" s="18" t="n"/>
+      <c r="E5" s="18" t="n"/>
+      <c r="F5" s="19" t="n"/>
+      <c r="G5" s="17" t="inlineStr">
+        <is>
+          <t>IESIRI</t>
+        </is>
+      </c>
+      <c r="H5" s="19" t="n"/>
+      <c r="I5" s="17" t="inlineStr">
+        <is>
+          <t>STOCURI</t>
+        </is>
+      </c>
+      <c r="J5" s="19" t="n"/>
+    </row>
+    <row r="6" ht="30.55" customHeight="1" thickBot="1" thickTop="1">
+      <c r="A6" s="20" t="n"/>
+      <c r="B6" s="17" t="inlineStr">
+        <is>
+          <t>Cantitate</t>
+        </is>
+      </c>
+      <c r="C6" s="22" t="n"/>
+      <c r="D6" s="17" t="inlineStr">
+        <is>
+          <t>U.M.</t>
+        </is>
+      </c>
+      <c r="E6" s="17" t="inlineStr">
+        <is>
+          <t>Pret unitar</t>
+        </is>
+      </c>
+      <c r="F6" s="17" t="inlineStr">
+        <is>
+          <t>Valoare totala</t>
+        </is>
+      </c>
+      <c r="G6" s="17" t="inlineStr">
+        <is>
+          <t>Cantitate</t>
+        </is>
+      </c>
+      <c r="H6" s="17" t="inlineStr">
+        <is>
+          <t>Valoare totala</t>
+        </is>
+      </c>
+      <c r="I6" s="17" t="inlineStr">
+        <is>
+          <t>Cantitate</t>
+        </is>
+      </c>
+      <c r="J6" s="17" t="inlineStr">
+        <is>
+          <t>Valoare</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="24.9" customHeight="1" thickBot="1" thickTop="1">
+      <c r="A7" s="20" t="n"/>
+      <c r="B7" s="23" t="n"/>
+      <c r="C7" s="24" t="n"/>
+      <c r="D7" s="20" t="n"/>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>(col. 4 x (col. 1+2)</t>
+        </is>
+      </c>
+      <c r="G7" s="20" t="n"/>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>(col. 3 x col. 5)</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>(col. (1+2) - col. 6)</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>(col. 3 x col. 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="29.15" customHeight="1" thickBot="1" thickTop="1">
+      <c r="A8" s="21" t="n"/>
+      <c r="B8" s="17" t="inlineStr">
+        <is>
+          <t>Adaugat</t>
+        </is>
+      </c>
+      <c r="C8" s="17" t="inlineStr">
+        <is>
+          <t>Anterior</t>
+        </is>
+      </c>
+      <c r="D8" s="21" t="n"/>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>~ LEI ~</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>~ LEI ~</t>
+        </is>
+      </c>
+      <c r="G8" s="21" t="n"/>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
+          <t>~ LEI ~</t>
+        </is>
+      </c>
+      <c r="I8" s="17" t="n"/>
+      <c r="J8" s="4" t="inlineStr">
+        <is>
+          <t>~ LEI ~</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="24" customHeight="1" thickBot="1" thickTop="1">
+      <c r="A9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>Lumanari 100B</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n"/>
+      <c r="C10" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>buc.</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F10" s="8" t="n">
+        <v>2900</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="H10" s="8" t="n">
+        <v>1100</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="J10" s="8" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="11" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>Lumanari C20</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>buc.</t>
+        </is>
+      </c>
+      <c r="E11" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="F11" s="8" t="n">
+        <v>1400</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="8" t="n">
+        <v>400</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" s="8" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>Candele tip 0</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="6" t="n">
+        <v>400</v>
+      </c>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>buc.</t>
+        </is>
+      </c>
+      <c r="E12" s="8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="8" t="n">
+        <v>600</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="H12" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>360</v>
+      </c>
+      <c r="J12" s="8" t="n">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="13" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>Candele tip 1</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="n"/>
+      <c r="C13" s="6" t="n">
+        <v>195</v>
+      </c>
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>buc.</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" s="8" t="n">
+        <v>780</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="H13" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>180</v>
+      </c>
+      <c r="J13" s="8" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="14" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>Candele tip 2</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="6" t="n">
+        <v>115</v>
+      </c>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>buc.</t>
+        </is>
+      </c>
+      <c r="E14" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8" t="n">
+        <v>920</v>
+      </c>
+      <c r="G14" s="6" t="n"/>
+      <c r="H14" s="8" t="n"/>
+      <c r="I14" s="6" t="n">
+        <v>115</v>
+      </c>
+      <c r="J14" s="8" t="n">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="15" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>Candele tip 3</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>buc.</t>
+        </is>
+      </c>
+      <c r="E15" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" s="8" t="n">
+        <v>500</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="H15" s="8" t="n">
+        <v>150</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="J15" s="8" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="16" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>Candele tip 4</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="D16" s="6" t="inlineStr">
+        <is>
+          <t>buc.</t>
+        </is>
+      </c>
+      <c r="E16" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="F16" s="8" t="n">
+        <v>648</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="H16" s="8" t="n">
+        <v>180</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="J16" s="8" t="n">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="17" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">COLPORTAJ </t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="6" t="n"/>
+      <c r="D17" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E17" s="6" t="n"/>
+      <c r="F17" s="6" t="n"/>
+      <c r="G17" s="6" t="n"/>
+      <c r="H17" s="6" t="n"/>
+      <c r="I17" s="6" t="n"/>
+      <c r="J17" s="6" t="n"/>
+    </row>
+    <row r="18" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D18" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="n"/>
+      <c r="F18" s="8" t="n">
+        <v>7748</v>
+      </c>
+      <c r="G18" s="8" t="n"/>
+      <c r="H18" s="8" t="n">
+        <v>1950</v>
+      </c>
+      <c r="I18" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J18" s="8" t="n">
+        <v>5798</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="D6:D8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
 </file>
--- a/excel/REG.xlsx
+++ b/excel/REG.xlsx
@@ -729,8 +729,8 @@
   </sheetPr>
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W23" activeCellId="0" sqref="W23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I26" activeCellId="0" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -983,34 +983,34 @@
         <v>6100</v>
       </c>
       <c r="N10" s="13" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O10" s="14" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="P10" s="13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="14" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="R10" s="13" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="S10" s="14" t="n">
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="T10" s="13" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="U10" s="14" t="n">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="V10" s="13" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="W10" s="14" t="n">
-        <v>0</v>
+        <v>6700</v>
       </c>
       <c r="X10" s="13" t="n">
         <v>0</v>
@@ -1060,34 +1060,34 @@
         <v>1200</v>
       </c>
       <c r="N11" s="13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O11" s="14" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="P11" s="13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q11" s="14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R11" s="13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S11" s="14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T11" s="13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U11" s="14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V11" s="13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W11" s="14" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="X11" s="13" t="n">
         <v>0</v>
@@ -1137,34 +1137,34 @@
         <v>345</v>
       </c>
       <c r="N12" s="13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O12" s="14" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="P12" s="13" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q12" s="14" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R12" s="13" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S12" s="14" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="T12" s="13" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U12" s="14" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="V12" s="13" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="W12" s="14" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="X12" s="13" t="n">
         <v>0</v>
@@ -1214,34 +1214,34 @@
         <v>120</v>
       </c>
       <c r="N13" s="13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O13" s="14" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P13" s="13" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="14" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="R13" s="13" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="S13" s="14" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="T13" s="13" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="U13" s="14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V13" s="13" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W13" s="14" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="X13" s="13" t="n">
         <v>0</v>
@@ -1297,28 +1297,28 @@
         <v>0</v>
       </c>
       <c r="P14" s="13" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q14" s="14" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="R14" s="13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S14" s="14" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="T14" s="13" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U14" s="14" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="V14" s="13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W14" s="14" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="X14" s="13" t="n">
         <v>0</v>
@@ -1368,34 +1368,34 @@
         <v>450</v>
       </c>
       <c r="N15" s="13" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O15" s="14" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P15" s="13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q15" s="14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R15" s="13" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="S15" s="14" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="T15" s="13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U15" s="14" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="V15" s="13" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="W15" s="14" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="X15" s="13" t="n">
         <v>0</v>
@@ -1445,34 +1445,34 @@
         <v>684</v>
       </c>
       <c r="N16" s="13" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O16" s="14" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="P16" s="13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q16" s="14" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="R16" s="13" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="S16" s="14" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="T16" s="13" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U16" s="14" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="V16" s="13" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="W16" s="14" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="X16" s="13" t="n">
         <v>0</v>
@@ -1971,25 +1971,25 @@
       <c r="M23" s="14" t="n">
         <v>8979</v>
       </c>
-      <c r="N23" s="11"/>
+      <c r="N23" s="13"/>
       <c r="O23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" s="11"/>
+        <v>4440</v>
+      </c>
+      <c r="P23" s="13"/>
       <c r="Q23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" s="11"/>
+        <v>7230</v>
+      </c>
+      <c r="R23" s="13"/>
       <c r="S23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" s="11"/>
+        <v>7980</v>
+      </c>
+      <c r="T23" s="13"/>
       <c r="U23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" s="11"/>
+        <v>7720</v>
+      </c>
+      <c r="V23" s="13"/>
       <c r="W23" s="14" t="n">
-        <v>0</v>
+        <v>9650</v>
       </c>
       <c r="X23" s="11"/>
       <c r="Y23" s="15" t="n">
@@ -2031,8 +2031,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="W23 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2549,8 +2549,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="W23 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3079,8 +3079,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="W23 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3601,8 +3601,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="W23 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4119,8 +4119,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="W23 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4629,8 +4629,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="W23 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5153,8 +5153,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="W23 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5677,8 +5677,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="W23 A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6191,8 +6191,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="W23 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6703,8 +6703,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="W23 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7221,8 +7221,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="W23 B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7740,8 +7740,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="W23 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8246,8 +8246,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="W23 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8744,8 +8744,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="W23 A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9258,8 +9258,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="W23 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9776,8 +9776,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O5" activeCellId="1" sqref="W23 O5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O5" activeCellId="0" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10290,8 +10290,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="1" sqref="W23 I16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10796,8 +10796,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="1" sqref="W23 G10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11302,8 +11302,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="1" sqref="W23 F23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11830,8 +11830,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L13" activeCellId="1" sqref="W23 L13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12340,8 +12340,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="W23 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12652,12 +12652,8 @@
       <c r="F14" s="21" t="n">
         <v>1120</v>
       </c>
-      <c r="G14" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="12" t="n">
         <v>140</v>
       </c>
@@ -12669,9 +12665,7 @@
       <c r="A15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B15" s="12"/>
       <c r="C15" s="12" t="n">
         <v>30</v>
       </c>
@@ -12755,17 +12749,11 @@
         <v>48</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="12" t="n">
-        <v>53685</v>
-      </c>
+      <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="12" t="n">
-        <v>7300</v>
-      </c>
+      <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="12" t="n">
-        <v>46385</v>
-      </c>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
@@ -12842,17 +12830,17 @@
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21" t="n">
-        <v>5335</v>
+        <v>10737</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21" t="n">
-        <v>2143</v>
+        <v>1460</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>49</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>3192</v>
+        <v>9277</v>
       </c>
     </row>
   </sheetData>
@@ -12882,8 +12870,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="1" sqref="W23 I10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13392,8 +13380,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="W23 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13561,9 +13549,7 @@
       <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B10" s="12"/>
       <c r="C10" s="12" t="n">
         <v>49</v>
       </c>
@@ -13593,9 +13579,7 @@
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B11" s="12"/>
       <c r="C11" s="12" t="n">
         <v>5</v>
       </c>
@@ -13625,9 +13609,7 @@
       <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B12" s="12"/>
       <c r="C12" s="12" t="n">
         <v>250</v>
       </c>
@@ -13640,12 +13622,8 @@
       <c r="F12" s="21" t="n">
         <v>375</v>
       </c>
-      <c r="G12" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="12" t="n">
         <v>250</v>
       </c>
@@ -13657,9 +13635,7 @@
       <c r="A13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B13" s="12"/>
       <c r="C13" s="12" t="n">
         <v>155</v>
       </c>
@@ -13672,12 +13648,8 @@
       <c r="F13" s="21" t="n">
         <v>620</v>
       </c>
-      <c r="G13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="12" t="n">
         <v>155</v>
       </c>
@@ -13689,9 +13661,7 @@
       <c r="A14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B14" s="12"/>
       <c r="C14" s="12" t="n">
         <v>140</v>
       </c>
@@ -13704,12 +13674,8 @@
       <c r="F14" s="21" t="n">
         <v>1120</v>
       </c>
-      <c r="G14" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="12" t="n">
         <v>140</v>
       </c>
@@ -13721,9 +13687,7 @@
       <c r="A15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B15" s="12"/>
       <c r="C15" s="12" t="n">
         <v>20</v>
       </c>
@@ -13736,12 +13700,8 @@
       <c r="F15" s="21" t="n">
         <v>200</v>
       </c>
-      <c r="G15" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="21"/>
       <c r="I15" s="12" t="n">
         <v>20</v>
       </c>
@@ -13753,9 +13713,7 @@
       <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B16" s="12"/>
       <c r="C16" s="12" t="n">
         <v>59</v>
       </c>
@@ -13807,17 +13765,11 @@
         <v>48</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="12" t="n">
-        <v>46385</v>
-      </c>
+      <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="12" t="n">
-        <v>8400</v>
-      </c>
+      <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="12" t="n">
-        <v>37985</v>
-      </c>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
@@ -13894,17 +13846,17 @@
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21" t="n">
-        <v>5335</v>
+        <v>9277</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21" t="n">
-        <v>2143</v>
+        <v>1680</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>49</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>3192</v>
+        <v>7597</v>
       </c>
     </row>
   </sheetData>
@@ -13934,8 +13886,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="W23 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14103,9 +14055,7 @@
       <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B10" s="12"/>
       <c r="C10" s="12" t="n">
         <v>36</v>
       </c>
@@ -14135,9 +14085,7 @@
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B11" s="12"/>
       <c r="C11" s="12" t="n">
         <v>4</v>
       </c>
@@ -14167,9 +14115,7 @@
       <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B12" s="12"/>
       <c r="C12" s="12" t="n">
         <v>250</v>
       </c>
@@ -14182,12 +14128,8 @@
       <c r="F12" s="21" t="n">
         <v>375</v>
       </c>
-      <c r="G12" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="12" t="n">
         <v>250</v>
       </c>
@@ -14199,9 +14141,7 @@
       <c r="A13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B13" s="12"/>
       <c r="C13" s="12" t="n">
         <v>155</v>
       </c>
@@ -14214,12 +14154,8 @@
       <c r="F13" s="21" t="n">
         <v>620</v>
       </c>
-      <c r="G13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="12" t="n">
         <v>155</v>
       </c>
@@ -14231,9 +14167,7 @@
       <c r="A14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B14" s="12"/>
       <c r="C14" s="12" t="n">
         <v>140</v>
       </c>
@@ -14246,12 +14180,8 @@
       <c r="F14" s="21" t="n">
         <v>1120</v>
       </c>
-      <c r="G14" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="12" t="n">
         <v>140</v>
       </c>
@@ -14263,9 +14193,7 @@
       <c r="A15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B15" s="12"/>
       <c r="C15" s="12" t="n">
         <v>20</v>
       </c>
@@ -14295,9 +14223,7 @@
       <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B16" s="12"/>
       <c r="C16" s="12" t="n">
         <v>49</v>
       </c>
@@ -14310,12 +14236,8 @@
       <c r="F16" s="21" t="n">
         <v>882</v>
       </c>
-      <c r="G16" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="21"/>
       <c r="I16" s="12" t="n">
         <v>49</v>
       </c>
@@ -14349,17 +14271,11 @@
         <v>48</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="12" t="n">
-        <v>37985</v>
-      </c>
+      <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="12" t="n">
-        <v>6500</v>
-      </c>
+      <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="12" t="n">
-        <v>31485</v>
-      </c>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
@@ -14436,17 +14352,17 @@
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21" t="n">
-        <v>5335</v>
+        <v>7597</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21" t="n">
-        <v>2143</v>
+        <v>1300</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>49</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>3192</v>
+        <v>6297</v>
       </c>
     </row>
   </sheetData>
@@ -14476,8 +14392,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="W23 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14692,12 +14608,8 @@
       <c r="F11" s="21" t="n">
         <v>2600</v>
       </c>
-      <c r="G11" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="21"/>
       <c r="I11" s="12" t="n">
         <v>13</v>
       </c>
@@ -14709,9 +14621,7 @@
       <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B12" s="12"/>
       <c r="C12" s="12" t="n">
         <v>250</v>
       </c>
@@ -14741,9 +14651,7 @@
       <c r="A13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B13" s="12"/>
       <c r="C13" s="12" t="n">
         <v>155</v>
       </c>
@@ -14773,9 +14681,7 @@
       <c r="A14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B14" s="12"/>
       <c r="C14" s="12" t="n">
         <v>140</v>
       </c>
@@ -14805,9 +14711,7 @@
       <c r="A15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B15" s="12"/>
       <c r="C15" s="12" t="n">
         <v>10</v>
       </c>
@@ -14826,20 +14730,14 @@
       <c r="H15" s="21" t="n">
         <v>100</v>
       </c>
-      <c r="I15" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B16" s="12"/>
       <c r="C16" s="12" t="n">
         <v>49</v>
       </c>
@@ -14891,17 +14789,11 @@
         <v>48</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="12" t="n">
-        <v>66485</v>
-      </c>
+      <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="12" t="n">
-        <v>5425</v>
-      </c>
+      <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="12" t="n">
-        <v>61060</v>
-      </c>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
@@ -14978,17 +14870,17 @@
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21" t="n">
-        <v>5335</v>
+        <v>13297</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21" t="n">
-        <v>2143</v>
+        <v>1085</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>49</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>3192</v>
+        <v>12212</v>
       </c>
     </row>
   </sheetData>
@@ -15018,8 +14910,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="W23 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15187,9 +15079,7 @@
       <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B10" s="12"/>
       <c r="C10" s="12" t="n">
         <v>69</v>
       </c>
@@ -15219,9 +15109,7 @@
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B11" s="12"/>
       <c r="C11" s="12" t="n">
         <v>13</v>
       </c>
@@ -15251,9 +15139,7 @@
       <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B12" s="12"/>
       <c r="C12" s="12" t="n">
         <v>200</v>
       </c>
@@ -15283,9 +15169,7 @@
       <c r="A13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B13" s="12"/>
       <c r="C13" s="12" t="n">
         <v>145</v>
       </c>
@@ -15315,9 +15199,7 @@
       <c r="A14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B14" s="12"/>
       <c r="C14" s="12" t="n">
         <v>130</v>
       </c>
@@ -15347,41 +15229,25 @@
       <c r="A15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="F15" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B16" s="12"/>
       <c r="C16" s="12" t="n">
         <v>44</v>
       </c>
@@ -15433,17 +15299,11 @@
         <v>48</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="12" t="n">
-        <v>61060</v>
-      </c>
+      <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="12" t="n">
-        <v>6925</v>
-      </c>
+      <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="12" t="n">
-        <v>54135</v>
-      </c>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
@@ -15520,17 +15380,17 @@
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21" t="n">
-        <v>5335</v>
+        <v>12212</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21" t="n">
-        <v>2143</v>
+        <v>1385</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>49</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>3192</v>
+        <v>10827</v>
       </c>
     </row>
   </sheetData>
@@ -15560,8 +15420,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="W23 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15729,9 +15589,7 @@
       <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B10" s="12"/>
       <c r="C10" s="12" t="n">
         <v>60</v>
       </c>
@@ -15761,9 +15619,7 @@
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B11" s="12"/>
       <c r="C11" s="12" t="n">
         <v>12</v>
       </c>
@@ -15793,9 +15649,7 @@
       <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B12" s="12"/>
       <c r="C12" s="12" t="n">
         <v>150</v>
       </c>
@@ -15825,9 +15679,7 @@
       <c r="A13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B13" s="12"/>
       <c r="C13" s="12" t="n">
         <v>135</v>
       </c>
@@ -15840,12 +15692,8 @@
       <c r="F13" s="21" t="n">
         <v>540</v>
       </c>
-      <c r="G13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="12" t="n">
         <v>135</v>
       </c>
@@ -15857,9 +15705,7 @@
       <c r="A14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B14" s="12"/>
       <c r="C14" s="12" t="n">
         <v>120</v>
       </c>
@@ -15872,12 +15718,8 @@
       <c r="F14" s="21" t="n">
         <v>960</v>
       </c>
-      <c r="G14" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="12" t="n">
         <v>120</v>
       </c>
@@ -15889,41 +15731,25 @@
       <c r="A15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="F15" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B16" s="12"/>
       <c r="C16" s="12" t="n">
         <v>39</v>
       </c>
@@ -15975,17 +15801,11 @@
         <v>48</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="12" t="n">
-        <v>54135</v>
-      </c>
+      <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="12" t="n">
-        <v>6325</v>
-      </c>
+      <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="12" t="n">
-        <v>47810</v>
-      </c>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
@@ -16062,17 +15882,17 @@
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21" t="n">
-        <v>5335</v>
+        <v>10827</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21" t="n">
-        <v>2143</v>
+        <v>1265</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>49</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>3192</v>
+        <v>9562</v>
       </c>
     </row>
   </sheetData>
@@ -16102,8 +15922,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="W23 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16271,9 +16091,7 @@
       <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B10" s="12"/>
       <c r="C10" s="12" t="n">
         <v>51</v>
       </c>
@@ -16303,9 +16121,7 @@
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B11" s="12"/>
       <c r="C11" s="12" t="n">
         <v>11</v>
       </c>
@@ -16335,9 +16151,7 @@
       <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B12" s="12"/>
       <c r="C12" s="12" t="n">
         <v>100</v>
       </c>
@@ -16367,9 +16181,7 @@
       <c r="A13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B13" s="12"/>
       <c r="C13" s="12" t="n">
         <v>135</v>
       </c>
@@ -16382,12 +16194,8 @@
       <c r="F13" s="21" t="n">
         <v>540</v>
       </c>
-      <c r="G13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="12" t="n">
         <v>135</v>
       </c>
@@ -16399,9 +16207,7 @@
       <c r="A14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B14" s="12"/>
       <c r="C14" s="12" t="n">
         <v>120</v>
       </c>
@@ -16414,12 +16220,8 @@
       <c r="F14" s="21" t="n">
         <v>960</v>
       </c>
-      <c r="G14" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="12" t="n">
         <v>120</v>
       </c>
@@ -16431,41 +16233,25 @@
       <c r="A15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="F15" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B16" s="12"/>
       <c r="C16" s="12" t="n">
         <v>34</v>
       </c>
@@ -16478,12 +16264,8 @@
       <c r="F16" s="21" t="n">
         <v>612</v>
       </c>
-      <c r="G16" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="21"/>
       <c r="I16" s="12" t="n">
         <v>34</v>
       </c>
@@ -16517,17 +16299,11 @@
         <v>48</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="12" t="n">
-        <v>47810</v>
-      </c>
+      <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="12" t="n">
-        <v>6875</v>
-      </c>
+      <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="12" t="n">
-        <v>40935</v>
-      </c>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
@@ -16604,17 +16380,17 @@
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21" t="n">
-        <v>5335</v>
+        <v>9562</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21" t="n">
-        <v>2143</v>
+        <v>1375</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>49</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>3192</v>
+        <v>8187</v>
       </c>
     </row>
   </sheetData>
@@ -16644,8 +16420,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="W23 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16813,9 +16589,7 @@
       <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B10" s="12"/>
       <c r="C10" s="12" t="n">
         <v>42</v>
       </c>
@@ -16845,9 +16619,7 @@
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B11" s="12"/>
       <c r="C11" s="12" t="n">
         <v>9</v>
       </c>
@@ -16877,9 +16649,7 @@
       <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B12" s="12"/>
       <c r="C12" s="12" t="n">
         <v>50</v>
       </c>
@@ -16892,12 +16662,8 @@
       <c r="F12" s="21" t="n">
         <v>75</v>
       </c>
-      <c r="G12" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="12" t="n">
         <v>50</v>
       </c>
@@ -16909,9 +16675,7 @@
       <c r="A13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B13" s="12"/>
       <c r="C13" s="12" t="n">
         <v>135</v>
       </c>
@@ -16941,9 +16705,7 @@
       <c r="A14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B14" s="12"/>
       <c r="C14" s="12" t="n">
         <v>120</v>
       </c>
@@ -16973,41 +16735,25 @@
       <c r="A15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="F15" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B16" s="12"/>
       <c r="C16" s="12" t="n">
         <v>34</v>
       </c>
@@ -17020,12 +16766,8 @@
       <c r="F16" s="21" t="n">
         <v>612</v>
       </c>
-      <c r="G16" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="21"/>
       <c r="I16" s="12" t="n">
         <v>34</v>
       </c>
@@ -17059,17 +16801,11 @@
         <v>48</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="12" t="n">
-        <v>40935</v>
-      </c>
+      <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="12" t="n">
-        <v>10600</v>
-      </c>
+      <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="12" t="n">
-        <v>30335</v>
-      </c>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
@@ -17146,17 +16882,17 @@
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21" t="n">
-        <v>5335</v>
+        <v>8187</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21" t="n">
-        <v>2143</v>
+        <v>2120</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>49</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>3192</v>
+        <v>6067</v>
       </c>
     </row>
   </sheetData>
@@ -17187,7 +16923,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="W23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17387,9 +17123,7 @@
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B11" s="12"/>
       <c r="C11" s="12" t="n">
         <v>8</v>
       </c>
@@ -17402,12 +17136,8 @@
       <c r="F11" s="21" t="n">
         <v>1600</v>
       </c>
-      <c r="G11" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="21"/>
       <c r="I11" s="12" t="n">
         <v>8</v>
       </c>
@@ -17483,9 +17213,7 @@
       <c r="A14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B14" s="12"/>
       <c r="C14" s="12" t="n">
         <v>105</v>
       </c>
@@ -17498,12 +17226,8 @@
       <c r="F14" s="21" t="n">
         <v>840</v>
       </c>
-      <c r="G14" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="12" t="n">
         <v>105</v>
       </c>
@@ -17518,9 +17242,7 @@
       <c r="B15" s="12" t="n">
         <v>100</v>
       </c>
-      <c r="C15" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="C15" s="12"/>
       <c r="D15" s="12" t="s">
         <v>48</v>
       </c>
@@ -17530,12 +17252,8 @@
       <c r="F15" s="21" t="n">
         <v>1000</v>
       </c>
-      <c r="G15" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="21"/>
       <c r="I15" s="12" t="n">
         <v>100</v>
       </c>
@@ -17601,17 +17319,11 @@
         <v>48</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="12" t="n">
-        <v>71085</v>
-      </c>
+      <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="12" t="n">
-        <v>7775</v>
-      </c>
+      <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="12" t="n">
-        <v>63310</v>
-      </c>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
@@ -17688,17 +17400,17 @@
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21" t="n">
-        <v>5335</v>
+        <v>14217</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21" t="n">
-        <v>2143</v>
+        <v>1555</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>49</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>3192</v>
+        <v>12662</v>
       </c>
     </row>
   </sheetData>
@@ -17729,7 +17441,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="W23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17897,9 +17609,7 @@
       <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B10" s="12"/>
       <c r="C10" s="12" t="n">
         <v>64</v>
       </c>
@@ -17929,9 +17639,7 @@
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B11" s="12"/>
       <c r="C11" s="12" t="n">
         <v>8</v>
       </c>
@@ -17961,9 +17669,7 @@
       <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B12" s="12"/>
       <c r="C12" s="12" t="n">
         <v>500</v>
       </c>
@@ -17993,9 +17699,7 @@
       <c r="A13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B13" s="12"/>
       <c r="C13" s="12" t="n">
         <v>185</v>
       </c>
@@ -18025,9 +17729,7 @@
       <c r="A14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B14" s="12"/>
       <c r="C14" s="12" t="n">
         <v>105</v>
       </c>
@@ -18040,12 +17742,8 @@
       <c r="F14" s="21" t="n">
         <v>840</v>
       </c>
-      <c r="G14" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="12" t="n">
         <v>105</v>
       </c>
@@ -18057,9 +17755,7 @@
       <c r="A15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B15" s="12"/>
       <c r="C15" s="12" t="n">
         <v>100</v>
       </c>
@@ -18072,12 +17768,8 @@
       <c r="F15" s="21" t="n">
         <v>1000</v>
       </c>
-      <c r="G15" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="21"/>
       <c r="I15" s="12" t="n">
         <v>100</v>
       </c>
@@ -18089,9 +17781,7 @@
       <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B16" s="12"/>
       <c r="C16" s="12" t="n">
         <v>74</v>
       </c>
@@ -18104,12 +17794,8 @@
       <c r="F16" s="21" t="n">
         <v>1332</v>
       </c>
-      <c r="G16" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="21"/>
       <c r="I16" s="12" t="n">
         <v>74</v>
       </c>
@@ -18143,17 +17829,11 @@
         <v>48</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="12" t="n">
-        <v>63310</v>
-      </c>
+      <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="12" t="n">
-        <v>9175</v>
-      </c>
+      <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="12" t="n">
-        <v>54135</v>
-      </c>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
@@ -18230,17 +17910,17 @@
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21" t="n">
-        <v>5335</v>
+        <v>12662</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21" t="n">
-        <v>2143</v>
+        <v>1835</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>49</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>3192</v>
+        <v>10827</v>
       </c>
     </row>
   </sheetData>
@@ -18271,7 +17951,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="W23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18439,9 +18119,7 @@
       <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B10" s="12"/>
       <c r="C10" s="12" t="n">
         <v>51</v>
       </c>
@@ -18471,9 +18149,7 @@
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B11" s="12"/>
       <c r="C11" s="12" t="n">
         <v>6</v>
       </c>
@@ -18503,9 +18179,7 @@
       <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B12" s="12"/>
       <c r="C12" s="12" t="n">
         <v>450</v>
       </c>
@@ -18518,12 +18192,8 @@
       <c r="F12" s="21" t="n">
         <v>675</v>
       </c>
-      <c r="G12" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="12" t="n">
         <v>450</v>
       </c>
@@ -18535,9 +18205,7 @@
       <c r="A13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B13" s="12"/>
       <c r="C13" s="12" t="n">
         <v>170</v>
       </c>
@@ -18550,12 +18218,8 @@
       <c r="F13" s="21" t="n">
         <v>680</v>
       </c>
-      <c r="G13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="12" t="n">
         <v>170</v>
       </c>
@@ -18567,9 +18231,7 @@
       <c r="A14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B14" s="12"/>
       <c r="C14" s="12" t="n">
         <v>105</v>
       </c>
@@ -18599,9 +18261,7 @@
       <c r="A15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B15" s="12"/>
       <c r="C15" s="12" t="n">
         <v>100</v>
       </c>
@@ -18631,9 +18291,7 @@
       <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B16" s="12"/>
       <c r="C16" s="12" t="n">
         <v>74</v>
       </c>
@@ -18685,17 +18343,11 @@
         <v>48</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="12" t="n">
-        <v>54135</v>
-      </c>
+      <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="12" t="n">
-        <v>10750</v>
-      </c>
+      <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="12" t="n">
-        <v>43385</v>
-      </c>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
@@ -18772,17 +18424,17 @@
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21" t="n">
-        <v>5335</v>
+        <v>10827</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21" t="n">
-        <v>2143</v>
+        <v>2150</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>49</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>3192</v>
+        <v>8677</v>
       </c>
     </row>
   </sheetData>
@@ -18812,8 +18464,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="1" sqref="W23 E13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19343,7 +18995,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="W23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19511,9 +19163,7 @@
       <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B10" s="12"/>
       <c r="C10" s="12" t="n">
         <v>38</v>
       </c>
@@ -19543,9 +19193,7 @@
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B11" s="12"/>
       <c r="C11" s="12" t="n">
         <v>4</v>
       </c>
@@ -19575,9 +19223,7 @@
       <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B12" s="12"/>
       <c r="C12" s="12" t="n">
         <v>450</v>
       </c>
@@ -19607,9 +19253,7 @@
       <c r="A13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B13" s="12"/>
       <c r="C13" s="12" t="n">
         <v>170</v>
       </c>
@@ -19622,12 +19266,8 @@
       <c r="F13" s="21" t="n">
         <v>680</v>
       </c>
-      <c r="G13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="12" t="n">
         <v>170</v>
       </c>
@@ -19639,9 +19279,7 @@
       <c r="A14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B14" s="12"/>
       <c r="C14" s="12" t="n">
         <v>90</v>
       </c>
@@ -19654,12 +19292,8 @@
       <c r="F14" s="21" t="n">
         <v>720</v>
       </c>
-      <c r="G14" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="12" t="n">
         <v>90</v>
       </c>
@@ -19671,9 +19305,7 @@
       <c r="A15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B15" s="12"/>
       <c r="C15" s="12" t="n">
         <v>85</v>
       </c>
@@ -19703,9 +19335,7 @@
       <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B16" s="12"/>
       <c r="C16" s="12" t="n">
         <v>64</v>
       </c>
@@ -19757,17 +19387,11 @@
         <v>48</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="12" t="n">
-        <v>43385</v>
-      </c>
+      <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="12" t="n">
-        <v>12200</v>
-      </c>
+      <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="12" t="n">
-        <v>31185</v>
-      </c>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
@@ -19844,17 +19468,17 @@
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21" t="n">
-        <v>5335</v>
+        <v>8677</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21" t="n">
-        <v>2143</v>
+        <v>2440</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>49</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>3192</v>
+        <v>6237</v>
       </c>
     </row>
   </sheetData>
@@ -19885,7 +19509,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="W23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20117,9 +19741,7 @@
       <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B12" s="12"/>
       <c r="C12" s="12" t="n">
         <v>350</v>
       </c>
@@ -20149,9 +19771,7 @@
       <c r="A13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B13" s="12"/>
       <c r="C13" s="12" t="n">
         <v>170</v>
       </c>
@@ -20164,12 +19784,8 @@
       <c r="F13" s="21" t="n">
         <v>680</v>
       </c>
-      <c r="G13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="12" t="n">
         <v>170</v>
       </c>
@@ -20181,9 +19797,7 @@
       <c r="A14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B14" s="12"/>
       <c r="C14" s="12" t="n">
         <v>90</v>
       </c>
@@ -20196,12 +19810,8 @@
       <c r="F14" s="21" t="n">
         <v>720</v>
       </c>
-      <c r="G14" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="12" t="n">
         <v>90</v>
       </c>
@@ -20213,9 +19823,7 @@
       <c r="A15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B15" s="12"/>
       <c r="C15" s="12" t="n">
         <v>75</v>
       </c>
@@ -20245,9 +19853,7 @@
       <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B16" s="12"/>
       <c r="C16" s="12" t="n">
         <v>59</v>
       </c>
@@ -20260,12 +19866,8 @@
       <c r="F16" s="21" t="n">
         <v>1062</v>
       </c>
-      <c r="G16" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="21"/>
       <c r="I16" s="12" t="n">
         <v>59</v>
       </c>
@@ -20299,17 +19901,11 @@
         <v>48</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="12" t="n">
-        <v>66185</v>
-      </c>
+      <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="12" t="n">
-        <v>6875</v>
-      </c>
+      <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="12" t="n">
-        <v>59310</v>
-      </c>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
@@ -20386,17 +19982,17 @@
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21" t="n">
-        <v>5335</v>
+        <v>13237</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21" t="n">
-        <v>2143</v>
+        <v>1375</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>49</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>3192</v>
+        <v>11862</v>
       </c>
     </row>
   </sheetData>
@@ -20427,7 +20023,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="W23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20595,9 +20191,7 @@
       <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B10" s="12"/>
       <c r="C10" s="12" t="n">
         <v>59</v>
       </c>
@@ -20627,9 +20221,7 @@
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B11" s="12"/>
       <c r="C11" s="12" t="n">
         <v>12</v>
       </c>
@@ -20659,9 +20251,7 @@
       <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B12" s="12"/>
       <c r="C12" s="12" t="n">
         <v>300</v>
       </c>
@@ -20674,12 +20264,8 @@
       <c r="F12" s="21" t="n">
         <v>450</v>
       </c>
-      <c r="G12" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="12" t="n">
         <v>300</v>
       </c>
@@ -20691,9 +20277,7 @@
       <c r="A13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B13" s="12"/>
       <c r="C13" s="12" t="n">
         <v>170</v>
       </c>
@@ -20706,12 +20290,8 @@
       <c r="F13" s="21" t="n">
         <v>680</v>
       </c>
-      <c r="G13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="12" t="n">
         <v>170</v>
       </c>
@@ -20723,9 +20303,7 @@
       <c r="A14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B14" s="12"/>
       <c r="C14" s="12" t="n">
         <v>90</v>
       </c>
@@ -20738,12 +20316,8 @@
       <c r="F14" s="21" t="n">
         <v>720</v>
       </c>
-      <c r="G14" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="12" t="n">
         <v>90</v>
       </c>
@@ -20755,9 +20329,7 @@
       <c r="A15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B15" s="12"/>
       <c r="C15" s="12" t="n">
         <v>65</v>
       </c>
@@ -20787,9 +20359,7 @@
       <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B16" s="12"/>
       <c r="C16" s="12" t="n">
         <v>59</v>
       </c>
@@ -20841,17 +20411,11 @@
         <v>48</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="12" t="n">
-        <v>59310</v>
-      </c>
+      <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="12" t="n">
-        <v>12600</v>
-      </c>
+      <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="12" t="n">
-        <v>46710</v>
-      </c>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
@@ -20928,17 +20492,17 @@
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21" t="n">
-        <v>5335</v>
+        <v>11862</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21" t="n">
-        <v>2143</v>
+        <v>2520</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>49</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>3192</v>
+        <v>9342</v>
       </c>
     </row>
   </sheetData>
@@ -20969,7 +20533,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="W23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21137,9 +20701,7 @@
       <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B10" s="12"/>
       <c r="C10" s="12" t="n">
         <v>41</v>
       </c>
@@ -21169,9 +20731,7 @@
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B11" s="12"/>
       <c r="C11" s="12" t="n">
         <v>11</v>
       </c>
@@ -21201,9 +20761,7 @@
       <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B12" s="12"/>
       <c r="C12" s="12" t="n">
         <v>300</v>
       </c>
@@ -21233,9 +20791,7 @@
       <c r="A13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B13" s="12"/>
       <c r="C13" s="12" t="n">
         <v>170</v>
       </c>
@@ -21248,12 +20804,8 @@
       <c r="F13" s="21" t="n">
         <v>680</v>
       </c>
-      <c r="G13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="12" t="n">
         <v>170</v>
       </c>
@@ -21265,9 +20817,7 @@
       <c r="A14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B14" s="12"/>
       <c r="C14" s="12" t="n">
         <v>90</v>
       </c>
@@ -21297,9 +20847,7 @@
       <c r="A15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B15" s="12"/>
       <c r="C15" s="12" t="n">
         <v>40</v>
       </c>
@@ -21329,9 +20877,7 @@
       <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B16" s="12"/>
       <c r="C16" s="12" t="n">
         <v>44</v>
       </c>
@@ -21383,17 +20929,11 @@
         <v>48</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="12" t="n">
-        <v>46710</v>
-      </c>
+      <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="12" t="n">
-        <v>10875</v>
-      </c>
+      <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="12" t="n">
-        <v>35835</v>
-      </c>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
@@ -21470,17 +21010,17 @@
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21" t="n">
-        <v>5335</v>
+        <v>9342</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21" t="n">
-        <v>2143</v>
+        <v>2175</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>49</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>3192</v>
+        <v>7167</v>
       </c>
     </row>
   </sheetData>
@@ -21511,7 +21051,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="W23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21679,9 +21219,7 @@
       <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B10" s="12"/>
       <c r="C10" s="12" t="n">
         <v>28</v>
       </c>
@@ -21711,9 +21249,7 @@
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B11" s="12"/>
       <c r="C11" s="12" t="n">
         <v>9</v>
       </c>
@@ -21743,9 +21279,7 @@
       <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B12" s="12"/>
       <c r="C12" s="12" t="n">
         <v>250</v>
       </c>
@@ -21775,9 +21309,7 @@
       <c r="A13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B13" s="12"/>
       <c r="C13" s="12" t="n">
         <v>170</v>
       </c>
@@ -21807,9 +21339,7 @@
       <c r="A14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B14" s="12"/>
       <c r="C14" s="12" t="n">
         <v>70</v>
       </c>
@@ -21822,12 +21352,8 @@
       <c r="F14" s="21" t="n">
         <v>560</v>
       </c>
-      <c r="G14" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="12" t="n">
         <v>70</v>
       </c>
@@ -21839,9 +21365,7 @@
       <c r="A15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B15" s="12"/>
       <c r="C15" s="12" t="n">
         <v>25</v>
       </c>
@@ -21854,12 +21378,8 @@
       <c r="F15" s="21" t="n">
         <v>250</v>
       </c>
-      <c r="G15" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="21"/>
       <c r="I15" s="12" t="n">
         <v>25</v>
       </c>
@@ -21871,9 +21391,7 @@
       <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B16" s="12"/>
       <c r="C16" s="12" t="n">
         <v>39</v>
       </c>
@@ -21886,12 +21404,8 @@
       <c r="F16" s="21" t="n">
         <v>702</v>
       </c>
-      <c r="G16" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="21"/>
       <c r="I16" s="12" t="n">
         <v>39</v>
       </c>
@@ -21925,17 +21439,11 @@
         <v>48</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="12" t="n">
-        <v>35835</v>
-      </c>
+      <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="12" t="n">
-        <v>8250</v>
-      </c>
+      <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="12" t="n">
-        <v>27585</v>
-      </c>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
@@ -22012,17 +21520,17 @@
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21" t="n">
-        <v>5335</v>
+        <v>7167</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21" t="n">
-        <v>2143</v>
+        <v>1650</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>49</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>3192</v>
+        <v>5517</v>
       </c>
     </row>
   </sheetData>
@@ -22053,7 +21561,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="W23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22364,12 +21872,8 @@
       <c r="F14" s="21" t="n">
         <v>1040</v>
       </c>
-      <c r="G14" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="12" t="n">
         <v>130</v>
       </c>
@@ -22467,17 +21971,11 @@
         <v>48</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="12" t="n">
-        <v>111235</v>
-      </c>
+      <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="12" t="n">
-        <v>11100</v>
-      </c>
+      <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="12" t="n">
-        <v>100135</v>
-      </c>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
@@ -22554,17 +22052,17 @@
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21" t="n">
-        <v>5335</v>
+        <v>22247</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21" t="n">
-        <v>2143</v>
+        <v>2220</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>49</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>3192</v>
+        <v>20027</v>
       </c>
     </row>
   </sheetData>
@@ -22595,7 +22093,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="W23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22763,9 +22261,7 @@
       <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B10" s="12"/>
       <c r="C10" s="12" t="n">
         <v>125</v>
       </c>
@@ -22795,9 +22291,7 @@
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B11" s="12"/>
       <c r="C11" s="12" t="n">
         <v>12</v>
       </c>
@@ -22827,9 +22321,7 @@
       <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B12" s="12"/>
       <c r="C12" s="12" t="n">
         <v>550</v>
       </c>
@@ -22859,9 +22351,7 @@
       <c r="A13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B13" s="12"/>
       <c r="C13" s="12" t="n">
         <v>200</v>
       </c>
@@ -22874,12 +22364,8 @@
       <c r="F13" s="21" t="n">
         <v>800</v>
       </c>
-      <c r="G13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="12" t="n">
         <v>200</v>
       </c>
@@ -22891,9 +22377,7 @@
       <c r="A14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B14" s="12"/>
       <c r="C14" s="12" t="n">
         <v>130</v>
       </c>
@@ -22906,12 +22390,8 @@
       <c r="F14" s="21" t="n">
         <v>1040</v>
       </c>
-      <c r="G14" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="12" t="n">
         <v>130</v>
       </c>
@@ -22923,9 +22403,7 @@
       <c r="A15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B15" s="12"/>
       <c r="C15" s="12" t="n">
         <v>95</v>
       </c>
@@ -22955,9 +22433,7 @@
       <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B16" s="12"/>
       <c r="C16" s="12" t="n">
         <v>84</v>
       </c>
@@ -23009,17 +22485,11 @@
         <v>48</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="12" t="n">
-        <v>100135</v>
-      </c>
+      <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="12" t="n">
-        <v>10400</v>
-      </c>
+      <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="12" t="n">
-        <v>89735</v>
-      </c>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
@@ -23096,17 +22566,17 @@
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21" t="n">
-        <v>5335</v>
+        <v>20027</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21" t="n">
-        <v>2143</v>
+        <v>2080</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>49</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>3192</v>
+        <v>17947</v>
       </c>
     </row>
   </sheetData>
@@ -23137,7 +22607,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="W23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23305,9 +22775,7 @@
       <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B10" s="12"/>
       <c r="C10" s="12" t="n">
         <v>111</v>
       </c>
@@ -23337,9 +22805,7 @@
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B11" s="12"/>
       <c r="C11" s="12" t="n">
         <v>11</v>
       </c>
@@ -23369,9 +22835,7 @@
       <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B12" s="12"/>
       <c r="C12" s="12" t="n">
         <v>450</v>
       </c>
@@ -23384,12 +22848,8 @@
       <c r="F12" s="21" t="n">
         <v>675</v>
       </c>
-      <c r="G12" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="12" t="n">
         <v>450</v>
       </c>
@@ -23401,9 +22861,7 @@
       <c r="A13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B13" s="12"/>
       <c r="C13" s="12" t="n">
         <v>200</v>
       </c>
@@ -23433,9 +22891,7 @@
       <c r="A14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B14" s="12"/>
       <c r="C14" s="12" t="n">
         <v>130</v>
       </c>
@@ -23465,9 +22921,7 @@
       <c r="A15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B15" s="12"/>
       <c r="C15" s="12" t="n">
         <v>80</v>
       </c>
@@ -23497,9 +22951,7 @@
       <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B16" s="12"/>
       <c r="C16" s="12" t="n">
         <v>74</v>
       </c>
@@ -23551,17 +23003,11 @@
         <v>48</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="12" t="n">
-        <v>89735</v>
-      </c>
+      <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="12" t="n">
-        <v>8550</v>
-      </c>
+      <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="12" t="n">
-        <v>81185</v>
-      </c>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
@@ -23638,17 +23084,17 @@
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21" t="n">
-        <v>5335</v>
+        <v>17947</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21" t="n">
-        <v>2143</v>
+        <v>1710</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>49</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>3192</v>
+        <v>16237</v>
       </c>
     </row>
   </sheetData>
@@ -23679,7 +23125,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="W23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23847,9 +23293,7 @@
       <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B10" s="12"/>
       <c r="C10" s="12" t="n">
         <v>100</v>
       </c>
@@ -23879,9 +23323,7 @@
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B11" s="12"/>
       <c r="C11" s="12" t="n">
         <v>10</v>
       </c>
@@ -23911,9 +23353,7 @@
       <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B12" s="12"/>
       <c r="C12" s="12" t="n">
         <v>450</v>
       </c>
@@ -23943,9 +23383,7 @@
       <c r="A13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B13" s="12"/>
       <c r="C13" s="12" t="n">
         <v>175</v>
       </c>
@@ -23958,12 +23396,8 @@
       <c r="F13" s="21" t="n">
         <v>700</v>
       </c>
-      <c r="G13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="12" t="n">
         <v>175</v>
       </c>
@@ -23975,9 +23409,7 @@
       <c r="A14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B14" s="12"/>
       <c r="C14" s="12" t="n">
         <v>115</v>
       </c>
@@ -23990,12 +23422,8 @@
       <c r="F14" s="21" t="n">
         <v>920</v>
       </c>
-      <c r="G14" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="12" t="n">
         <v>115</v>
       </c>
@@ -24007,9 +23435,7 @@
       <c r="A15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B15" s="12"/>
       <c r="C15" s="12" t="n">
         <v>70</v>
       </c>
@@ -24039,9 +23465,7 @@
       <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B16" s="12"/>
       <c r="C16" s="12" t="n">
         <v>69</v>
       </c>
@@ -24093,17 +23517,11 @@
         <v>48</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="12" t="n">
-        <v>81185</v>
-      </c>
+      <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="12" t="n">
-        <v>11325</v>
-      </c>
+      <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="12" t="n">
-        <v>69860</v>
-      </c>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
@@ -24180,17 +23598,17 @@
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21" t="n">
-        <v>5335</v>
+        <v>16237</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21" t="n">
-        <v>2143</v>
+        <v>2265</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>49</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>3192</v>
+        <v>13972</v>
       </c>
     </row>
   </sheetData>
@@ -24221,7 +23639,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="W23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24389,9 +23807,7 @@
       <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B10" s="12"/>
       <c r="C10" s="12" t="n">
         <v>84</v>
       </c>
@@ -24421,9 +23837,7 @@
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B11" s="12"/>
       <c r="C11" s="12" t="n">
         <v>8</v>
       </c>
@@ -24453,9 +23867,7 @@
       <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B12" s="12"/>
       <c r="C12" s="12" t="n">
         <v>400</v>
       </c>
@@ -24485,9 +23897,7 @@
       <c r="A13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B13" s="12"/>
       <c r="C13" s="12" t="n">
         <v>175</v>
       </c>
@@ -24500,12 +23910,8 @@
       <c r="F13" s="21" t="n">
         <v>700</v>
       </c>
-      <c r="G13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="12" t="n">
         <v>175</v>
       </c>
@@ -24517,9 +23923,7 @@
       <c r="A14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B14" s="12"/>
       <c r="C14" s="12" t="n">
         <v>115</v>
       </c>
@@ -24532,12 +23936,8 @@
       <c r="F14" s="21" t="n">
         <v>920</v>
       </c>
-      <c r="G14" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="12" t="n">
         <v>115</v>
       </c>
@@ -24549,9 +23949,7 @@
       <c r="A15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B15" s="12"/>
       <c r="C15" s="12" t="n">
         <v>60</v>
       </c>
@@ -24581,9 +23979,7 @@
       <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B16" s="12"/>
       <c r="C16" s="12" t="n">
         <v>64</v>
       </c>
@@ -24596,12 +23992,8 @@
       <c r="F16" s="21" t="n">
         <v>1152</v>
       </c>
-      <c r="G16" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="21"/>
       <c r="I16" s="12" t="n">
         <v>64</v>
       </c>
@@ -24635,17 +24027,11 @@
         <v>48</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="12" t="n">
-        <v>69860</v>
-      </c>
+      <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="12" t="n">
-        <v>6875</v>
-      </c>
+      <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="12" t="n">
-        <v>62985</v>
-      </c>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
@@ -24722,17 +24108,17 @@
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21" t="n">
-        <v>5335</v>
+        <v>13972</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21" t="n">
-        <v>2143</v>
+        <v>1375</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>49</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>3192</v>
+        <v>12597</v>
       </c>
     </row>
   </sheetData>
@@ -24762,8 +24148,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="1" sqref="W23 F21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25264,8 +24650,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E30" activeCellId="1" sqref="W23 E30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25778,8 +25164,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="W23 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26288,8 +25674,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="W23 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26802,8 +26188,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="1" sqref="W23 D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/excel/REG.xlsx
+++ b/excel/REG.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Raport general 2024" sheetId="1" state="visible" r:id="rId1"/>
@@ -944,11 +944,11 @@
   </sheetPr>
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9:J84"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A35" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K64" activeCellId="0" sqref="K64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.46484375" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.46484375" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="12.77" customWidth="1" style="29" min="1" max="1"/>
     <col width="8.07" customWidth="1" style="29" min="2" max="2"/>
@@ -1100,13 +1100,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D10" s="46" t="inlineStr"/>
-      <c r="E10" s="46" t="inlineStr"/>
-      <c r="F10" s="46" t="inlineStr"/>
-      <c r="G10" s="46" t="inlineStr"/>
-      <c r="H10" s="46" t="inlineStr"/>
-      <c r="I10" s="46" t="inlineStr"/>
-      <c r="J10" s="46" t="inlineStr"/>
+      <c r="D10" s="46">
+        <f>SUM('1 IAN'!B10, '8 IAN'!B10, '15 IAN'!B10, '22 IAN'!B10, '29 IAN'!B10, )</f>
+        <v/>
+      </c>
+      <c r="E10" s="46">
+        <f>SUM('1 IAN'!B11, '8 IAN'!B11, '15 IAN'!B11, '22 IAN'!B11, '29 IAN'!B11, )</f>
+        <v/>
+      </c>
+      <c r="F10" s="46">
+        <f>SUM('1 IAN'!B12, '8 IAN'!B12, '15 IAN'!B12, '22 IAN'!B12, '29 IAN'!B12, )</f>
+        <v/>
+      </c>
+      <c r="G10" s="46">
+        <f>SUM('1 IAN'!B13, '8 IAN'!B13, '15 IAN'!B13, '22 IAN'!B13, '29 IAN'!B13, )</f>
+        <v/>
+      </c>
+      <c r="H10" s="46">
+        <f>SUM('1 IAN'!B14, '8 IAN'!B14, '15 IAN'!B14, '22 IAN'!B14, '29 IAN'!B14, )</f>
+        <v/>
+      </c>
+      <c r="I10" s="46">
+        <f>SUM('1 IAN'!B15, '8 IAN'!B15, '15 IAN'!B15, '22 IAN'!B15, '29 IAN'!B15, )</f>
+        <v/>
+      </c>
+      <c r="J10" s="46">
+        <f>SUM('1 IAN'!B16, '8 IAN'!B16, '15 IAN'!B16, '22 IAN'!B16, '29 IAN'!B16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="11" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A11" s="47" t="n"/>
@@ -1120,13 +1141,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D11" s="46" t="inlineStr"/>
-      <c r="E11" s="46" t="inlineStr"/>
-      <c r="F11" s="46" t="inlineStr"/>
-      <c r="G11" s="46" t="inlineStr"/>
-      <c r="H11" s="46" t="inlineStr"/>
-      <c r="I11" s="46" t="inlineStr"/>
-      <c r="J11" s="46" t="inlineStr"/>
+      <c r="D11" s="46">
+        <f>SUM('1 IAN'!E10 * '1 IAN'!B10, '8 IAN'!E10 * '8 IAN'!B10, '15 IAN'!E10 * '15 IAN'!B10, '22 IAN'!E10 * '22 IAN'!B10, '29 IAN'!E10 * '29 IAN'!B10, )</f>
+        <v/>
+      </c>
+      <c r="E11" s="46">
+        <f>SUM('1 IAN'!E11 * '1 IAN'!B11, '8 IAN'!E11 * '8 IAN'!B11, '15 IAN'!E11 * '15 IAN'!B11, '22 IAN'!E11 * '22 IAN'!B11, '29 IAN'!E11 * '29 IAN'!B11, )</f>
+        <v/>
+      </c>
+      <c r="F11" s="46">
+        <f>SUM('1 IAN'!E12 * '1 IAN'!B12, '8 IAN'!E12 * '8 IAN'!B12, '15 IAN'!E12 * '15 IAN'!B12, '22 IAN'!E12 * '22 IAN'!B12, '29 IAN'!E12 * '29 IAN'!B12, )</f>
+        <v/>
+      </c>
+      <c r="G11" s="46">
+        <f>SUM('1 IAN'!E13 * '1 IAN'!B13, '8 IAN'!E13 * '8 IAN'!B13, '15 IAN'!E13 * '15 IAN'!B13, '22 IAN'!E13 * '22 IAN'!B13, '29 IAN'!E13 * '29 IAN'!B13, )</f>
+        <v/>
+      </c>
+      <c r="H11" s="46">
+        <f>SUM('1 IAN'!E14 * '1 IAN'!B14, '8 IAN'!E14 * '8 IAN'!B14, '15 IAN'!E14 * '15 IAN'!B14, '22 IAN'!E14 * '22 IAN'!B14, '29 IAN'!E14 * '29 IAN'!B14, )</f>
+        <v/>
+      </c>
+      <c r="I11" s="46">
+        <f>SUM('1 IAN'!E15 * '1 IAN'!B15, '8 IAN'!E15 * '8 IAN'!B15, '15 IAN'!E15 * '15 IAN'!B15, '22 IAN'!E15 * '22 IAN'!B15, '29 IAN'!E15 * '29 IAN'!B15, )</f>
+        <v/>
+      </c>
+      <c r="J11" s="46">
+        <f>SUM('1 IAN'!E16 * '1 IAN'!B16, '8 IAN'!E16 * '8 IAN'!B16, '15 IAN'!E16 * '15 IAN'!B16, '22 IAN'!E16 * '22 IAN'!B16, '29 IAN'!E16 * '29 IAN'!B16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="12" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A12" s="47" t="n"/>
@@ -1136,13 +1178,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D12" s="46" t="inlineStr"/>
-      <c r="E12" s="46" t="inlineStr"/>
-      <c r="F12" s="46" t="inlineStr"/>
-      <c r="G12" s="46" t="inlineStr"/>
-      <c r="H12" s="46" t="inlineStr"/>
-      <c r="I12" s="46" t="inlineStr"/>
-      <c r="J12" s="46" t="inlineStr"/>
+      <c r="D12" s="46">
+        <f>SUM('1 IAN'!G10, '8 IAN'!G10, '15 IAN'!G10, '22 IAN'!G10, '29 IAN'!G10, )</f>
+        <v/>
+      </c>
+      <c r="E12" s="46">
+        <f>SUM('1 IAN'!G11, '8 IAN'!G11, '15 IAN'!G11, '22 IAN'!G11, '29 IAN'!G11, )</f>
+        <v/>
+      </c>
+      <c r="F12" s="46">
+        <f>SUM('1 IAN'!G12, '8 IAN'!G12, '15 IAN'!G12, '22 IAN'!G12, '29 IAN'!G12, )</f>
+        <v/>
+      </c>
+      <c r="G12" s="46">
+        <f>SUM('1 IAN'!G13, '8 IAN'!G13, '15 IAN'!G13, '22 IAN'!G13, '29 IAN'!G13, )</f>
+        <v/>
+      </c>
+      <c r="H12" s="46">
+        <f>SUM('1 IAN'!G14, '8 IAN'!G14, '15 IAN'!G14, '22 IAN'!G14, '29 IAN'!G14, )</f>
+        <v/>
+      </c>
+      <c r="I12" s="46">
+        <f>SUM('1 IAN'!G15, '8 IAN'!G15, '15 IAN'!G15, '22 IAN'!G15, '29 IAN'!G15, )</f>
+        <v/>
+      </c>
+      <c r="J12" s="46">
+        <f>SUM('1 IAN'!G16, '8 IAN'!G16, '15 IAN'!G16, '22 IAN'!G16, '29 IAN'!G16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="13" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A13" s="47" t="n"/>
@@ -1156,13 +1219,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D13" s="46" t="inlineStr"/>
-      <c r="E13" s="46" t="inlineStr"/>
-      <c r="F13" s="46" t="inlineStr"/>
-      <c r="G13" s="46" t="inlineStr"/>
-      <c r="H13" s="46" t="inlineStr"/>
-      <c r="I13" s="46" t="inlineStr"/>
-      <c r="J13" s="46" t="inlineStr"/>
+      <c r="D13" s="46">
+        <f>SUM('1 IAN'!H10, '8 IAN'!H10, '15 IAN'!H10, '22 IAN'!H10, '29 IAN'!H10, )</f>
+        <v/>
+      </c>
+      <c r="E13" s="46">
+        <f>SUM('1 IAN'!H11, '8 IAN'!H11, '15 IAN'!H11, '22 IAN'!H11, '29 IAN'!H11, )</f>
+        <v/>
+      </c>
+      <c r="F13" s="46">
+        <f>SUM('1 IAN'!H12, '8 IAN'!H12, '15 IAN'!H12, '22 IAN'!H12, '29 IAN'!H12, )</f>
+        <v/>
+      </c>
+      <c r="G13" s="46">
+        <f>SUM('1 IAN'!H13, '8 IAN'!H13, '15 IAN'!H13, '22 IAN'!H13, '29 IAN'!H13, )</f>
+        <v/>
+      </c>
+      <c r="H13" s="46">
+        <f>SUM('1 IAN'!H14, '8 IAN'!H14, '15 IAN'!H14, '22 IAN'!H14, '29 IAN'!H14, )</f>
+        <v/>
+      </c>
+      <c r="I13" s="46">
+        <f>SUM('1 IAN'!H15, '8 IAN'!H15, '15 IAN'!H15, '22 IAN'!H15, '29 IAN'!H15, )</f>
+        <v/>
+      </c>
+      <c r="J13" s="46">
+        <f>SUM('1 IAN'!H16, '8 IAN'!H16, '15 IAN'!H16, '22 IAN'!H16, '29 IAN'!H16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="14" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A14" s="48" t="n"/>
@@ -1172,13 +1256,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D14" s="46" t="inlineStr"/>
-      <c r="E14" s="46" t="inlineStr"/>
-      <c r="F14" s="46" t="inlineStr"/>
-      <c r="G14" s="46" t="inlineStr"/>
-      <c r="H14" s="46" t="inlineStr"/>
-      <c r="I14" s="46" t="inlineStr"/>
-      <c r="J14" s="46" t="inlineStr"/>
+      <c r="D14" s="46">
+        <f>'29 IAN'!I10</f>
+        <v/>
+      </c>
+      <c r="E14" s="46">
+        <f>'29 IAN'!I11</f>
+        <v/>
+      </c>
+      <c r="F14" s="46">
+        <f>'29 IAN'!I12</f>
+        <v/>
+      </c>
+      <c r="G14" s="46">
+        <f>'29 IAN'!I13</f>
+        <v/>
+      </c>
+      <c r="H14" s="46">
+        <f>'29 IAN'!I14</f>
+        <v/>
+      </c>
+      <c r="I14" s="46">
+        <f>'29 IAN'!I15</f>
+        <v/>
+      </c>
+      <c r="J14" s="46">
+        <f>'29 IAN'!I16</f>
+        <v/>
+      </c>
     </row>
     <row r="15" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A15" s="44" t="inlineStr">
@@ -1196,13 +1301,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D15" s="46" t="inlineStr"/>
-      <c r="E15" s="46" t="inlineStr"/>
-      <c r="F15" s="46" t="inlineStr"/>
-      <c r="G15" s="46" t="inlineStr"/>
-      <c r="H15" s="46" t="inlineStr"/>
-      <c r="I15" s="46" t="inlineStr"/>
-      <c r="J15" s="46" t="inlineStr"/>
+      <c r="D15" s="46">
+        <f>'29 IAN'!J10</f>
+        <v/>
+      </c>
+      <c r="E15" s="46">
+        <f>'29 IAN'!J11</f>
+        <v/>
+      </c>
+      <c r="F15" s="46">
+        <f>'29 IAN'!J12</f>
+        <v/>
+      </c>
+      <c r="G15" s="46">
+        <f>'29 IAN'!J13</f>
+        <v/>
+      </c>
+      <c r="H15" s="46">
+        <f>'29 IAN'!J14</f>
+        <v/>
+      </c>
+      <c r="I15" s="46">
+        <f>'29 IAN'!J15</f>
+        <v/>
+      </c>
+      <c r="J15" s="46">
+        <f>'29 IAN'!J16</f>
+        <v/>
+      </c>
     </row>
     <row r="16" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A16" s="47" t="n"/>
@@ -1212,13 +1338,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D16" s="46" t="inlineStr"/>
-      <c r="E16" s="46" t="inlineStr"/>
-      <c r="F16" s="46" t="inlineStr"/>
-      <c r="G16" s="46" t="inlineStr"/>
-      <c r="H16" s="46" t="inlineStr"/>
-      <c r="I16" s="46" t="inlineStr"/>
-      <c r="J16" s="46" t="inlineStr"/>
+      <c r="D16" s="46">
+        <f>SUM('5 FEB'!B10, '12 FEB'!B10, '19 FEB'!B10, '26 FEB'!B10, )</f>
+        <v/>
+      </c>
+      <c r="E16" s="46">
+        <f>SUM('5 FEB'!B11, '12 FEB'!B11, '19 FEB'!B11, '26 FEB'!B11, )</f>
+        <v/>
+      </c>
+      <c r="F16" s="46">
+        <f>SUM('5 FEB'!B12, '12 FEB'!B12, '19 FEB'!B12, '26 FEB'!B12, )</f>
+        <v/>
+      </c>
+      <c r="G16" s="46">
+        <f>SUM('5 FEB'!B13, '12 FEB'!B13, '19 FEB'!B13, '26 FEB'!B13, )</f>
+        <v/>
+      </c>
+      <c r="H16" s="46">
+        <f>SUM('5 FEB'!B14, '12 FEB'!B14, '19 FEB'!B14, '26 FEB'!B14, )</f>
+        <v/>
+      </c>
+      <c r="I16" s="46">
+        <f>SUM('5 FEB'!B15, '12 FEB'!B15, '19 FEB'!B15, '26 FEB'!B15, )</f>
+        <v/>
+      </c>
+      <c r="J16" s="46">
+        <f>SUM('5 FEB'!B16, '12 FEB'!B16, '19 FEB'!B16, '26 FEB'!B16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="17" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A17" s="47" t="n"/>
@@ -1232,13 +1379,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D17" s="46" t="inlineStr"/>
-      <c r="E17" s="46" t="inlineStr"/>
-      <c r="F17" s="46" t="inlineStr"/>
-      <c r="G17" s="46" t="inlineStr"/>
-      <c r="H17" s="46" t="inlineStr"/>
-      <c r="I17" s="46" t="inlineStr"/>
-      <c r="J17" s="46" t="inlineStr"/>
+      <c r="D17" s="46">
+        <f>SUM('5 FEB'!E10 * '5 FEB'!B10, '12 FEB'!E10 * '12 FEB'!B10, '19 FEB'!E10 * '19 FEB'!B10, '26 FEB'!E10 * '26 FEB'!B10, )</f>
+        <v/>
+      </c>
+      <c r="E17" s="46">
+        <f>SUM('5 FEB'!E11 * '5 FEB'!B11, '12 FEB'!E11 * '12 FEB'!B11, '19 FEB'!E11 * '19 FEB'!B11, '26 FEB'!E11 * '26 FEB'!B11, )</f>
+        <v/>
+      </c>
+      <c r="F17" s="46">
+        <f>SUM('5 FEB'!E12 * '5 FEB'!B12, '12 FEB'!E12 * '12 FEB'!B12, '19 FEB'!E12 * '19 FEB'!B12, '26 FEB'!E12 * '26 FEB'!B12, )</f>
+        <v/>
+      </c>
+      <c r="G17" s="46">
+        <f>SUM('5 FEB'!E13 * '5 FEB'!B13, '12 FEB'!E13 * '12 FEB'!B13, '19 FEB'!E13 * '19 FEB'!B13, '26 FEB'!E13 * '26 FEB'!B13, )</f>
+        <v/>
+      </c>
+      <c r="H17" s="46">
+        <f>SUM('5 FEB'!E14 * '5 FEB'!B14, '12 FEB'!E14 * '12 FEB'!B14, '19 FEB'!E14 * '19 FEB'!B14, '26 FEB'!E14 * '26 FEB'!B14, )</f>
+        <v/>
+      </c>
+      <c r="I17" s="46">
+        <f>SUM('5 FEB'!E15 * '5 FEB'!B15, '12 FEB'!E15 * '12 FEB'!B15, '19 FEB'!E15 * '19 FEB'!B15, '26 FEB'!E15 * '26 FEB'!B15, )</f>
+        <v/>
+      </c>
+      <c r="J17" s="46">
+        <f>SUM('5 FEB'!E16 * '5 FEB'!B16, '12 FEB'!E16 * '12 FEB'!B16, '19 FEB'!E16 * '19 FEB'!B16, '26 FEB'!E16 * '26 FEB'!B16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="18" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A18" s="47" t="n"/>
@@ -1248,13 +1416,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D18" s="46" t="inlineStr"/>
-      <c r="E18" s="46" t="inlineStr"/>
-      <c r="F18" s="46" t="inlineStr"/>
-      <c r="G18" s="46" t="inlineStr"/>
-      <c r="H18" s="46" t="inlineStr"/>
-      <c r="I18" s="46" t="inlineStr"/>
-      <c r="J18" s="46" t="inlineStr"/>
+      <c r="D18" s="46">
+        <f>SUM('5 FEB'!G10, '12 FEB'!G10, '19 FEB'!G10, '26 FEB'!G10, )</f>
+        <v/>
+      </c>
+      <c r="E18" s="46">
+        <f>SUM('5 FEB'!G11, '12 FEB'!G11, '19 FEB'!G11, '26 FEB'!G11, )</f>
+        <v/>
+      </c>
+      <c r="F18" s="46">
+        <f>SUM('5 FEB'!G12, '12 FEB'!G12, '19 FEB'!G12, '26 FEB'!G12, )</f>
+        <v/>
+      </c>
+      <c r="G18" s="46">
+        <f>SUM('5 FEB'!G13, '12 FEB'!G13, '19 FEB'!G13, '26 FEB'!G13, )</f>
+        <v/>
+      </c>
+      <c r="H18" s="46">
+        <f>SUM('5 FEB'!G14, '12 FEB'!G14, '19 FEB'!G14, '26 FEB'!G14, )</f>
+        <v/>
+      </c>
+      <c r="I18" s="46">
+        <f>SUM('5 FEB'!G15, '12 FEB'!G15, '19 FEB'!G15, '26 FEB'!G15, )</f>
+        <v/>
+      </c>
+      <c r="J18" s="46">
+        <f>SUM('5 FEB'!G16, '12 FEB'!G16, '19 FEB'!G16, '26 FEB'!G16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="19" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A19" s="47" t="n"/>
@@ -1268,13 +1457,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D19" s="46" t="inlineStr"/>
-      <c r="E19" s="46" t="inlineStr"/>
-      <c r="F19" s="46" t="inlineStr"/>
-      <c r="G19" s="46" t="inlineStr"/>
-      <c r="H19" s="46" t="inlineStr"/>
-      <c r="I19" s="46" t="inlineStr"/>
-      <c r="J19" s="46" t="inlineStr"/>
+      <c r="D19" s="46">
+        <f>SUM('5 FEB'!H10, '12 FEB'!H10, '19 FEB'!H10, '26 FEB'!H10, )</f>
+        <v/>
+      </c>
+      <c r="E19" s="46">
+        <f>SUM('5 FEB'!H11, '12 FEB'!H11, '19 FEB'!H11, '26 FEB'!H11, )</f>
+        <v/>
+      </c>
+      <c r="F19" s="46">
+        <f>SUM('5 FEB'!H12, '12 FEB'!H12, '19 FEB'!H12, '26 FEB'!H12, )</f>
+        <v/>
+      </c>
+      <c r="G19" s="46">
+        <f>SUM('5 FEB'!H13, '12 FEB'!H13, '19 FEB'!H13, '26 FEB'!H13, )</f>
+        <v/>
+      </c>
+      <c r="H19" s="46">
+        <f>SUM('5 FEB'!H14, '12 FEB'!H14, '19 FEB'!H14, '26 FEB'!H14, )</f>
+        <v/>
+      </c>
+      <c r="I19" s="46">
+        <f>SUM('5 FEB'!H15, '12 FEB'!H15, '19 FEB'!H15, '26 FEB'!H15, )</f>
+        <v/>
+      </c>
+      <c r="J19" s="46">
+        <f>SUM('5 FEB'!H16, '12 FEB'!H16, '19 FEB'!H16, '26 FEB'!H16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="20" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A20" s="48" t="n"/>
@@ -1284,13 +1494,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D20" s="46" t="inlineStr"/>
-      <c r="E20" s="46" t="inlineStr"/>
-      <c r="F20" s="46" t="inlineStr"/>
-      <c r="G20" s="46" t="inlineStr"/>
-      <c r="H20" s="46" t="inlineStr"/>
-      <c r="I20" s="46" t="inlineStr"/>
-      <c r="J20" s="46" t="inlineStr"/>
+      <c r="D20" s="46">
+        <f>'26 FEB'!I10</f>
+        <v/>
+      </c>
+      <c r="E20" s="46">
+        <f>'26 FEB'!I11</f>
+        <v/>
+      </c>
+      <c r="F20" s="46">
+        <f>'26 FEB'!I12</f>
+        <v/>
+      </c>
+      <c r="G20" s="46">
+        <f>'26 FEB'!I13</f>
+        <v/>
+      </c>
+      <c r="H20" s="46">
+        <f>'26 FEB'!I14</f>
+        <v/>
+      </c>
+      <c r="I20" s="46">
+        <f>'26 FEB'!I15</f>
+        <v/>
+      </c>
+      <c r="J20" s="46">
+        <f>'26 FEB'!I16</f>
+        <v/>
+      </c>
     </row>
     <row r="21" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A21" s="44" t="inlineStr">
@@ -1308,13 +1539,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D21" s="46" t="inlineStr"/>
-      <c r="E21" s="46" t="inlineStr"/>
-      <c r="F21" s="46" t="inlineStr"/>
-      <c r="G21" s="46" t="inlineStr"/>
-      <c r="H21" s="46" t="inlineStr"/>
-      <c r="I21" s="46" t="inlineStr"/>
-      <c r="J21" s="46" t="inlineStr"/>
+      <c r="D21" s="46">
+        <f>'26 FEB'!J10</f>
+        <v/>
+      </c>
+      <c r="E21" s="46">
+        <f>'26 FEB'!J11</f>
+        <v/>
+      </c>
+      <c r="F21" s="46">
+        <f>'26 FEB'!J12</f>
+        <v/>
+      </c>
+      <c r="G21" s="46">
+        <f>'26 FEB'!J13</f>
+        <v/>
+      </c>
+      <c r="H21" s="46">
+        <f>'26 FEB'!J14</f>
+        <v/>
+      </c>
+      <c r="I21" s="46">
+        <f>'26 FEB'!J15</f>
+        <v/>
+      </c>
+      <c r="J21" s="46">
+        <f>'26 FEB'!J16</f>
+        <v/>
+      </c>
     </row>
     <row r="22" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A22" s="47" t="n"/>
@@ -1324,13 +1576,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D22" s="46" t="inlineStr"/>
-      <c r="E22" s="46" t="inlineStr"/>
-      <c r="F22" s="46" t="inlineStr"/>
-      <c r="G22" s="46" t="inlineStr"/>
-      <c r="H22" s="46" t="inlineStr"/>
-      <c r="I22" s="46" t="inlineStr"/>
-      <c r="J22" s="46" t="inlineStr"/>
+      <c r="D22" s="46">
+        <f>SUM('4 MAR'!B10, '11 MAR'!B10, '18 MAR'!B10, '25 MAR'!B10, )</f>
+        <v/>
+      </c>
+      <c r="E22" s="46">
+        <f>SUM('4 MAR'!B11, '11 MAR'!B11, '18 MAR'!B11, '25 MAR'!B11, )</f>
+        <v/>
+      </c>
+      <c r="F22" s="46">
+        <f>SUM('4 MAR'!B12, '11 MAR'!B12, '18 MAR'!B12, '25 MAR'!B12, )</f>
+        <v/>
+      </c>
+      <c r="G22" s="46">
+        <f>SUM('4 MAR'!B13, '11 MAR'!B13, '18 MAR'!B13, '25 MAR'!B13, )</f>
+        <v/>
+      </c>
+      <c r="H22" s="46">
+        <f>SUM('4 MAR'!B14, '11 MAR'!B14, '18 MAR'!B14, '25 MAR'!B14, )</f>
+        <v/>
+      </c>
+      <c r="I22" s="46">
+        <f>SUM('4 MAR'!B15, '11 MAR'!B15, '18 MAR'!B15, '25 MAR'!B15, )</f>
+        <v/>
+      </c>
+      <c r="J22" s="46">
+        <f>SUM('4 MAR'!B16, '11 MAR'!B16, '18 MAR'!B16, '25 MAR'!B16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="23" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A23" s="47" t="n"/>
@@ -1344,13 +1617,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D23" s="46" t="inlineStr"/>
-      <c r="E23" s="46" t="inlineStr"/>
-      <c r="F23" s="46" t="inlineStr"/>
-      <c r="G23" s="46" t="inlineStr"/>
-      <c r="H23" s="46" t="inlineStr"/>
-      <c r="I23" s="46" t="inlineStr"/>
-      <c r="J23" s="46" t="inlineStr"/>
+      <c r="D23" s="46">
+        <f>SUM('4 MAR'!E10 * '4 MAR'!B10, '11 MAR'!E10 * '11 MAR'!B10, '18 MAR'!E10 * '18 MAR'!B10, '25 MAR'!E10 * '25 MAR'!B10, )</f>
+        <v/>
+      </c>
+      <c r="E23" s="46">
+        <f>SUM('4 MAR'!E11 * '4 MAR'!B11, '11 MAR'!E11 * '11 MAR'!B11, '18 MAR'!E11 * '18 MAR'!B11, '25 MAR'!E11 * '25 MAR'!B11, )</f>
+        <v/>
+      </c>
+      <c r="F23" s="46">
+        <f>SUM('4 MAR'!E12 * '4 MAR'!B12, '11 MAR'!E12 * '11 MAR'!B12, '18 MAR'!E12 * '18 MAR'!B12, '25 MAR'!E12 * '25 MAR'!B12, )</f>
+        <v/>
+      </c>
+      <c r="G23" s="46">
+        <f>SUM('4 MAR'!E13 * '4 MAR'!B13, '11 MAR'!E13 * '11 MAR'!B13, '18 MAR'!E13 * '18 MAR'!B13, '25 MAR'!E13 * '25 MAR'!B13, )</f>
+        <v/>
+      </c>
+      <c r="H23" s="46">
+        <f>SUM('4 MAR'!E14 * '4 MAR'!B14, '11 MAR'!E14 * '11 MAR'!B14, '18 MAR'!E14 * '18 MAR'!B14, '25 MAR'!E14 * '25 MAR'!B14, )</f>
+        <v/>
+      </c>
+      <c r="I23" s="46">
+        <f>SUM('4 MAR'!E15 * '4 MAR'!B15, '11 MAR'!E15 * '11 MAR'!B15, '18 MAR'!E15 * '18 MAR'!B15, '25 MAR'!E15 * '25 MAR'!B15, )</f>
+        <v/>
+      </c>
+      <c r="J23" s="46">
+        <f>SUM('4 MAR'!E16 * '4 MAR'!B16, '11 MAR'!E16 * '11 MAR'!B16, '18 MAR'!E16 * '18 MAR'!B16, '25 MAR'!E16 * '25 MAR'!B16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="24" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A24" s="47" t="n"/>
@@ -1360,13 +1654,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D24" s="46" t="inlineStr"/>
-      <c r="E24" s="46" t="inlineStr"/>
-      <c r="F24" s="46" t="inlineStr"/>
-      <c r="G24" s="46" t="inlineStr"/>
-      <c r="H24" s="46" t="inlineStr"/>
-      <c r="I24" s="46" t="inlineStr"/>
-      <c r="J24" s="46" t="inlineStr"/>
+      <c r="D24" s="46">
+        <f>SUM('4 MAR'!G10, '11 MAR'!G10, '18 MAR'!G10, '25 MAR'!G10, )</f>
+        <v/>
+      </c>
+      <c r="E24" s="46">
+        <f>SUM('4 MAR'!G11, '11 MAR'!G11, '18 MAR'!G11, '25 MAR'!G11, )</f>
+        <v/>
+      </c>
+      <c r="F24" s="46">
+        <f>SUM('4 MAR'!G12, '11 MAR'!G12, '18 MAR'!G12, '25 MAR'!G12, )</f>
+        <v/>
+      </c>
+      <c r="G24" s="46">
+        <f>SUM('4 MAR'!G13, '11 MAR'!G13, '18 MAR'!G13, '25 MAR'!G13, )</f>
+        <v/>
+      </c>
+      <c r="H24" s="46">
+        <f>SUM('4 MAR'!G14, '11 MAR'!G14, '18 MAR'!G14, '25 MAR'!G14, )</f>
+        <v/>
+      </c>
+      <c r="I24" s="46">
+        <f>SUM('4 MAR'!G15, '11 MAR'!G15, '18 MAR'!G15, '25 MAR'!G15, )</f>
+        <v/>
+      </c>
+      <c r="J24" s="46">
+        <f>SUM('4 MAR'!G16, '11 MAR'!G16, '18 MAR'!G16, '25 MAR'!G16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="25" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A25" s="47" t="n"/>
@@ -1380,13 +1695,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D25" s="46" t="inlineStr"/>
-      <c r="E25" s="46" t="inlineStr"/>
-      <c r="F25" s="46" t="inlineStr"/>
-      <c r="G25" s="46" t="inlineStr"/>
-      <c r="H25" s="46" t="inlineStr"/>
-      <c r="I25" s="46" t="inlineStr"/>
-      <c r="J25" s="46" t="inlineStr"/>
+      <c r="D25" s="46">
+        <f>SUM('4 MAR'!H10, '11 MAR'!H10, '18 MAR'!H10, '25 MAR'!H10, )</f>
+        <v/>
+      </c>
+      <c r="E25" s="46">
+        <f>SUM('4 MAR'!H11, '11 MAR'!H11, '18 MAR'!H11, '25 MAR'!H11, )</f>
+        <v/>
+      </c>
+      <c r="F25" s="46">
+        <f>SUM('4 MAR'!H12, '11 MAR'!H12, '18 MAR'!H12, '25 MAR'!H12, )</f>
+        <v/>
+      </c>
+      <c r="G25" s="46">
+        <f>SUM('4 MAR'!H13, '11 MAR'!H13, '18 MAR'!H13, '25 MAR'!H13, )</f>
+        <v/>
+      </c>
+      <c r="H25" s="46">
+        <f>SUM('4 MAR'!H14, '11 MAR'!H14, '18 MAR'!H14, '25 MAR'!H14, )</f>
+        <v/>
+      </c>
+      <c r="I25" s="46">
+        <f>SUM('4 MAR'!H15, '11 MAR'!H15, '18 MAR'!H15, '25 MAR'!H15, )</f>
+        <v/>
+      </c>
+      <c r="J25" s="46">
+        <f>SUM('4 MAR'!H16, '11 MAR'!H16, '18 MAR'!H16, '25 MAR'!H16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="26" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A26" s="48" t="n"/>
@@ -1396,13 +1732,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D26" s="46" t="inlineStr"/>
-      <c r="E26" s="46" t="inlineStr"/>
-      <c r="F26" s="46" t="inlineStr"/>
-      <c r="G26" s="46" t="inlineStr"/>
-      <c r="H26" s="46" t="inlineStr"/>
-      <c r="I26" s="46" t="inlineStr"/>
-      <c r="J26" s="46" t="inlineStr"/>
+      <c r="D26" s="46">
+        <f>'25 MAR'!I10</f>
+        <v/>
+      </c>
+      <c r="E26" s="46">
+        <f>'25 MAR'!I11</f>
+        <v/>
+      </c>
+      <c r="F26" s="46">
+        <f>'25 MAR'!I12</f>
+        <v/>
+      </c>
+      <c r="G26" s="46">
+        <f>'25 MAR'!I13</f>
+        <v/>
+      </c>
+      <c r="H26" s="46">
+        <f>'25 MAR'!I14</f>
+        <v/>
+      </c>
+      <c r="I26" s="46">
+        <f>'25 MAR'!I15</f>
+        <v/>
+      </c>
+      <c r="J26" s="46">
+        <f>'25 MAR'!I16</f>
+        <v/>
+      </c>
     </row>
     <row r="27" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A27" s="44" t="inlineStr">
@@ -1420,13 +1777,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D27" s="46" t="inlineStr"/>
-      <c r="E27" s="46" t="inlineStr"/>
-      <c r="F27" s="46" t="inlineStr"/>
-      <c r="G27" s="46" t="inlineStr"/>
-      <c r="H27" s="46" t="inlineStr"/>
-      <c r="I27" s="46" t="inlineStr"/>
-      <c r="J27" s="46" t="inlineStr"/>
+      <c r="D27" s="46">
+        <f>'25 MAR'!J10</f>
+        <v/>
+      </c>
+      <c r="E27" s="46">
+        <f>'25 MAR'!J11</f>
+        <v/>
+      </c>
+      <c r="F27" s="46">
+        <f>'25 MAR'!J12</f>
+        <v/>
+      </c>
+      <c r="G27" s="46">
+        <f>'25 MAR'!J13</f>
+        <v/>
+      </c>
+      <c r="H27" s="46">
+        <f>'25 MAR'!J14</f>
+        <v/>
+      </c>
+      <c r="I27" s="46">
+        <f>'25 MAR'!J15</f>
+        <v/>
+      </c>
+      <c r="J27" s="46">
+        <f>'25 MAR'!J16</f>
+        <v/>
+      </c>
     </row>
     <row r="28" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A28" s="47" t="n"/>
@@ -1436,13 +1814,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D28" s="46" t="inlineStr"/>
-      <c r="E28" s="46" t="inlineStr"/>
-      <c r="F28" s="46" t="inlineStr"/>
-      <c r="G28" s="46" t="inlineStr"/>
-      <c r="H28" s="46" t="inlineStr"/>
-      <c r="I28" s="46" t="inlineStr"/>
-      <c r="J28" s="46" t="inlineStr"/>
+      <c r="D28" s="46">
+        <f>SUM('1 APR'!B10, '8 APR'!B10, '15 APR'!B10, '22 APR'!B10, '29 APR'!B10, )</f>
+        <v/>
+      </c>
+      <c r="E28" s="46">
+        <f>SUM('1 APR'!B11, '8 APR'!B11, '15 APR'!B11, '22 APR'!B11, '29 APR'!B11, )</f>
+        <v/>
+      </c>
+      <c r="F28" s="46">
+        <f>SUM('1 APR'!B12, '8 APR'!B12, '15 APR'!B12, '22 APR'!B12, '29 APR'!B12, )</f>
+        <v/>
+      </c>
+      <c r="G28" s="46">
+        <f>SUM('1 APR'!B13, '8 APR'!B13, '15 APR'!B13, '22 APR'!B13, '29 APR'!B13, )</f>
+        <v/>
+      </c>
+      <c r="H28" s="46">
+        <f>SUM('1 APR'!B14, '8 APR'!B14, '15 APR'!B14, '22 APR'!B14, '29 APR'!B14, )</f>
+        <v/>
+      </c>
+      <c r="I28" s="46">
+        <f>SUM('1 APR'!B15, '8 APR'!B15, '15 APR'!B15, '22 APR'!B15, '29 APR'!B15, )</f>
+        <v/>
+      </c>
+      <c r="J28" s="46">
+        <f>SUM('1 APR'!B16, '8 APR'!B16, '15 APR'!B16, '22 APR'!B16, '29 APR'!B16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="29" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A29" s="47" t="n"/>
@@ -1456,13 +1855,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D29" s="46" t="inlineStr"/>
-      <c r="E29" s="46" t="inlineStr"/>
-      <c r="F29" s="46" t="inlineStr"/>
-      <c r="G29" s="46" t="inlineStr"/>
-      <c r="H29" s="46" t="inlineStr"/>
-      <c r="I29" s="46" t="inlineStr"/>
-      <c r="J29" s="46" t="inlineStr"/>
+      <c r="D29" s="46">
+        <f>SUM('1 APR'!E10 * '1 APR'!B10, '8 APR'!E10 * '8 APR'!B10, '15 APR'!E10 * '15 APR'!B10, '22 APR'!E10 * '22 APR'!B10, '29 APR'!E10 * '29 APR'!B10, )</f>
+        <v/>
+      </c>
+      <c r="E29" s="46">
+        <f>SUM('1 APR'!E11 * '1 APR'!B11, '8 APR'!E11 * '8 APR'!B11, '15 APR'!E11 * '15 APR'!B11, '22 APR'!E11 * '22 APR'!B11, '29 APR'!E11 * '29 APR'!B11, )</f>
+        <v/>
+      </c>
+      <c r="F29" s="46">
+        <f>SUM('1 APR'!E12 * '1 APR'!B12, '8 APR'!E12 * '8 APR'!B12, '15 APR'!E12 * '15 APR'!B12, '22 APR'!E12 * '22 APR'!B12, '29 APR'!E12 * '29 APR'!B12, )</f>
+        <v/>
+      </c>
+      <c r="G29" s="46">
+        <f>SUM('1 APR'!E13 * '1 APR'!B13, '8 APR'!E13 * '8 APR'!B13, '15 APR'!E13 * '15 APR'!B13, '22 APR'!E13 * '22 APR'!B13, '29 APR'!E13 * '29 APR'!B13, )</f>
+        <v/>
+      </c>
+      <c r="H29" s="46">
+        <f>SUM('1 APR'!E14 * '1 APR'!B14, '8 APR'!E14 * '8 APR'!B14, '15 APR'!E14 * '15 APR'!B14, '22 APR'!E14 * '22 APR'!B14, '29 APR'!E14 * '29 APR'!B14, )</f>
+        <v/>
+      </c>
+      <c r="I29" s="46">
+        <f>SUM('1 APR'!E15 * '1 APR'!B15, '8 APR'!E15 * '8 APR'!B15, '15 APR'!E15 * '15 APR'!B15, '22 APR'!E15 * '22 APR'!B15, '29 APR'!E15 * '29 APR'!B15, )</f>
+        <v/>
+      </c>
+      <c r="J29" s="46">
+        <f>SUM('1 APR'!E16 * '1 APR'!B16, '8 APR'!E16 * '8 APR'!B16, '15 APR'!E16 * '15 APR'!B16, '22 APR'!E16 * '22 APR'!B16, '29 APR'!E16 * '29 APR'!B16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="30" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A30" s="47" t="n"/>
@@ -1472,13 +1892,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D30" s="46" t="inlineStr"/>
-      <c r="E30" s="46" t="inlineStr"/>
-      <c r="F30" s="46" t="inlineStr"/>
-      <c r="G30" s="46" t="inlineStr"/>
-      <c r="H30" s="46" t="inlineStr"/>
-      <c r="I30" s="46" t="inlineStr"/>
-      <c r="J30" s="46" t="inlineStr"/>
+      <c r="D30" s="46">
+        <f>SUM('1 APR'!G10, '8 APR'!G10, '15 APR'!G10, '22 APR'!G10, '29 APR'!G10, )</f>
+        <v/>
+      </c>
+      <c r="E30" s="46">
+        <f>SUM('1 APR'!G11, '8 APR'!G11, '15 APR'!G11, '22 APR'!G11, '29 APR'!G11, )</f>
+        <v/>
+      </c>
+      <c r="F30" s="46">
+        <f>SUM('1 APR'!G12, '8 APR'!G12, '15 APR'!G12, '22 APR'!G12, '29 APR'!G12, )</f>
+        <v/>
+      </c>
+      <c r="G30" s="46">
+        <f>SUM('1 APR'!G13, '8 APR'!G13, '15 APR'!G13, '22 APR'!G13, '29 APR'!G13, )</f>
+        <v/>
+      </c>
+      <c r="H30" s="46">
+        <f>SUM('1 APR'!G14, '8 APR'!G14, '15 APR'!G14, '22 APR'!G14, '29 APR'!G14, )</f>
+        <v/>
+      </c>
+      <c r="I30" s="46">
+        <f>SUM('1 APR'!G15, '8 APR'!G15, '15 APR'!G15, '22 APR'!G15, '29 APR'!G15, )</f>
+        <v/>
+      </c>
+      <c r="J30" s="46">
+        <f>SUM('1 APR'!G16, '8 APR'!G16, '15 APR'!G16, '22 APR'!G16, '29 APR'!G16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="31" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A31" s="47" t="n"/>
@@ -1492,13 +1933,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D31" s="46" t="inlineStr"/>
-      <c r="E31" s="46" t="inlineStr"/>
-      <c r="F31" s="46" t="inlineStr"/>
-      <c r="G31" s="46" t="inlineStr"/>
-      <c r="H31" s="46" t="inlineStr"/>
-      <c r="I31" s="46" t="inlineStr"/>
-      <c r="J31" s="46" t="inlineStr"/>
+      <c r="D31" s="46">
+        <f>SUM('1 APR'!H10, '8 APR'!H10, '15 APR'!H10, '22 APR'!H10, '29 APR'!H10, )</f>
+        <v/>
+      </c>
+      <c r="E31" s="46">
+        <f>SUM('1 APR'!H11, '8 APR'!H11, '15 APR'!H11, '22 APR'!H11, '29 APR'!H11, )</f>
+        <v/>
+      </c>
+      <c r="F31" s="46">
+        <f>SUM('1 APR'!H12, '8 APR'!H12, '15 APR'!H12, '22 APR'!H12, '29 APR'!H12, )</f>
+        <v/>
+      </c>
+      <c r="G31" s="46">
+        <f>SUM('1 APR'!H13, '8 APR'!H13, '15 APR'!H13, '22 APR'!H13, '29 APR'!H13, )</f>
+        <v/>
+      </c>
+      <c r="H31" s="46">
+        <f>SUM('1 APR'!H14, '8 APR'!H14, '15 APR'!H14, '22 APR'!H14, '29 APR'!H14, )</f>
+        <v/>
+      </c>
+      <c r="I31" s="46">
+        <f>SUM('1 APR'!H15, '8 APR'!H15, '15 APR'!H15, '22 APR'!H15, '29 APR'!H15, )</f>
+        <v/>
+      </c>
+      <c r="J31" s="46">
+        <f>SUM('1 APR'!H16, '8 APR'!H16, '15 APR'!H16, '22 APR'!H16, '29 APR'!H16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="32" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A32" s="48" t="n"/>
@@ -1508,13 +1970,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D32" s="46" t="inlineStr"/>
-      <c r="E32" s="46" t="inlineStr"/>
-      <c r="F32" s="46" t="inlineStr"/>
-      <c r="G32" s="46" t="inlineStr"/>
-      <c r="H32" s="46" t="inlineStr"/>
-      <c r="I32" s="46" t="inlineStr"/>
-      <c r="J32" s="46" t="inlineStr"/>
+      <c r="D32" s="46">
+        <f>'29 APR'!I10</f>
+        <v/>
+      </c>
+      <c r="E32" s="46">
+        <f>'29 APR'!I11</f>
+        <v/>
+      </c>
+      <c r="F32" s="46">
+        <f>'29 APR'!I12</f>
+        <v/>
+      </c>
+      <c r="G32" s="46">
+        <f>'29 APR'!I13</f>
+        <v/>
+      </c>
+      <c r="H32" s="46">
+        <f>'29 APR'!I14</f>
+        <v/>
+      </c>
+      <c r="I32" s="46">
+        <f>'29 APR'!I15</f>
+        <v/>
+      </c>
+      <c r="J32" s="46">
+        <f>'29 APR'!I16</f>
+        <v/>
+      </c>
     </row>
     <row r="33" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A33" s="44" t="inlineStr">
@@ -1532,13 +2015,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D33" s="46" t="inlineStr"/>
-      <c r="E33" s="46" t="inlineStr"/>
-      <c r="F33" s="46" t="inlineStr"/>
-      <c r="G33" s="46" t="inlineStr"/>
-      <c r="H33" s="46" t="inlineStr"/>
-      <c r="I33" s="46" t="inlineStr"/>
-      <c r="J33" s="46" t="inlineStr"/>
+      <c r="D33" s="46">
+        <f>'29 APR'!J10</f>
+        <v/>
+      </c>
+      <c r="E33" s="46">
+        <f>'29 APR'!J11</f>
+        <v/>
+      </c>
+      <c r="F33" s="46">
+        <f>'29 APR'!J12</f>
+        <v/>
+      </c>
+      <c r="G33" s="46">
+        <f>'29 APR'!J13</f>
+        <v/>
+      </c>
+      <c r="H33" s="46">
+        <f>'29 APR'!J14</f>
+        <v/>
+      </c>
+      <c r="I33" s="46">
+        <f>'29 APR'!J15</f>
+        <v/>
+      </c>
+      <c r="J33" s="46">
+        <f>'29 APR'!J16</f>
+        <v/>
+      </c>
     </row>
     <row r="34" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A34" s="47" t="n"/>
@@ -1548,13 +2052,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D34" s="46" t="inlineStr"/>
-      <c r="E34" s="46" t="inlineStr"/>
-      <c r="F34" s="46" t="inlineStr"/>
-      <c r="G34" s="46" t="inlineStr"/>
-      <c r="H34" s="46" t="inlineStr"/>
-      <c r="I34" s="46" t="inlineStr"/>
-      <c r="J34" s="46" t="inlineStr"/>
+      <c r="D34" s="46">
+        <f>SUM('6 MAI'!B10, '13 MAI'!B10, '20 MAI'!B10, '27 MAI'!B10, )</f>
+        <v/>
+      </c>
+      <c r="E34" s="46">
+        <f>SUM('6 MAI'!B11, '13 MAI'!B11, '20 MAI'!B11, '27 MAI'!B11, )</f>
+        <v/>
+      </c>
+      <c r="F34" s="46">
+        <f>SUM('6 MAI'!B12, '13 MAI'!B12, '20 MAI'!B12, '27 MAI'!B12, )</f>
+        <v/>
+      </c>
+      <c r="G34" s="46">
+        <f>SUM('6 MAI'!B13, '13 MAI'!B13, '20 MAI'!B13, '27 MAI'!B13, )</f>
+        <v/>
+      </c>
+      <c r="H34" s="46">
+        <f>SUM('6 MAI'!B14, '13 MAI'!B14, '20 MAI'!B14, '27 MAI'!B14, )</f>
+        <v/>
+      </c>
+      <c r="I34" s="46">
+        <f>SUM('6 MAI'!B15, '13 MAI'!B15, '20 MAI'!B15, '27 MAI'!B15, )</f>
+        <v/>
+      </c>
+      <c r="J34" s="46">
+        <f>SUM('6 MAI'!B16, '13 MAI'!B16, '20 MAI'!B16, '27 MAI'!B16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="35" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A35" s="47" t="n"/>
@@ -1568,13 +2093,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D35" s="46" t="inlineStr"/>
-      <c r="E35" s="46" t="inlineStr"/>
-      <c r="F35" s="46" t="inlineStr"/>
-      <c r="G35" s="46" t="inlineStr"/>
-      <c r="H35" s="46" t="inlineStr"/>
-      <c r="I35" s="46" t="inlineStr"/>
-      <c r="J35" s="46" t="inlineStr"/>
+      <c r="D35" s="46">
+        <f>SUM('6 MAI'!E10 * '6 MAI'!B10, '13 MAI'!E10 * '13 MAI'!B10, '20 MAI'!E10 * '20 MAI'!B10, '27 MAI'!E10 * '27 MAI'!B10, )</f>
+        <v/>
+      </c>
+      <c r="E35" s="46">
+        <f>SUM('6 MAI'!E11 * '6 MAI'!B11, '13 MAI'!E11 * '13 MAI'!B11, '20 MAI'!E11 * '20 MAI'!B11, '27 MAI'!E11 * '27 MAI'!B11, )</f>
+        <v/>
+      </c>
+      <c r="F35" s="46">
+        <f>SUM('6 MAI'!E12 * '6 MAI'!B12, '13 MAI'!E12 * '13 MAI'!B12, '20 MAI'!E12 * '20 MAI'!B12, '27 MAI'!E12 * '27 MAI'!B12, )</f>
+        <v/>
+      </c>
+      <c r="G35" s="46">
+        <f>SUM('6 MAI'!E13 * '6 MAI'!B13, '13 MAI'!E13 * '13 MAI'!B13, '20 MAI'!E13 * '20 MAI'!B13, '27 MAI'!E13 * '27 MAI'!B13, )</f>
+        <v/>
+      </c>
+      <c r="H35" s="46">
+        <f>SUM('6 MAI'!E14 * '6 MAI'!B14, '13 MAI'!E14 * '13 MAI'!B14, '20 MAI'!E14 * '20 MAI'!B14, '27 MAI'!E14 * '27 MAI'!B14, )</f>
+        <v/>
+      </c>
+      <c r="I35" s="46">
+        <f>SUM('6 MAI'!E15 * '6 MAI'!B15, '13 MAI'!E15 * '13 MAI'!B15, '20 MAI'!E15 * '20 MAI'!B15, '27 MAI'!E15 * '27 MAI'!B15, )</f>
+        <v/>
+      </c>
+      <c r="J35" s="46">
+        <f>SUM('6 MAI'!E16 * '6 MAI'!B16, '13 MAI'!E16 * '13 MAI'!B16, '20 MAI'!E16 * '20 MAI'!B16, '27 MAI'!E16 * '27 MAI'!B16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="36" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A36" s="47" t="n"/>
@@ -1584,13 +2130,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D36" s="46" t="inlineStr"/>
-      <c r="E36" s="46" t="inlineStr"/>
-      <c r="F36" s="46" t="inlineStr"/>
-      <c r="G36" s="46" t="inlineStr"/>
-      <c r="H36" s="46" t="inlineStr"/>
-      <c r="I36" s="46" t="inlineStr"/>
-      <c r="J36" s="46" t="inlineStr"/>
+      <c r="D36" s="46">
+        <f>SUM('6 MAI'!G10, '13 MAI'!G10, '20 MAI'!G10, '27 MAI'!G10, )</f>
+        <v/>
+      </c>
+      <c r="E36" s="46">
+        <f>SUM('6 MAI'!G11, '13 MAI'!G11, '20 MAI'!G11, '27 MAI'!G11, )</f>
+        <v/>
+      </c>
+      <c r="F36" s="46">
+        <f>SUM('6 MAI'!G12, '13 MAI'!G12, '20 MAI'!G12, '27 MAI'!G12, )</f>
+        <v/>
+      </c>
+      <c r="G36" s="46">
+        <f>SUM('6 MAI'!G13, '13 MAI'!G13, '20 MAI'!G13, '27 MAI'!G13, )</f>
+        <v/>
+      </c>
+      <c r="H36" s="46">
+        <f>SUM('6 MAI'!G14, '13 MAI'!G14, '20 MAI'!G14, '27 MAI'!G14, )</f>
+        <v/>
+      </c>
+      <c r="I36" s="46">
+        <f>SUM('6 MAI'!G15, '13 MAI'!G15, '20 MAI'!G15, '27 MAI'!G15, )</f>
+        <v/>
+      </c>
+      <c r="J36" s="46">
+        <f>SUM('6 MAI'!G16, '13 MAI'!G16, '20 MAI'!G16, '27 MAI'!G16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="37" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A37" s="47" t="n"/>
@@ -1604,13 +2171,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D37" s="46" t="inlineStr"/>
-      <c r="E37" s="46" t="inlineStr"/>
-      <c r="F37" s="46" t="inlineStr"/>
-      <c r="G37" s="46" t="inlineStr"/>
-      <c r="H37" s="46" t="inlineStr"/>
-      <c r="I37" s="46" t="inlineStr"/>
-      <c r="J37" s="46" t="inlineStr"/>
+      <c r="D37" s="46">
+        <f>SUM('6 MAI'!H10, '13 MAI'!H10, '20 MAI'!H10, '27 MAI'!H10, )</f>
+        <v/>
+      </c>
+      <c r="E37" s="46">
+        <f>SUM('6 MAI'!H11, '13 MAI'!H11, '20 MAI'!H11, '27 MAI'!H11, )</f>
+        <v/>
+      </c>
+      <c r="F37" s="46">
+        <f>SUM('6 MAI'!H12, '13 MAI'!H12, '20 MAI'!H12, '27 MAI'!H12, )</f>
+        <v/>
+      </c>
+      <c r="G37" s="46">
+        <f>SUM('6 MAI'!H13, '13 MAI'!H13, '20 MAI'!H13, '27 MAI'!H13, )</f>
+        <v/>
+      </c>
+      <c r="H37" s="46">
+        <f>SUM('6 MAI'!H14, '13 MAI'!H14, '20 MAI'!H14, '27 MAI'!H14, )</f>
+        <v/>
+      </c>
+      <c r="I37" s="46">
+        <f>SUM('6 MAI'!H15, '13 MAI'!H15, '20 MAI'!H15, '27 MAI'!H15, )</f>
+        <v/>
+      </c>
+      <c r="J37" s="46">
+        <f>SUM('6 MAI'!H16, '13 MAI'!H16, '20 MAI'!H16, '27 MAI'!H16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="38" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A38" s="48" t="n"/>
@@ -1620,13 +2208,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D38" s="46" t="inlineStr"/>
-      <c r="E38" s="46" t="inlineStr"/>
-      <c r="F38" s="46" t="inlineStr"/>
-      <c r="G38" s="46" t="inlineStr"/>
-      <c r="H38" s="46" t="inlineStr"/>
-      <c r="I38" s="46" t="inlineStr"/>
-      <c r="J38" s="46" t="inlineStr"/>
+      <c r="D38" s="46">
+        <f>'27 MAI'!I10</f>
+        <v/>
+      </c>
+      <c r="E38" s="46">
+        <f>'27 MAI'!I11</f>
+        <v/>
+      </c>
+      <c r="F38" s="46">
+        <f>'27 MAI'!I12</f>
+        <v/>
+      </c>
+      <c r="G38" s="46">
+        <f>'27 MAI'!I13</f>
+        <v/>
+      </c>
+      <c r="H38" s="46">
+        <f>'27 MAI'!I14</f>
+        <v/>
+      </c>
+      <c r="I38" s="46">
+        <f>'27 MAI'!I15</f>
+        <v/>
+      </c>
+      <c r="J38" s="46">
+        <f>'27 MAI'!I16</f>
+        <v/>
+      </c>
     </row>
     <row r="39" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A39" s="44" t="inlineStr">
@@ -1644,13 +2253,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D39" s="46" t="inlineStr"/>
-      <c r="E39" s="46" t="inlineStr"/>
-      <c r="F39" s="46" t="inlineStr"/>
-      <c r="G39" s="46" t="inlineStr"/>
-      <c r="H39" s="46" t="inlineStr"/>
-      <c r="I39" s="46" t="inlineStr"/>
-      <c r="J39" s="46" t="inlineStr"/>
+      <c r="D39" s="46">
+        <f>'27 MAI'!J10</f>
+        <v/>
+      </c>
+      <c r="E39" s="46">
+        <f>'27 MAI'!J11</f>
+        <v/>
+      </c>
+      <c r="F39" s="46">
+        <f>'27 MAI'!J12</f>
+        <v/>
+      </c>
+      <c r="G39" s="46">
+        <f>'27 MAI'!J13</f>
+        <v/>
+      </c>
+      <c r="H39" s="46">
+        <f>'27 MAI'!J14</f>
+        <v/>
+      </c>
+      <c r="I39" s="46">
+        <f>'27 MAI'!J15</f>
+        <v/>
+      </c>
+      <c r="J39" s="46">
+        <f>'27 MAI'!J16</f>
+        <v/>
+      </c>
     </row>
     <row r="40" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A40" s="47" t="n"/>
@@ -1660,13 +2290,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D40" s="46" t="inlineStr"/>
-      <c r="E40" s="46" t="inlineStr"/>
-      <c r="F40" s="46" t="inlineStr"/>
-      <c r="G40" s="46" t="inlineStr"/>
-      <c r="H40" s="46" t="inlineStr"/>
-      <c r="I40" s="46" t="inlineStr"/>
-      <c r="J40" s="46" t="inlineStr"/>
+      <c r="D40" s="46">
+        <f>SUM('3 IUN'!B10, '10 IUN'!B10, '17 IUN'!B10, '24 IUN'!B10, )</f>
+        <v/>
+      </c>
+      <c r="E40" s="46">
+        <f>SUM('3 IUN'!B11, '10 IUN'!B11, '17 IUN'!B11, '24 IUN'!B11, )</f>
+        <v/>
+      </c>
+      <c r="F40" s="46">
+        <f>SUM('3 IUN'!B12, '10 IUN'!B12, '17 IUN'!B12, '24 IUN'!B12, )</f>
+        <v/>
+      </c>
+      <c r="G40" s="46">
+        <f>SUM('3 IUN'!B13, '10 IUN'!B13, '17 IUN'!B13, '24 IUN'!B13, )</f>
+        <v/>
+      </c>
+      <c r="H40" s="46">
+        <f>SUM('3 IUN'!B14, '10 IUN'!B14, '17 IUN'!B14, '24 IUN'!B14, )</f>
+        <v/>
+      </c>
+      <c r="I40" s="46">
+        <f>SUM('3 IUN'!B15, '10 IUN'!B15, '17 IUN'!B15, '24 IUN'!B15, )</f>
+        <v/>
+      </c>
+      <c r="J40" s="46">
+        <f>SUM('3 IUN'!B16, '10 IUN'!B16, '17 IUN'!B16, '24 IUN'!B16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="41" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A41" s="47" t="n"/>
@@ -1680,13 +2331,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D41" s="46" t="inlineStr"/>
-      <c r="E41" s="46" t="inlineStr"/>
-      <c r="F41" s="46" t="inlineStr"/>
-      <c r="G41" s="46" t="inlineStr"/>
-      <c r="H41" s="46" t="inlineStr"/>
-      <c r="I41" s="46" t="inlineStr"/>
-      <c r="J41" s="46" t="inlineStr"/>
+      <c r="D41" s="46">
+        <f>SUM('3 IUN'!E10 * '3 IUN'!B10, '10 IUN'!E10 * '10 IUN'!B10, '17 IUN'!E10 * '17 IUN'!B10, '24 IUN'!E10 * '24 IUN'!B10, )</f>
+        <v/>
+      </c>
+      <c r="E41" s="46">
+        <f>SUM('3 IUN'!E11 * '3 IUN'!B11, '10 IUN'!E11 * '10 IUN'!B11, '17 IUN'!E11 * '17 IUN'!B11, '24 IUN'!E11 * '24 IUN'!B11, )</f>
+        <v/>
+      </c>
+      <c r="F41" s="46">
+        <f>SUM('3 IUN'!E12 * '3 IUN'!B12, '10 IUN'!E12 * '10 IUN'!B12, '17 IUN'!E12 * '17 IUN'!B12, '24 IUN'!E12 * '24 IUN'!B12, )</f>
+        <v/>
+      </c>
+      <c r="G41" s="46">
+        <f>SUM('3 IUN'!E13 * '3 IUN'!B13, '10 IUN'!E13 * '10 IUN'!B13, '17 IUN'!E13 * '17 IUN'!B13, '24 IUN'!E13 * '24 IUN'!B13, )</f>
+        <v/>
+      </c>
+      <c r="H41" s="46">
+        <f>SUM('3 IUN'!E14 * '3 IUN'!B14, '10 IUN'!E14 * '10 IUN'!B14, '17 IUN'!E14 * '17 IUN'!B14, '24 IUN'!E14 * '24 IUN'!B14, )</f>
+        <v/>
+      </c>
+      <c r="I41" s="46">
+        <f>SUM('3 IUN'!E15 * '3 IUN'!B15, '10 IUN'!E15 * '10 IUN'!B15, '17 IUN'!E15 * '17 IUN'!B15, '24 IUN'!E15 * '24 IUN'!B15, )</f>
+        <v/>
+      </c>
+      <c r="J41" s="46">
+        <f>SUM('3 IUN'!E16 * '3 IUN'!B16, '10 IUN'!E16 * '10 IUN'!B16, '17 IUN'!E16 * '17 IUN'!B16, '24 IUN'!E16 * '24 IUN'!B16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="42" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A42" s="47" t="n"/>
@@ -1696,13 +2368,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D42" s="46" t="inlineStr"/>
-      <c r="E42" s="46" t="inlineStr"/>
-      <c r="F42" s="46" t="inlineStr"/>
-      <c r="G42" s="46" t="inlineStr"/>
-      <c r="H42" s="46" t="inlineStr"/>
-      <c r="I42" s="46" t="inlineStr"/>
-      <c r="J42" s="46" t="inlineStr"/>
+      <c r="D42" s="46">
+        <f>SUM('3 IUN'!G10, '10 IUN'!G10, '17 IUN'!G10, '24 IUN'!G10, )</f>
+        <v/>
+      </c>
+      <c r="E42" s="46">
+        <f>SUM('3 IUN'!G11, '10 IUN'!G11, '17 IUN'!G11, '24 IUN'!G11, )</f>
+        <v/>
+      </c>
+      <c r="F42" s="46">
+        <f>SUM('3 IUN'!G12, '10 IUN'!G12, '17 IUN'!G12, '24 IUN'!G12, )</f>
+        <v/>
+      </c>
+      <c r="G42" s="46">
+        <f>SUM('3 IUN'!G13, '10 IUN'!G13, '17 IUN'!G13, '24 IUN'!G13, )</f>
+        <v/>
+      </c>
+      <c r="H42" s="46">
+        <f>SUM('3 IUN'!G14, '10 IUN'!G14, '17 IUN'!G14, '24 IUN'!G14, )</f>
+        <v/>
+      </c>
+      <c r="I42" s="46">
+        <f>SUM('3 IUN'!G15, '10 IUN'!G15, '17 IUN'!G15, '24 IUN'!G15, )</f>
+        <v/>
+      </c>
+      <c r="J42" s="46">
+        <f>SUM('3 IUN'!G16, '10 IUN'!G16, '17 IUN'!G16, '24 IUN'!G16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="43" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A43" s="47" t="n"/>
@@ -1716,13 +2409,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D43" s="46" t="inlineStr"/>
-      <c r="E43" s="46" t="inlineStr"/>
-      <c r="F43" s="46" t="inlineStr"/>
-      <c r="G43" s="46" t="inlineStr"/>
-      <c r="H43" s="46" t="inlineStr"/>
-      <c r="I43" s="46" t="inlineStr"/>
-      <c r="J43" s="46" t="inlineStr"/>
+      <c r="D43" s="46">
+        <f>SUM('3 IUN'!H10, '10 IUN'!H10, '17 IUN'!H10, '24 IUN'!H10, )</f>
+        <v/>
+      </c>
+      <c r="E43" s="46">
+        <f>SUM('3 IUN'!H11, '10 IUN'!H11, '17 IUN'!H11, '24 IUN'!H11, )</f>
+        <v/>
+      </c>
+      <c r="F43" s="46">
+        <f>SUM('3 IUN'!H12, '10 IUN'!H12, '17 IUN'!H12, '24 IUN'!H12, )</f>
+        <v/>
+      </c>
+      <c r="G43" s="46">
+        <f>SUM('3 IUN'!H13, '10 IUN'!H13, '17 IUN'!H13, '24 IUN'!H13, )</f>
+        <v/>
+      </c>
+      <c r="H43" s="46">
+        <f>SUM('3 IUN'!H14, '10 IUN'!H14, '17 IUN'!H14, '24 IUN'!H14, )</f>
+        <v/>
+      </c>
+      <c r="I43" s="46">
+        <f>SUM('3 IUN'!H15, '10 IUN'!H15, '17 IUN'!H15, '24 IUN'!H15, )</f>
+        <v/>
+      </c>
+      <c r="J43" s="46">
+        <f>SUM('3 IUN'!H16, '10 IUN'!H16, '17 IUN'!H16, '24 IUN'!H16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="44" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A44" s="48" t="n"/>
@@ -1732,13 +2446,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D44" s="46" t="inlineStr"/>
-      <c r="E44" s="46" t="inlineStr"/>
-      <c r="F44" s="46" t="inlineStr"/>
-      <c r="G44" s="46" t="inlineStr"/>
-      <c r="H44" s="46" t="inlineStr"/>
-      <c r="I44" s="46" t="inlineStr"/>
-      <c r="J44" s="46" t="inlineStr"/>
+      <c r="D44" s="46">
+        <f>'24 IUN'!I10</f>
+        <v/>
+      </c>
+      <c r="E44" s="46">
+        <f>'24 IUN'!I11</f>
+        <v/>
+      </c>
+      <c r="F44" s="46">
+        <f>'24 IUN'!I12</f>
+        <v/>
+      </c>
+      <c r="G44" s="46">
+        <f>'24 IUN'!I13</f>
+        <v/>
+      </c>
+      <c r="H44" s="46">
+        <f>'24 IUN'!I14</f>
+        <v/>
+      </c>
+      <c r="I44" s="46">
+        <f>'24 IUN'!I15</f>
+        <v/>
+      </c>
+      <c r="J44" s="46">
+        <f>'24 IUN'!I16</f>
+        <v/>
+      </c>
     </row>
     <row r="45" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A45" s="44" t="inlineStr">
@@ -1756,13 +2491,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D45" s="46" t="inlineStr"/>
-      <c r="E45" s="46" t="inlineStr"/>
-      <c r="F45" s="46" t="inlineStr"/>
-      <c r="G45" s="46" t="inlineStr"/>
-      <c r="H45" s="46" t="inlineStr"/>
-      <c r="I45" s="46" t="inlineStr"/>
-      <c r="J45" s="46" t="inlineStr"/>
+      <c r="D45" s="46">
+        <f>'24 IUN'!J10</f>
+        <v/>
+      </c>
+      <c r="E45" s="46">
+        <f>'24 IUN'!J11</f>
+        <v/>
+      </c>
+      <c r="F45" s="46">
+        <f>'24 IUN'!J12</f>
+        <v/>
+      </c>
+      <c r="G45" s="46">
+        <f>'24 IUN'!J13</f>
+        <v/>
+      </c>
+      <c r="H45" s="46">
+        <f>'24 IUN'!J14</f>
+        <v/>
+      </c>
+      <c r="I45" s="46">
+        <f>'24 IUN'!J15</f>
+        <v/>
+      </c>
+      <c r="J45" s="46">
+        <f>'24 IUN'!J16</f>
+        <v/>
+      </c>
     </row>
     <row r="46" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A46" s="47" t="n"/>
@@ -1772,13 +2528,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D46" s="46" t="inlineStr"/>
-      <c r="E46" s="46" t="inlineStr"/>
-      <c r="F46" s="46" t="inlineStr"/>
-      <c r="G46" s="46" t="inlineStr"/>
-      <c r="H46" s="46" t="inlineStr"/>
-      <c r="I46" s="46" t="inlineStr"/>
-      <c r="J46" s="46" t="inlineStr"/>
+      <c r="D46" s="46">
+        <f>SUM('1 IUL'!B10, '8 IUL'!B10, '15 IUL'!B10, '22 IUL'!B10, '29 IUL'!B10, )</f>
+        <v/>
+      </c>
+      <c r="E46" s="46">
+        <f>SUM('1 IUL'!B11, '8 IUL'!B11, '15 IUL'!B11, '22 IUL'!B11, '29 IUL'!B11, )</f>
+        <v/>
+      </c>
+      <c r="F46" s="46">
+        <f>SUM('1 IUL'!B12, '8 IUL'!B12, '15 IUL'!B12, '22 IUL'!B12, '29 IUL'!B12, )</f>
+        <v/>
+      </c>
+      <c r="G46" s="46">
+        <f>SUM('1 IUL'!B13, '8 IUL'!B13, '15 IUL'!B13, '22 IUL'!B13, '29 IUL'!B13, )</f>
+        <v/>
+      </c>
+      <c r="H46" s="46">
+        <f>SUM('1 IUL'!B14, '8 IUL'!B14, '15 IUL'!B14, '22 IUL'!B14, '29 IUL'!B14, )</f>
+        <v/>
+      </c>
+      <c r="I46" s="46">
+        <f>SUM('1 IUL'!B15, '8 IUL'!B15, '15 IUL'!B15, '22 IUL'!B15, '29 IUL'!B15, )</f>
+        <v/>
+      </c>
+      <c r="J46" s="46">
+        <f>SUM('1 IUL'!B16, '8 IUL'!B16, '15 IUL'!B16, '22 IUL'!B16, '29 IUL'!B16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="47" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A47" s="47" t="n"/>
@@ -1792,13 +2569,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D47" s="46" t="inlineStr"/>
-      <c r="E47" s="46" t="inlineStr"/>
-      <c r="F47" s="46" t="inlineStr"/>
-      <c r="G47" s="46" t="inlineStr"/>
-      <c r="H47" s="46" t="inlineStr"/>
-      <c r="I47" s="46" t="inlineStr"/>
-      <c r="J47" s="46" t="inlineStr"/>
+      <c r="D47" s="46">
+        <f>SUM('1 IUL'!E10 * '1 IUL'!B10, '8 IUL'!E10 * '8 IUL'!B10, '15 IUL'!E10 * '15 IUL'!B10, '22 IUL'!E10 * '22 IUL'!B10, '29 IUL'!E10 * '29 IUL'!B10, )</f>
+        <v/>
+      </c>
+      <c r="E47" s="46">
+        <f>SUM('1 IUL'!E11 * '1 IUL'!B11, '8 IUL'!E11 * '8 IUL'!B11, '15 IUL'!E11 * '15 IUL'!B11, '22 IUL'!E11 * '22 IUL'!B11, '29 IUL'!E11 * '29 IUL'!B11, )</f>
+        <v/>
+      </c>
+      <c r="F47" s="46">
+        <f>SUM('1 IUL'!E12 * '1 IUL'!B12, '8 IUL'!E12 * '8 IUL'!B12, '15 IUL'!E12 * '15 IUL'!B12, '22 IUL'!E12 * '22 IUL'!B12, '29 IUL'!E12 * '29 IUL'!B12, )</f>
+        <v/>
+      </c>
+      <c r="G47" s="46">
+        <f>SUM('1 IUL'!E13 * '1 IUL'!B13, '8 IUL'!E13 * '8 IUL'!B13, '15 IUL'!E13 * '15 IUL'!B13, '22 IUL'!E13 * '22 IUL'!B13, '29 IUL'!E13 * '29 IUL'!B13, )</f>
+        <v/>
+      </c>
+      <c r="H47" s="46">
+        <f>SUM('1 IUL'!E14 * '1 IUL'!B14, '8 IUL'!E14 * '8 IUL'!B14, '15 IUL'!E14 * '15 IUL'!B14, '22 IUL'!E14 * '22 IUL'!B14, '29 IUL'!E14 * '29 IUL'!B14, )</f>
+        <v/>
+      </c>
+      <c r="I47" s="46">
+        <f>SUM('1 IUL'!E15 * '1 IUL'!B15, '8 IUL'!E15 * '8 IUL'!B15, '15 IUL'!E15 * '15 IUL'!B15, '22 IUL'!E15 * '22 IUL'!B15, '29 IUL'!E15 * '29 IUL'!B15, )</f>
+        <v/>
+      </c>
+      <c r="J47" s="46">
+        <f>SUM('1 IUL'!E16 * '1 IUL'!B16, '8 IUL'!E16 * '8 IUL'!B16, '15 IUL'!E16 * '15 IUL'!B16, '22 IUL'!E16 * '22 IUL'!B16, '29 IUL'!E16 * '29 IUL'!B16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="48" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A48" s="47" t="n"/>
@@ -1808,13 +2606,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D48" s="46" t="inlineStr"/>
-      <c r="E48" s="46" t="inlineStr"/>
-      <c r="F48" s="46" t="inlineStr"/>
-      <c r="G48" s="46" t="inlineStr"/>
-      <c r="H48" s="46" t="inlineStr"/>
-      <c r="I48" s="46" t="inlineStr"/>
-      <c r="J48" s="46" t="inlineStr"/>
+      <c r="D48" s="46">
+        <f>SUM('1 IUL'!G10, '8 IUL'!G10, '15 IUL'!G10, '22 IUL'!G10, '29 IUL'!G10, )</f>
+        <v/>
+      </c>
+      <c r="E48" s="46">
+        <f>SUM('1 IUL'!G11, '8 IUL'!G11, '15 IUL'!G11, '22 IUL'!G11, '29 IUL'!G11, )</f>
+        <v/>
+      </c>
+      <c r="F48" s="46">
+        <f>SUM('1 IUL'!G12, '8 IUL'!G12, '15 IUL'!G12, '22 IUL'!G12, '29 IUL'!G12, )</f>
+        <v/>
+      </c>
+      <c r="G48" s="46">
+        <f>SUM('1 IUL'!G13, '8 IUL'!G13, '15 IUL'!G13, '22 IUL'!G13, '29 IUL'!G13, )</f>
+        <v/>
+      </c>
+      <c r="H48" s="46">
+        <f>SUM('1 IUL'!G14, '8 IUL'!G14, '15 IUL'!G14, '22 IUL'!G14, '29 IUL'!G14, )</f>
+        <v/>
+      </c>
+      <c r="I48" s="46">
+        <f>SUM('1 IUL'!G15, '8 IUL'!G15, '15 IUL'!G15, '22 IUL'!G15, '29 IUL'!G15, )</f>
+        <v/>
+      </c>
+      <c r="J48" s="46">
+        <f>SUM('1 IUL'!G16, '8 IUL'!G16, '15 IUL'!G16, '22 IUL'!G16, '29 IUL'!G16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="49" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A49" s="47" t="n"/>
@@ -1828,13 +2647,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D49" s="46" t="inlineStr"/>
-      <c r="E49" s="46" t="inlineStr"/>
-      <c r="F49" s="46" t="inlineStr"/>
-      <c r="G49" s="46" t="inlineStr"/>
-      <c r="H49" s="46" t="inlineStr"/>
-      <c r="I49" s="46" t="inlineStr"/>
-      <c r="J49" s="46" t="inlineStr"/>
+      <c r="D49" s="46">
+        <f>SUM('1 IUL'!H10, '8 IUL'!H10, '15 IUL'!H10, '22 IUL'!H10, '29 IUL'!H10, )</f>
+        <v/>
+      </c>
+      <c r="E49" s="46">
+        <f>SUM('1 IUL'!H11, '8 IUL'!H11, '15 IUL'!H11, '22 IUL'!H11, '29 IUL'!H11, )</f>
+        <v/>
+      </c>
+      <c r="F49" s="46">
+        <f>SUM('1 IUL'!H12, '8 IUL'!H12, '15 IUL'!H12, '22 IUL'!H12, '29 IUL'!H12, )</f>
+        <v/>
+      </c>
+      <c r="G49" s="46">
+        <f>SUM('1 IUL'!H13, '8 IUL'!H13, '15 IUL'!H13, '22 IUL'!H13, '29 IUL'!H13, )</f>
+        <v/>
+      </c>
+      <c r="H49" s="46">
+        <f>SUM('1 IUL'!H14, '8 IUL'!H14, '15 IUL'!H14, '22 IUL'!H14, '29 IUL'!H14, )</f>
+        <v/>
+      </c>
+      <c r="I49" s="46">
+        <f>SUM('1 IUL'!H15, '8 IUL'!H15, '15 IUL'!H15, '22 IUL'!H15, '29 IUL'!H15, )</f>
+        <v/>
+      </c>
+      <c r="J49" s="46">
+        <f>SUM('1 IUL'!H16, '8 IUL'!H16, '15 IUL'!H16, '22 IUL'!H16, '29 IUL'!H16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="50" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A50" s="48" t="n"/>
@@ -1844,13 +2684,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D50" s="46" t="inlineStr"/>
-      <c r="E50" s="46" t="inlineStr"/>
-      <c r="F50" s="46" t="inlineStr"/>
-      <c r="G50" s="46" t="inlineStr"/>
-      <c r="H50" s="46" t="inlineStr"/>
-      <c r="I50" s="46" t="inlineStr"/>
-      <c r="J50" s="46" t="inlineStr"/>
+      <c r="D50" s="46">
+        <f>'29 IUL'!I10</f>
+        <v/>
+      </c>
+      <c r="E50" s="46">
+        <f>'29 IUL'!I11</f>
+        <v/>
+      </c>
+      <c r="F50" s="46">
+        <f>'29 IUL'!I12</f>
+        <v/>
+      </c>
+      <c r="G50" s="46">
+        <f>'29 IUL'!I13</f>
+        <v/>
+      </c>
+      <c r="H50" s="46">
+        <f>'29 IUL'!I14</f>
+        <v/>
+      </c>
+      <c r="I50" s="46">
+        <f>'29 IUL'!I15</f>
+        <v/>
+      </c>
+      <c r="J50" s="46">
+        <f>'29 IUL'!I16</f>
+        <v/>
+      </c>
     </row>
     <row r="51" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A51" s="44" t="inlineStr">
@@ -1868,13 +2729,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D51" s="46" t="inlineStr"/>
-      <c r="E51" s="46" t="inlineStr"/>
-      <c r="F51" s="46" t="inlineStr"/>
-      <c r="G51" s="46" t="inlineStr"/>
-      <c r="H51" s="46" t="inlineStr"/>
-      <c r="I51" s="46" t="inlineStr"/>
-      <c r="J51" s="46" t="inlineStr"/>
+      <c r="D51" s="46">
+        <f>'29 IUL'!J10</f>
+        <v/>
+      </c>
+      <c r="E51" s="46">
+        <f>'29 IUL'!J11</f>
+        <v/>
+      </c>
+      <c r="F51" s="46">
+        <f>'29 IUL'!J12</f>
+        <v/>
+      </c>
+      <c r="G51" s="46">
+        <f>'29 IUL'!J13</f>
+        <v/>
+      </c>
+      <c r="H51" s="46">
+        <f>'29 IUL'!J14</f>
+        <v/>
+      </c>
+      <c r="I51" s="46">
+        <f>'29 IUL'!J15</f>
+        <v/>
+      </c>
+      <c r="J51" s="46">
+        <f>'29 IUL'!J16</f>
+        <v/>
+      </c>
     </row>
     <row r="52" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A52" s="47" t="n"/>
@@ -1884,13 +2766,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D52" s="46" t="inlineStr"/>
-      <c r="E52" s="46" t="inlineStr"/>
-      <c r="F52" s="46" t="inlineStr"/>
-      <c r="G52" s="46" t="inlineStr"/>
-      <c r="H52" s="46" t="inlineStr"/>
-      <c r="I52" s="46" t="inlineStr"/>
-      <c r="J52" s="46" t="inlineStr"/>
+      <c r="D52" s="46">
+        <f>SUM('5 AUG'!B10, '12 AUG'!B10, '19 AUG'!B10, '26 AUG'!B10, )</f>
+        <v/>
+      </c>
+      <c r="E52" s="46">
+        <f>SUM('5 AUG'!B11, '12 AUG'!B11, '19 AUG'!B11, '26 AUG'!B11, )</f>
+        <v/>
+      </c>
+      <c r="F52" s="46">
+        <f>SUM('5 AUG'!B12, '12 AUG'!B12, '19 AUG'!B12, '26 AUG'!B12, )</f>
+        <v/>
+      </c>
+      <c r="G52" s="46">
+        <f>SUM('5 AUG'!B13, '12 AUG'!B13, '19 AUG'!B13, '26 AUG'!B13, )</f>
+        <v/>
+      </c>
+      <c r="H52" s="46">
+        <f>SUM('5 AUG'!B14, '12 AUG'!B14, '19 AUG'!B14, '26 AUG'!B14, )</f>
+        <v/>
+      </c>
+      <c r="I52" s="46">
+        <f>SUM('5 AUG'!B15, '12 AUG'!B15, '19 AUG'!B15, '26 AUG'!B15, )</f>
+        <v/>
+      </c>
+      <c r="J52" s="46">
+        <f>SUM('5 AUG'!B16, '12 AUG'!B16, '19 AUG'!B16, '26 AUG'!B16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="53" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A53" s="47" t="n"/>
@@ -1904,13 +2807,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D53" s="46" t="inlineStr"/>
-      <c r="E53" s="46" t="inlineStr"/>
-      <c r="F53" s="46" t="inlineStr"/>
-      <c r="G53" s="46" t="inlineStr"/>
-      <c r="H53" s="46" t="inlineStr"/>
-      <c r="I53" s="46" t="inlineStr"/>
-      <c r="J53" s="46" t="inlineStr"/>
+      <c r="D53" s="46">
+        <f>SUM('5 AUG'!E10 * '5 AUG'!B10, '12 AUG'!E10 * '12 AUG'!B10, '19 AUG'!E10 * '19 AUG'!B10, '26 AUG'!E10 * '26 AUG'!B10, )</f>
+        <v/>
+      </c>
+      <c r="E53" s="46">
+        <f>SUM('5 AUG'!E11 * '5 AUG'!B11, '12 AUG'!E11 * '12 AUG'!B11, '19 AUG'!E11 * '19 AUG'!B11, '26 AUG'!E11 * '26 AUG'!B11, )</f>
+        <v/>
+      </c>
+      <c r="F53" s="46">
+        <f>SUM('5 AUG'!E12 * '5 AUG'!B12, '12 AUG'!E12 * '12 AUG'!B12, '19 AUG'!E12 * '19 AUG'!B12, '26 AUG'!E12 * '26 AUG'!B12, )</f>
+        <v/>
+      </c>
+      <c r="G53" s="46">
+        <f>SUM('5 AUG'!E13 * '5 AUG'!B13, '12 AUG'!E13 * '12 AUG'!B13, '19 AUG'!E13 * '19 AUG'!B13, '26 AUG'!E13 * '26 AUG'!B13, )</f>
+        <v/>
+      </c>
+      <c r="H53" s="46">
+        <f>SUM('5 AUG'!E14 * '5 AUG'!B14, '12 AUG'!E14 * '12 AUG'!B14, '19 AUG'!E14 * '19 AUG'!B14, '26 AUG'!E14 * '26 AUG'!B14, )</f>
+        <v/>
+      </c>
+      <c r="I53" s="46">
+        <f>SUM('5 AUG'!E15 * '5 AUG'!B15, '12 AUG'!E15 * '12 AUG'!B15, '19 AUG'!E15 * '19 AUG'!B15, '26 AUG'!E15 * '26 AUG'!B15, )</f>
+        <v/>
+      </c>
+      <c r="J53" s="46">
+        <f>SUM('5 AUG'!E16 * '5 AUG'!B16, '12 AUG'!E16 * '12 AUG'!B16, '19 AUG'!E16 * '19 AUG'!B16, '26 AUG'!E16 * '26 AUG'!B16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="54" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A54" s="47" t="n"/>
@@ -1920,13 +2844,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D54" s="46" t="inlineStr"/>
-      <c r="E54" s="46" t="inlineStr"/>
-      <c r="F54" s="46" t="inlineStr"/>
-      <c r="G54" s="46" t="inlineStr"/>
-      <c r="H54" s="46" t="inlineStr"/>
-      <c r="I54" s="46" t="inlineStr"/>
-      <c r="J54" s="46" t="inlineStr"/>
+      <c r="D54" s="46">
+        <f>SUM('5 AUG'!G10, '12 AUG'!G10, '19 AUG'!G10, '26 AUG'!G10, )</f>
+        <v/>
+      </c>
+      <c r="E54" s="46">
+        <f>SUM('5 AUG'!G11, '12 AUG'!G11, '19 AUG'!G11, '26 AUG'!G11, )</f>
+        <v/>
+      </c>
+      <c r="F54" s="46">
+        <f>SUM('5 AUG'!G12, '12 AUG'!G12, '19 AUG'!G12, '26 AUG'!G12, )</f>
+        <v/>
+      </c>
+      <c r="G54" s="46">
+        <f>SUM('5 AUG'!G13, '12 AUG'!G13, '19 AUG'!G13, '26 AUG'!G13, )</f>
+        <v/>
+      </c>
+      <c r="H54" s="46">
+        <f>SUM('5 AUG'!G14, '12 AUG'!G14, '19 AUG'!G14, '26 AUG'!G14, )</f>
+        <v/>
+      </c>
+      <c r="I54" s="46">
+        <f>SUM('5 AUG'!G15, '12 AUG'!G15, '19 AUG'!G15, '26 AUG'!G15, )</f>
+        <v/>
+      </c>
+      <c r="J54" s="46">
+        <f>SUM('5 AUG'!G16, '12 AUG'!G16, '19 AUG'!G16, '26 AUG'!G16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="55" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A55" s="47" t="n"/>
@@ -1940,13 +2885,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D55" s="46" t="inlineStr"/>
-      <c r="E55" s="46" t="inlineStr"/>
-      <c r="F55" s="46" t="inlineStr"/>
-      <c r="G55" s="46" t="inlineStr"/>
-      <c r="H55" s="46" t="inlineStr"/>
-      <c r="I55" s="46" t="inlineStr"/>
-      <c r="J55" s="46" t="inlineStr"/>
+      <c r="D55" s="46">
+        <f>SUM('5 AUG'!H10, '12 AUG'!H10, '19 AUG'!H10, '26 AUG'!H10, )</f>
+        <v/>
+      </c>
+      <c r="E55" s="46">
+        <f>SUM('5 AUG'!H11, '12 AUG'!H11, '19 AUG'!H11, '26 AUG'!H11, )</f>
+        <v/>
+      </c>
+      <c r="F55" s="46">
+        <f>SUM('5 AUG'!H12, '12 AUG'!H12, '19 AUG'!H12, '26 AUG'!H12, )</f>
+        <v/>
+      </c>
+      <c r="G55" s="46">
+        <f>SUM('5 AUG'!H13, '12 AUG'!H13, '19 AUG'!H13, '26 AUG'!H13, )</f>
+        <v/>
+      </c>
+      <c r="H55" s="46">
+        <f>SUM('5 AUG'!H14, '12 AUG'!H14, '19 AUG'!H14, '26 AUG'!H14, )</f>
+        <v/>
+      </c>
+      <c r="I55" s="46">
+        <f>SUM('5 AUG'!H15, '12 AUG'!H15, '19 AUG'!H15, '26 AUG'!H15, )</f>
+        <v/>
+      </c>
+      <c r="J55" s="46">
+        <f>SUM('5 AUG'!H16, '12 AUG'!H16, '19 AUG'!H16, '26 AUG'!H16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="56" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A56" s="48" t="n"/>
@@ -1956,13 +2922,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D56" s="46" t="inlineStr"/>
-      <c r="E56" s="46" t="inlineStr"/>
-      <c r="F56" s="46" t="inlineStr"/>
-      <c r="G56" s="46" t="inlineStr"/>
-      <c r="H56" s="46" t="inlineStr"/>
-      <c r="I56" s="46" t="inlineStr"/>
-      <c r="J56" s="46" t="inlineStr"/>
+      <c r="D56" s="46">
+        <f>'26 AUG'!I10</f>
+        <v/>
+      </c>
+      <c r="E56" s="46">
+        <f>'26 AUG'!I11</f>
+        <v/>
+      </c>
+      <c r="F56" s="46">
+        <f>'26 AUG'!I12</f>
+        <v/>
+      </c>
+      <c r="G56" s="46">
+        <f>'26 AUG'!I13</f>
+        <v/>
+      </c>
+      <c r="H56" s="46">
+        <f>'26 AUG'!I14</f>
+        <v/>
+      </c>
+      <c r="I56" s="46">
+        <f>'26 AUG'!I15</f>
+        <v/>
+      </c>
+      <c r="J56" s="46">
+        <f>'26 AUG'!I16</f>
+        <v/>
+      </c>
     </row>
     <row r="57" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A57" s="44" t="inlineStr">
@@ -1980,13 +2967,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D57" s="46" t="inlineStr"/>
-      <c r="E57" s="46" t="inlineStr"/>
-      <c r="F57" s="46" t="inlineStr"/>
-      <c r="G57" s="46" t="inlineStr"/>
-      <c r="H57" s="46" t="inlineStr"/>
-      <c r="I57" s="46" t="inlineStr"/>
-      <c r="J57" s="46" t="inlineStr"/>
+      <c r="D57" s="46">
+        <f>'26 AUG'!J10</f>
+        <v/>
+      </c>
+      <c r="E57" s="46">
+        <f>'26 AUG'!J11</f>
+        <v/>
+      </c>
+      <c r="F57" s="46">
+        <f>'26 AUG'!J12</f>
+        <v/>
+      </c>
+      <c r="G57" s="46">
+        <f>'26 AUG'!J13</f>
+        <v/>
+      </c>
+      <c r="H57" s="46">
+        <f>'26 AUG'!J14</f>
+        <v/>
+      </c>
+      <c r="I57" s="46">
+        <f>'26 AUG'!J15</f>
+        <v/>
+      </c>
+      <c r="J57" s="46">
+        <f>'26 AUG'!J16</f>
+        <v/>
+      </c>
     </row>
     <row r="58" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A58" s="47" t="n"/>
@@ -1996,13 +3004,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D58" s="46" t="inlineStr"/>
-      <c r="E58" s="46" t="inlineStr"/>
-      <c r="F58" s="46" t="inlineStr"/>
-      <c r="G58" s="46" t="inlineStr"/>
-      <c r="H58" s="46" t="inlineStr"/>
-      <c r="I58" s="46" t="inlineStr"/>
-      <c r="J58" s="46" t="inlineStr"/>
+      <c r="D58" s="46">
+        <f>SUM('2 SEPT'!B10, '9 SEPT'!B10, '16 SEPT'!B10, '23 SEPT'!B10, '30 SEPT'!B10, )</f>
+        <v/>
+      </c>
+      <c r="E58" s="46">
+        <f>SUM('2 SEPT'!B11, '9 SEPT'!B11, '16 SEPT'!B11, '23 SEPT'!B11, '30 SEPT'!B11, )</f>
+        <v/>
+      </c>
+      <c r="F58" s="46">
+        <f>SUM('2 SEPT'!B12, '9 SEPT'!B12, '16 SEPT'!B12, '23 SEPT'!B12, '30 SEPT'!B12, )</f>
+        <v/>
+      </c>
+      <c r="G58" s="46">
+        <f>SUM('2 SEPT'!B13, '9 SEPT'!B13, '16 SEPT'!B13, '23 SEPT'!B13, '30 SEPT'!B13, )</f>
+        <v/>
+      </c>
+      <c r="H58" s="46">
+        <f>SUM('2 SEPT'!B14, '9 SEPT'!B14, '16 SEPT'!B14, '23 SEPT'!B14, '30 SEPT'!B14, )</f>
+        <v/>
+      </c>
+      <c r="I58" s="46">
+        <f>SUM('2 SEPT'!B15, '9 SEPT'!B15, '16 SEPT'!B15, '23 SEPT'!B15, '30 SEPT'!B15, )</f>
+        <v/>
+      </c>
+      <c r="J58" s="46">
+        <f>SUM('2 SEPT'!B16, '9 SEPT'!B16, '16 SEPT'!B16, '23 SEPT'!B16, '30 SEPT'!B16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="59" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A59" s="47" t="n"/>
@@ -2016,13 +3045,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D59" s="46" t="inlineStr"/>
-      <c r="E59" s="46" t="inlineStr"/>
-      <c r="F59" s="46" t="inlineStr"/>
-      <c r="G59" s="46" t="inlineStr"/>
-      <c r="H59" s="46" t="inlineStr"/>
-      <c r="I59" s="46" t="inlineStr"/>
-      <c r="J59" s="46" t="inlineStr"/>
+      <c r="D59" s="46">
+        <f>SUM('2 SEPT'!E10 * '2 SEPT'!B10, '9 SEPT'!E10 * '9 SEPT'!B10, '16 SEPT'!E10 * '16 SEPT'!B10, '23 SEPT'!E10 * '23 SEPT'!B10, '30 SEPT'!E10 * '30 SEPT'!B10, )</f>
+        <v/>
+      </c>
+      <c r="E59" s="46">
+        <f>SUM('2 SEPT'!E11 * '2 SEPT'!B11, '9 SEPT'!E11 * '9 SEPT'!B11, '16 SEPT'!E11 * '16 SEPT'!B11, '23 SEPT'!E11 * '23 SEPT'!B11, '30 SEPT'!E11 * '30 SEPT'!B11, )</f>
+        <v/>
+      </c>
+      <c r="F59" s="46">
+        <f>SUM('2 SEPT'!E12 * '2 SEPT'!B12, '9 SEPT'!E12 * '9 SEPT'!B12, '16 SEPT'!E12 * '16 SEPT'!B12, '23 SEPT'!E12 * '23 SEPT'!B12, '30 SEPT'!E12 * '30 SEPT'!B12, )</f>
+        <v/>
+      </c>
+      <c r="G59" s="46">
+        <f>SUM('2 SEPT'!E13 * '2 SEPT'!B13, '9 SEPT'!E13 * '9 SEPT'!B13, '16 SEPT'!E13 * '16 SEPT'!B13, '23 SEPT'!E13 * '23 SEPT'!B13, '30 SEPT'!E13 * '30 SEPT'!B13, )</f>
+        <v/>
+      </c>
+      <c r="H59" s="46">
+        <f>SUM('2 SEPT'!E14 * '2 SEPT'!B14, '9 SEPT'!E14 * '9 SEPT'!B14, '16 SEPT'!E14 * '16 SEPT'!B14, '23 SEPT'!E14 * '23 SEPT'!B14, '30 SEPT'!E14 * '30 SEPT'!B14, )</f>
+        <v/>
+      </c>
+      <c r="I59" s="46">
+        <f>SUM('2 SEPT'!E15 * '2 SEPT'!B15, '9 SEPT'!E15 * '9 SEPT'!B15, '16 SEPT'!E15 * '16 SEPT'!B15, '23 SEPT'!E15 * '23 SEPT'!B15, '30 SEPT'!E15 * '30 SEPT'!B15, )</f>
+        <v/>
+      </c>
+      <c r="J59" s="46">
+        <f>SUM('2 SEPT'!E16 * '2 SEPT'!B16, '9 SEPT'!E16 * '9 SEPT'!B16, '16 SEPT'!E16 * '16 SEPT'!B16, '23 SEPT'!E16 * '23 SEPT'!B16, '30 SEPT'!E16 * '30 SEPT'!B16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="60" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A60" s="47" t="n"/>
@@ -2032,13 +3082,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D60" s="46" t="inlineStr"/>
-      <c r="E60" s="46" t="inlineStr"/>
-      <c r="F60" s="46" t="inlineStr"/>
-      <c r="G60" s="46" t="inlineStr"/>
-      <c r="H60" s="46" t="inlineStr"/>
-      <c r="I60" s="46" t="inlineStr"/>
-      <c r="J60" s="46" t="inlineStr"/>
+      <c r="D60" s="46">
+        <f>SUM('2 SEPT'!G10, '9 SEPT'!G10, '16 SEPT'!G10, '23 SEPT'!G10, '30 SEPT'!G10, )</f>
+        <v/>
+      </c>
+      <c r="E60" s="46">
+        <f>SUM('2 SEPT'!G11, '9 SEPT'!G11, '16 SEPT'!G11, '23 SEPT'!G11, '30 SEPT'!G11, )</f>
+        <v/>
+      </c>
+      <c r="F60" s="46">
+        <f>SUM('2 SEPT'!G12, '9 SEPT'!G12, '16 SEPT'!G12, '23 SEPT'!G12, '30 SEPT'!G12, )</f>
+        <v/>
+      </c>
+      <c r="G60" s="46">
+        <f>SUM('2 SEPT'!G13, '9 SEPT'!G13, '16 SEPT'!G13, '23 SEPT'!G13, '30 SEPT'!G13, )</f>
+        <v/>
+      </c>
+      <c r="H60" s="46">
+        <f>SUM('2 SEPT'!G14, '9 SEPT'!G14, '16 SEPT'!G14, '23 SEPT'!G14, '30 SEPT'!G14, )</f>
+        <v/>
+      </c>
+      <c r="I60" s="46">
+        <f>SUM('2 SEPT'!G15, '9 SEPT'!G15, '16 SEPT'!G15, '23 SEPT'!G15, '30 SEPT'!G15, )</f>
+        <v/>
+      </c>
+      <c r="J60" s="46">
+        <f>SUM('2 SEPT'!G16, '9 SEPT'!G16, '16 SEPT'!G16, '23 SEPT'!G16, '30 SEPT'!G16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="61" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A61" s="47" t="n"/>
@@ -2052,13 +3123,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D61" s="46" t="inlineStr"/>
-      <c r="E61" s="46" t="inlineStr"/>
-      <c r="F61" s="46" t="inlineStr"/>
-      <c r="G61" s="46" t="inlineStr"/>
-      <c r="H61" s="46" t="inlineStr"/>
-      <c r="I61" s="46" t="inlineStr"/>
-      <c r="J61" s="46" t="inlineStr"/>
+      <c r="D61" s="46">
+        <f>SUM('2 SEPT'!H10, '9 SEPT'!H10, '16 SEPT'!H10, '23 SEPT'!H10, '30 SEPT'!H10, )</f>
+        <v/>
+      </c>
+      <c r="E61" s="46">
+        <f>SUM('2 SEPT'!H11, '9 SEPT'!H11, '16 SEPT'!H11, '23 SEPT'!H11, '30 SEPT'!H11, )</f>
+        <v/>
+      </c>
+      <c r="F61" s="46">
+        <f>SUM('2 SEPT'!H12, '9 SEPT'!H12, '16 SEPT'!H12, '23 SEPT'!H12, '30 SEPT'!H12, )</f>
+        <v/>
+      </c>
+      <c r="G61" s="46">
+        <f>SUM('2 SEPT'!H13, '9 SEPT'!H13, '16 SEPT'!H13, '23 SEPT'!H13, '30 SEPT'!H13, )</f>
+        <v/>
+      </c>
+      <c r="H61" s="46">
+        <f>SUM('2 SEPT'!H14, '9 SEPT'!H14, '16 SEPT'!H14, '23 SEPT'!H14, '30 SEPT'!H14, )</f>
+        <v/>
+      </c>
+      <c r="I61" s="46">
+        <f>SUM('2 SEPT'!H15, '9 SEPT'!H15, '16 SEPT'!H15, '23 SEPT'!H15, '30 SEPT'!H15, )</f>
+        <v/>
+      </c>
+      <c r="J61" s="46">
+        <f>SUM('2 SEPT'!H16, '9 SEPT'!H16, '16 SEPT'!H16, '23 SEPT'!H16, '30 SEPT'!H16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="62" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A62" s="48" t="n"/>
@@ -2068,13 +3160,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D62" s="46" t="inlineStr"/>
-      <c r="E62" s="46" t="inlineStr"/>
-      <c r="F62" s="46" t="inlineStr"/>
-      <c r="G62" s="46" t="inlineStr"/>
-      <c r="H62" s="46" t="inlineStr"/>
-      <c r="I62" s="46" t="inlineStr"/>
-      <c r="J62" s="46" t="inlineStr"/>
+      <c r="D62" s="46">
+        <f>'30 SEPT'!I10</f>
+        <v/>
+      </c>
+      <c r="E62" s="46">
+        <f>'30 SEPT'!I11</f>
+        <v/>
+      </c>
+      <c r="F62" s="46">
+        <f>'30 SEPT'!I12</f>
+        <v/>
+      </c>
+      <c r="G62" s="46">
+        <f>'30 SEPT'!I13</f>
+        <v/>
+      </c>
+      <c r="H62" s="46">
+        <f>'30 SEPT'!I14</f>
+        <v/>
+      </c>
+      <c r="I62" s="46">
+        <f>'30 SEPT'!I15</f>
+        <v/>
+      </c>
+      <c r="J62" s="46">
+        <f>'30 SEPT'!I16</f>
+        <v/>
+      </c>
     </row>
     <row r="63" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A63" s="44" t="inlineStr">
@@ -2092,13 +3205,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D63" s="46" t="inlineStr"/>
-      <c r="E63" s="46" t="inlineStr"/>
-      <c r="F63" s="46" t="inlineStr"/>
-      <c r="G63" s="46" t="inlineStr"/>
-      <c r="H63" s="46" t="inlineStr"/>
-      <c r="I63" s="46" t="inlineStr"/>
-      <c r="J63" s="46" t="inlineStr"/>
+      <c r="D63" s="46">
+        <f>'30 SEPT'!J10</f>
+        <v/>
+      </c>
+      <c r="E63" s="46">
+        <f>'30 SEPT'!J11</f>
+        <v/>
+      </c>
+      <c r="F63" s="46">
+        <f>'30 SEPT'!J12</f>
+        <v/>
+      </c>
+      <c r="G63" s="46">
+        <f>'30 SEPT'!J13</f>
+        <v/>
+      </c>
+      <c r="H63" s="46">
+        <f>'30 SEPT'!J14</f>
+        <v/>
+      </c>
+      <c r="I63" s="46">
+        <f>'30 SEPT'!J15</f>
+        <v/>
+      </c>
+      <c r="J63" s="46">
+        <f>'30 SEPT'!J16</f>
+        <v/>
+      </c>
     </row>
     <row r="64" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A64" s="47" t="n"/>
@@ -2108,13 +3242,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D64" s="46" t="inlineStr"/>
-      <c r="E64" s="46" t="inlineStr"/>
-      <c r="F64" s="46" t="inlineStr"/>
-      <c r="G64" s="46" t="inlineStr"/>
-      <c r="H64" s="46" t="inlineStr"/>
-      <c r="I64" s="46" t="inlineStr"/>
-      <c r="J64" s="46" t="inlineStr"/>
+      <c r="D64" s="46">
+        <f>SUM('7 OCT'!B10, '14 OCT'!B10, '21 OCT'!B10, '28 OCT'!B10, )</f>
+        <v/>
+      </c>
+      <c r="E64" s="46">
+        <f>SUM('7 OCT'!B11, '14 OCT'!B11, '21 OCT'!B11, '28 OCT'!B11, )</f>
+        <v/>
+      </c>
+      <c r="F64" s="46">
+        <f>SUM('7 OCT'!B12, '14 OCT'!B12, '21 OCT'!B12, '28 OCT'!B12, )</f>
+        <v/>
+      </c>
+      <c r="G64" s="46">
+        <f>SUM('7 OCT'!B13, '14 OCT'!B13, '21 OCT'!B13, '28 OCT'!B13, )</f>
+        <v/>
+      </c>
+      <c r="H64" s="46">
+        <f>SUM('7 OCT'!B14, '14 OCT'!B14, '21 OCT'!B14, '28 OCT'!B14, )</f>
+        <v/>
+      </c>
+      <c r="I64" s="46">
+        <f>SUM('7 OCT'!B15, '14 OCT'!B15, '21 OCT'!B15, '28 OCT'!B15, )</f>
+        <v/>
+      </c>
+      <c r="J64" s="46">
+        <f>SUM('7 OCT'!B16, '14 OCT'!B16, '21 OCT'!B16, '28 OCT'!B16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="65" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A65" s="47" t="n"/>
@@ -2128,13 +3283,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D65" s="46" t="inlineStr"/>
-      <c r="E65" s="46" t="inlineStr"/>
-      <c r="F65" s="46" t="inlineStr"/>
-      <c r="G65" s="46" t="inlineStr"/>
-      <c r="H65" s="46" t="inlineStr"/>
-      <c r="I65" s="46" t="inlineStr"/>
-      <c r="J65" s="46" t="inlineStr"/>
+      <c r="D65" s="46">
+        <f>SUM('7 OCT'!E10 * '7 OCT'!B10, '14 OCT'!E10 * '14 OCT'!B10, '21 OCT'!E10 * '21 OCT'!B10, '28 OCT'!E10 * '28 OCT'!B10, )</f>
+        <v/>
+      </c>
+      <c r="E65" s="46">
+        <f>SUM('7 OCT'!E11 * '7 OCT'!B11, '14 OCT'!E11 * '14 OCT'!B11, '21 OCT'!E11 * '21 OCT'!B11, '28 OCT'!E11 * '28 OCT'!B11, )</f>
+        <v/>
+      </c>
+      <c r="F65" s="46">
+        <f>SUM('7 OCT'!E12 * '7 OCT'!B12, '14 OCT'!E12 * '14 OCT'!B12, '21 OCT'!E12 * '21 OCT'!B12, '28 OCT'!E12 * '28 OCT'!B12, )</f>
+        <v/>
+      </c>
+      <c r="G65" s="46">
+        <f>SUM('7 OCT'!E13 * '7 OCT'!B13, '14 OCT'!E13 * '14 OCT'!B13, '21 OCT'!E13 * '21 OCT'!B13, '28 OCT'!E13 * '28 OCT'!B13, )</f>
+        <v/>
+      </c>
+      <c r="H65" s="46">
+        <f>SUM('7 OCT'!E14 * '7 OCT'!B14, '14 OCT'!E14 * '14 OCT'!B14, '21 OCT'!E14 * '21 OCT'!B14, '28 OCT'!E14 * '28 OCT'!B14, )</f>
+        <v/>
+      </c>
+      <c r="I65" s="46">
+        <f>SUM('7 OCT'!E15 * '7 OCT'!B15, '14 OCT'!E15 * '14 OCT'!B15, '21 OCT'!E15 * '21 OCT'!B15, '28 OCT'!E15 * '28 OCT'!B15, )</f>
+        <v/>
+      </c>
+      <c r="J65" s="46">
+        <f>SUM('7 OCT'!E16 * '7 OCT'!B16, '14 OCT'!E16 * '14 OCT'!B16, '21 OCT'!E16 * '21 OCT'!B16, '28 OCT'!E16 * '28 OCT'!B16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="66" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A66" s="47" t="n"/>
@@ -2144,13 +3320,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D66" s="46" t="inlineStr"/>
-      <c r="E66" s="46" t="inlineStr"/>
-      <c r="F66" s="46" t="inlineStr"/>
-      <c r="G66" s="46" t="inlineStr"/>
-      <c r="H66" s="46" t="inlineStr"/>
-      <c r="I66" s="46" t="inlineStr"/>
-      <c r="J66" s="46" t="inlineStr"/>
+      <c r="D66" s="46">
+        <f>SUM('7 OCT'!G10, '14 OCT'!G10, '21 OCT'!G10, '28 OCT'!G10, )</f>
+        <v/>
+      </c>
+      <c r="E66" s="46">
+        <f>SUM('7 OCT'!G11, '14 OCT'!G11, '21 OCT'!G11, '28 OCT'!G11, )</f>
+        <v/>
+      </c>
+      <c r="F66" s="46">
+        <f>SUM('7 OCT'!G12, '14 OCT'!G12, '21 OCT'!G12, '28 OCT'!G12, )</f>
+        <v/>
+      </c>
+      <c r="G66" s="46">
+        <f>SUM('7 OCT'!G13, '14 OCT'!G13, '21 OCT'!G13, '28 OCT'!G13, )</f>
+        <v/>
+      </c>
+      <c r="H66" s="46">
+        <f>SUM('7 OCT'!G14, '14 OCT'!G14, '21 OCT'!G14, '28 OCT'!G14, )</f>
+        <v/>
+      </c>
+      <c r="I66" s="46">
+        <f>SUM('7 OCT'!G15, '14 OCT'!G15, '21 OCT'!G15, '28 OCT'!G15, )</f>
+        <v/>
+      </c>
+      <c r="J66" s="46">
+        <f>SUM('7 OCT'!G16, '14 OCT'!G16, '21 OCT'!G16, '28 OCT'!G16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="67" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A67" s="47" t="n"/>
@@ -2164,13 +3361,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D67" s="46" t="inlineStr"/>
-      <c r="E67" s="46" t="inlineStr"/>
-      <c r="F67" s="46" t="inlineStr"/>
-      <c r="G67" s="46" t="inlineStr"/>
-      <c r="H67" s="46" t="inlineStr"/>
-      <c r="I67" s="46" t="inlineStr"/>
-      <c r="J67" s="46" t="inlineStr"/>
+      <c r="D67" s="46">
+        <f>SUM('7 OCT'!H10, '14 OCT'!H10, '21 OCT'!H10, '28 OCT'!H10, )</f>
+        <v/>
+      </c>
+      <c r="E67" s="46">
+        <f>SUM('7 OCT'!H11, '14 OCT'!H11, '21 OCT'!H11, '28 OCT'!H11, )</f>
+        <v/>
+      </c>
+      <c r="F67" s="46">
+        <f>SUM('7 OCT'!H12, '14 OCT'!H12, '21 OCT'!H12, '28 OCT'!H12, )</f>
+        <v/>
+      </c>
+      <c r="G67" s="46">
+        <f>SUM('7 OCT'!H13, '14 OCT'!H13, '21 OCT'!H13, '28 OCT'!H13, )</f>
+        <v/>
+      </c>
+      <c r="H67" s="46">
+        <f>SUM('7 OCT'!H14, '14 OCT'!H14, '21 OCT'!H14, '28 OCT'!H14, )</f>
+        <v/>
+      </c>
+      <c r="I67" s="46">
+        <f>SUM('7 OCT'!H15, '14 OCT'!H15, '21 OCT'!H15, '28 OCT'!H15, )</f>
+        <v/>
+      </c>
+      <c r="J67" s="46">
+        <f>SUM('7 OCT'!H16, '14 OCT'!H16, '21 OCT'!H16, '28 OCT'!H16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="68" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A68" s="48" t="n"/>
@@ -2180,13 +3398,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D68" s="46" t="inlineStr"/>
-      <c r="E68" s="46" t="inlineStr"/>
-      <c r="F68" s="46" t="inlineStr"/>
-      <c r="G68" s="46" t="inlineStr"/>
-      <c r="H68" s="46" t="inlineStr"/>
-      <c r="I68" s="46" t="inlineStr"/>
-      <c r="J68" s="46" t="inlineStr"/>
+      <c r="D68" s="46">
+        <f>'28 OCT'!I10</f>
+        <v/>
+      </c>
+      <c r="E68" s="46">
+        <f>'28 OCT'!I11</f>
+        <v/>
+      </c>
+      <c r="F68" s="46">
+        <f>'28 OCT'!I12</f>
+        <v/>
+      </c>
+      <c r="G68" s="46">
+        <f>'28 OCT'!I13</f>
+        <v/>
+      </c>
+      <c r="H68" s="46">
+        <f>'28 OCT'!I14</f>
+        <v/>
+      </c>
+      <c r="I68" s="46">
+        <f>'28 OCT'!I15</f>
+        <v/>
+      </c>
+      <c r="J68" s="46">
+        <f>'28 OCT'!I16</f>
+        <v/>
+      </c>
     </row>
     <row r="69" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A69" s="44" t="inlineStr">
@@ -2204,13 +3443,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D69" s="46" t="inlineStr"/>
-      <c r="E69" s="46" t="inlineStr"/>
-      <c r="F69" s="46" t="inlineStr"/>
-      <c r="G69" s="46" t="inlineStr"/>
-      <c r="H69" s="46" t="inlineStr"/>
-      <c r="I69" s="46" t="inlineStr"/>
-      <c r="J69" s="46" t="inlineStr"/>
+      <c r="D69" s="46">
+        <f>'28 OCT'!J10</f>
+        <v/>
+      </c>
+      <c r="E69" s="46">
+        <f>'28 OCT'!J11</f>
+        <v/>
+      </c>
+      <c r="F69" s="46">
+        <f>'28 OCT'!J12</f>
+        <v/>
+      </c>
+      <c r="G69" s="46">
+        <f>'28 OCT'!J13</f>
+        <v/>
+      </c>
+      <c r="H69" s="46">
+        <f>'28 OCT'!J14</f>
+        <v/>
+      </c>
+      <c r="I69" s="46">
+        <f>'28 OCT'!J15</f>
+        <v/>
+      </c>
+      <c r="J69" s="46">
+        <f>'28 OCT'!J16</f>
+        <v/>
+      </c>
     </row>
     <row r="70" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A70" s="47" t="n"/>
@@ -2220,13 +3480,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D70" s="46" t="inlineStr"/>
-      <c r="E70" s="46" t="inlineStr"/>
-      <c r="F70" s="46" t="inlineStr"/>
-      <c r="G70" s="46" t="inlineStr"/>
-      <c r="H70" s="46" t="inlineStr"/>
-      <c r="I70" s="46" t="inlineStr"/>
-      <c r="J70" s="46" t="inlineStr"/>
+      <c r="D70" s="46">
+        <f>SUM('4 NOV'!B10, '11 NOV'!B10, '18 NOV'!B10, '25 NOV'!B10, )</f>
+        <v/>
+      </c>
+      <c r="E70" s="46">
+        <f>SUM('4 NOV'!B11, '11 NOV'!B11, '18 NOV'!B11, '25 NOV'!B11, )</f>
+        <v/>
+      </c>
+      <c r="F70" s="46">
+        <f>SUM('4 NOV'!B12, '11 NOV'!B12, '18 NOV'!B12, '25 NOV'!B12, )</f>
+        <v/>
+      </c>
+      <c r="G70" s="46">
+        <f>SUM('4 NOV'!B13, '11 NOV'!B13, '18 NOV'!B13, '25 NOV'!B13, )</f>
+        <v/>
+      </c>
+      <c r="H70" s="46">
+        <f>SUM('4 NOV'!B14, '11 NOV'!B14, '18 NOV'!B14, '25 NOV'!B14, )</f>
+        <v/>
+      </c>
+      <c r="I70" s="46">
+        <f>SUM('4 NOV'!B15, '11 NOV'!B15, '18 NOV'!B15, '25 NOV'!B15, )</f>
+        <v/>
+      </c>
+      <c r="J70" s="46">
+        <f>SUM('4 NOV'!B16, '11 NOV'!B16, '18 NOV'!B16, '25 NOV'!B16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="71" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A71" s="47" t="n"/>
@@ -2240,13 +3521,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D71" s="46" t="inlineStr"/>
-      <c r="E71" s="46" t="inlineStr"/>
-      <c r="F71" s="46" t="inlineStr"/>
-      <c r="G71" s="46" t="inlineStr"/>
-      <c r="H71" s="46" t="inlineStr"/>
-      <c r="I71" s="46" t="inlineStr"/>
-      <c r="J71" s="46" t="inlineStr"/>
+      <c r="D71" s="46">
+        <f>SUM('4 NOV'!E10 * '4 NOV'!B10, '11 NOV'!E10 * '11 NOV'!B10, '18 NOV'!E10 * '18 NOV'!B10, '25 NOV'!E10 * '25 NOV'!B10, )</f>
+        <v/>
+      </c>
+      <c r="E71" s="46">
+        <f>SUM('4 NOV'!E11 * '4 NOV'!B11, '11 NOV'!E11 * '11 NOV'!B11, '18 NOV'!E11 * '18 NOV'!B11, '25 NOV'!E11 * '25 NOV'!B11, )</f>
+        <v/>
+      </c>
+      <c r="F71" s="46">
+        <f>SUM('4 NOV'!E12 * '4 NOV'!B12, '11 NOV'!E12 * '11 NOV'!B12, '18 NOV'!E12 * '18 NOV'!B12, '25 NOV'!E12 * '25 NOV'!B12, )</f>
+        <v/>
+      </c>
+      <c r="G71" s="46">
+        <f>SUM('4 NOV'!E13 * '4 NOV'!B13, '11 NOV'!E13 * '11 NOV'!B13, '18 NOV'!E13 * '18 NOV'!B13, '25 NOV'!E13 * '25 NOV'!B13, )</f>
+        <v/>
+      </c>
+      <c r="H71" s="46">
+        <f>SUM('4 NOV'!E14 * '4 NOV'!B14, '11 NOV'!E14 * '11 NOV'!B14, '18 NOV'!E14 * '18 NOV'!B14, '25 NOV'!E14 * '25 NOV'!B14, )</f>
+        <v/>
+      </c>
+      <c r="I71" s="46">
+        <f>SUM('4 NOV'!E15 * '4 NOV'!B15, '11 NOV'!E15 * '11 NOV'!B15, '18 NOV'!E15 * '18 NOV'!B15, '25 NOV'!E15 * '25 NOV'!B15, )</f>
+        <v/>
+      </c>
+      <c r="J71" s="46">
+        <f>SUM('4 NOV'!E16 * '4 NOV'!B16, '11 NOV'!E16 * '11 NOV'!B16, '18 NOV'!E16 * '18 NOV'!B16, '25 NOV'!E16 * '25 NOV'!B16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="72" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A72" s="47" t="n"/>
@@ -2256,13 +3558,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D72" s="46" t="inlineStr"/>
-      <c r="E72" s="46" t="inlineStr"/>
-      <c r="F72" s="46" t="inlineStr"/>
-      <c r="G72" s="46" t="inlineStr"/>
-      <c r="H72" s="46" t="inlineStr"/>
-      <c r="I72" s="46" t="inlineStr"/>
-      <c r="J72" s="46" t="inlineStr"/>
+      <c r="D72" s="46">
+        <f>SUM('4 NOV'!G10, '11 NOV'!G10, '18 NOV'!G10, '25 NOV'!G10, )</f>
+        <v/>
+      </c>
+      <c r="E72" s="46">
+        <f>SUM('4 NOV'!G11, '11 NOV'!G11, '18 NOV'!G11, '25 NOV'!G11, )</f>
+        <v/>
+      </c>
+      <c r="F72" s="46">
+        <f>SUM('4 NOV'!G12, '11 NOV'!G12, '18 NOV'!G12, '25 NOV'!G12, )</f>
+        <v/>
+      </c>
+      <c r="G72" s="46">
+        <f>SUM('4 NOV'!G13, '11 NOV'!G13, '18 NOV'!G13, '25 NOV'!G13, )</f>
+        <v/>
+      </c>
+      <c r="H72" s="46">
+        <f>SUM('4 NOV'!G14, '11 NOV'!G14, '18 NOV'!G14, '25 NOV'!G14, )</f>
+        <v/>
+      </c>
+      <c r="I72" s="46">
+        <f>SUM('4 NOV'!G15, '11 NOV'!G15, '18 NOV'!G15, '25 NOV'!G15, )</f>
+        <v/>
+      </c>
+      <c r="J72" s="46">
+        <f>SUM('4 NOV'!G16, '11 NOV'!G16, '18 NOV'!G16, '25 NOV'!G16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="73" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A73" s="47" t="n"/>
@@ -2276,13 +3599,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D73" s="46" t="inlineStr"/>
-      <c r="E73" s="46" t="inlineStr"/>
-      <c r="F73" s="46" t="inlineStr"/>
-      <c r="G73" s="46" t="inlineStr"/>
-      <c r="H73" s="46" t="inlineStr"/>
-      <c r="I73" s="46" t="inlineStr"/>
-      <c r="J73" s="46" t="inlineStr"/>
+      <c r="D73" s="46">
+        <f>SUM('4 NOV'!H10, '11 NOV'!H10, '18 NOV'!H10, '25 NOV'!H10, )</f>
+        <v/>
+      </c>
+      <c r="E73" s="46">
+        <f>SUM('4 NOV'!H11, '11 NOV'!H11, '18 NOV'!H11, '25 NOV'!H11, )</f>
+        <v/>
+      </c>
+      <c r="F73" s="46">
+        <f>SUM('4 NOV'!H12, '11 NOV'!H12, '18 NOV'!H12, '25 NOV'!H12, )</f>
+        <v/>
+      </c>
+      <c r="G73" s="46">
+        <f>SUM('4 NOV'!H13, '11 NOV'!H13, '18 NOV'!H13, '25 NOV'!H13, )</f>
+        <v/>
+      </c>
+      <c r="H73" s="46">
+        <f>SUM('4 NOV'!H14, '11 NOV'!H14, '18 NOV'!H14, '25 NOV'!H14, )</f>
+        <v/>
+      </c>
+      <c r="I73" s="46">
+        <f>SUM('4 NOV'!H15, '11 NOV'!H15, '18 NOV'!H15, '25 NOV'!H15, )</f>
+        <v/>
+      </c>
+      <c r="J73" s="46">
+        <f>SUM('4 NOV'!H16, '11 NOV'!H16, '18 NOV'!H16, '25 NOV'!H16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="74" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A74" s="48" t="n"/>
@@ -2292,13 +3636,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D74" s="46" t="inlineStr"/>
-      <c r="E74" s="46" t="inlineStr"/>
-      <c r="F74" s="46" t="inlineStr"/>
-      <c r="G74" s="46" t="inlineStr"/>
-      <c r="H74" s="46" t="inlineStr"/>
-      <c r="I74" s="46" t="inlineStr"/>
-      <c r="J74" s="46" t="inlineStr"/>
+      <c r="D74" s="46">
+        <f>'25 NOV'!I10</f>
+        <v/>
+      </c>
+      <c r="E74" s="46">
+        <f>'25 NOV'!I11</f>
+        <v/>
+      </c>
+      <c r="F74" s="46">
+        <f>'25 NOV'!I12</f>
+        <v/>
+      </c>
+      <c r="G74" s="46">
+        <f>'25 NOV'!I13</f>
+        <v/>
+      </c>
+      <c r="H74" s="46">
+        <f>'25 NOV'!I14</f>
+        <v/>
+      </c>
+      <c r="I74" s="46">
+        <f>'25 NOV'!I15</f>
+        <v/>
+      </c>
+      <c r="J74" s="46">
+        <f>'25 NOV'!I16</f>
+        <v/>
+      </c>
     </row>
     <row r="75" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A75" s="44" t="inlineStr">
@@ -2316,13 +3681,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D75" s="46" t="inlineStr"/>
-      <c r="E75" s="46" t="inlineStr"/>
-      <c r="F75" s="46" t="inlineStr"/>
-      <c r="G75" s="46" t="inlineStr"/>
-      <c r="H75" s="46" t="inlineStr"/>
-      <c r="I75" s="46" t="inlineStr"/>
-      <c r="J75" s="46" t="inlineStr"/>
+      <c r="D75" s="46">
+        <f>'25 NOV'!J10</f>
+        <v/>
+      </c>
+      <c r="E75" s="46">
+        <f>'25 NOV'!J11</f>
+        <v/>
+      </c>
+      <c r="F75" s="46">
+        <f>'25 NOV'!J12</f>
+        <v/>
+      </c>
+      <c r="G75" s="46">
+        <f>'25 NOV'!J13</f>
+        <v/>
+      </c>
+      <c r="H75" s="46">
+        <f>'25 NOV'!J14</f>
+        <v/>
+      </c>
+      <c r="I75" s="46">
+        <f>'25 NOV'!J15</f>
+        <v/>
+      </c>
+      <c r="J75" s="46">
+        <f>'25 NOV'!J16</f>
+        <v/>
+      </c>
     </row>
     <row r="76" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A76" s="47" t="n"/>
@@ -2332,13 +3718,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D76" s="46" t="inlineStr"/>
-      <c r="E76" s="46" t="inlineStr"/>
-      <c r="F76" s="46" t="inlineStr"/>
-      <c r="G76" s="46" t="inlineStr"/>
-      <c r="H76" s="46" t="inlineStr"/>
-      <c r="I76" s="46" t="inlineStr"/>
-      <c r="J76" s="46" t="inlineStr"/>
+      <c r="D76" s="46">
+        <f>SUM('2 DEC'!B10, '9 DEC'!B10, '16 DEC'!B10, '23 DEC'!B10, '30 DEC'!B10, )</f>
+        <v/>
+      </c>
+      <c r="E76" s="46">
+        <f>SUM('2 DEC'!B11, '9 DEC'!B11, '16 DEC'!B11, '23 DEC'!B11, '30 DEC'!B11, )</f>
+        <v/>
+      </c>
+      <c r="F76" s="46">
+        <f>SUM('2 DEC'!B12, '9 DEC'!B12, '16 DEC'!B12, '23 DEC'!B12, '30 DEC'!B12, )</f>
+        <v/>
+      </c>
+      <c r="G76" s="46">
+        <f>SUM('2 DEC'!B13, '9 DEC'!B13, '16 DEC'!B13, '23 DEC'!B13, '30 DEC'!B13, )</f>
+        <v/>
+      </c>
+      <c r="H76" s="46">
+        <f>SUM('2 DEC'!B14, '9 DEC'!B14, '16 DEC'!B14, '23 DEC'!B14, '30 DEC'!B14, )</f>
+        <v/>
+      </c>
+      <c r="I76" s="46">
+        <f>SUM('2 DEC'!B15, '9 DEC'!B15, '16 DEC'!B15, '23 DEC'!B15, '30 DEC'!B15, )</f>
+        <v/>
+      </c>
+      <c r="J76" s="46">
+        <f>SUM('2 DEC'!B16, '9 DEC'!B16, '16 DEC'!B16, '23 DEC'!B16, '30 DEC'!B16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="77" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A77" s="47" t="n"/>
@@ -2352,13 +3759,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D77" s="46" t="inlineStr"/>
-      <c r="E77" s="46" t="inlineStr"/>
-      <c r="F77" s="46" t="inlineStr"/>
-      <c r="G77" s="46" t="inlineStr"/>
-      <c r="H77" s="46" t="inlineStr"/>
-      <c r="I77" s="46" t="inlineStr"/>
-      <c r="J77" s="46" t="inlineStr"/>
+      <c r="D77" s="46">
+        <f>SUM('2 DEC'!E10 * '2 DEC'!B10, '9 DEC'!E10 * '9 DEC'!B10, '16 DEC'!E10 * '16 DEC'!B10, '23 DEC'!E10 * '23 DEC'!B10, '30 DEC'!E10 * '30 DEC'!B10, )</f>
+        <v/>
+      </c>
+      <c r="E77" s="46">
+        <f>SUM('2 DEC'!E11 * '2 DEC'!B11, '9 DEC'!E11 * '9 DEC'!B11, '16 DEC'!E11 * '16 DEC'!B11, '23 DEC'!E11 * '23 DEC'!B11, '30 DEC'!E11 * '30 DEC'!B11, )</f>
+        <v/>
+      </c>
+      <c r="F77" s="46">
+        <f>SUM('2 DEC'!E12 * '2 DEC'!B12, '9 DEC'!E12 * '9 DEC'!B12, '16 DEC'!E12 * '16 DEC'!B12, '23 DEC'!E12 * '23 DEC'!B12, '30 DEC'!E12 * '30 DEC'!B12, )</f>
+        <v/>
+      </c>
+      <c r="G77" s="46">
+        <f>SUM('2 DEC'!E13 * '2 DEC'!B13, '9 DEC'!E13 * '9 DEC'!B13, '16 DEC'!E13 * '16 DEC'!B13, '23 DEC'!E13 * '23 DEC'!B13, '30 DEC'!E13 * '30 DEC'!B13, )</f>
+        <v/>
+      </c>
+      <c r="H77" s="46">
+        <f>SUM('2 DEC'!E14 * '2 DEC'!B14, '9 DEC'!E14 * '9 DEC'!B14, '16 DEC'!E14 * '16 DEC'!B14, '23 DEC'!E14 * '23 DEC'!B14, '30 DEC'!E14 * '30 DEC'!B14, )</f>
+        <v/>
+      </c>
+      <c r="I77" s="46">
+        <f>SUM('2 DEC'!E15 * '2 DEC'!B15, '9 DEC'!E15 * '9 DEC'!B15, '16 DEC'!E15 * '16 DEC'!B15, '23 DEC'!E15 * '23 DEC'!B15, '30 DEC'!E15 * '30 DEC'!B15, )</f>
+        <v/>
+      </c>
+      <c r="J77" s="46">
+        <f>SUM('2 DEC'!E16 * '2 DEC'!B16, '9 DEC'!E16 * '9 DEC'!B16, '16 DEC'!E16 * '16 DEC'!B16, '23 DEC'!E16 * '23 DEC'!B16, '30 DEC'!E16 * '30 DEC'!B16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="78" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A78" s="47" t="n"/>
@@ -2368,13 +3796,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D78" s="46" t="inlineStr"/>
-      <c r="E78" s="46" t="inlineStr"/>
-      <c r="F78" s="46" t="inlineStr"/>
-      <c r="G78" s="46" t="inlineStr"/>
-      <c r="H78" s="46" t="inlineStr"/>
-      <c r="I78" s="46" t="inlineStr"/>
-      <c r="J78" s="46" t="inlineStr"/>
+      <c r="D78" s="46">
+        <f>SUM('2 DEC'!G10, '9 DEC'!G10, '16 DEC'!G10, '23 DEC'!G10, '30 DEC'!G10, )</f>
+        <v/>
+      </c>
+      <c r="E78" s="46">
+        <f>SUM('2 DEC'!G11, '9 DEC'!G11, '16 DEC'!G11, '23 DEC'!G11, '30 DEC'!G11, )</f>
+        <v/>
+      </c>
+      <c r="F78" s="46">
+        <f>SUM('2 DEC'!G12, '9 DEC'!G12, '16 DEC'!G12, '23 DEC'!G12, '30 DEC'!G12, )</f>
+        <v/>
+      </c>
+      <c r="G78" s="46">
+        <f>SUM('2 DEC'!G13, '9 DEC'!G13, '16 DEC'!G13, '23 DEC'!G13, '30 DEC'!G13, )</f>
+        <v/>
+      </c>
+      <c r="H78" s="46">
+        <f>SUM('2 DEC'!G14, '9 DEC'!G14, '16 DEC'!G14, '23 DEC'!G14, '30 DEC'!G14, )</f>
+        <v/>
+      </c>
+      <c r="I78" s="46">
+        <f>SUM('2 DEC'!G15, '9 DEC'!G15, '16 DEC'!G15, '23 DEC'!G15, '30 DEC'!G15, )</f>
+        <v/>
+      </c>
+      <c r="J78" s="46">
+        <f>SUM('2 DEC'!G16, '9 DEC'!G16, '16 DEC'!G16, '23 DEC'!G16, '30 DEC'!G16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="79" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A79" s="47" t="n"/>
@@ -2388,13 +3837,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D79" s="46" t="inlineStr"/>
-      <c r="E79" s="46" t="inlineStr"/>
-      <c r="F79" s="46" t="inlineStr"/>
-      <c r="G79" s="46" t="inlineStr"/>
-      <c r="H79" s="46" t="inlineStr"/>
-      <c r="I79" s="46" t="inlineStr"/>
-      <c r="J79" s="46" t="inlineStr"/>
+      <c r="D79" s="46">
+        <f>SUM('2 DEC'!H10, '9 DEC'!H10, '16 DEC'!H10, '23 DEC'!H10, '30 DEC'!H10, )</f>
+        <v/>
+      </c>
+      <c r="E79" s="46">
+        <f>SUM('2 DEC'!H11, '9 DEC'!H11, '16 DEC'!H11, '23 DEC'!H11, '30 DEC'!H11, )</f>
+        <v/>
+      </c>
+      <c r="F79" s="46">
+        <f>SUM('2 DEC'!H12, '9 DEC'!H12, '16 DEC'!H12, '23 DEC'!H12, '30 DEC'!H12, )</f>
+        <v/>
+      </c>
+      <c r="G79" s="46">
+        <f>SUM('2 DEC'!H13, '9 DEC'!H13, '16 DEC'!H13, '23 DEC'!H13, '30 DEC'!H13, )</f>
+        <v/>
+      </c>
+      <c r="H79" s="46">
+        <f>SUM('2 DEC'!H14, '9 DEC'!H14, '16 DEC'!H14, '23 DEC'!H14, '30 DEC'!H14, )</f>
+        <v/>
+      </c>
+      <c r="I79" s="46">
+        <f>SUM('2 DEC'!H15, '9 DEC'!H15, '16 DEC'!H15, '23 DEC'!H15, '30 DEC'!H15, )</f>
+        <v/>
+      </c>
+      <c r="J79" s="46">
+        <f>SUM('2 DEC'!H16, '9 DEC'!H16, '16 DEC'!H16, '23 DEC'!H16, '30 DEC'!H16, )</f>
+        <v/>
+      </c>
     </row>
     <row r="80" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A80" s="48" t="n"/>
@@ -2404,13 +3874,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D80" s="46" t="inlineStr"/>
-      <c r="E80" s="46" t="inlineStr"/>
-      <c r="F80" s="46" t="inlineStr"/>
-      <c r="G80" s="46" t="inlineStr"/>
-      <c r="H80" s="46" t="inlineStr"/>
-      <c r="I80" s="46" t="inlineStr"/>
-      <c r="J80" s="46" t="inlineStr"/>
+      <c r="D80" s="46">
+        <f>'30 DEC'!I10</f>
+        <v/>
+      </c>
+      <c r="E80" s="46">
+        <f>'30 DEC'!I11</f>
+        <v/>
+      </c>
+      <c r="F80" s="46">
+        <f>'30 DEC'!I12</f>
+        <v/>
+      </c>
+      <c r="G80" s="46">
+        <f>'30 DEC'!I13</f>
+        <v/>
+      </c>
+      <c r="H80" s="46">
+        <f>'30 DEC'!I14</f>
+        <v/>
+      </c>
+      <c r="I80" s="46">
+        <f>'30 DEC'!I15</f>
+        <v/>
+      </c>
+      <c r="J80" s="46">
+        <f>'30 DEC'!I16</f>
+        <v/>
+      </c>
     </row>
     <row r="81" ht="21.75" customHeight="1" s="31">
       <c r="A81" s="49" t="inlineStr">
@@ -2429,13 +3920,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D81" s="46" t="inlineStr"/>
-      <c r="E81" s="46" t="inlineStr"/>
-      <c r="F81" s="46" t="inlineStr"/>
-      <c r="G81" s="46" t="inlineStr"/>
-      <c r="H81" s="46" t="inlineStr"/>
-      <c r="I81" s="46" t="inlineStr"/>
-      <c r="J81" s="46" t="inlineStr"/>
+      <c r="D81" s="46">
+        <f>SUM(D9, D15, D21, D27, D33, D39, D45, D51, D57, D63, D69, D75, )</f>
+        <v/>
+      </c>
+      <c r="E81" s="46">
+        <f>SUM(E9, E15, E21, E27, E33, E39, E45, E51, E57, E63, E69, E75, )</f>
+        <v/>
+      </c>
+      <c r="F81" s="46">
+        <f>SUM(F9, F15, F21, F27, F33, F39, F45, F51, F57, F63, F69, F75, )</f>
+        <v/>
+      </c>
+      <c r="G81" s="46">
+        <f>SUM(G9, G15, G21, G27, G33, G39, G45, G51, G57, G63, G69, G75, )</f>
+        <v/>
+      </c>
+      <c r="H81" s="46">
+        <f>SUM(H9, H15, H21, H27, H33, H39, H45, H51, H57, H63, H69, H75, )</f>
+        <v/>
+      </c>
+      <c r="I81" s="46">
+        <f>SUM(I9, I15, I21, I27, I33, I39, I45, I51, I57, I63, I69, I75, )</f>
+        <v/>
+      </c>
+      <c r="J81" s="46">
+        <f>SUM(J9, J15, J21, J27, J33, J39, J45, J51, J57, J63, J69, J75, )</f>
+        <v/>
+      </c>
     </row>
     <row r="82" ht="21.75" customHeight="1" s="31">
       <c r="A82" s="47" t="n"/>
@@ -2445,13 +3957,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D82" s="46" t="inlineStr"/>
-      <c r="E82" s="46" t="inlineStr"/>
-      <c r="F82" s="46" t="inlineStr"/>
-      <c r="G82" s="46" t="inlineStr"/>
-      <c r="H82" s="46" t="inlineStr"/>
-      <c r="I82" s="46" t="inlineStr"/>
-      <c r="J82" s="46" t="inlineStr"/>
+      <c r="D82" s="46">
+        <f>SUM(D10, D16, D22, D28, D34, D40, D46, D52, D58, D64, D70, D76, )</f>
+        <v/>
+      </c>
+      <c r="E82" s="46">
+        <f>SUM(E10, E16, E22, E28, E34, E40, E46, E52, E58, E64, E70, E76, )</f>
+        <v/>
+      </c>
+      <c r="F82" s="46">
+        <f>SUM(F10, F16, F22, F28, F34, F40, F46, F52, F58, F64, F70, F76, )</f>
+        <v/>
+      </c>
+      <c r="G82" s="46">
+        <f>SUM(G10, G16, G22, G28, G34, G40, G46, G52, G58, G64, G70, G76, )</f>
+        <v/>
+      </c>
+      <c r="H82" s="46">
+        <f>SUM(H10, H16, H22, H28, H34, H40, H46, H52, H58, H64, H70, H76, )</f>
+        <v/>
+      </c>
+      <c r="I82" s="46">
+        <f>SUM(I10, I16, I22, I28, I34, I40, I46, I52, I58, I64, I70, I76, )</f>
+        <v/>
+      </c>
+      <c r="J82" s="46">
+        <f>SUM(J10, J16, J22, J28, J34, J40, J46, J52, J58, J64, J70, J76, )</f>
+        <v/>
+      </c>
     </row>
     <row r="83" ht="21.75" customHeight="1" s="31">
       <c r="A83" s="47" t="n"/>
@@ -2465,13 +3998,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D83" s="46" t="inlineStr"/>
-      <c r="E83" s="46" t="inlineStr"/>
-      <c r="F83" s="46" t="inlineStr"/>
-      <c r="G83" s="46" t="inlineStr"/>
-      <c r="H83" s="46" t="inlineStr"/>
-      <c r="I83" s="46" t="inlineStr"/>
-      <c r="J83" s="46" t="inlineStr"/>
+      <c r="D83" s="46">
+        <f>SUM(D11, D17, D23, D29, D35, D41, D47, D53, D59, D65, D71, D77, )</f>
+        <v/>
+      </c>
+      <c r="E83" s="46">
+        <f>SUM(E11, E17, E23, E29, E35, E41, E47, E53, E59, E65, E71, E77, )</f>
+        <v/>
+      </c>
+      <c r="F83" s="46">
+        <f>SUM(F11, F17, F23, F29, F35, F41, F47, F53, F59, F65, F71, F77, )</f>
+        <v/>
+      </c>
+      <c r="G83" s="46">
+        <f>SUM(G11, G17, G23, G29, G35, G41, G47, G53, G59, G65, G71, G77, )</f>
+        <v/>
+      </c>
+      <c r="H83" s="46">
+        <f>SUM(H11, H17, H23, H29, H35, H41, H47, H53, H59, H65, H71, H77, )</f>
+        <v/>
+      </c>
+      <c r="I83" s="46">
+        <f>SUM(I11, I17, I23, I29, I35, I41, I47, I53, I59, I65, I71, I77, )</f>
+        <v/>
+      </c>
+      <c r="J83" s="46">
+        <f>SUM(J11, J17, J23, J29, J35, J41, J47, J53, J59, J65, J71, J77, )</f>
+        <v/>
+      </c>
     </row>
     <row r="84" ht="21.75" customHeight="1" s="31">
       <c r="A84" s="48" t="n"/>
@@ -2481,13 +4035,34 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D84" s="46" t="inlineStr"/>
-      <c r="E84" s="46" t="inlineStr"/>
-      <c r="F84" s="46" t="inlineStr"/>
-      <c r="G84" s="46" t="inlineStr"/>
-      <c r="H84" s="46" t="inlineStr"/>
-      <c r="I84" s="46" t="inlineStr"/>
-      <c r="J84" s="46" t="inlineStr"/>
+      <c r="D84" s="46">
+        <f>SUM(D12, D18, D24, D30, D36, D42, D48, D54, D60, D66, D72, D78, )</f>
+        <v/>
+      </c>
+      <c r="E84" s="46">
+        <f>SUM(E12, E18, E24, E30, E36, E42, E48, E54, E60, E66, E72, E78, )</f>
+        <v/>
+      </c>
+      <c r="F84" s="46">
+        <f>SUM(F12, F18, F24, F30, F36, F42, F48, F54, F60, F66, F72, F78, )</f>
+        <v/>
+      </c>
+      <c r="G84" s="46">
+        <f>SUM(G12, G18, G24, G30, G36, G42, G48, G54, G60, G66, G72, G78, )</f>
+        <v/>
+      </c>
+      <c r="H84" s="46">
+        <f>SUM(H12, H18, H24, H30, H36, H42, H48, H54, H60, H66, H72, H78, )</f>
+        <v/>
+      </c>
+      <c r="I84" s="46">
+        <f>SUM(I12, I18, I24, I30, I36, I42, I48, I54, I60, I66, I72, I78, )</f>
+        <v/>
+      </c>
+      <c r="J84" s="46">
+        <f>SUM(J12, J18, J24, J30, J36, J42, J48, J54, J60, J66, J72, J78, )</f>
+        <v/>
+      </c>
     </row>
     <row r="1048575" ht="12.75" customHeight="1" s="31"/>
     <row r="1048576" ht="12.75" customHeight="1" s="31"/>
@@ -2571,19 +4146,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="D9:J84 C18"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -3147,19 +4722,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D9:J84"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -3723,19 +5298,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D9:J84 F3"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -4299,19 +5874,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="D9:J84"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -4875,19 +6450,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M18" activeCellId="1" sqref="D9:J84 M18"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M18" activeCellId="0" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -5451,19 +7026,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="D9:J84"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -6027,19 +7602,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="1" sqref="D9:J84 C12"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -6603,19 +8178,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="D9:J84 C10"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -7179,19 +8754,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="D9:J84"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -7755,19 +9330,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="D9:J84"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A2" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -8331,19 +9906,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="1" sqref="D9:J84 A10"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -8900,19 +10475,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="D9:J84"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -9469,19 +11044,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="D9:J84"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -10045,19 +11620,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="1" sqref="D9:J84 B10"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -10621,19 +12196,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="D9:J84"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -11197,19 +12772,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D9:J84 F3"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -11773,19 +13348,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="D9:J84"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -12349,19 +13924,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="D9:J84"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -12925,19 +14500,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="1" sqref="D9:J84 B14"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -13501,19 +15076,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="D9:J84"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -14077,19 +15652,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="1" sqref="D9:J84 B15"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -14653,19 +16228,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="D9:J84 C10"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -15229,19 +16804,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="D9:J84"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -15805,19 +17380,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="D9:J84"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -16381,19 +17956,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="D9:J84"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -16957,19 +18532,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="1" sqref="D9:J84 C16"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -17533,19 +19108,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="D9:J84"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -18109,19 +19684,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="D9:J84"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -18685,19 +20260,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="D9:J84"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -19261,19 +20836,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="D9:J84"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -19837,19 +21412,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="1" sqref="D9:J84 C11"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -20413,19 +21988,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D9:J84 F2"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -20989,19 +22564,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="D9:J84"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -21565,19 +23140,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="1" sqref="D9:J84 C16"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -22141,19 +23716,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="D9:J84"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -22717,19 +24292,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="D9:J84"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -23293,19 +24868,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="D9:J84"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -23869,19 +25444,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="D9:J84"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -24445,19 +26020,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="D9:J84"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -25021,19 +26596,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="1" sqref="D9:J84 B10"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -25597,19 +27172,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="D9:J84"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -26173,19 +27748,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="1" sqref="D9:J84 B15"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -26749,19 +28324,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="D9:J84"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -27325,19 +28900,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G33" activeCellId="0" sqref="D9:J84"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -27901,19 +29476,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="D9:J84"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -28477,19 +30052,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="D9:J84"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -29053,19 +30628,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="D9:J84"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -29629,19 +31204,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="1" sqref="D9:J84 B11"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -30205,19 +31780,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="D9:J84"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -30781,19 +32356,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="D9:J84"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -31357,19 +32932,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="1" sqref="D9:J84 C12"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -31931,19 +33506,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D9:J84"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>
@@ -32507,19 +34082,19 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="D9:J84"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.23828125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.46" customWidth="1" style="50" min="1" max="1"/>
     <col width="10.46" customWidth="1" style="50" min="2" max="2"/>
     <col width="9.69" customWidth="1" style="50" min="3" max="3"/>
     <col width="9.23" customWidth="1" style="50" min="4" max="4"/>
-    <col width="12.09" customWidth="1" style="50" min="5" max="5"/>
+    <col width="12.08" customWidth="1" style="50" min="5" max="5"/>
     <col width="16.61" customWidth="1" style="50" min="6" max="6"/>
-    <col width="10.94" customWidth="1" style="50" min="7" max="7"/>
+    <col width="10.93" customWidth="1" style="50" min="7" max="7"/>
     <col width="17.3" customWidth="1" style="50" min="8" max="8"/>
     <col width="15.46" customWidth="1" style="50" min="9" max="9"/>
     <col width="16.69" customWidth="1" style="50" min="10" max="10"/>

--- a/excel/REG.xlsx
+++ b/excel/REG.xlsx
@@ -1084,13 +1084,34 @@
           <t>Cantitate</t>
         </is>
       </c>
-      <c r="D9" s="46" t="inlineStr"/>
-      <c r="E9" s="46" t="inlineStr"/>
-      <c r="F9" s="46" t="inlineStr"/>
-      <c r="G9" s="46" t="inlineStr"/>
-      <c r="H9" s="46" t="inlineStr"/>
-      <c r="I9" s="46" t="inlineStr"/>
-      <c r="J9" s="46" t="inlineStr"/>
+      <c r="D9" s="46">
+        <f>SUM('1 IAN:29 IAN'!B10)</f>
+        <v/>
+      </c>
+      <c r="E9" s="46">
+        <f>SUM('1 IAN:29 IAN'!B11)</f>
+        <v/>
+      </c>
+      <c r="F9" s="46">
+        <f>SUM('1 IAN:29 IAN'!B12)</f>
+        <v/>
+      </c>
+      <c r="G9" s="46">
+        <f>SUM('1 IAN:29 IAN'!B13)</f>
+        <v/>
+      </c>
+      <c r="H9" s="46">
+        <f>SUM('1 IAN:29 IAN'!B14)</f>
+        <v/>
+      </c>
+      <c r="I9" s="46">
+        <f>SUM('1 IAN:29 IAN'!B15)</f>
+        <v/>
+      </c>
+      <c r="J9" s="46">
+        <f>SUM('1 IAN:29 IAN'!B16)</f>
+        <v/>
+      </c>
     </row>
     <row r="10" ht="21.75" customFormat="1" customHeight="1" s="43">
       <c r="A10" s="47" t="n"/>
@@ -1101,31 +1122,31 @@
         </is>
       </c>
       <c r="D10" s="46">
-        <f>SUM('1 IAN'!B10, '8 IAN'!B10, '15 IAN'!B10, '22 IAN'!B10, '29 IAN'!B10, )</f>
+        <f>('1 IAN'!E10 * '1 IAN'!B10) + ('8 IAN'!E10 * '8 IAN'!B10) + ('15 IAN'!E10 * '15 IAN'!B10) + ('22 IAN'!E10 * '22 IAN'!B10) + ('29 IAN'!E10 * '29 IAN'!B10)</f>
         <v/>
       </c>
       <c r="E10" s="46">
-        <f>SUM('1 IAN'!B11, '8 IAN'!B11, '15 IAN'!B11, '22 IAN'!B11, '29 IAN'!B11, )</f>
+        <f>('1 IAN'!E11 * '1 IAN'!B11) + ('8 IAN'!E11 * '8 IAN'!B11) + ('15 IAN'!E11 * '15 IAN'!B11) + ('22 IAN'!E11 * '22 IAN'!B11) + ('29 IAN'!E11 * '29 IAN'!B11)</f>
         <v/>
       </c>
       <c r="F10" s="46">
-        <f>SUM('1 IAN'!B12, '8 IAN'!B12, '15 IAN'!B12, '22 IAN'!B12, '29 IAN'!B12, )</f>
+        <f>('1 IAN'!E12 * '1 IAN'!B12) + ('8 IAN'!E12 * '8 IAN'!B12) + ('15 IAN'!E12 * '15 IAN'!B12) + ('22 IAN'!E12 * '22 IAN'!B12) + ('29 IAN'!E12 * '29 IAN'!B12)</f>
         <v/>
       </c>
       <c r="G10" s="46">
-        <f>SUM('1 IAN'!B13, '8 IAN'!B13, '15 IAN'!B13, '22 IAN'!B13, '29 IAN'!B13, )</f>
+        <f>('1 IAN'!E13 * '1 IAN'!B13) + ('8 IAN'!E13 * '8 IAN'!B13) + ('15 IAN'!E13 * '15 IAN'!B13) + ('22 IAN'!E13 * '22 IAN'!B13) + ('29 IAN'!E13 * '29 IAN'!B13)</f>
         <v/>
       </c>
       <c r="H10" s="46">
-        <f>SUM('1 IAN'!B14, '8 IAN'!B14, '15 IAN'!B14, '22 IAN'!B14, '29 IAN'!B14, )</f>
+        <f>('1 IAN'!E14 * '1 IAN'!B14) + ('8 IAN'!E14 * '8 IAN'!B14) + ('15 IAN'!E14 * '15 IAN'!B14) + ('22 IAN'!E14 * '22 IAN'!B14) + ('29 IAN'!E14 * '29 IAN'!B14)</f>
         <v/>
       </c>
       <c r="I10" s="46">
-        <f>SUM('1 IAN'!B15, '8 IAN'!B15, '15 IAN'!B15, '22 IAN'!B15, '29 IAN'!B15, )</f>
+        <f>('1 IAN'!E15 * '1 IAN'!B15) + ('8 IAN'!E15 * '8 IAN'!B15) + ('15 IAN'!E15 * '15 IAN'!B15) + ('22 IAN'!E15 * '22 IAN'!B15) + ('29 IAN'!E15 * '29 IAN'!B15)</f>
         <v/>
       </c>
       <c r="J10" s="46">
-        <f>SUM('1 IAN'!B16, '8 IAN'!B16, '15 IAN'!B16, '22 IAN'!B16, '29 IAN'!B16, )</f>
+        <f>('1 IAN'!E16 * '1 IAN'!B16) + ('8 IAN'!E16 * '8 IAN'!B16) + ('15 IAN'!E16 * '15 IAN'!B16) + ('22 IAN'!E16 * '22 IAN'!B16) + ('29 IAN'!E16 * '29 IAN'!B16)</f>
         <v/>
       </c>
     </row>
@@ -1142,31 +1163,31 @@
         </is>
       </c>
       <c r="D11" s="46">
-        <f>SUM('1 IAN'!E10 * '1 IAN'!B10, '8 IAN'!E10 * '8 IAN'!B10, '15 IAN'!E10 * '15 IAN'!B10, '22 IAN'!E10 * '22 IAN'!B10, '29 IAN'!E10 * '29 IAN'!B10, )</f>
+        <f>SUM('1 IAN:29 IAN'!G10)</f>
         <v/>
       </c>
       <c r="E11" s="46">
-        <f>SUM('1 IAN'!E11 * '1 IAN'!B11, '8 IAN'!E11 * '8 IAN'!B11, '15 IAN'!E11 * '15 IAN'!B11, '22 IAN'!E11 * '22 IAN'!B11, '29 IAN'!E11 * '29 IAN'!B11, )</f>
+        <f>SUM('1 IAN:29 IAN'!G11)</f>
         <v/>
       </c>
       <c r="F11" s="46">
-        <f>SUM('1 IAN'!E12 * '1 IAN'!B12, '8 IAN'!E12 * '8 IAN'!B12, '15 IAN'!E12 * '15 IAN'!B12, '22 IAN'!E12 * '22 IAN'!B12, '29 IAN'!E12 * '29 IAN'!B12, )</f>
+        <f>SUM('1 IAN:29 IAN'!G12)</f>
         <v/>
       </c>
       <c r="G11" s="46">
-        <f>SUM('1 IAN'!E13 * '1 IAN'!B13, '8 IAN'!E13 * '8 IAN'!B13, '15 IAN'!E13 * '15 IAN'!B13, '22 IAN'!E13 * '22 IAN'!B13, '29 IAN'!E13 * '29 IAN'!B13, )</f>
+        <f>SUM('1 IAN:29 IAN'!G13)</f>
         <v/>
       </c>
       <c r="H11" s="46">
-        <f>SUM('1 IAN'!E14 * '1 IAN'!B14, '8 IAN'!E14 * '8 IAN'!B14, '15 IAN'!E14 * '15 IAN'!B14, '22 IAN'!E14 * '22 IAN'!B14, '29 IAN'!E14 * '29 IAN'!B14, )</f>
+        <f>SUM('1 IAN:29 IAN'!G14)</f>
         <v/>
       </c>
       <c r="I11" s="46">
-        <f>SUM('1 IAN'!E15 * '1 IAN'!B15, '8 IAN'!E15 * '8 IAN'!B15, '15 IAN'!E15 * '15 IAN'!B15, '22 IAN'!E15 * '22 IAN'!B15, '29 IAN'!E15 * '29 IAN'!B15, )</f>
+        <f>SUM('1 IAN:29 IAN'!G15)</f>
         <v/>
       </c>
       <c r="J11" s="46">
-        <f>SUM('1 IAN'!E16 * '1 IAN'!B16, '8 IAN'!E16 * '8 IAN'!B16, '15 IAN'!E16 * '15 IAN'!B16, '22 IAN'!E16 * '22 IAN'!B16, '29 IAN'!E16 * '29 IAN'!B16, )</f>
+        <f>SUM('1 IAN:29 IAN'!G16)</f>
         <v/>
       </c>
     </row>
@@ -1179,31 +1200,31 @@
         </is>
       </c>
       <c r="D12" s="46">
-        <f>SUM('1 IAN'!G10, '8 IAN'!G10, '15 IAN'!G10, '22 IAN'!G10, '29 IAN'!G10, )</f>
+        <f>SUM('1 IAN:29 IAN'!H10)</f>
         <v/>
       </c>
       <c r="E12" s="46">
-        <f>SUM('1 IAN'!G11, '8 IAN'!G11, '15 IAN'!G11, '22 IAN'!G11, '29 IAN'!G11, )</f>
+        <f>SUM('1 IAN:29 IAN'!H11)</f>
         <v/>
       </c>
       <c r="F12" s="46">
-        <f>SUM('1 IAN'!G12, '8 IAN'!G12, '15 IAN'!G12, '22 IAN'!G12, '29 IAN'!G12, )</f>
+        <f>SUM('1 IAN:29 IAN'!H12)</f>
         <v/>
       </c>
       <c r="G12" s="46">
-        <f>SUM('1 IAN'!G13, '8 IAN'!G13, '15 IAN'!G13, '22 IAN'!G13, '29 IAN'!G13, )</f>
+        <f>SUM('1 IAN:29 IAN'!H13)</f>
         <v/>
       </c>
       <c r="H12" s="46">
-        <f>SUM('1 IAN'!G14, '8 IAN'!G14, '15 IAN'!G14, '22 IAN'!G14, '29 IAN'!G14, )</f>
+        <f>SUM('1 IAN:29 IAN'!H14)</f>
         <v/>
       </c>
       <c r="I12" s="46">
-        <f>SUM('1 IAN'!G15, '8 IAN'!G15, '15 IAN'!G15, '22 IAN'!G15, '29 IAN'!G15, )</f>
+        <f>SUM('1 IAN:29 IAN'!H15)</f>
         <v/>
       </c>
       <c r="J12" s="46">
-        <f>SUM('1 IAN'!G16, '8 IAN'!G16, '15 IAN'!G16, '22 IAN'!G16, '29 IAN'!G16, )</f>
+        <f>SUM('1 IAN:29 IAN'!H16)</f>
         <v/>
       </c>
     </row>
@@ -1220,31 +1241,31 @@
         </is>
       </c>
       <c r="D13" s="46">
-        <f>SUM('1 IAN'!H10, '8 IAN'!H10, '15 IAN'!H10, '22 IAN'!H10, '29 IAN'!H10, )</f>
+        <f>'29 IAN'!I10</f>
         <v/>
       </c>
       <c r="E13" s="46">
-        <f>SUM('1 IAN'!H11, '8 IAN'!H11, '15 IAN'!H11, '22 IAN'!H11, '29 IAN'!H11, )</f>
+        <f>'29 IAN'!I11</f>
         <v/>
       </c>
       <c r="F13" s="46">
-        <f>SUM('1 IAN'!H12, '8 IAN'!H12, '15 IAN'!H12, '22 IAN'!H12, '29 IAN'!H12, )</f>
+        <f>'29 IAN'!I12</f>
         <v/>
       </c>
       <c r="G13" s="46">
-        <f>SUM('1 IAN'!H13, '8 IAN'!H13, '15 IAN'!H13, '22 IAN'!H13, '29 IAN'!H13, )</f>
+        <f>'29 IAN'!I13</f>
         <v/>
       </c>
       <c r="H13" s="46">
-        <f>SUM('1 IAN'!H14, '8 IAN'!H14, '15 IAN'!H14, '22 IAN'!H14, '29 IAN'!H14, )</f>
+        <f>'29 IAN'!I14</f>
         <v/>
       </c>
       <c r="I13" s="46">
-        <f>SUM('1 IAN'!H15, '8 IAN'!H15, '15 IAN'!H15, '22 IAN'!H15, '29 IAN'!H15, )</f>
+        <f>'29 IAN'!I15</f>
         <v/>
       </c>
       <c r="J13" s="46">
-        <f>SUM('1 IAN'!H16, '8 IAN'!H16, '15 IAN'!H16, '22 IAN'!H16, '29 IAN'!H16, )</f>
+        <f>'29 IAN'!I16</f>
         <v/>
       </c>
     </row>
@@ -1257,31 +1278,31 @@
         </is>
       </c>
       <c r="D14" s="46">
-        <f>'29 IAN'!I10</f>
+        <f>'29 IAN'!J10</f>
         <v/>
       </c>
       <c r="E14" s="46">
-        <f>'29 IAN'!I11</f>
+        <f>'29 IAN'!J11</f>
         <v/>
       </c>
       <c r="F14" s="46">
-        <f>'29 IAN'!I12</f>
+        <f>'29 IAN'!J12</f>
         <v/>
       </c>
       <c r="G14" s="46">
-        <f>'29 IAN'!I13</f>
+        <f>'29 IAN'!J13</f>
         <v/>
       </c>
       <c r="H14" s="46">
-        <f>'29 IAN'!I14</f>
+        <f>'29 IAN'!J14</f>
         <v/>
       </c>
       <c r="I14" s="46">
-        <f>'29 IAN'!I15</f>
+        <f>'29 IAN'!J15</f>
         <v/>
       </c>
       <c r="J14" s="46">
-        <f>'29 IAN'!I16</f>
+        <f>'29 IAN'!J16</f>
         <v/>
       </c>
     </row>
@@ -1302,31 +1323,31 @@
         </is>
       </c>
       <c r="D15" s="46">
-        <f>'29 IAN'!J10</f>
+        <f>SUM('5 FEB:26 FEB'!B10)</f>
         <v/>
       </c>
       <c r="E15" s="46">
-        <f>'29 IAN'!J11</f>
+        <f>SUM('5 FEB:26 FEB'!B11)</f>
         <v/>
       </c>
       <c r="F15" s="46">
-        <f>'29 IAN'!J12</f>
+        <f>SUM('5 FEB:26 FEB'!B12)</f>
         <v/>
       </c>
       <c r="G15" s="46">
-        <f>'29 IAN'!J13</f>
+        <f>SUM('5 FEB:26 FEB'!B13)</f>
         <v/>
       </c>
       <c r="H15" s="46">
-        <f>'29 IAN'!J14</f>
+        <f>SUM('5 FEB:26 FEB'!B14)</f>
         <v/>
       </c>
       <c r="I15" s="46">
-        <f>'29 IAN'!J15</f>
+        <f>SUM('5 FEB:26 FEB'!B15)</f>
         <v/>
       </c>
       <c r="J15" s="46">
-        <f>'29 IAN'!J16</f>
+        <f>SUM('5 FEB:26 FEB'!B16)</f>
         <v/>
       </c>
     </row>
@@ -1339,31 +1360,31 @@
         </is>
       </c>
       <c r="D16" s="46">
-        <f>SUM('5 FEB'!B10, '12 FEB'!B10, '19 FEB'!B10, '26 FEB'!B10, )</f>
+        <f>('5 FEB'!E10 * '5 FEB'!B10) + ('12 FEB'!E10 * '12 FEB'!B10) + ('19 FEB'!E10 * '19 FEB'!B10) + ('26 FEB'!E10 * '26 FEB'!B10)</f>
         <v/>
       </c>
       <c r="E16" s="46">
-        <f>SUM('5 FEB'!B11, '12 FEB'!B11, '19 FEB'!B11, '26 FEB'!B11, )</f>
+        <f>('5 FEB'!E11 * '5 FEB'!B11) + ('12 FEB'!E11 * '12 FEB'!B11) + ('19 FEB'!E11 * '19 FEB'!B11) + ('26 FEB'!E11 * '26 FEB'!B11)</f>
         <v/>
       </c>
       <c r="F16" s="46">
-        <f>SUM('5 FEB'!B12, '12 FEB'!B12, '19 FEB'!B12, '26 FEB'!B12, )</f>
+        <f>('5 FEB'!E12 * '5 FEB'!B12) + ('12 FEB'!E12 * '12 FEB'!B12) + ('19 FEB'!E12 * '19 FEB'!B12) + ('26 FEB'!E12 * '26 FEB'!B12)</f>
         <v/>
       </c>
       <c r="G16" s="46">
-        <f>SUM('5 FEB'!B13, '12 FEB'!B13, '19 FEB'!B13, '26 FEB'!B13, )</f>
+        <f>('5 FEB'!E13 * '5 FEB'!B13) + ('12 FEB'!E13 * '12 FEB'!B13) + ('19 FEB'!E13 * '19 FEB'!B13) + ('26 FEB'!E13 * '26 FEB'!B13)</f>
         <v/>
       </c>
       <c r="H16" s="46">
-        <f>SUM('5 FEB'!B14, '12 FEB'!B14, '19 FEB'!B14, '26 FEB'!B14, )</f>
+        <f>('5 FEB'!E14 * '5 FEB'!B14) + ('12 FEB'!E14 * '12 FEB'!B14) + ('19 FEB'!E14 * '19 FEB'!B14) + ('26 FEB'!E14 * '26 FEB'!B14)</f>
         <v/>
       </c>
       <c r="I16" s="46">
-        <f>SUM('5 FEB'!B15, '12 FEB'!B15, '19 FEB'!B15, '26 FEB'!B15, )</f>
+        <f>('5 FEB'!E15 * '5 FEB'!B15) + ('12 FEB'!E15 * '12 FEB'!B15) + ('19 FEB'!E15 * '19 FEB'!B15) + ('26 FEB'!E15 * '26 FEB'!B15)</f>
         <v/>
       </c>
       <c r="J16" s="46">
-        <f>SUM('5 FEB'!B16, '12 FEB'!B16, '19 FEB'!B16, '26 FEB'!B16, )</f>
+        <f>('5 FEB'!E16 * '5 FEB'!B16) + ('12 FEB'!E16 * '12 FEB'!B16) + ('19 FEB'!E16 * '19 FEB'!B16) + ('26 FEB'!E16 * '26 FEB'!B16)</f>
         <v/>
       </c>
     </row>
@@ -1380,31 +1401,31 @@
         </is>
       </c>
       <c r="D17" s="46">
-        <f>SUM('5 FEB'!E10 * '5 FEB'!B10, '12 FEB'!E10 * '12 FEB'!B10, '19 FEB'!E10 * '19 FEB'!B10, '26 FEB'!E10 * '26 FEB'!B10, )</f>
+        <f>SUM('5 FEB:26 FEB'!G10)</f>
         <v/>
       </c>
       <c r="E17" s="46">
-        <f>SUM('5 FEB'!E11 * '5 FEB'!B11, '12 FEB'!E11 * '12 FEB'!B11, '19 FEB'!E11 * '19 FEB'!B11, '26 FEB'!E11 * '26 FEB'!B11, )</f>
+        <f>SUM('5 FEB:26 FEB'!G11)</f>
         <v/>
       </c>
       <c r="F17" s="46">
-        <f>SUM('5 FEB'!E12 * '5 FEB'!B12, '12 FEB'!E12 * '12 FEB'!B12, '19 FEB'!E12 * '19 FEB'!B12, '26 FEB'!E12 * '26 FEB'!B12, )</f>
+        <f>SUM('5 FEB:26 FEB'!G12)</f>
         <v/>
       </c>
       <c r="G17" s="46">
-        <f>SUM('5 FEB'!E13 * '5 FEB'!B13, '12 FEB'!E13 * '12 FEB'!B13, '19 FEB'!E13 * '19 FEB'!B13, '26 FEB'!E13 * '26 FEB'!B13, )</f>
+        <f>SUM('5 FEB:26 FEB'!G13)</f>
         <v/>
       </c>
       <c r="H17" s="46">
-        <f>SUM('5 FEB'!E14 * '5 FEB'!B14, '12 FEB'!E14 * '12 FEB'!B14, '19 FEB'!E14 * '19 FEB'!B14, '26 FEB'!E14 * '26 FEB'!B14, )</f>
+        <f>SUM('5 FEB:26 FEB'!G14)</f>
         <v/>
       </c>
       <c r="I17" s="46">
-        <f>SUM('5 FEB'!E15 * '5 FEB'!B15, '12 FEB'!E15 * '12 FEB'!B15, '19 FEB'!E15 * '19 FEB'!B15, '26 FEB'!E15 * '26 FEB'!B15, )</f>
+        <f>SUM('5 FEB:26 FEB'!G15)</f>
         <v/>
       </c>
       <c r="J17" s="46">
-        <f>SUM('5 FEB'!E16 * '5 FEB'!B16, '12 FEB'!E16 * '12 FEB'!B16, '19 FEB'!E16 * '19 FEB'!B16, '26 FEB'!E16 * '26 FEB'!B16, )</f>
+        <f>SUM('5 FEB:26 FEB'!G16)</f>
         <v/>
       </c>
     </row>
@@ -1417,31 +1438,31 @@
         </is>
       </c>
       <c r="D18" s="46">
-        <f>SUM('5 FEB'!G10, '12 FEB'!G10, '19 FEB'!G10, '26 FEB'!G10, )</f>
+        <f>SUM('5 FEB:26 FEB'!H10)</f>
         <v/>
       </c>
       <c r="E18" s="46">
-        <f>SUM('5 FEB'!G11, '12 FEB'!G11, '19 FEB'!G11, '26 FEB'!G11, )</f>
+        <f>SUM('5 FEB:26 FEB'!H11)</f>
         <v/>
       </c>
       <c r="F18" s="46">
-        <f>SUM('5 FEB'!G12, '12 FEB'!G12, '19 FEB'!G12, '26 FEB'!G12, )</f>
+        <f>SUM('5 FEB:26 FEB'!H12)</f>
         <v/>
       </c>
       <c r="G18" s="46">
-        <f>SUM('5 FEB'!G13, '12 FEB'!G13, '19 FEB'!G13, '26 FEB'!G13, )</f>
+        <f>SUM('5 FEB:26 FEB'!H13)</f>
         <v/>
       </c>
       <c r="H18" s="46">
-        <f>SUM('5 FEB'!G14, '12 FEB'!G14, '19 FEB'!G14, '26 FEB'!G14, )</f>
+        <f>SUM('5 FEB:26 FEB'!H14)</f>
         <v/>
       </c>
       <c r="I18" s="46">
-        <f>SUM('5 FEB'!G15, '12 FEB'!G15, '19 FEB'!G15, '26 FEB'!G15, )</f>
+        <f>SUM('5 FEB:26 FEB'!H15)</f>
         <v/>
       </c>
       <c r="J18" s="46">
-        <f>SUM('5 FEB'!G16, '12 FEB'!G16, '19 FEB'!G16, '26 FEB'!G16, )</f>
+        <f>SUM('5 FEB:26 FEB'!H16)</f>
         <v/>
       </c>
     </row>
@@ -1458,31 +1479,31 @@
         </is>
       </c>
       <c r="D19" s="46">
-        <f>SUM('5 FEB'!H10, '12 FEB'!H10, '19 FEB'!H10, '26 FEB'!H10, )</f>
+        <f>'26 FEB'!I10</f>
         <v/>
       </c>
       <c r="E19" s="46">
-        <f>SUM('5 FEB'!H11, '12 FEB'!H11, '19 FEB'!H11, '26 FEB'!H11, )</f>
+        <f>'26 FEB'!I11</f>
         <v/>
       </c>
       <c r="F19" s="46">
-        <f>SUM('5 FEB'!H12, '12 FEB'!H12, '19 FEB'!H12, '26 FEB'!H12, )</f>
+        <f>'26 FEB'!I12</f>
         <v/>
       </c>
       <c r="G19" s="46">
-        <f>SUM('5 FEB'!H13, '12 FEB'!H13, '19 FEB'!H13, '26 FEB'!H13, )</f>
+        <f>'26 FEB'!I13</f>
         <v/>
       </c>
       <c r="H19" s="46">
-        <f>SUM('5 FEB'!H14, '12 FEB'!H14, '19 FEB'!H14, '26 FEB'!H14, )</f>
+        <f>'26 FEB'!I14</f>
         <v/>
       </c>
       <c r="I19" s="46">
-        <f>SUM('5 FEB'!H15, '12 FEB'!H15, '19 FEB'!H15, '26 FEB'!H15, )</f>
+        <f>'26 FEB'!I15</f>
         <v/>
       </c>
       <c r="J19" s="46">
-        <f>SUM('5 FEB'!H16, '12 FEB'!H16, '19 FEB'!H16, '26 FEB'!H16, )</f>
+        <f>'26 FEB'!I16</f>
         <v/>
       </c>
     </row>
@@ -1495,31 +1516,31 @@
         </is>
       </c>
       <c r="D20" s="46">
-        <f>'26 FEB'!I10</f>
+        <f>'26 FEB'!J10</f>
         <v/>
       </c>
       <c r="E20" s="46">
-        <f>'26 FEB'!I11</f>
+        <f>'26 FEB'!J11</f>
         <v/>
       </c>
       <c r="F20" s="46">
-        <f>'26 FEB'!I12</f>
+        <f>'26 FEB'!J12</f>
         <v/>
       </c>
       <c r="G20" s="46">
-        <f>'26 FEB'!I13</f>
+        <f>'26 FEB'!J13</f>
         <v/>
       </c>
       <c r="H20" s="46">
-        <f>'26 FEB'!I14</f>
+        <f>'26 FEB'!J14</f>
         <v/>
       </c>
       <c r="I20" s="46">
-        <f>'26 FEB'!I15</f>
+        <f>'26 FEB'!J15</f>
         <v/>
       </c>
       <c r="J20" s="46">
-        <f>'26 FEB'!I16</f>
+        <f>'26 FEB'!J16</f>
         <v/>
       </c>
     </row>
@@ -1540,31 +1561,31 @@
         </is>
       </c>
       <c r="D21" s="46">
-        <f>'26 FEB'!J10</f>
+        <f>SUM('4 MAR:25 MAR'!B10)</f>
         <v/>
       </c>
       <c r="E21" s="46">
-        <f>'26 FEB'!J11</f>
+        <f>SUM('4 MAR:25 MAR'!B11)</f>
         <v/>
       </c>
       <c r="F21" s="46">
-        <f>'26 FEB'!J12</f>
+        <f>SUM('4 MAR:25 MAR'!B12)</f>
         <v/>
       </c>
       <c r="G21" s="46">
-        <f>'26 FEB'!J13</f>
+        <f>SUM('4 MAR:25 MAR'!B13)</f>
         <v/>
       </c>
       <c r="H21" s="46">
-        <f>'26 FEB'!J14</f>
+        <f>SUM('4 MAR:25 MAR'!B14)</f>
         <v/>
       </c>
       <c r="I21" s="46">
-        <f>'26 FEB'!J15</f>
+        <f>SUM('4 MAR:25 MAR'!B15)</f>
         <v/>
       </c>
       <c r="J21" s="46">
-        <f>'26 FEB'!J16</f>
+        <f>SUM('4 MAR:25 MAR'!B16)</f>
         <v/>
       </c>
     </row>
@@ -1577,31 +1598,31 @@
         </is>
       </c>
       <c r="D22" s="46">
-        <f>SUM('4 MAR'!B10, '11 MAR'!B10, '18 MAR'!B10, '25 MAR'!B10, )</f>
+        <f>('4 MAR'!E10 * '4 MAR'!B10) + ('11 MAR'!E10 * '11 MAR'!B10) + ('18 MAR'!E10 * '18 MAR'!B10) + ('25 MAR'!E10 * '25 MAR'!B10)</f>
         <v/>
       </c>
       <c r="E22" s="46">
-        <f>SUM('4 MAR'!B11, '11 MAR'!B11, '18 MAR'!B11, '25 MAR'!B11, )</f>
+        <f>('4 MAR'!E11 * '4 MAR'!B11) + ('11 MAR'!E11 * '11 MAR'!B11) + ('18 MAR'!E11 * '18 MAR'!B11) + ('25 MAR'!E11 * '25 MAR'!B11)</f>
         <v/>
       </c>
       <c r="F22" s="46">
-        <f>SUM('4 MAR'!B12, '11 MAR'!B12, '18 MAR'!B12, '25 MAR'!B12, )</f>
+        <f>('4 MAR'!E12 * '4 MAR'!B12) + ('11 MAR'!E12 * '11 MAR'!B12) + ('18 MAR'!E12 * '18 MAR'!B12) + ('25 MAR'!E12 * '25 MAR'!B12)</f>
         <v/>
       </c>
       <c r="G22" s="46">
-        <f>SUM('4 MAR'!B13, '11 MAR'!B13, '18 MAR'!B13, '25 MAR'!B13, )</f>
+        <f>('4 MAR'!E13 * '4 MAR'!B13) + ('11 MAR'!E13 * '11 MAR'!B13) + ('18 MAR'!E13 * '18 MAR'!B13) + ('25 MAR'!E13 * '25 MAR'!B13)</f>
         <v/>
       </c>
       <c r="H22" s="46">
-        <f>SUM('4 MAR'!B14, '11 MAR'!B14, '18 MAR'!B14, '25 MAR'!B14, )</f>
+        <f>('4 MAR'!E14 * '4 MAR'!B14) + ('11 MAR'!E14 * '11 MAR'!B14) + ('18 MAR'!E14 * '18 MAR'!B14) + ('25 MAR'!E14 * '25 MAR'!B14)</f>
         <v/>
       </c>
       <c r="I22" s="46">
-        <f>SUM('4 MAR'!B15, '11 MAR'!B15, '18 MAR'!B15, '25 MAR'!B15, )</f>
+        <f>('4 MAR'!E15 * '4 MAR'!B15) + ('11 MAR'!E15 * '11 MAR'!B15) + ('18 MAR'!E15 * '18 MAR'!B15) + ('25 MAR'!E15 * '25 MAR'!B15)</f>
         <v/>
       </c>
       <c r="J22" s="46">
-        <f>SUM('4 MAR'!B16, '11 MAR'!B16, '18 MAR'!B16, '25 MAR'!B16, )</f>
+        <f>('4 MAR'!E16 * '4 MAR'!B16) + ('11 MAR'!E16 * '11 MAR'!B16) + ('18 MAR'!E16 * '18 MAR'!B16) + ('25 MAR'!E16 * '25 MAR'!B16)</f>
         <v/>
       </c>
     </row>
@@ -1618,31 +1639,31 @@
         </is>
       </c>
       <c r="D23" s="46">
-        <f>SUM('4 MAR'!E10 * '4 MAR'!B10, '11 MAR'!E10 * '11 MAR'!B10, '18 MAR'!E10 * '18 MAR'!B10, '25 MAR'!E10 * '25 MAR'!B10, )</f>
+        <f>SUM('4 MAR:25 MAR'!G10)</f>
         <v/>
       </c>
       <c r="E23" s="46">
-        <f>SUM('4 MAR'!E11 * '4 MAR'!B11, '11 MAR'!E11 * '11 MAR'!B11, '18 MAR'!E11 * '18 MAR'!B11, '25 MAR'!E11 * '25 MAR'!B11, )</f>
+        <f>SUM('4 MAR:25 MAR'!G11)</f>
         <v/>
       </c>
       <c r="F23" s="46">
-        <f>SUM('4 MAR'!E12 * '4 MAR'!B12, '11 MAR'!E12 * '11 MAR'!B12, '18 MAR'!E12 * '18 MAR'!B12, '25 MAR'!E12 * '25 MAR'!B12, )</f>
+        <f>SUM('4 MAR:25 MAR'!G12)</f>
         <v/>
       </c>
       <c r="G23" s="46">
-        <f>SUM('4 MAR'!E13 * '4 MAR'!B13, '11 MAR'!E13 * '11 MAR'!B13, '18 MAR'!E13 * '18 MAR'!B13, '25 MAR'!E13 * '25 MAR'!B13, )</f>
+        <f>SUM('4 MAR:25 MAR'!G13)</f>
         <v/>
       </c>
       <c r="H23" s="46">
-        <f>SUM('4 MAR'!E14 * '4 MAR'!B14, '11 MAR'!E14 * '11 MAR'!B14, '18 MAR'!E14 * '18 MAR'!B14, '25 MAR'!E14 * '25 MAR'!B14, )</f>
+        <f>SUM('4 MAR:25 MAR'!G14)</f>
         <v/>
       </c>
       <c r="I23" s="46">
-        <f>SUM('4 MAR'!E15 * '4 MAR'!B15, '11 MAR'!E15 * '11 MAR'!B15, '18 MAR'!E15 * '18 MAR'!B15, '25 MAR'!E15 * '25 MAR'!B15, )</f>
+        <f>SUM('4 MAR:25 MAR'!G15)</f>
         <v/>
       </c>
       <c r="J23" s="46">
-        <f>SUM('4 MAR'!E16 * '4 MAR'!B16, '11 MAR'!E16 * '11 MAR'!B16, '18 MAR'!E16 * '18 MAR'!B16, '25 MAR'!E16 * '25 MAR'!B16, )</f>
+        <f>SUM('4 MAR:25 MAR'!G16)</f>
         <v/>
       </c>
     </row>
@@ -1655,31 +1676,31 @@
         </is>
       </c>
       <c r="D24" s="46">
-        <f>SUM('4 MAR'!G10, '11 MAR'!G10, '18 MAR'!G10, '25 MAR'!G10, )</f>
+        <f>SUM('4 MAR:25 MAR'!H10)</f>
         <v/>
       </c>
       <c r="E24" s="46">
-        <f>SUM('4 MAR'!G11, '11 MAR'!G11, '18 MAR'!G11, '25 MAR'!G11, )</f>
+        <f>SUM('4 MAR:25 MAR'!H11)</f>
         <v/>
       </c>
       <c r="F24" s="46">
-        <f>SUM('4 MAR'!G12, '11 MAR'!G12, '18 MAR'!G12, '25 MAR'!G12, )</f>
+        <f>SUM('4 MAR:25 MAR'!H12)</f>
         <v/>
       </c>
       <c r="G24" s="46">
-        <f>SUM('4 MAR'!G13, '11 MAR'!G13, '18 MAR'!G13, '25 MAR'!G13, )</f>
+        <f>SUM('4 MAR:25 MAR'!H13)</f>
         <v/>
       </c>
       <c r="H24" s="46">
-        <f>SUM('4 MAR'!G14, '11 MAR'!G14, '18 MAR'!G14, '25 MAR'!G14, )</f>
+        <f>SUM('4 MAR:25 MAR'!H14)</f>
         <v/>
       </c>
       <c r="I24" s="46">
-        <f>SUM('4 MAR'!G15, '11 MAR'!G15, '18 MAR'!G15, '25 MAR'!G15, )</f>
+        <f>SUM('4 MAR:25 MAR'!H15)</f>
         <v/>
       </c>
       <c r="J24" s="46">
-        <f>SUM('4 MAR'!G16, '11 MAR'!G16, '18 MAR'!G16, '25 MAR'!G16, )</f>
+        <f>SUM('4 MAR:25 MAR'!H16)</f>
         <v/>
       </c>
     </row>
@@ -1696,31 +1717,31 @@
         </is>
       </c>
       <c r="D25" s="46">
-        <f>SUM('4 MAR'!H10, '11 MAR'!H10, '18 MAR'!H10, '25 MAR'!H10, )</f>
+        <f>'25 MAR'!I10</f>
         <v/>
       </c>
       <c r="E25" s="46">
-        <f>SUM('4 MAR'!H11, '11 MAR'!H11, '18 MAR'!H11, '25 MAR'!H11, )</f>
+        <f>'25 MAR'!I11</f>
         <v/>
       </c>
       <c r="F25" s="46">
-        <f>SUM('4 MAR'!H12, '11 MAR'!H12, '18 MAR'!H12, '25 MAR'!H12, )</f>
+        <f>'25 MAR'!I12</f>
         <v/>
       </c>
       <c r="G25" s="46">
-        <f>SUM('4 MAR'!H13, '11 MAR'!H13, '18 MAR'!H13, '25 MAR'!H13, )</f>
+        <f>'25 MAR'!I13</f>
         <v/>
       </c>
       <c r="H25" s="46">
-        <f>SUM('4 MAR'!H14, '11 MAR'!H14, '18 MAR'!H14, '25 MAR'!H14, )</f>
+        <f>'25 MAR'!I14</f>
         <v/>
       </c>
       <c r="I25" s="46">
-        <f>SUM('4 MAR'!H15, '11 MAR'!H15, '18 MAR'!H15, '25 MAR'!H15, )</f>
+        <f>'25 MAR'!I15</f>
         <v/>
       </c>
       <c r="J25" s="46">
-        <f>SUM('4 MAR'!H16, '11 MAR'!H16, '18 MAR'!H16, '25 MAR'!H16, )</f>
+        <f>'25 MAR'!I16</f>
         <v/>
       </c>
     </row>
@@ -1733,31 +1754,31 @@
         </is>
       </c>
       <c r="D26" s="46">
-        <f>'25 MAR'!I10</f>
+        <f>'25 MAR'!J10</f>
         <v/>
       </c>
       <c r="E26" s="46">
-        <f>'25 MAR'!I11</f>
+        <f>'25 MAR'!J11</f>
         <v/>
       </c>
       <c r="F26" s="46">
-        <f>'25 MAR'!I12</f>
+        <f>'25 MAR'!J12</f>
         <v/>
       </c>
       <c r="G26" s="46">
-        <f>'25 MAR'!I13</f>
+        <f>'25 MAR'!J13</f>
         <v/>
       </c>
       <c r="H26" s="46">
-        <f>'25 MAR'!I14</f>
+        <f>'25 MAR'!J14</f>
         <v/>
       </c>
       <c r="I26" s="46">
-        <f>'25 MAR'!I15</f>
+        <f>'25 MAR'!J15</f>
         <v/>
       </c>
       <c r="J26" s="46">
-        <f>'25 MAR'!I16</f>
+        <f>'25 MAR'!J16</f>
         <v/>
       </c>
     </row>
@@ -1778,31 +1799,31 @@
         </is>
       </c>
       <c r="D27" s="46">
-        <f>'25 MAR'!J10</f>
+        <f>SUM('1 APR:29 APR'!B10)</f>
         <v/>
       </c>
       <c r="E27" s="46">
-        <f>'25 MAR'!J11</f>
+        <f>SUM('1 APR:29 APR'!B11)</f>
         <v/>
       </c>
       <c r="F27" s="46">
-        <f>'25 MAR'!J12</f>
+        <f>SUM('1 APR:29 APR'!B12)</f>
         <v/>
       </c>
       <c r="G27" s="46">
-        <f>'25 MAR'!J13</f>
+        <f>SUM('1 APR:29 APR'!B13)</f>
         <v/>
       </c>
       <c r="H27" s="46">
-        <f>'25 MAR'!J14</f>
+        <f>SUM('1 APR:29 APR'!B14)</f>
         <v/>
       </c>
       <c r="I27" s="46">
-        <f>'25 MAR'!J15</f>
+        <f>SUM('1 APR:29 APR'!B15)</f>
         <v/>
       </c>
       <c r="J27" s="46">
-        <f>'25 MAR'!J16</f>
+        <f>SUM('1 APR:29 APR'!B16)</f>
         <v/>
       </c>
     </row>
@@ -1815,31 +1836,31 @@
         </is>
       </c>
       <c r="D28" s="46">
-        <f>SUM('1 APR'!B10, '8 APR'!B10, '15 APR'!B10, '22 APR'!B10, '29 APR'!B10, )</f>
+        <f>('1 APR'!E10 * '1 APR'!B10) + ('8 APR'!E10 * '8 APR'!B10) + ('15 APR'!E10 * '15 APR'!B10) + ('22 APR'!E10 * '22 APR'!B10) + ('29 APR'!E10 * '29 APR'!B10)</f>
         <v/>
       </c>
       <c r="E28" s="46">
-        <f>SUM('1 APR'!B11, '8 APR'!B11, '15 APR'!B11, '22 APR'!B11, '29 APR'!B11, )</f>
+        <f>('1 APR'!E11 * '1 APR'!B11) + ('8 APR'!E11 * '8 APR'!B11) + ('15 APR'!E11 * '15 APR'!B11) + ('22 APR'!E11 * '22 APR'!B11) + ('29 APR'!E11 * '29 APR'!B11)</f>
         <v/>
       </c>
       <c r="F28" s="46">
-        <f>SUM('1 APR'!B12, '8 APR'!B12, '15 APR'!B12, '22 APR'!B12, '29 APR'!B12, )</f>
+        <f>('1 APR'!E12 * '1 APR'!B12) + ('8 APR'!E12 * '8 APR'!B12) + ('15 APR'!E12 * '15 APR'!B12) + ('22 APR'!E12 * '22 APR'!B12) + ('29 APR'!E12 * '29 APR'!B12)</f>
         <v/>
       </c>
       <c r="G28" s="46">
-        <f>SUM('1 APR'!B13, '8 APR'!B13, '15 APR'!B13, '22 APR'!B13, '29 APR'!B13, )</f>
+        <f>('1 APR'!E13 * '1 APR'!B13) + ('8 APR'!E13 * '8 APR'!B13) + ('15 APR'!E13 * '15 APR'!B13) + ('22 APR'!E13 * '22 APR'!B13) + ('29 APR'!E13 * '29 APR'!B13)</f>
         <v/>
       </c>
       <c r="H28" s="46">
-        <f>SUM('1 APR'!B14, '8 APR'!B14, '15 APR'!B14, '22 APR'!B14, '29 APR'!B14, )</f>
+        <f>('1 APR'!E14 * '1 APR'!B14) + ('8 APR'!E14 * '8 APR'!B14) + ('15 APR'!E14 * '15 APR'!B14) + ('22 APR'!E14 * '22 APR'!B14) + ('29 APR'!E14 * '29 APR'!B14)</f>
         <v/>
       </c>
       <c r="I28" s="46">
-        <f>SUM('1 APR'!B15, '8 APR'!B15, '15 APR'!B15, '22 APR'!B15, '29 APR'!B15, )</f>
+        <f>('1 APR'!E15 * '1 APR'!B15) + ('8 APR'!E15 * '8 APR'!B15) + ('15 APR'!E15 * '15 APR'!B15) + ('22 APR'!E15 * '22 APR'!B15) + ('29 APR'!E15 * '29 APR'!B15)</f>
         <v/>
       </c>
       <c r="J28" s="46">
-        <f>SUM('1 APR'!B16, '8 APR'!B16, '15 APR'!B16, '22 APR'!B16, '29 APR'!B16, )</f>
+        <f>('1 APR'!E16 * '1 APR'!B16) + ('8 APR'!E16 * '8 APR'!B16) + ('15 APR'!E16 * '15 APR'!B16) + ('22 APR'!E16 * '22 APR'!B16) + ('29 APR'!E16 * '29 APR'!B16)</f>
         <v/>
       </c>
     </row>
@@ -1856,31 +1877,31 @@
         </is>
       </c>
       <c r="D29" s="46">
-        <f>SUM('1 APR'!E10 * '1 APR'!B10, '8 APR'!E10 * '8 APR'!B10, '15 APR'!E10 * '15 APR'!B10, '22 APR'!E10 * '22 APR'!B10, '29 APR'!E10 * '29 APR'!B10, )</f>
+        <f>SUM('1 APR:29 APR'!G10)</f>
         <v/>
       </c>
       <c r="E29" s="46">
-        <f>SUM('1 APR'!E11 * '1 APR'!B11, '8 APR'!E11 * '8 APR'!B11, '15 APR'!E11 * '15 APR'!B11, '22 APR'!E11 * '22 APR'!B11, '29 APR'!E11 * '29 APR'!B11, )</f>
+        <f>SUM('1 APR:29 APR'!G11)</f>
         <v/>
       </c>
       <c r="F29" s="46">
-        <f>SUM('1 APR'!E12 * '1 APR'!B12, '8 APR'!E12 * '8 APR'!B12, '15 APR'!E12 * '15 APR'!B12, '22 APR'!E12 * '22 APR'!B12, '29 APR'!E12 * '29 APR'!B12, )</f>
+        <f>SUM('1 APR:29 APR'!G12)</f>
         <v/>
       </c>
       <c r="G29" s="46">
-        <f>SUM('1 APR'!E13 * '1 APR'!B13, '8 APR'!E13 * '8 APR'!B13, '15 APR'!E13 * '15 APR'!B13, '22 APR'!E13 * '22 APR'!B13, '29 APR'!E13 * '29 APR'!B13, )</f>
+        <f>SUM('1 APR:29 APR'!G13)</f>
         <v/>
       </c>
       <c r="H29" s="46">
-        <f>SUM('1 APR'!E14 * '1 APR'!B14, '8 APR'!E14 * '8 APR'!B14, '15 APR'!E14 * '15 APR'!B14, '22 APR'!E14 * '22 APR'!B14, '29 APR'!E14 * '29 APR'!B14, )</f>
+        <f>SUM('1 APR:29 APR'!G14)</f>
         <v/>
       </c>
       <c r="I29" s="46">
-        <f>SUM('1 APR'!E15 * '1 APR'!B15, '8 APR'!E15 * '8 APR'!B15, '15 APR'!E15 * '15 APR'!B15, '22 APR'!E15 * '22 APR'!B15, '29 APR'!E15 * '29 APR'!B15, )</f>
+        <f>SUM('1 APR:29 APR'!G15)</f>
         <v/>
       </c>
       <c r="J29" s="46">
-        <f>SUM('1 APR'!E16 * '1 APR'!B16, '8 APR'!E16 * '8 APR'!B16, '15 APR'!E16 * '15 APR'!B16, '22 APR'!E16 * '22 APR'!B16, '29 APR'!E16 * '29 APR'!B16, )</f>
+        <f>SUM('1 APR:29 APR'!G16)</f>
         <v/>
       </c>
     </row>
@@ -1893,31 +1914,31 @@
         </is>
       </c>
       <c r="D30" s="46">
-        <f>SUM('1 APR'!G10, '8 APR'!G10, '15 APR'!G10, '22 APR'!G10, '29 APR'!G10, )</f>
+        <f>SUM('1 APR:29 APR'!H10)</f>
         <v/>
       </c>
       <c r="E30" s="46">
-        <f>SUM('1 APR'!G11, '8 APR'!G11, '15 APR'!G11, '22 APR'!G11, '29 APR'!G11, )</f>
+        <f>SUM('1 APR:29 APR'!H11)</f>
         <v/>
       </c>
       <c r="F30" s="46">
-        <f>SUM('1 APR'!G12, '8 APR'!G12, '15 APR'!G12, '22 APR'!G12, '29 APR'!G12, )</f>
+        <f>SUM('1 APR:29 APR'!H12)</f>
         <v/>
       </c>
       <c r="G30" s="46">
-        <f>SUM('1 APR'!G13, '8 APR'!G13, '15 APR'!G13, '22 APR'!G13, '29 APR'!G13, )</f>
+        <f>SUM('1 APR:29 APR'!H13)</f>
         <v/>
       </c>
       <c r="H30" s="46">
-        <f>SUM('1 APR'!G14, '8 APR'!G14, '15 APR'!G14, '22 APR'!G14, '29 APR'!G14, )</f>
+        <f>SUM('1 APR:29 APR'!H14)</f>
         <v/>
       </c>
       <c r="I30" s="46">
-        <f>SUM('1 APR'!G15, '8 APR'!G15, '15 APR'!G15, '22 APR'!G15, '29 APR'!G15, )</f>
+        <f>SUM('1 APR:29 APR'!H15)</f>
         <v/>
       </c>
       <c r="J30" s="46">
-        <f>SUM('1 APR'!G16, '8 APR'!G16, '15 APR'!G16, '22 APR'!G16, '29 APR'!G16, )</f>
+        <f>SUM('1 APR:29 APR'!H16)</f>
         <v/>
       </c>
     </row>
@@ -1934,31 +1955,31 @@
         </is>
       </c>
       <c r="D31" s="46">
-        <f>SUM('1 APR'!H10, '8 APR'!H10, '15 APR'!H10, '22 APR'!H10, '29 APR'!H10, )</f>
+        <f>'29 APR'!I10</f>
         <v/>
       </c>
       <c r="E31" s="46">
-        <f>SUM('1 APR'!H11, '8 APR'!H11, '15 APR'!H11, '22 APR'!H11, '29 APR'!H11, )</f>
+        <f>'29 APR'!I11</f>
         <v/>
       </c>
       <c r="F31" s="46">
-        <f>SUM('1 APR'!H12, '8 APR'!H12, '15 APR'!H12, '22 APR'!H12, '29 APR'!H12, )</f>
+        <f>'29 APR'!I12</f>
         <v/>
       </c>
       <c r="G31" s="46">
-        <f>SUM('1 APR'!H13, '8 APR'!H13, '15 APR'!H13, '22 APR'!H13, '29 APR'!H13, )</f>
+        <f>'29 APR'!I13</f>
         <v/>
       </c>
       <c r="H31" s="46">
-        <f>SUM('1 APR'!H14, '8 APR'!H14, '15 APR'!H14, '22 APR'!H14, '29 APR'!H14, )</f>
+        <f>'29 APR'!I14</f>
         <v/>
       </c>
       <c r="I31" s="46">
-        <f>SUM('1 APR'!H15, '8 APR'!H15, '15 APR'!H15, '22 APR'!H15, '29 APR'!H15, )</f>
+        <f>'29 APR'!I15</f>
         <v/>
       </c>
       <c r="J31" s="46">
-        <f>SUM('1 APR'!H16, '8 APR'!H16, '15 APR'!H16, '22 APR'!H16, '29 APR'!H16, )</f>
+        <f>'29 APR'!I16</f>
         <v/>
       </c>
     </row>
@@ -1971,31 +1992,31 @@
         </is>
       </c>
       <c r="D32" s="46">
-        <f>'29 APR'!I10</f>
+        <f>'29 APR'!J10</f>
         <v/>
       </c>
       <c r="E32" s="46">
-        <f>'29 APR'!I11</f>
+        <f>'29 APR'!J11</f>
         <v/>
       </c>
       <c r="F32" s="46">
-        <f>'29 APR'!I12</f>
+        <f>'29 APR'!J12</f>
         <v/>
       </c>
       <c r="G32" s="46">
-        <f>'29 APR'!I13</f>
+        <f>'29 APR'!J13</f>
         <v/>
       </c>
       <c r="H32" s="46">
-        <f>'29 APR'!I14</f>
+        <f>'29 APR'!J14</f>
         <v/>
       </c>
       <c r="I32" s="46">
-        <f>'29 APR'!I15</f>
+        <f>'29 APR'!J15</f>
         <v/>
       </c>
       <c r="J32" s="46">
-        <f>'29 APR'!I16</f>
+        <f>'29 APR'!J16</f>
         <v/>
       </c>
     </row>
@@ -2016,31 +2037,31 @@
         </is>
       </c>
       <c r="D33" s="46">
-        <f>'29 APR'!J10</f>
+        <f>SUM('6 MAI:27 MAI'!B10)</f>
         <v/>
       </c>
       <c r="E33" s="46">
-        <f>'29 APR'!J11</f>
+        <f>SUM('6 MAI:27 MAI'!B11)</f>
         <v/>
       </c>
       <c r="F33" s="46">
-        <f>'29 APR'!J12</f>
+        <f>SUM('6 MAI:27 MAI'!B12)</f>
         <v/>
       </c>
       <c r="G33" s="46">
-        <f>'29 APR'!J13</f>
+        <f>SUM('6 MAI:27 MAI'!B13)</f>
         <v/>
       </c>
       <c r="H33" s="46">
-        <f>'29 APR'!J14</f>
+        <f>SUM('6 MAI:27 MAI'!B14)</f>
         <v/>
       </c>
       <c r="I33" s="46">
-        <f>'29 APR'!J15</f>
+        <f>SUM('6 MAI:27 MAI'!B15)</f>
         <v/>
       </c>
       <c r="J33" s="46">
-        <f>'29 APR'!J16</f>
+        <f>SUM('6 MAI:27 MAI'!B16)</f>
         <v/>
       </c>
     </row>
@@ -2053,31 +2074,31 @@
         </is>
       </c>
       <c r="D34" s="46">
-        <f>SUM('6 MAI'!B10, '13 MAI'!B10, '20 MAI'!B10, '27 MAI'!B10, )</f>
+        <f>('6 MAI'!E10 * '6 MAI'!B10) + ('13 MAI'!E10 * '13 MAI'!B10) + ('20 MAI'!E10 * '20 MAI'!B10) + ('27 MAI'!E10 * '27 MAI'!B10)</f>
         <v/>
       </c>
       <c r="E34" s="46">
-        <f>SUM('6 MAI'!B11, '13 MAI'!B11, '20 MAI'!B11, '27 MAI'!B11, )</f>
+        <f>('6 MAI'!E11 * '6 MAI'!B11) + ('13 MAI'!E11 * '13 MAI'!B11) + ('20 MAI'!E11 * '20 MAI'!B11) + ('27 MAI'!E11 * '27 MAI'!B11)</f>
         <v/>
       </c>
       <c r="F34" s="46">
-        <f>SUM('6 MAI'!B12, '13 MAI'!B12, '20 MAI'!B12, '27 MAI'!B12, )</f>
+        <f>('6 MAI'!E12 * '6 MAI'!B12) + ('13 MAI'!E12 * '13 MAI'!B12) + ('20 MAI'!E12 * '20 MAI'!B12) + ('27 MAI'!E12 * '27 MAI'!B12)</f>
         <v/>
       </c>
       <c r="G34" s="46">
-        <f>SUM('6 MAI'!B13, '13 MAI'!B13, '20 MAI'!B13, '27 MAI'!B13, )</f>
+        <f>('6 MAI'!E13 * '6 MAI'!B13) + ('13 MAI'!E13 * '13 MAI'!B13) + ('20 MAI'!E13 * '20 MAI'!B13) + ('27 MAI'!E13 * '27 MAI'!B13)</f>
         <v/>
       </c>
       <c r="H34" s="46">
-        <f>SUM('6 MAI'!B14, '13 MAI'!B14, '20 MAI'!B14, '27 MAI'!B14, )</f>
+        <f>('6 MAI'!E14 * '6 MAI'!B14) + ('13 MAI'!E14 * '13 MAI'!B14) + ('20 MAI'!E14 * '20 MAI'!B14) + ('27 MAI'!E14 * '27 MAI'!B14)</f>
         <v/>
       </c>
       <c r="I34" s="46">
-        <f>SUM('6 MAI'!B15, '13 MAI'!B15, '20 MAI'!B15, '27 MAI'!B15, )</f>
+        <f>('6 MAI'!E15 * '6 MAI'!B15) + ('13 MAI'!E15 * '13 MAI'!B15) + ('20 MAI'!E15 * '20 MAI'!B15) + ('27 MAI'!E15 * '27 MAI'!B15)</f>
         <v/>
       </c>
       <c r="J34" s="46">
-        <f>SUM('6 MAI'!B16, '13 MAI'!B16, '20 MAI'!B16, '27 MAI'!B16, )</f>
+        <f>('6 MAI'!E16 * '6 MAI'!B16) + ('13 MAI'!E16 * '13 MAI'!B16) + ('20 MAI'!E16 * '20 MAI'!B16) + ('27 MAI'!E16 * '27 MAI'!B16)</f>
         <v/>
       </c>
     </row>
@@ -2094,31 +2115,31 @@
         </is>
       </c>
       <c r="D35" s="46">
-        <f>SUM('6 MAI'!E10 * '6 MAI'!B10, '13 MAI'!E10 * '13 MAI'!B10, '20 MAI'!E10 * '20 MAI'!B10, '27 MAI'!E10 * '27 MAI'!B10, )</f>
+        <f>SUM('6 MAI:27 MAI'!G10)</f>
         <v/>
       </c>
       <c r="E35" s="46">
-        <f>SUM('6 MAI'!E11 * '6 MAI'!B11, '13 MAI'!E11 * '13 MAI'!B11, '20 MAI'!E11 * '20 MAI'!B11, '27 MAI'!E11 * '27 MAI'!B11, )</f>
+        <f>SUM('6 MAI:27 MAI'!G11)</f>
         <v/>
       </c>
       <c r="F35" s="46">
-        <f>SUM('6 MAI'!E12 * '6 MAI'!B12, '13 MAI'!E12 * '13 MAI'!B12, '20 MAI'!E12 * '20 MAI'!B12, '27 MAI'!E12 * '27 MAI'!B12, )</f>
+        <f>SUM('6 MAI:27 MAI'!G12)</f>
         <v/>
       </c>
       <c r="G35" s="46">
-        <f>SUM('6 MAI'!E13 * '6 MAI'!B13, '13 MAI'!E13 * '13 MAI'!B13, '20 MAI'!E13 * '20 MAI'!B13, '27 MAI'!E13 * '27 MAI'!B13, )</f>
+        <f>SUM('6 MAI:27 MAI'!G13)</f>
         <v/>
       </c>
       <c r="H35" s="46">
-        <f>SUM('6 MAI'!E14 * '6 MAI'!B14, '13 MAI'!E14 * '13 MAI'!B14, '20 MAI'!E14 * '20 MAI'!B14, '27 MAI'!E14 * '27 MAI'!B14, )</f>
+        <f>SUM('6 MAI:27 MAI'!G14)</f>
         <v/>
       </c>
       <c r="I35" s="46">
-        <f>SUM('6 MAI'!E15 * '6 MAI'!B15, '13 MAI'!E15 * '13 MAI'!B15, '20 MAI'!E15 * '20 MAI'!B15, '27 MAI'!E15 * '27 MAI'!B15, )</f>
+        <f>SUM('6 MAI:27 MAI'!G15)</f>
         <v/>
       </c>
       <c r="J35" s="46">
-        <f>SUM('6 MAI'!E16 * '6 MAI'!B16, '13 MAI'!E16 * '13 MAI'!B16, '20 MAI'!E16 * '20 MAI'!B16, '27 MAI'!E16 * '27 MAI'!B16, )</f>
+        <f>SUM('6 MAI:27 MAI'!G16)</f>
         <v/>
       </c>
     </row>
@@ -2131,31 +2152,31 @@
         </is>
       </c>
       <c r="D36" s="46">
-        <f>SUM('6 MAI'!G10, '13 MAI'!G10, '20 MAI'!G10, '27 MAI'!G10, )</f>
+        <f>SUM('6 MAI:27 MAI'!H10)</f>
         <v/>
       </c>
       <c r="E36" s="46">
-        <f>SUM('6 MAI'!G11, '13 MAI'!G11, '20 MAI'!G11, '27 MAI'!G11, )</f>
+        <f>SUM('6 MAI:27 MAI'!H11)</f>
         <v/>
       </c>
       <c r="F36" s="46">
-        <f>SUM('6 MAI'!G12, '13 MAI'!G12, '20 MAI'!G12, '27 MAI'!G12, )</f>
+        <f>SUM('6 MAI:27 MAI'!H12)</f>
         <v/>
       </c>
       <c r="G36" s="46">
-        <f>SUM('6 MAI'!G13, '13 MAI'!G13, '20 MAI'!G13, '27 MAI'!G13, )</f>
+        <f>SUM('6 MAI:27 MAI'!H13)</f>
         <v/>
       </c>
       <c r="H36" s="46">
-        <f>SUM('6 MAI'!G14, '13 MAI'!G14, '20 MAI'!G14, '27 MAI'!G14, )</f>
+        <f>SUM('6 MAI:27 MAI'!H14)</f>
         <v/>
       </c>
       <c r="I36" s="46">
-        <f>SUM('6 MAI'!G15, '13 MAI'!G15, '20 MAI'!G15, '27 MAI'!G15, )</f>
+        <f>SUM('6 MAI:27 MAI'!H15)</f>
         <v/>
       </c>
       <c r="J36" s="46">
-        <f>SUM('6 MAI'!G16, '13 MAI'!G16, '20 MAI'!G16, '27 MAI'!G16, )</f>
+        <f>SUM('6 MAI:27 MAI'!H16)</f>
         <v/>
       </c>
     </row>
@@ -2172,31 +2193,31 @@
         </is>
       </c>
       <c r="D37" s="46">
-        <f>SUM('6 MAI'!H10, '13 MAI'!H10, '20 MAI'!H10, '27 MAI'!H10, )</f>
+        <f>'27 MAI'!I10</f>
         <v/>
       </c>
       <c r="E37" s="46">
-        <f>SUM('6 MAI'!H11, '13 MAI'!H11, '20 MAI'!H11, '27 MAI'!H11, )</f>
+        <f>'27 MAI'!I11</f>
         <v/>
       </c>
       <c r="F37" s="46">
-        <f>SUM('6 MAI'!H12, '13 MAI'!H12, '20 MAI'!H12, '27 MAI'!H12, )</f>
+        <f>'27 MAI'!I12</f>
         <v/>
       </c>
       <c r="G37" s="46">
-        <f>SUM('6 MAI'!H13, '13 MAI'!H13, '20 MAI'!H13, '27 MAI'!H13, )</f>
+        <f>'27 MAI'!I13</f>
         <v/>
       </c>
       <c r="H37" s="46">
-        <f>SUM('6 MAI'!H14, '13 MAI'!H14, '20 MAI'!H14, '27 MAI'!H14, )</f>
+        <f>'27 MAI'!I14</f>
         <v/>
       </c>
       <c r="I37" s="46">
-        <f>SUM('6 MAI'!H15, '13 MAI'!H15, '20 MAI'!H15, '27 MAI'!H15, )</f>
+        <f>'27 MAI'!I15</f>
         <v/>
       </c>
       <c r="J37" s="46">
-        <f>SUM('6 MAI'!H16, '13 MAI'!H16, '20 MAI'!H16, '27 MAI'!H16, )</f>
+        <f>'27 MAI'!I16</f>
         <v/>
       </c>
     </row>
@@ -2209,31 +2230,31 @@
         </is>
       </c>
       <c r="D38" s="46">
-        <f>'27 MAI'!I10</f>
+        <f>'27 MAI'!J10</f>
         <v/>
       </c>
       <c r="E38" s="46">
-        <f>'27 MAI'!I11</f>
+        <f>'27 MAI'!J11</f>
         <v/>
       </c>
       <c r="F38" s="46">
-        <f>'27 MAI'!I12</f>
+        <f>'27 MAI'!J12</f>
         <v/>
       </c>
       <c r="G38" s="46">
-        <f>'27 MAI'!I13</f>
+        <f>'27 MAI'!J13</f>
         <v/>
       </c>
       <c r="H38" s="46">
-        <f>'27 MAI'!I14</f>
+        <f>'27 MAI'!J14</f>
         <v/>
       </c>
       <c r="I38" s="46">
-        <f>'27 MAI'!I15</f>
+        <f>'27 MAI'!J15</f>
         <v/>
       </c>
       <c r="J38" s="46">
-        <f>'27 MAI'!I16</f>
+        <f>'27 MAI'!J16</f>
         <v/>
       </c>
     </row>
@@ -2254,31 +2275,31 @@
         </is>
       </c>
       <c r="D39" s="46">
-        <f>'27 MAI'!J10</f>
+        <f>SUM('3 IUN:24 IUN'!B10)</f>
         <v/>
       </c>
       <c r="E39" s="46">
-        <f>'27 MAI'!J11</f>
+        <f>SUM('3 IUN:24 IUN'!B11)</f>
         <v/>
       </c>
       <c r="F39" s="46">
-        <f>'27 MAI'!J12</f>
+        <f>SUM('3 IUN:24 IUN'!B12)</f>
         <v/>
       </c>
       <c r="G39" s="46">
-        <f>'27 MAI'!J13</f>
+        <f>SUM('3 IUN:24 IUN'!B13)</f>
         <v/>
       </c>
       <c r="H39" s="46">
-        <f>'27 MAI'!J14</f>
+        <f>SUM('3 IUN:24 IUN'!B14)</f>
         <v/>
       </c>
       <c r="I39" s="46">
-        <f>'27 MAI'!J15</f>
+        <f>SUM('3 IUN:24 IUN'!B15)</f>
         <v/>
       </c>
       <c r="J39" s="46">
-        <f>'27 MAI'!J16</f>
+        <f>SUM('3 IUN:24 IUN'!B16)</f>
         <v/>
       </c>
     </row>
@@ -2291,31 +2312,31 @@
         </is>
       </c>
       <c r="D40" s="46">
-        <f>SUM('3 IUN'!B10, '10 IUN'!B10, '17 IUN'!B10, '24 IUN'!B10, )</f>
+        <f>('3 IUN'!E10 * '3 IUN'!B10) + ('10 IUN'!E10 * '10 IUN'!B10) + ('17 IUN'!E10 * '17 IUN'!B10) + ('24 IUN'!E10 * '24 IUN'!B10)</f>
         <v/>
       </c>
       <c r="E40" s="46">
-        <f>SUM('3 IUN'!B11, '10 IUN'!B11, '17 IUN'!B11, '24 IUN'!B11, )</f>
+        <f>('3 IUN'!E11 * '3 IUN'!B11) + ('10 IUN'!E11 * '10 IUN'!B11) + ('17 IUN'!E11 * '17 IUN'!B11) + ('24 IUN'!E11 * '24 IUN'!B11)</f>
         <v/>
       </c>
       <c r="F40" s="46">
-        <f>SUM('3 IUN'!B12, '10 IUN'!B12, '17 IUN'!B12, '24 IUN'!B12, )</f>
+        <f>('3 IUN'!E12 * '3 IUN'!B12) + ('10 IUN'!E12 * '10 IUN'!B12) + ('17 IUN'!E12 * '17 IUN'!B12) + ('24 IUN'!E12 * '24 IUN'!B12)</f>
         <v/>
       </c>
       <c r="G40" s="46">
-        <f>SUM('3 IUN'!B13, '10 IUN'!B13, '17 IUN'!B13, '24 IUN'!B13, )</f>
+        <f>('3 IUN'!E13 * '3 IUN'!B13) + ('10 IUN'!E13 * '10 IUN'!B13) + ('17 IUN'!E13 * '17 IUN'!B13) + ('24 IUN'!E13 * '24 IUN'!B13)</f>
         <v/>
       </c>
       <c r="H40" s="46">
-        <f>SUM('3 IUN'!B14, '10 IUN'!B14, '17 IUN'!B14, '24 IUN'!B14, )</f>
+        <f>('3 IUN'!E14 * '3 IUN'!B14) + ('10 IUN'!E14 * '10 IUN'!B14) + ('17 IUN'!E14 * '17 IUN'!B14) + ('24 IUN'!E14 * '24 IUN'!B14)</f>
         <v/>
       </c>
       <c r="I40" s="46">
-        <f>SUM('3 IUN'!B15, '10 IUN'!B15, '17 IUN'!B15, '24 IUN'!B15, )</f>
+        <f>('3 IUN'!E15 * '3 IUN'!B15) + ('10 IUN'!E15 * '10 IUN'!B15) + ('17 IUN'!E15 * '17 IUN'!B15) + ('24 IUN'!E15 * '24 IUN'!B15)</f>
         <v/>
       </c>
       <c r="J40" s="46">
-        <f>SUM('3 IUN'!B16, '10 IUN'!B16, '17 IUN'!B16, '24 IUN'!B16, )</f>
+        <f>('3 IUN'!E16 * '3 IUN'!B16) + ('10 IUN'!E16 * '10 IUN'!B16) + ('17 IUN'!E16 * '17 IUN'!B16) + ('24 IUN'!E16 * '24 IUN'!B16)</f>
         <v/>
       </c>
     </row>
@@ -2332,31 +2353,31 @@
         </is>
       </c>
       <c r="D41" s="46">
-        <f>SUM('3 IUN'!E10 * '3 IUN'!B10, '10 IUN'!E10 * '10 IUN'!B10, '17 IUN'!E10 * '17 IUN'!B10, '24 IUN'!E10 * '24 IUN'!B10, )</f>
+        <f>SUM('3 IUN:24 IUN'!G10)</f>
         <v/>
       </c>
       <c r="E41" s="46">
-        <f>SUM('3 IUN'!E11 * '3 IUN'!B11, '10 IUN'!E11 * '10 IUN'!B11, '17 IUN'!E11 * '17 IUN'!B11, '24 IUN'!E11 * '24 IUN'!B11, )</f>
+        <f>SUM('3 IUN:24 IUN'!G11)</f>
         <v/>
       </c>
       <c r="F41" s="46">
-        <f>SUM('3 IUN'!E12 * '3 IUN'!B12, '10 IUN'!E12 * '10 IUN'!B12, '17 IUN'!E12 * '17 IUN'!B12, '24 IUN'!E12 * '24 IUN'!B12, )</f>
+        <f>SUM('3 IUN:24 IUN'!G12)</f>
         <v/>
       </c>
       <c r="G41" s="46">
-        <f>SUM('3 IUN'!E13 * '3 IUN'!B13, '10 IUN'!E13 * '10 IUN'!B13, '17 IUN'!E13 * '17 IUN'!B13, '24 IUN'!E13 * '24 IUN'!B13, )</f>
+        <f>SUM('3 IUN:24 IUN'!G13)</f>
         <v/>
       </c>
       <c r="H41" s="46">
-        <f>SUM('3 IUN'!E14 * '3 IUN'!B14, '10 IUN'!E14 * '10 IUN'!B14, '17 IUN'!E14 * '17 IUN'!B14, '24 IUN'!E14 * '24 IUN'!B14, )</f>
+        <f>SUM('3 IUN:24 IUN'!G14)</f>
         <v/>
       </c>
       <c r="I41" s="46">
-        <f>SUM('3 IUN'!E15 * '3 IUN'!B15, '10 IUN'!E15 * '10 IUN'!B15, '17 IUN'!E15 * '17 IUN'!B15, '24 IUN'!E15 * '24 IUN'!B15, )</f>
+        <f>SUM('3 IUN:24 IUN'!G15)</f>
         <v/>
       </c>
       <c r="J41" s="46">
-        <f>SUM('3 IUN'!E16 * '3 IUN'!B16, '10 IUN'!E16 * '10 IUN'!B16, '17 IUN'!E16 * '17 IUN'!B16, '24 IUN'!E16 * '24 IUN'!B16, )</f>
+        <f>SUM('3 IUN:24 IUN'!G16)</f>
         <v/>
       </c>
     </row>
@@ -2369,31 +2390,31 @@
         </is>
       </c>
       <c r="D42" s="46">
-        <f>SUM('3 IUN'!G10, '10 IUN'!G10, '17 IUN'!G10, '24 IUN'!G10, )</f>
+        <f>SUM('3 IUN:24 IUN'!H10)</f>
         <v/>
       </c>
       <c r="E42" s="46">
-        <f>SUM('3 IUN'!G11, '10 IUN'!G11, '17 IUN'!G11, '24 IUN'!G11, )</f>
+        <f>SUM('3 IUN:24 IUN'!H11)</f>
         <v/>
       </c>
       <c r="F42" s="46">
-        <f>SUM('3 IUN'!G12, '10 IUN'!G12, '17 IUN'!G12, '24 IUN'!G12, )</f>
+        <f>SUM('3 IUN:24 IUN'!H12)</f>
         <v/>
       </c>
       <c r="G42" s="46">
-        <f>SUM('3 IUN'!G13, '10 IUN'!G13, '17 IUN'!G13, '24 IUN'!G13, )</f>
+        <f>SUM('3 IUN:24 IUN'!H13)</f>
         <v/>
       </c>
       <c r="H42" s="46">
-        <f>SUM('3 IUN'!G14, '10 IUN'!G14, '17 IUN'!G14, '24 IUN'!G14, )</f>
+        <f>SUM('3 IUN:24 IUN'!H14)</f>
         <v/>
       </c>
       <c r="I42" s="46">
-        <f>SUM('3 IUN'!G15, '10 IUN'!G15, '17 IUN'!G15, '24 IUN'!G15, )</f>
+        <f>SUM('3 IUN:24 IUN'!H15)</f>
         <v/>
       </c>
       <c r="J42" s="46">
-        <f>SUM('3 IUN'!G16, '10 IUN'!G16, '17 IUN'!G16, '24 IUN'!G16, )</f>
+        <f>SUM('3 IUN:24 IUN'!H16)</f>
         <v/>
       </c>
     </row>
@@ -2410,31 +2431,31 @@
         </is>
       </c>
       <c r="D43" s="46">
-        <f>SUM('3 IUN'!H10, '10 IUN'!H10, '17 IUN'!H10, '24 IUN'!H10, )</f>
+        <f>'24 IUN'!I10</f>
         <v/>
       </c>
       <c r="E43" s="46">
-        <f>SUM('3 IUN'!H11, '10 IUN'!H11, '17 IUN'!H11, '24 IUN'!H11, )</f>
+        <f>'24 IUN'!I11</f>
         <v/>
       </c>
       <c r="F43" s="46">
-        <f>SUM('3 IUN'!H12, '10 IUN'!H12, '17 IUN'!H12, '24 IUN'!H12, )</f>
+        <f>'24 IUN'!I12</f>
         <v/>
       </c>
       <c r="G43" s="46">
-        <f>SUM('3 IUN'!H13, '10 IUN'!H13, '17 IUN'!H13, '24 IUN'!H13, )</f>
+        <f>'24 IUN'!I13</f>
         <v/>
       </c>
       <c r="H43" s="46">
-        <f>SUM('3 IUN'!H14, '10 IUN'!H14, '17 IUN'!H14, '24 IUN'!H14, )</f>
+        <f>'24 IUN'!I14</f>
         <v/>
       </c>
       <c r="I43" s="46">
-        <f>SUM('3 IUN'!H15, '10 IUN'!H15, '17 IUN'!H15, '24 IUN'!H15, )</f>
+        <f>'24 IUN'!I15</f>
         <v/>
       </c>
       <c r="J43" s="46">
-        <f>SUM('3 IUN'!H16, '10 IUN'!H16, '17 IUN'!H16, '24 IUN'!H16, )</f>
+        <f>'24 IUN'!I16</f>
         <v/>
       </c>
     </row>
@@ -2447,31 +2468,31 @@
         </is>
       </c>
       <c r="D44" s="46">
-        <f>'24 IUN'!I10</f>
+        <f>'24 IUN'!J10</f>
         <v/>
       </c>
       <c r="E44" s="46">
-        <f>'24 IUN'!I11</f>
+        <f>'24 IUN'!J11</f>
         <v/>
       </c>
       <c r="F44" s="46">
-        <f>'24 IUN'!I12</f>
+        <f>'24 IUN'!J12</f>
         <v/>
       </c>
       <c r="G44" s="46">
-        <f>'24 IUN'!I13</f>
+        <f>'24 IUN'!J13</f>
         <v/>
       </c>
       <c r="H44" s="46">
-        <f>'24 IUN'!I14</f>
+        <f>'24 IUN'!J14</f>
         <v/>
       </c>
       <c r="I44" s="46">
-        <f>'24 IUN'!I15</f>
+        <f>'24 IUN'!J15</f>
         <v/>
       </c>
       <c r="J44" s="46">
-        <f>'24 IUN'!I16</f>
+        <f>'24 IUN'!J16</f>
         <v/>
       </c>
     </row>
@@ -2492,31 +2513,31 @@
         </is>
       </c>
       <c r="D45" s="46">
-        <f>'24 IUN'!J10</f>
+        <f>SUM('1 IUL:29 IUL'!B10)</f>
         <v/>
       </c>
       <c r="E45" s="46">
-        <f>'24 IUN'!J11</f>
+        <f>SUM('1 IUL:29 IUL'!B11)</f>
         <v/>
       </c>
       <c r="F45" s="46">
-        <f>'24 IUN'!J12</f>
+        <f>SUM('1 IUL:29 IUL'!B12)</f>
         <v/>
       </c>
       <c r="G45" s="46">
-        <f>'24 IUN'!J13</f>
+        <f>SUM('1 IUL:29 IUL'!B13)</f>
         <v/>
       </c>
       <c r="H45" s="46">
-        <f>'24 IUN'!J14</f>
+        <f>SUM('1 IUL:29 IUL'!B14)</f>
         <v/>
       </c>
       <c r="I45" s="46">
-        <f>'24 IUN'!J15</f>
+        <f>SUM('1 IUL:29 IUL'!B15)</f>
         <v/>
       </c>
       <c r="J45" s="46">
-        <f>'24 IUN'!J16</f>
+        <f>SUM('1 IUL:29 IUL'!B16)</f>
         <v/>
       </c>
     </row>
@@ -2529,31 +2550,31 @@
         </is>
       </c>
       <c r="D46" s="46">
-        <f>SUM('1 IUL'!B10, '8 IUL'!B10, '15 IUL'!B10, '22 IUL'!B10, '29 IUL'!B10, )</f>
+        <f>('1 IUL'!E10 * '1 IUL'!B10) + ('8 IUL'!E10 * '8 IUL'!B10) + ('15 IUL'!E10 * '15 IUL'!B10) + ('22 IUL'!E10 * '22 IUL'!B10) + ('29 IUL'!E10 * '29 IUL'!B10)</f>
         <v/>
       </c>
       <c r="E46" s="46">
-        <f>SUM('1 IUL'!B11, '8 IUL'!B11, '15 IUL'!B11, '22 IUL'!B11, '29 IUL'!B11, )</f>
+        <f>('1 IUL'!E11 * '1 IUL'!B11) + ('8 IUL'!E11 * '8 IUL'!B11) + ('15 IUL'!E11 * '15 IUL'!B11) + ('22 IUL'!E11 * '22 IUL'!B11) + ('29 IUL'!E11 * '29 IUL'!B11)</f>
         <v/>
       </c>
       <c r="F46" s="46">
-        <f>SUM('1 IUL'!B12, '8 IUL'!B12, '15 IUL'!B12, '22 IUL'!B12, '29 IUL'!B12, )</f>
+        <f>('1 IUL'!E12 * '1 IUL'!B12) + ('8 IUL'!E12 * '8 IUL'!B12) + ('15 IUL'!E12 * '15 IUL'!B12) + ('22 IUL'!E12 * '22 IUL'!B12) + ('29 IUL'!E12 * '29 IUL'!B12)</f>
         <v/>
       </c>
       <c r="G46" s="46">
-        <f>SUM('1 IUL'!B13, '8 IUL'!B13, '15 IUL'!B13, '22 IUL'!B13, '29 IUL'!B13, )</f>
+        <f>('1 IUL'!E13 * '1 IUL'!B13) + ('8 IUL'!E13 * '8 IUL'!B13) + ('15 IUL'!E13 * '15 IUL'!B13) + ('22 IUL'!E13 * '22 IUL'!B13) + ('29 IUL'!E13 * '29 IUL'!B13)</f>
         <v/>
       </c>
       <c r="H46" s="46">
-        <f>SUM('1 IUL'!B14, '8 IUL'!B14, '15 IUL'!B14, '22 IUL'!B14, '29 IUL'!B14, )</f>
+        <f>('1 IUL'!E14 * '1 IUL'!B14) + ('8 IUL'!E14 * '8 IUL'!B14) + ('15 IUL'!E14 * '15 IUL'!B14) + ('22 IUL'!E14 * '22 IUL'!B14) + ('29 IUL'!E14 * '29 IUL'!B14)</f>
         <v/>
       </c>
       <c r="I46" s="46">
-        <f>SUM('1 IUL'!B15, '8 IUL'!B15, '15 IUL'!B15, '22 IUL'!B15, '29 IUL'!B15, )</f>
+        <f>('1 IUL'!E15 * '1 IUL'!B15) + ('8 IUL'!E15 * '8 IUL'!B15) + ('15 IUL'!E15 * '15 IUL'!B15) + ('22 IUL'!E15 * '22 IUL'!B15) + ('29 IUL'!E15 * '29 IUL'!B15)</f>
         <v/>
       </c>
       <c r="J46" s="46">
-        <f>SUM('1 IUL'!B16, '8 IUL'!B16, '15 IUL'!B16, '22 IUL'!B16, '29 IUL'!B16, )</f>
+        <f>('1 IUL'!E16 * '1 IUL'!B16) + ('8 IUL'!E16 * '8 IUL'!B16) + ('15 IUL'!E16 * '15 IUL'!B16) + ('22 IUL'!E16 * '22 IUL'!B16) + ('29 IUL'!E16 * '29 IUL'!B16)</f>
         <v/>
       </c>
     </row>
@@ -2570,31 +2591,31 @@
         </is>
       </c>
       <c r="D47" s="46">
-        <f>SUM('1 IUL'!E10 * '1 IUL'!B10, '8 IUL'!E10 * '8 IUL'!B10, '15 IUL'!E10 * '15 IUL'!B10, '22 IUL'!E10 * '22 IUL'!B10, '29 IUL'!E10 * '29 IUL'!B10, )</f>
+        <f>SUM('1 IUL:29 IUL'!G10)</f>
         <v/>
       </c>
       <c r="E47" s="46">
-        <f>SUM('1 IUL'!E11 * '1 IUL'!B11, '8 IUL'!E11 * '8 IUL'!B11, '15 IUL'!E11 * '15 IUL'!B11, '22 IUL'!E11 * '22 IUL'!B11, '29 IUL'!E11 * '29 IUL'!B11, )</f>
+        <f>SUM('1 IUL:29 IUL'!G11)</f>
         <v/>
       </c>
       <c r="F47" s="46">
-        <f>SUM('1 IUL'!E12 * '1 IUL'!B12, '8 IUL'!E12 * '8 IUL'!B12, '15 IUL'!E12 * '15 IUL'!B12, '22 IUL'!E12 * '22 IUL'!B12, '29 IUL'!E12 * '29 IUL'!B12, )</f>
+        <f>SUM('1 IUL:29 IUL'!G12)</f>
         <v/>
       </c>
       <c r="G47" s="46">
-        <f>SUM('1 IUL'!E13 * '1 IUL'!B13, '8 IUL'!E13 * '8 IUL'!B13, '15 IUL'!E13 * '15 IUL'!B13, '22 IUL'!E13 * '22 IUL'!B13, '29 IUL'!E13 * '29 IUL'!B13, )</f>
+        <f>SUM('1 IUL:29 IUL'!G13)</f>
         <v/>
       </c>
       <c r="H47" s="46">
-        <f>SUM('1 IUL'!E14 * '1 IUL'!B14, '8 IUL'!E14 * '8 IUL'!B14, '15 IUL'!E14 * '15 IUL'!B14, '22 IUL'!E14 * '22 IUL'!B14, '29 IUL'!E14 * '29 IUL'!B14, )</f>
+        <f>SUM('1 IUL:29 IUL'!G14)</f>
         <v/>
       </c>
       <c r="I47" s="46">
-        <f>SUM('1 IUL'!E15 * '1 IUL'!B15, '8 IUL'!E15 * '8 IUL'!B15, '15 IUL'!E15 * '15 IUL'!B15, '22 IUL'!E15 * '22 IUL'!B15, '29 IUL'!E15 * '29 IUL'!B15, )</f>
+        <f>SUM('1 IUL:29 IUL'!G15)</f>
         <v/>
       </c>
       <c r="J47" s="46">
-        <f>SUM('1 IUL'!E16 * '1 IUL'!B16, '8 IUL'!E16 * '8 IUL'!B16, '15 IUL'!E16 * '15 IUL'!B16, '22 IUL'!E16 * '22 IUL'!B16, '29 IUL'!E16 * '29 IUL'!B16, )</f>
+        <f>SUM('1 IUL:29 IUL'!G16)</f>
         <v/>
       </c>
     </row>
@@ -2607,31 +2628,31 @@
         </is>
       </c>
       <c r="D48" s="46">
-        <f>SUM('1 IUL'!G10, '8 IUL'!G10, '15 IUL'!G10, '22 IUL'!G10, '29 IUL'!G10, )</f>
+        <f>SUM('1 IUL:29 IUL'!H10)</f>
         <v/>
       </c>
       <c r="E48" s="46">
-        <f>SUM('1 IUL'!G11, '8 IUL'!G11, '15 IUL'!G11, '22 IUL'!G11, '29 IUL'!G11, )</f>
+        <f>SUM('1 IUL:29 IUL'!H11)</f>
         <v/>
       </c>
       <c r="F48" s="46">
-        <f>SUM('1 IUL'!G12, '8 IUL'!G12, '15 IUL'!G12, '22 IUL'!G12, '29 IUL'!G12, )</f>
+        <f>SUM('1 IUL:29 IUL'!H12)</f>
         <v/>
       </c>
       <c r="G48" s="46">
-        <f>SUM('1 IUL'!G13, '8 IUL'!G13, '15 IUL'!G13, '22 IUL'!G13, '29 IUL'!G13, )</f>
+        <f>SUM('1 IUL:29 IUL'!H13)</f>
         <v/>
       </c>
       <c r="H48" s="46">
-        <f>SUM('1 IUL'!G14, '8 IUL'!G14, '15 IUL'!G14, '22 IUL'!G14, '29 IUL'!G14, )</f>
+        <f>SUM('1 IUL:29 IUL'!H14)</f>
         <v/>
       </c>
       <c r="I48" s="46">
-        <f>SUM('1 IUL'!G15, '8 IUL'!G15, '15 IUL'!G15, '22 IUL'!G15, '29 IUL'!G15, )</f>
+        <f>SUM('1 IUL:29 IUL'!H15)</f>
         <v/>
       </c>
       <c r="J48" s="46">
-        <f>SUM('1 IUL'!G16, '8 IUL'!G16, '15 IUL'!G16, '22 IUL'!G16, '29 IUL'!G16, )</f>
+        <f>SUM('1 IUL:29 IUL'!H16)</f>
         <v/>
       </c>
     </row>
@@ -2648,31 +2669,31 @@
         </is>
       </c>
       <c r="D49" s="46">
-        <f>SUM('1 IUL'!H10, '8 IUL'!H10, '15 IUL'!H10, '22 IUL'!H10, '29 IUL'!H10, )</f>
+        <f>'29 IUL'!I10</f>
         <v/>
       </c>
       <c r="E49" s="46">
-        <f>SUM('1 IUL'!H11, '8 IUL'!H11, '15 IUL'!H11, '22 IUL'!H11, '29 IUL'!H11, )</f>
+        <f>'29 IUL'!I11</f>
         <v/>
       </c>
       <c r="F49" s="46">
-        <f>SUM('1 IUL'!H12, '8 IUL'!H12, '15 IUL'!H12, '22 IUL'!H12, '29 IUL'!H12, )</f>
+        <f>'29 IUL'!I12</f>
         <v/>
       </c>
       <c r="G49" s="46">
-        <f>SUM('1 IUL'!H13, '8 IUL'!H13, '15 IUL'!H13, '22 IUL'!H13, '29 IUL'!H13, )</f>
+        <f>'29 IUL'!I13</f>
         <v/>
       </c>
       <c r="H49" s="46">
-        <f>SUM('1 IUL'!H14, '8 IUL'!H14, '15 IUL'!H14, '22 IUL'!H14, '29 IUL'!H14, )</f>
+        <f>'29 IUL'!I14</f>
         <v/>
       </c>
       <c r="I49" s="46">
-        <f>SUM('1 IUL'!H15, '8 IUL'!H15, '15 IUL'!H15, '22 IUL'!H15, '29 IUL'!H15, )</f>
+        <f>'29 IUL'!I15</f>
         <v/>
       </c>
       <c r="J49" s="46">
-        <f>SUM('1 IUL'!H16, '8 IUL'!H16, '15 IUL'!H16, '22 IUL'!H16, '29 IUL'!H16, )</f>
+        <f>'29 IUL'!I16</f>
         <v/>
       </c>
     </row>
@@ -2685,31 +2706,31 @@
         </is>
       </c>
       <c r="D50" s="46">
-        <f>'29 IUL'!I10</f>
+        <f>'29 IUL'!J10</f>
         <v/>
       </c>
       <c r="E50" s="46">
-        <f>'29 IUL'!I11</f>
+        <f>'29 IUL'!J11</f>
         <v/>
       </c>
       <c r="F50" s="46">
-        <f>'29 IUL'!I12</f>
+        <f>'29 IUL'!J12</f>
         <v/>
       </c>
       <c r="G50" s="46">
-        <f>'29 IUL'!I13</f>
+        <f>'29 IUL'!J13</f>
         <v/>
       </c>
       <c r="H50" s="46">
-        <f>'29 IUL'!I14</f>
+        <f>'29 IUL'!J14</f>
         <v/>
       </c>
       <c r="I50" s="46">
-        <f>'29 IUL'!I15</f>
+        <f>'29 IUL'!J15</f>
         <v/>
       </c>
       <c r="J50" s="46">
-        <f>'29 IUL'!I16</f>
+        <f>'29 IUL'!J16</f>
         <v/>
       </c>
     </row>
@@ -2730,31 +2751,31 @@
         </is>
       </c>
       <c r="D51" s="46">
-        <f>'29 IUL'!J10</f>
+        <f>SUM('5 AUG:26 AUG'!B10)</f>
         <v/>
       </c>
       <c r="E51" s="46">
-        <f>'29 IUL'!J11</f>
+        <f>SUM('5 AUG:26 AUG'!B11)</f>
         <v/>
       </c>
       <c r="F51" s="46">
-        <f>'29 IUL'!J12</f>
+        <f>SUM('5 AUG:26 AUG'!B12)</f>
         <v/>
       </c>
       <c r="G51" s="46">
-        <f>'29 IUL'!J13</f>
+        <f>SUM('5 AUG:26 AUG'!B13)</f>
         <v/>
       </c>
       <c r="H51" s="46">
-        <f>'29 IUL'!J14</f>
+        <f>SUM('5 AUG:26 AUG'!B14)</f>
         <v/>
       </c>
       <c r="I51" s="46">
-        <f>'29 IUL'!J15</f>
+        <f>SUM('5 AUG:26 AUG'!B15)</f>
         <v/>
       </c>
       <c r="J51" s="46">
-        <f>'29 IUL'!J16</f>
+        <f>SUM('5 AUG:26 AUG'!B16)</f>
         <v/>
       </c>
     </row>
@@ -2767,31 +2788,31 @@
         </is>
       </c>
       <c r="D52" s="46">
-        <f>SUM('5 AUG'!B10, '12 AUG'!B10, '19 AUG'!B10, '26 AUG'!B10, )</f>
+        <f>('5 AUG'!E10 * '5 AUG'!B10) + ('12 AUG'!E10 * '12 AUG'!B10) + ('19 AUG'!E10 * '19 AUG'!B10) + ('26 AUG'!E10 * '26 AUG'!B10)</f>
         <v/>
       </c>
       <c r="E52" s="46">
-        <f>SUM('5 AUG'!B11, '12 AUG'!B11, '19 AUG'!B11, '26 AUG'!B11, )</f>
+        <f>('5 AUG'!E11 * '5 AUG'!B11) + ('12 AUG'!E11 * '12 AUG'!B11) + ('19 AUG'!E11 * '19 AUG'!B11) + ('26 AUG'!E11 * '26 AUG'!B11)</f>
         <v/>
       </c>
       <c r="F52" s="46">
-        <f>SUM('5 AUG'!B12, '12 AUG'!B12, '19 AUG'!B12, '26 AUG'!B12, )</f>
+        <f>('5 AUG'!E12 * '5 AUG'!B12) + ('12 AUG'!E12 * '12 AUG'!B12) + ('19 AUG'!E12 * '19 AUG'!B12) + ('26 AUG'!E12 * '26 AUG'!B12)</f>
         <v/>
       </c>
       <c r="G52" s="46">
-        <f>SUM('5 AUG'!B13, '12 AUG'!B13, '19 AUG'!B13, '26 AUG'!B13, )</f>
+        <f>('5 AUG'!E13 * '5 AUG'!B13) + ('12 AUG'!E13 * '12 AUG'!B13) + ('19 AUG'!E13 * '19 AUG'!B13) + ('26 AUG'!E13 * '26 AUG'!B13)</f>
         <v/>
       </c>
       <c r="H52" s="46">
-        <f>SUM('5 AUG'!B14, '12 AUG'!B14, '19 AUG'!B14, '26 AUG'!B14, )</f>
+        <f>('5 AUG'!E14 * '5 AUG'!B14) + ('12 AUG'!E14 * '12 AUG'!B14) + ('19 AUG'!E14 * '19 AUG'!B14) + ('26 AUG'!E14 * '26 AUG'!B14)</f>
         <v/>
       </c>
       <c r="I52" s="46">
-        <f>SUM('5 AUG'!B15, '12 AUG'!B15, '19 AUG'!B15, '26 AUG'!B15, )</f>
+        <f>('5 AUG'!E15 * '5 AUG'!B15) + ('12 AUG'!E15 * '12 AUG'!B15) + ('19 AUG'!E15 * '19 AUG'!B15) + ('26 AUG'!E15 * '26 AUG'!B15)</f>
         <v/>
       </c>
       <c r="J52" s="46">
-        <f>SUM('5 AUG'!B16, '12 AUG'!B16, '19 AUG'!B16, '26 AUG'!B16, )</f>
+        <f>('5 AUG'!E16 * '5 AUG'!B16) + ('12 AUG'!E16 * '12 AUG'!B16) + ('19 AUG'!E16 * '19 AUG'!B16) + ('26 AUG'!E16 * '26 AUG'!B16)</f>
         <v/>
       </c>
     </row>
@@ -2808,31 +2829,31 @@
         </is>
       </c>
       <c r="D53" s="46">
-        <f>SUM('5 AUG'!E10 * '5 AUG'!B10, '12 AUG'!E10 * '12 AUG'!B10, '19 AUG'!E10 * '19 AUG'!B10, '26 AUG'!E10 * '26 AUG'!B10, )</f>
+        <f>SUM('5 AUG:26 AUG'!G10)</f>
         <v/>
       </c>
       <c r="E53" s="46">
-        <f>SUM('5 AUG'!E11 * '5 AUG'!B11, '12 AUG'!E11 * '12 AUG'!B11, '19 AUG'!E11 * '19 AUG'!B11, '26 AUG'!E11 * '26 AUG'!B11, )</f>
+        <f>SUM('5 AUG:26 AUG'!G11)</f>
         <v/>
       </c>
       <c r="F53" s="46">
-        <f>SUM('5 AUG'!E12 * '5 AUG'!B12, '12 AUG'!E12 * '12 AUG'!B12, '19 AUG'!E12 * '19 AUG'!B12, '26 AUG'!E12 * '26 AUG'!B12, )</f>
+        <f>SUM('5 AUG:26 AUG'!G12)</f>
         <v/>
       </c>
       <c r="G53" s="46">
-        <f>SUM('5 AUG'!E13 * '5 AUG'!B13, '12 AUG'!E13 * '12 AUG'!B13, '19 AUG'!E13 * '19 AUG'!B13, '26 AUG'!E13 * '26 AUG'!B13, )</f>
+        <f>SUM('5 AUG:26 AUG'!G13)</f>
         <v/>
       </c>
       <c r="H53" s="46">
-        <f>SUM('5 AUG'!E14 * '5 AUG'!B14, '12 AUG'!E14 * '12 AUG'!B14, '19 AUG'!E14 * '19 AUG'!B14, '26 AUG'!E14 * '26 AUG'!B14, )</f>
+        <f>SUM('5 AUG:26 AUG'!G14)</f>
         <v/>
       </c>
       <c r="I53" s="46">
-        <f>SUM('5 AUG'!E15 * '5 AUG'!B15, '12 AUG'!E15 * '12 AUG'!B15, '19 AUG'!E15 * '19 AUG'!B15, '26 AUG'!E15 * '26 AUG'!B15, )</f>
+        <f>SUM('5 AUG:26 AUG'!G15)</f>
         <v/>
       </c>
       <c r="J53" s="46">
-        <f>SUM('5 AUG'!E16 * '5 AUG'!B16, '12 AUG'!E16 * '12 AUG'!B16, '19 AUG'!E16 * '19 AUG'!B16, '26 AUG'!E16 * '26 AUG'!B16, )</f>
+        <f>SUM('5 AUG:26 AUG'!G16)</f>
         <v/>
       </c>
     </row>
@@ -2845,31 +2866,31 @@
         </is>
       </c>
       <c r="D54" s="46">
-        <f>SUM('5 AUG'!G10, '12 AUG'!G10, '19 AUG'!G10, '26 AUG'!G10, )</f>
+        <f>SUM('5 AUG:26 AUG'!H10)</f>
         <v/>
       </c>
       <c r="E54" s="46">
-        <f>SUM('5 AUG'!G11, '12 AUG'!G11, '19 AUG'!G11, '26 AUG'!G11, )</f>
+        <f>SUM('5 AUG:26 AUG'!H11)</f>
         <v/>
       </c>
       <c r="F54" s="46">
-        <f>SUM('5 AUG'!G12, '12 AUG'!G12, '19 AUG'!G12, '26 AUG'!G12, )</f>
+        <f>SUM('5 AUG:26 AUG'!H12)</f>
         <v/>
       </c>
       <c r="G54" s="46">
-        <f>SUM('5 AUG'!G13, '12 AUG'!G13, '19 AUG'!G13, '26 AUG'!G13, )</f>
+        <f>SUM('5 AUG:26 AUG'!H13)</f>
         <v/>
       </c>
       <c r="H54" s="46">
-        <f>SUM('5 AUG'!G14, '12 AUG'!G14, '19 AUG'!G14, '26 AUG'!G14, )</f>
+        <f>SUM('5 AUG:26 AUG'!H14)</f>
         <v/>
       </c>
       <c r="I54" s="46">
-        <f>SUM('5 AUG'!G15, '12 AUG'!G15, '19 AUG'!G15, '26 AUG'!G15, )</f>
+        <f>SUM('5 AUG:26 AUG'!H15)</f>
         <v/>
       </c>
       <c r="J54" s="46">
-        <f>SUM('5 AUG'!G16, '12 AUG'!G16, '19 AUG'!G16, '26 AUG'!G16, )</f>
+        <f>SUM('5 AUG:26 AUG'!H16)</f>
         <v/>
       </c>
     </row>
@@ -2886,31 +2907,31 @@
         </is>
       </c>
       <c r="D55" s="46">
-        <f>SUM('5 AUG'!H10, '12 AUG'!H10, '19 AUG'!H10, '26 AUG'!H10, )</f>
+        <f>'26 AUG'!I10</f>
         <v/>
       </c>
       <c r="E55" s="46">
-        <f>SUM('5 AUG'!H11, '12 AUG'!H11, '19 AUG'!H11, '26 AUG'!H11, )</f>
+        <f>'26 AUG'!I11</f>
         <v/>
       </c>
       <c r="F55" s="46">
-        <f>SUM('5 AUG'!H12, '12 AUG'!H12, '19 AUG'!H12, '26 AUG'!H12, )</f>
+        <f>'26 AUG'!I12</f>
         <v/>
       </c>
       <c r="G55" s="46">
-        <f>SUM('5 AUG'!H13, '12 AUG'!H13, '19 AUG'!H13, '26 AUG'!H13, )</f>
+        <f>'26 AUG'!I13</f>
         <v/>
       </c>
       <c r="H55" s="46">
-        <f>SUM('5 AUG'!H14, '12 AUG'!H14, '19 AUG'!H14, '26 AUG'!H14, )</f>
+        <f>'26 AUG'!I14</f>
         <v/>
       </c>
       <c r="I55" s="46">
-        <f>SUM('5 AUG'!H15, '12 AUG'!H15, '19 AUG'!H15, '26 AUG'!H15, )</f>
+        <f>'26 AUG'!I15</f>
         <v/>
       </c>
       <c r="J55" s="46">
-        <f>SUM('5 AUG'!H16, '12 AUG'!H16, '19 AUG'!H16, '26 AUG'!H16, )</f>
+        <f>'26 AUG'!I16</f>
         <v/>
       </c>
     </row>
@@ -2923,31 +2944,31 @@
         </is>
       </c>
       <c r="D56" s="46">
-        <f>'26 AUG'!I10</f>
+        <f>'26 AUG'!J10</f>
         <v/>
       </c>
       <c r="E56" s="46">
-        <f>'26 AUG'!I11</f>
+        <f>'26 AUG'!J11</f>
         <v/>
       </c>
       <c r="F56" s="46">
-        <f>'26 AUG'!I12</f>
+        <f>'26 AUG'!J12</f>
         <v/>
       </c>
       <c r="G56" s="46">
-        <f>'26 AUG'!I13</f>
+        <f>'26 AUG'!J13</f>
         <v/>
       </c>
       <c r="H56" s="46">
-        <f>'26 AUG'!I14</f>
+        <f>'26 AUG'!J14</f>
         <v/>
       </c>
       <c r="I56" s="46">
-        <f>'26 AUG'!I15</f>
+        <f>'26 AUG'!J15</f>
         <v/>
       </c>
       <c r="J56" s="46">
-        <f>'26 AUG'!I16</f>
+        <f>'26 AUG'!J16</f>
         <v/>
       </c>
     </row>
@@ -2968,31 +2989,31 @@
         </is>
       </c>
       <c r="D57" s="46">
-        <f>'26 AUG'!J10</f>
+        <f>SUM('2 SEPT:30 SEPT'!B10)</f>
         <v/>
       </c>
       <c r="E57" s="46">
-        <f>'26 AUG'!J11</f>
+        <f>SUM('2 SEPT:30 SEPT'!B11)</f>
         <v/>
       </c>
       <c r="F57" s="46">
-        <f>'26 AUG'!J12</f>
+        <f>SUM('2 SEPT:30 SEPT'!B12)</f>
         <v/>
       </c>
       <c r="G57" s="46">
-        <f>'26 AUG'!J13</f>
+        <f>SUM('2 SEPT:30 SEPT'!B13)</f>
         <v/>
       </c>
       <c r="H57" s="46">
-        <f>'26 AUG'!J14</f>
+        <f>SUM('2 SEPT:30 SEPT'!B14)</f>
         <v/>
       </c>
       <c r="I57" s="46">
-        <f>'26 AUG'!J15</f>
+        <f>SUM('2 SEPT:30 SEPT'!B15)</f>
         <v/>
       </c>
       <c r="J57" s="46">
-        <f>'26 AUG'!J16</f>
+        <f>SUM('2 SEPT:30 SEPT'!B16)</f>
         <v/>
       </c>
     </row>
@@ -3005,31 +3026,31 @@
         </is>
       </c>
       <c r="D58" s="46">
-        <f>SUM('2 SEPT'!B10, '9 SEPT'!B10, '16 SEPT'!B10, '23 SEPT'!B10, '30 SEPT'!B10, )</f>
+        <f>('2 SEPT'!E10 * '2 SEPT'!B10) + ('9 SEPT'!E10 * '9 SEPT'!B10) + ('16 SEPT'!E10 * '16 SEPT'!B10) + ('23 SEPT'!E10 * '23 SEPT'!B10) + ('30 SEPT'!E10 * '30 SEPT'!B10)</f>
         <v/>
       </c>
       <c r="E58" s="46">
-        <f>SUM('2 SEPT'!B11, '9 SEPT'!B11, '16 SEPT'!B11, '23 SEPT'!B11, '30 SEPT'!B11, )</f>
+        <f>('2 SEPT'!E11 * '2 SEPT'!B11) + ('9 SEPT'!E11 * '9 SEPT'!B11) + ('16 SEPT'!E11 * '16 SEPT'!B11) + ('23 SEPT'!E11 * '23 SEPT'!B11) + ('30 SEPT'!E11 * '30 SEPT'!B11)</f>
         <v/>
       </c>
       <c r="F58" s="46">
-        <f>SUM('2 SEPT'!B12, '9 SEPT'!B12, '16 SEPT'!B12, '23 SEPT'!B12, '30 SEPT'!B12, )</f>
+        <f>('2 SEPT'!E12 * '2 SEPT'!B12) + ('9 SEPT'!E12 * '9 SEPT'!B12) + ('16 SEPT'!E12 * '16 SEPT'!B12) + ('23 SEPT'!E12 * '23 SEPT'!B12) + ('30 SEPT'!E12 * '30 SEPT'!B12)</f>
         <v/>
       </c>
       <c r="G58" s="46">
-        <f>SUM('2 SEPT'!B13, '9 SEPT'!B13, '16 SEPT'!B13, '23 SEPT'!B13, '30 SEPT'!B13, )</f>
+        <f>('2 SEPT'!E13 * '2 SEPT'!B13) + ('9 SEPT'!E13 * '9 SEPT'!B13) + ('16 SEPT'!E13 * '16 SEPT'!B13) + ('23 SEPT'!E13 * '23 SEPT'!B13) + ('30 SEPT'!E13 * '30 SEPT'!B13)</f>
         <v/>
       </c>
       <c r="H58" s="46">
-        <f>SUM('2 SEPT'!B14, '9 SEPT'!B14, '16 SEPT'!B14, '23 SEPT'!B14, '30 SEPT'!B14, )</f>
+        <f>('2 SEPT'!E14 * '2 SEPT'!B14) + ('9 SEPT'!E14 * '9 SEPT'!B14) + ('16 SEPT'!E14 * '16 SEPT'!B14) + ('23 SEPT'!E14 * '23 SEPT'!B14) + ('30 SEPT'!E14 * '30 SEPT'!B14)</f>
         <v/>
       </c>
       <c r="I58" s="46">
-        <f>SUM('2 SEPT'!B15, '9 SEPT'!B15, '16 SEPT'!B15, '23 SEPT'!B15, '30 SEPT'!B15, )</f>
+        <f>('2 SEPT'!E15 * '2 SEPT'!B15) + ('9 SEPT'!E15 * '9 SEPT'!B15) + ('16 SEPT'!E15 * '16 SEPT'!B15) + ('23 SEPT'!E15 * '23 SEPT'!B15) + ('30 SEPT'!E15 * '30 SEPT'!B15)</f>
         <v/>
       </c>
       <c r="J58" s="46">
-        <f>SUM('2 SEPT'!B16, '9 SEPT'!B16, '16 SEPT'!B16, '23 SEPT'!B16, '30 SEPT'!B16, )</f>
+        <f>('2 SEPT'!E16 * '2 SEPT'!B16) + ('9 SEPT'!E16 * '9 SEPT'!B16) + ('16 SEPT'!E16 * '16 SEPT'!B16) + ('23 SEPT'!E16 * '23 SEPT'!B16) + ('30 SEPT'!E16 * '30 SEPT'!B16)</f>
         <v/>
       </c>
     </row>
@@ -3046,31 +3067,31 @@
         </is>
       </c>
       <c r="D59" s="46">
-        <f>SUM('2 SEPT'!E10 * '2 SEPT'!B10, '9 SEPT'!E10 * '9 SEPT'!B10, '16 SEPT'!E10 * '16 SEPT'!B10, '23 SEPT'!E10 * '23 SEPT'!B10, '30 SEPT'!E10 * '30 SEPT'!B10, )</f>
+        <f>SUM('2 SEPT:30 SEPT'!G10)</f>
         <v/>
       </c>
       <c r="E59" s="46">
-        <f>SUM('2 SEPT'!E11 * '2 SEPT'!B11, '9 SEPT'!E11 * '9 SEPT'!B11, '16 SEPT'!E11 * '16 SEPT'!B11, '23 SEPT'!E11 * '23 SEPT'!B11, '30 SEPT'!E11 * '30 SEPT'!B11, )</f>
+        <f>SUM('2 SEPT:30 SEPT'!G11)</f>
         <v/>
       </c>
       <c r="F59" s="46">
-        <f>SUM('2 SEPT'!E12 * '2 SEPT'!B12, '9 SEPT'!E12 * '9 SEPT'!B12, '16 SEPT'!E12 * '16 SEPT'!B12, '23 SEPT'!E12 * '23 SEPT'!B12, '30 SEPT'!E12 * '30 SEPT'!B12, )</f>
+        <f>SUM('2 SEPT:30 SEPT'!G12)</f>
         <v/>
       </c>
       <c r="G59" s="46">
-        <f>SUM('2 SEPT'!E13 * '2 SEPT'!B13, '9 SEPT'!E13 * '9 SEPT'!B13, '16 SEPT'!E13 * '16 SEPT'!B13, '23 SEPT'!E13 * '23 SEPT'!B13, '30 SEPT'!E13 * '30 SEPT'!B13, )</f>
+        <f>SUM('2 SEPT:30 SEPT'!G13)</f>
         <v/>
       </c>
       <c r="H59" s="46">
-        <f>SUM('2 SEPT'!E14 * '2 SEPT'!B14, '9 SEPT'!E14 * '9 SEPT'!B14, '16 SEPT'!E14 * '16 SEPT'!B14, '23 SEPT'!E14 * '23 SEPT'!B14, '30 SEPT'!E14 * '30 SEPT'!B14, )</f>
+        <f>SUM('2 SEPT:30 SEPT'!G14)</f>
         <v/>
       </c>
       <c r="I59" s="46">
-        <f>SUM('2 SEPT'!E15 * '2 SEPT'!B15, '9 SEPT'!E15 * '9 SEPT'!B15, '16 SEPT'!E15 * '16 SEPT'!B15, '23 SEPT'!E15 * '23 SEPT'!B15, '30 SEPT'!E15 * '30 SEPT'!B15, )</f>
+        <f>SUM('2 SEPT:30 SEPT'!G15)</f>
         <v/>
       </c>
       <c r="J59" s="46">
-        <f>SUM('2 SEPT'!E16 * '2 SEPT'!B16, '9 SEPT'!E16 * '9 SEPT'!B16, '16 SEPT'!E16 * '16 SEPT'!B16, '23 SEPT'!E16 * '23 SEPT'!B16, '30 SEPT'!E16 * '30 SEPT'!B16, )</f>
+        <f>SUM('2 SEPT:30 SEPT'!G16)</f>
         <v/>
       </c>
     </row>
@@ -3083,31 +3104,31 @@
         </is>
       </c>
       <c r="D60" s="46">
-        <f>SUM('2 SEPT'!G10, '9 SEPT'!G10, '16 SEPT'!G10, '23 SEPT'!G10, '30 SEPT'!G10, )</f>
+        <f>SUM('2 SEPT:30 SEPT'!H10)</f>
         <v/>
       </c>
       <c r="E60" s="46">
-        <f>SUM('2 SEPT'!G11, '9 SEPT'!G11, '16 SEPT'!G11, '23 SEPT'!G11, '30 SEPT'!G11, )</f>
+        <f>SUM('2 SEPT:30 SEPT'!H11)</f>
         <v/>
       </c>
       <c r="F60" s="46">
-        <f>SUM('2 SEPT'!G12, '9 SEPT'!G12, '16 SEPT'!G12, '23 SEPT'!G12, '30 SEPT'!G12, )</f>
+        <f>SUM('2 SEPT:30 SEPT'!H12)</f>
         <v/>
       </c>
       <c r="G60" s="46">
-        <f>SUM('2 SEPT'!G13, '9 SEPT'!G13, '16 SEPT'!G13, '23 SEPT'!G13, '30 SEPT'!G13, )</f>
+        <f>SUM('2 SEPT:30 SEPT'!H13)</f>
         <v/>
       </c>
       <c r="H60" s="46">
-        <f>SUM('2 SEPT'!G14, '9 SEPT'!G14, '16 SEPT'!G14, '23 SEPT'!G14, '30 SEPT'!G14, )</f>
+        <f>SUM('2 SEPT:30 SEPT'!H14)</f>
         <v/>
       </c>
       <c r="I60" s="46">
-        <f>SUM('2 SEPT'!G15, '9 SEPT'!G15, '16 SEPT'!G15, '23 SEPT'!G15, '30 SEPT'!G15, )</f>
+        <f>SUM('2 SEPT:30 SEPT'!H15)</f>
         <v/>
       </c>
       <c r="J60" s="46">
-        <f>SUM('2 SEPT'!G16, '9 SEPT'!G16, '16 SEPT'!G16, '23 SEPT'!G16, '30 SEPT'!G16, )</f>
+        <f>SUM('2 SEPT:30 SEPT'!H16)</f>
         <v/>
       </c>
     </row>
@@ -3124,31 +3145,31 @@
         </is>
       </c>
       <c r="D61" s="46">
-        <f>SUM('2 SEPT'!H10, '9 SEPT'!H10, '16 SEPT'!H10, '23 SEPT'!H10, '30 SEPT'!H10, )</f>
+        <f>'30 SEPT'!I10</f>
         <v/>
       </c>
       <c r="E61" s="46">
-        <f>SUM('2 SEPT'!H11, '9 SEPT'!H11, '16 SEPT'!H11, '23 SEPT'!H11, '30 SEPT'!H11, )</f>
+        <f>'30 SEPT'!I11</f>
         <v/>
       </c>
       <c r="F61" s="46">
-        <f>SUM('2 SEPT'!H12, '9 SEPT'!H12, '16 SEPT'!H12, '23 SEPT'!H12, '30 SEPT'!H12, )</f>
+        <f>'30 SEPT'!I12</f>
         <v/>
       </c>
       <c r="G61" s="46">
-        <f>SUM('2 SEPT'!H13, '9 SEPT'!H13, '16 SEPT'!H13, '23 SEPT'!H13, '30 SEPT'!H13, )</f>
+        <f>'30 SEPT'!I13</f>
         <v/>
       </c>
       <c r="H61" s="46">
-        <f>SUM('2 SEPT'!H14, '9 SEPT'!H14, '16 SEPT'!H14, '23 SEPT'!H14, '30 SEPT'!H14, )</f>
+        <f>'30 SEPT'!I14</f>
         <v/>
       </c>
       <c r="I61" s="46">
-        <f>SUM('2 SEPT'!H15, '9 SEPT'!H15, '16 SEPT'!H15, '23 SEPT'!H15, '30 SEPT'!H15, )</f>
+        <f>'30 SEPT'!I15</f>
         <v/>
       </c>
       <c r="J61" s="46">
-        <f>SUM('2 SEPT'!H16, '9 SEPT'!H16, '16 SEPT'!H16, '23 SEPT'!H16, '30 SEPT'!H16, )</f>
+        <f>'30 SEPT'!I16</f>
         <v/>
       </c>
     </row>
@@ -3161,31 +3182,31 @@
         </is>
       </c>
       <c r="D62" s="46">
-        <f>'30 SEPT'!I10</f>
+        <f>'30 SEPT'!J10</f>
         <v/>
       </c>
       <c r="E62" s="46">
-        <f>'30 SEPT'!I11</f>
+        <f>'30 SEPT'!J11</f>
         <v/>
       </c>
       <c r="F62" s="46">
-        <f>'30 SEPT'!I12</f>
+        <f>'30 SEPT'!J12</f>
         <v/>
       </c>
       <c r="G62" s="46">
-        <f>'30 SEPT'!I13</f>
+        <f>'30 SEPT'!J13</f>
         <v/>
       </c>
       <c r="H62" s="46">
-        <f>'30 SEPT'!I14</f>
+        <f>'30 SEPT'!J14</f>
         <v/>
       </c>
       <c r="I62" s="46">
-        <f>'30 SEPT'!I15</f>
+        <f>'30 SEPT'!J15</f>
         <v/>
       </c>
       <c r="J62" s="46">
-        <f>'30 SEPT'!I16</f>
+        <f>'30 SEPT'!J16</f>
         <v/>
       </c>
     </row>
@@ -3206,31 +3227,31 @@
         </is>
       </c>
       <c r="D63" s="46">
-        <f>'30 SEPT'!J10</f>
+        <f>SUM('7 OCT:28 OCT'!B10)</f>
         <v/>
       </c>
       <c r="E63" s="46">
-        <f>'30 SEPT'!J11</f>
+        <f>SUM('7 OCT:28 OCT'!B11)</f>
         <v/>
       </c>
       <c r="F63" s="46">
-        <f>'30 SEPT'!J12</f>
+        <f>SUM('7 OCT:28 OCT'!B12)</f>
         <v/>
       </c>
       <c r="G63" s="46">
-        <f>'30 SEPT'!J13</f>
+        <f>SUM('7 OCT:28 OCT'!B13)</f>
         <v/>
       </c>
       <c r="H63" s="46">
-        <f>'30 SEPT'!J14</f>
+        <f>SUM('7 OCT:28 OCT'!B14)</f>
         <v/>
       </c>
       <c r="I63" s="46">
-        <f>'30 SEPT'!J15</f>
+        <f>SUM('7 OCT:28 OCT'!B15)</f>
         <v/>
       </c>
       <c r="J63" s="46">
-        <f>'30 SEPT'!J16</f>
+        <f>SUM('7 OCT:28 OCT'!B16)</f>
         <v/>
       </c>
     </row>
@@ -3243,31 +3264,31 @@
         </is>
       </c>
       <c r="D64" s="46">
-        <f>SUM('7 OCT'!B10, '14 OCT'!B10, '21 OCT'!B10, '28 OCT'!B10, )</f>
+        <f>('7 OCT'!E10 * '7 OCT'!B10) + ('14 OCT'!E10 * '14 OCT'!B10) + ('21 OCT'!E10 * '21 OCT'!B10) + ('28 OCT'!E10 * '28 OCT'!B10)</f>
         <v/>
       </c>
       <c r="E64" s="46">
-        <f>SUM('7 OCT'!B11, '14 OCT'!B11, '21 OCT'!B11, '28 OCT'!B11, )</f>
+        <f>('7 OCT'!E11 * '7 OCT'!B11) + ('14 OCT'!E11 * '14 OCT'!B11) + ('21 OCT'!E11 * '21 OCT'!B11) + ('28 OCT'!E11 * '28 OCT'!B11)</f>
         <v/>
       </c>
       <c r="F64" s="46">
-        <f>SUM('7 OCT'!B12, '14 OCT'!B12, '21 OCT'!B12, '28 OCT'!B12, )</f>
+        <f>('7 OCT'!E12 * '7 OCT'!B12) + ('14 OCT'!E12 * '14 OCT'!B12) + ('21 OCT'!E12 * '21 OCT'!B12) + ('28 OCT'!E12 * '28 OCT'!B12)</f>
         <v/>
       </c>
       <c r="G64" s="46">
-        <f>SUM('7 OCT'!B13, '14 OCT'!B13, '21 OCT'!B13, '28 OCT'!B13, )</f>
+        <f>('7 OCT'!E13 * '7 OCT'!B13) + ('14 OCT'!E13 * '14 OCT'!B13) + ('21 OCT'!E13 * '21 OCT'!B13) + ('28 OCT'!E13 * '28 OCT'!B13)</f>
         <v/>
       </c>
       <c r="H64" s="46">
-        <f>SUM('7 OCT'!B14, '14 OCT'!B14, '21 OCT'!B14, '28 OCT'!B14, )</f>
+        <f>('7 OCT'!E14 * '7 OCT'!B14) + ('14 OCT'!E14 * '14 OCT'!B14) + ('21 OCT'!E14 * '21 OCT'!B14) + ('28 OCT'!E14 * '28 OCT'!B14)</f>
         <v/>
       </c>
       <c r="I64" s="46">
-        <f>SUM('7 OCT'!B15, '14 OCT'!B15, '21 OCT'!B15, '28 OCT'!B15, )</f>
+        <f>('7 OCT'!E15 * '7 OCT'!B15) + ('14 OCT'!E15 * '14 OCT'!B15) + ('21 OCT'!E15 * '21 OCT'!B15) + ('28 OCT'!E15 * '28 OCT'!B15)</f>
         <v/>
       </c>
       <c r="J64" s="46">
-        <f>SUM('7 OCT'!B16, '14 OCT'!B16, '21 OCT'!B16, '28 OCT'!B16, )</f>
+        <f>('7 OCT'!E16 * '7 OCT'!B16) + ('14 OCT'!E16 * '14 OCT'!B16) + ('21 OCT'!E16 * '21 OCT'!B16) + ('28 OCT'!E16 * '28 OCT'!B16)</f>
         <v/>
       </c>
     </row>
@@ -3284,31 +3305,31 @@
         </is>
       </c>
       <c r="D65" s="46">
-        <f>SUM('7 OCT'!E10 * '7 OCT'!B10, '14 OCT'!E10 * '14 OCT'!B10, '21 OCT'!E10 * '21 OCT'!B10, '28 OCT'!E10 * '28 OCT'!B10, )</f>
+        <f>SUM('7 OCT:28 OCT'!G10)</f>
         <v/>
       </c>
       <c r="E65" s="46">
-        <f>SUM('7 OCT'!E11 * '7 OCT'!B11, '14 OCT'!E11 * '14 OCT'!B11, '21 OCT'!E11 * '21 OCT'!B11, '28 OCT'!E11 * '28 OCT'!B11, )</f>
+        <f>SUM('7 OCT:28 OCT'!G11)</f>
         <v/>
       </c>
       <c r="F65" s="46">
-        <f>SUM('7 OCT'!E12 * '7 OCT'!B12, '14 OCT'!E12 * '14 OCT'!B12, '21 OCT'!E12 * '21 OCT'!B12, '28 OCT'!E12 * '28 OCT'!B12, )</f>
+        <f>SUM('7 OCT:28 OCT'!G12)</f>
         <v/>
       </c>
       <c r="G65" s="46">
-        <f>SUM('7 OCT'!E13 * '7 OCT'!B13, '14 OCT'!E13 * '14 OCT'!B13, '21 OCT'!E13 * '21 OCT'!B13, '28 OCT'!E13 * '28 OCT'!B13, )</f>
+        <f>SUM('7 OCT:28 OCT'!G13)</f>
         <v/>
       </c>
       <c r="H65" s="46">
-        <f>SUM('7 OCT'!E14 * '7 OCT'!B14, '14 OCT'!E14 * '14 OCT'!B14, '21 OCT'!E14 * '21 OCT'!B14, '28 OCT'!E14 * '28 OCT'!B14, )</f>
+        <f>SUM('7 OCT:28 OCT'!G14)</f>
         <v/>
       </c>
       <c r="I65" s="46">
-        <f>SUM('7 OCT'!E15 * '7 OCT'!B15, '14 OCT'!E15 * '14 OCT'!B15, '21 OCT'!E15 * '21 OCT'!B15, '28 OCT'!E15 * '28 OCT'!B15, )</f>
+        <f>SUM('7 OCT:28 OCT'!G15)</f>
         <v/>
       </c>
       <c r="J65" s="46">
-        <f>SUM('7 OCT'!E16 * '7 OCT'!B16, '14 OCT'!E16 * '14 OCT'!B16, '21 OCT'!E16 * '21 OCT'!B16, '28 OCT'!E16 * '28 OCT'!B16, )</f>
+        <f>SUM('7 OCT:28 OCT'!G16)</f>
         <v/>
       </c>
     </row>
@@ -3321,31 +3342,31 @@
         </is>
       </c>
       <c r="D66" s="46">
-        <f>SUM('7 OCT'!G10, '14 OCT'!G10, '21 OCT'!G10, '28 OCT'!G10, )</f>
+        <f>SUM('7 OCT:28 OCT'!H10)</f>
         <v/>
       </c>
       <c r="E66" s="46">
-        <f>SUM('7 OCT'!G11, '14 OCT'!G11, '21 OCT'!G11, '28 OCT'!G11, )</f>
+        <f>SUM('7 OCT:28 OCT'!H11)</f>
         <v/>
       </c>
       <c r="F66" s="46">
-        <f>SUM('7 OCT'!G12, '14 OCT'!G12, '21 OCT'!G12, '28 OCT'!G12, )</f>
+        <f>SUM('7 OCT:28 OCT'!H12)</f>
         <v/>
       </c>
       <c r="G66" s="46">
-        <f>SUM('7 OCT'!G13, '14 OCT'!G13, '21 OCT'!G13, '28 OCT'!G13, )</f>
+        <f>SUM('7 OCT:28 OCT'!H13)</f>
         <v/>
       </c>
       <c r="H66" s="46">
-        <f>SUM('7 OCT'!G14, '14 OCT'!G14, '21 OCT'!G14, '28 OCT'!G14, )</f>
+        <f>SUM('7 OCT:28 OCT'!H14)</f>
         <v/>
       </c>
       <c r="I66" s="46">
-        <f>SUM('7 OCT'!G15, '14 OCT'!G15, '21 OCT'!G15, '28 OCT'!G15, )</f>
+        <f>SUM('7 OCT:28 OCT'!H15)</f>
         <v/>
       </c>
       <c r="J66" s="46">
-        <f>SUM('7 OCT'!G16, '14 OCT'!G16, '21 OCT'!G16, '28 OCT'!G16, )</f>
+        <f>SUM('7 OCT:28 OCT'!H16)</f>
         <v/>
       </c>
     </row>
@@ -3362,31 +3383,31 @@
         </is>
       </c>
       <c r="D67" s="46">
-        <f>SUM('7 OCT'!H10, '14 OCT'!H10, '21 OCT'!H10, '28 OCT'!H10, )</f>
+        <f>'28 OCT'!I10</f>
         <v/>
       </c>
       <c r="E67" s="46">
-        <f>SUM('7 OCT'!H11, '14 OCT'!H11, '21 OCT'!H11, '28 OCT'!H11, )</f>
+        <f>'28 OCT'!I11</f>
         <v/>
       </c>
       <c r="F67" s="46">
-        <f>SUM('7 OCT'!H12, '14 OCT'!H12, '21 OCT'!H12, '28 OCT'!H12, )</f>
+        <f>'28 OCT'!I12</f>
         <v/>
       </c>
       <c r="G67" s="46">
-        <f>SUM('7 OCT'!H13, '14 OCT'!H13, '21 OCT'!H13, '28 OCT'!H13, )</f>
+        <f>'28 OCT'!I13</f>
         <v/>
       </c>
       <c r="H67" s="46">
-        <f>SUM('7 OCT'!H14, '14 OCT'!H14, '21 OCT'!H14, '28 OCT'!H14, )</f>
+        <f>'28 OCT'!I14</f>
         <v/>
       </c>
       <c r="I67" s="46">
-        <f>SUM('7 OCT'!H15, '14 OCT'!H15, '21 OCT'!H15, '28 OCT'!H15, )</f>
+        <f>'28 OCT'!I15</f>
         <v/>
       </c>
       <c r="J67" s="46">
-        <f>SUM('7 OCT'!H16, '14 OCT'!H16, '21 OCT'!H16, '28 OCT'!H16, )</f>
+        <f>'28 OCT'!I16</f>
         <v/>
       </c>
     </row>
@@ -3399,31 +3420,31 @@
         </is>
       </c>
       <c r="D68" s="46">
-        <f>'28 OCT'!I10</f>
+        <f>'28 OCT'!J10</f>
         <v/>
       </c>
       <c r="E68" s="46">
-        <f>'28 OCT'!I11</f>
+        <f>'28 OCT'!J11</f>
         <v/>
       </c>
       <c r="F68" s="46">
-        <f>'28 OCT'!I12</f>
+        <f>'28 OCT'!J12</f>
         <v/>
       </c>
       <c r="G68" s="46">
-        <f>'28 OCT'!I13</f>
+        <f>'28 OCT'!J13</f>
         <v/>
       </c>
       <c r="H68" s="46">
-        <f>'28 OCT'!I14</f>
+        <f>'28 OCT'!J14</f>
         <v/>
       </c>
       <c r="I68" s="46">
-        <f>'28 OCT'!I15</f>
+        <f>'28 OCT'!J15</f>
         <v/>
       </c>
       <c r="J68" s="46">
-        <f>'28 OCT'!I16</f>
+        <f>'28 OCT'!J16</f>
         <v/>
       </c>
     </row>
@@ -3444,31 +3465,31 @@
         </is>
       </c>
       <c r="D69" s="46">
-        <f>'28 OCT'!J10</f>
+        <f>SUM('4 NOV:25 NOV'!B10)</f>
         <v/>
       </c>
       <c r="E69" s="46">
-        <f>'28 OCT'!J11</f>
+        <f>SUM('4 NOV:25 NOV'!B11)</f>
         <v/>
       </c>
       <c r="F69" s="46">
-        <f>'28 OCT'!J12</f>
+        <f>SUM('4 NOV:25 NOV'!B12)</f>
         <v/>
       </c>
       <c r="G69" s="46">
-        <f>'28 OCT'!J13</f>
+        <f>SUM('4 NOV:25 NOV'!B13)</f>
         <v/>
       </c>
       <c r="H69" s="46">
-        <f>'28 OCT'!J14</f>
+        <f>SUM('4 NOV:25 NOV'!B14)</f>
         <v/>
       </c>
       <c r="I69" s="46">
-        <f>'28 OCT'!J15</f>
+        <f>SUM('4 NOV:25 NOV'!B15)</f>
         <v/>
       </c>
       <c r="J69" s="46">
-        <f>'28 OCT'!J16</f>
+        <f>SUM('4 NOV:25 NOV'!B16)</f>
         <v/>
       </c>
     </row>
@@ -3481,31 +3502,31 @@
         </is>
       </c>
       <c r="D70" s="46">
-        <f>SUM('4 NOV'!B10, '11 NOV'!B10, '18 NOV'!B10, '25 NOV'!B10, )</f>
+        <f>('4 NOV'!E10 * '4 NOV'!B10) + ('11 NOV'!E10 * '11 NOV'!B10) + ('18 NOV'!E10 * '18 NOV'!B10) + ('25 NOV'!E10 * '25 NOV'!B10)</f>
         <v/>
       </c>
       <c r="E70" s="46">
-        <f>SUM('4 NOV'!B11, '11 NOV'!B11, '18 NOV'!B11, '25 NOV'!B11, )</f>
+        <f>('4 NOV'!E11 * '4 NOV'!B11) + ('11 NOV'!E11 * '11 NOV'!B11) + ('18 NOV'!E11 * '18 NOV'!B11) + ('25 NOV'!E11 * '25 NOV'!B11)</f>
         <v/>
       </c>
       <c r="F70" s="46">
-        <f>SUM('4 NOV'!B12, '11 NOV'!B12, '18 NOV'!B12, '25 NOV'!B12, )</f>
+        <f>('4 NOV'!E12 * '4 NOV'!B12) + ('11 NOV'!E12 * '11 NOV'!B12) + ('18 NOV'!E12 * '18 NOV'!B12) + ('25 NOV'!E12 * '25 NOV'!B12)</f>
         <v/>
       </c>
       <c r="G70" s="46">
-        <f>SUM('4 NOV'!B13, '11 NOV'!B13, '18 NOV'!B13, '25 NOV'!B13, )</f>
+        <f>('4 NOV'!E13 * '4 NOV'!B13) + ('11 NOV'!E13 * '11 NOV'!B13) + ('18 NOV'!E13 * '18 NOV'!B13) + ('25 NOV'!E13 * '25 NOV'!B13)</f>
         <v/>
       </c>
       <c r="H70" s="46">
-        <f>SUM('4 NOV'!B14, '11 NOV'!B14, '18 NOV'!B14, '25 NOV'!B14, )</f>
+        <f>('4 NOV'!E14 * '4 NOV'!B14) + ('11 NOV'!E14 * '11 NOV'!B14) + ('18 NOV'!E14 * '18 NOV'!B14) + ('25 NOV'!E14 * '25 NOV'!B14)</f>
         <v/>
       </c>
       <c r="I70" s="46">
-        <f>SUM('4 NOV'!B15, '11 NOV'!B15, '18 NOV'!B15, '25 NOV'!B15, )</f>
+        <f>('4 NOV'!E15 * '4 NOV'!B15) + ('11 NOV'!E15 * '11 NOV'!B15) + ('18 NOV'!E15 * '18 NOV'!B15) + ('25 NOV'!E15 * '25 NOV'!B15)</f>
         <v/>
       </c>
       <c r="J70" s="46">
-        <f>SUM('4 NOV'!B16, '11 NOV'!B16, '18 NOV'!B16, '25 NOV'!B16, )</f>
+        <f>('4 NOV'!E16 * '4 NOV'!B16) + ('11 NOV'!E16 * '11 NOV'!B16) + ('18 NOV'!E16 * '18 NOV'!B16) + ('25 NOV'!E16 * '25 NOV'!B16)</f>
         <v/>
       </c>
     </row>
@@ -3522,31 +3543,31 @@
         </is>
       </c>
       <c r="D71" s="46">
-        <f>SUM('4 NOV'!E10 * '4 NOV'!B10, '11 NOV'!E10 * '11 NOV'!B10, '18 NOV'!E10 * '18 NOV'!B10, '25 NOV'!E10 * '25 NOV'!B10, )</f>
+        <f>SUM('4 NOV:25 NOV'!G10)</f>
         <v/>
       </c>
       <c r="E71" s="46">
-        <f>SUM('4 NOV'!E11 * '4 NOV'!B11, '11 NOV'!E11 * '11 NOV'!B11, '18 NOV'!E11 * '18 NOV'!B11, '25 NOV'!E11 * '25 NOV'!B11, )</f>
+        <f>SUM('4 NOV:25 NOV'!G11)</f>
         <v/>
       </c>
       <c r="F71" s="46">
-        <f>SUM('4 NOV'!E12 * '4 NOV'!B12, '11 NOV'!E12 * '11 NOV'!B12, '18 NOV'!E12 * '18 NOV'!B12, '25 NOV'!E12 * '25 NOV'!B12, )</f>
+        <f>SUM('4 NOV:25 NOV'!G12)</f>
         <v/>
       </c>
       <c r="G71" s="46">
-        <f>SUM('4 NOV'!E13 * '4 NOV'!B13, '11 NOV'!E13 * '11 NOV'!B13, '18 NOV'!E13 * '18 NOV'!B13, '25 NOV'!E13 * '25 NOV'!B13, )</f>
+        <f>SUM('4 NOV:25 NOV'!G13)</f>
         <v/>
       </c>
       <c r="H71" s="46">
-        <f>SUM('4 NOV'!E14 * '4 NOV'!B14, '11 NOV'!E14 * '11 NOV'!B14, '18 NOV'!E14 * '18 NOV'!B14, '25 NOV'!E14 * '25 NOV'!B14, )</f>
+        <f>SUM('4 NOV:25 NOV'!G14)</f>
         <v/>
       </c>
       <c r="I71" s="46">
-        <f>SUM('4 NOV'!E15 * '4 NOV'!B15, '11 NOV'!E15 * '11 NOV'!B15, '18 NOV'!E15 * '18 NOV'!B15, '25 NOV'!E15 * '25 NOV'!B15, )</f>
+        <f>SUM('4 NOV:25 NOV'!G15)</f>
         <v/>
       </c>
       <c r="J71" s="46">
-        <f>SUM('4 NOV'!E16 * '4 NOV'!B16, '11 NOV'!E16 * '11 NOV'!B16, '18 NOV'!E16 * '18 NOV'!B16, '25 NOV'!E16 * '25 NOV'!B16, )</f>
+        <f>SUM('4 NOV:25 NOV'!G16)</f>
         <v/>
       </c>
     </row>
@@ -3559,31 +3580,31 @@
         </is>
       </c>
       <c r="D72" s="46">
-        <f>SUM('4 NOV'!G10, '11 NOV'!G10, '18 NOV'!G10, '25 NOV'!G10, )</f>
+        <f>SUM('4 NOV:25 NOV'!H10)</f>
         <v/>
       </c>
       <c r="E72" s="46">
-        <f>SUM('4 NOV'!G11, '11 NOV'!G11, '18 NOV'!G11, '25 NOV'!G11, )</f>
+        <f>SUM('4 NOV:25 NOV'!H11)</f>
         <v/>
       </c>
       <c r="F72" s="46">
-        <f>SUM('4 NOV'!G12, '11 NOV'!G12, '18 NOV'!G12, '25 NOV'!G12, )</f>
+        <f>SUM('4 NOV:25 NOV'!H12)</f>
         <v/>
       </c>
       <c r="G72" s="46">
-        <f>SUM('4 NOV'!G13, '11 NOV'!G13, '18 NOV'!G13, '25 NOV'!G13, )</f>
+        <f>SUM('4 NOV:25 NOV'!H13)</f>
         <v/>
       </c>
       <c r="H72" s="46">
-        <f>SUM('4 NOV'!G14, '11 NOV'!G14, '18 NOV'!G14, '25 NOV'!G14, )</f>
+        <f>SUM('4 NOV:25 NOV'!H14)</f>
         <v/>
       </c>
       <c r="I72" s="46">
-        <f>SUM('4 NOV'!G15, '11 NOV'!G15, '18 NOV'!G15, '25 NOV'!G15, )</f>
+        <f>SUM('4 NOV:25 NOV'!H15)</f>
         <v/>
       </c>
       <c r="J72" s="46">
-        <f>SUM('4 NOV'!G16, '11 NOV'!G16, '18 NOV'!G16, '25 NOV'!G16, )</f>
+        <f>SUM('4 NOV:25 NOV'!H16)</f>
         <v/>
       </c>
     </row>
@@ -3600,31 +3621,31 @@
         </is>
       </c>
       <c r="D73" s="46">
-        <f>SUM('4 NOV'!H10, '11 NOV'!H10, '18 NOV'!H10, '25 NOV'!H10, )</f>
+        <f>'25 NOV'!I10</f>
         <v/>
       </c>
       <c r="E73" s="46">
-        <f>SUM('4 NOV'!H11, '11 NOV'!H11, '18 NOV'!H11, '25 NOV'!H11, )</f>
+        <f>'25 NOV'!I11</f>
         <v/>
       </c>
       <c r="F73" s="46">
-        <f>SUM('4 NOV'!H12, '11 NOV'!H12, '18 NOV'!H12, '25 NOV'!H12, )</f>
+        <f>'25 NOV'!I12</f>
         <v/>
       </c>
       <c r="G73" s="46">
-        <f>SUM('4 NOV'!H13, '11 NOV'!H13, '18 NOV'!H13, '25 NOV'!H13, )</f>
+        <f>'25 NOV'!I13</f>
         <v/>
       </c>
       <c r="H73" s="46">
-        <f>SUM('4 NOV'!H14, '11 NOV'!H14, '18 NOV'!H14, '25 NOV'!H14, )</f>
+        <f>'25 NOV'!I14</f>
         <v/>
       </c>
       <c r="I73" s="46">
-        <f>SUM('4 NOV'!H15, '11 NOV'!H15, '18 NOV'!H15, '25 NOV'!H15, )</f>
+        <f>'25 NOV'!I15</f>
         <v/>
       </c>
       <c r="J73" s="46">
-        <f>SUM('4 NOV'!H16, '11 NOV'!H16, '18 NOV'!H16, '25 NOV'!H16, )</f>
+        <f>'25 NOV'!I16</f>
         <v/>
       </c>
     </row>
@@ -3637,31 +3658,31 @@
         </is>
       </c>
       <c r="D74" s="46">
-        <f>'25 NOV'!I10</f>
+        <f>'25 NOV'!J10</f>
         <v/>
       </c>
       <c r="E74" s="46">
-        <f>'25 NOV'!I11</f>
+        <f>'25 NOV'!J11</f>
         <v/>
       </c>
       <c r="F74" s="46">
-        <f>'25 NOV'!I12</f>
+        <f>'25 NOV'!J12</f>
         <v/>
       </c>
       <c r="G74" s="46">
-        <f>'25 NOV'!I13</f>
+        <f>'25 NOV'!J13</f>
         <v/>
       </c>
       <c r="H74" s="46">
-        <f>'25 NOV'!I14</f>
+        <f>'25 NOV'!J14</f>
         <v/>
       </c>
       <c r="I74" s="46">
-        <f>'25 NOV'!I15</f>
+        <f>'25 NOV'!J15</f>
         <v/>
       </c>
       <c r="J74" s="46">
-        <f>'25 NOV'!I16</f>
+        <f>'25 NOV'!J16</f>
         <v/>
       </c>
     </row>
@@ -3682,31 +3703,31 @@
         </is>
       </c>
       <c r="D75" s="46">
-        <f>'25 NOV'!J10</f>
+        <f>SUM('2 DEC:30 DEC'!B10)</f>
         <v/>
       </c>
       <c r="E75" s="46">
-        <f>'25 NOV'!J11</f>
+        <f>SUM('2 DEC:30 DEC'!B11)</f>
         <v/>
       </c>
       <c r="F75" s="46">
-        <f>'25 NOV'!J12</f>
+        <f>SUM('2 DEC:30 DEC'!B12)</f>
         <v/>
       </c>
       <c r="G75" s="46">
-        <f>'25 NOV'!J13</f>
+        <f>SUM('2 DEC:30 DEC'!B13)</f>
         <v/>
       </c>
       <c r="H75" s="46">
-        <f>'25 NOV'!J14</f>
+        <f>SUM('2 DEC:30 DEC'!B14)</f>
         <v/>
       </c>
       <c r="I75" s="46">
-        <f>'25 NOV'!J15</f>
+        <f>SUM('2 DEC:30 DEC'!B15)</f>
         <v/>
       </c>
       <c r="J75" s="46">
-        <f>'25 NOV'!J16</f>
+        <f>SUM('2 DEC:30 DEC'!B16)</f>
         <v/>
       </c>
     </row>
@@ -3719,31 +3740,31 @@
         </is>
       </c>
       <c r="D76" s="46">
-        <f>SUM('2 DEC'!B10, '9 DEC'!B10, '16 DEC'!B10, '23 DEC'!B10, '30 DEC'!B10, )</f>
+        <f>('2 DEC'!E10 * '2 DEC'!B10) + ('9 DEC'!E10 * '9 DEC'!B10) + ('16 DEC'!E10 * '16 DEC'!B10) + ('23 DEC'!E10 * '23 DEC'!B10) + ('30 DEC'!E10 * '30 DEC'!B10)</f>
         <v/>
       </c>
       <c r="E76" s="46">
-        <f>SUM('2 DEC'!B11, '9 DEC'!B11, '16 DEC'!B11, '23 DEC'!B11, '30 DEC'!B11, )</f>
+        <f>('2 DEC'!E11 * '2 DEC'!B11) + ('9 DEC'!E11 * '9 DEC'!B11) + ('16 DEC'!E11 * '16 DEC'!B11) + ('23 DEC'!E11 * '23 DEC'!B11) + ('30 DEC'!E11 * '30 DEC'!B11)</f>
         <v/>
       </c>
       <c r="F76" s="46">
-        <f>SUM('2 DEC'!B12, '9 DEC'!B12, '16 DEC'!B12, '23 DEC'!B12, '30 DEC'!B12, )</f>
+        <f>('2 DEC'!E12 * '2 DEC'!B12) + ('9 DEC'!E12 * '9 DEC'!B12) + ('16 DEC'!E12 * '16 DEC'!B12) + ('23 DEC'!E12 * '23 DEC'!B12) + ('30 DEC'!E12 * '30 DEC'!B12)</f>
         <v/>
       </c>
       <c r="G76" s="46">
-        <f>SUM('2 DEC'!B13, '9 DEC'!B13, '16 DEC'!B13, '23 DEC'!B13, '30 DEC'!B13, )</f>
+        <f>('2 DEC'!E13 * '2 DEC'!B13) + ('9 DEC'!E13 * '9 DEC'!B13) + ('16 DEC'!E13 * '16 DEC'!B13) + ('23 DEC'!E13 * '23 DEC'!B13) + ('30 DEC'!E13 * '30 DEC'!B13)</f>
         <v/>
       </c>
       <c r="H76" s="46">
-        <f>SUM('2 DEC'!B14, '9 DEC'!B14, '16 DEC'!B14, '23 DEC'!B14, '30 DEC'!B14, )</f>
+        <f>('2 DEC'!E14 * '2 DEC'!B14) + ('9 DEC'!E14 * '9 DEC'!B14) + ('16 DEC'!E14 * '16 DEC'!B14) + ('23 DEC'!E14 * '23 DEC'!B14) + ('30 DEC'!E14 * '30 DEC'!B14)</f>
         <v/>
       </c>
       <c r="I76" s="46">
-        <f>SUM('2 DEC'!B15, '9 DEC'!B15, '16 DEC'!B15, '23 DEC'!B15, '30 DEC'!B15, )</f>
+        <f>('2 DEC'!E15 * '2 DEC'!B15) + ('9 DEC'!E15 * '9 DEC'!B15) + ('16 DEC'!E15 * '16 DEC'!B15) + ('23 DEC'!E15 * '23 DEC'!B15) + ('30 DEC'!E15 * '30 DEC'!B15)</f>
         <v/>
       </c>
       <c r="J76" s="46">
-        <f>SUM('2 DEC'!B16, '9 DEC'!B16, '16 DEC'!B16, '23 DEC'!B16, '30 DEC'!B16, )</f>
+        <f>('2 DEC'!E16 * '2 DEC'!B16) + ('9 DEC'!E16 * '9 DEC'!B16) + ('16 DEC'!E16 * '16 DEC'!B16) + ('23 DEC'!E16 * '23 DEC'!B16) + ('30 DEC'!E16 * '30 DEC'!B16)</f>
         <v/>
       </c>
     </row>
@@ -3760,31 +3781,31 @@
         </is>
       </c>
       <c r="D77" s="46">
-        <f>SUM('2 DEC'!E10 * '2 DEC'!B10, '9 DEC'!E10 * '9 DEC'!B10, '16 DEC'!E10 * '16 DEC'!B10, '23 DEC'!E10 * '23 DEC'!B10, '30 DEC'!E10 * '30 DEC'!B10, )</f>
+        <f>SUM('2 DEC:30 DEC'!G10)</f>
         <v/>
       </c>
       <c r="E77" s="46">
-        <f>SUM('2 DEC'!E11 * '2 DEC'!B11, '9 DEC'!E11 * '9 DEC'!B11, '16 DEC'!E11 * '16 DEC'!B11, '23 DEC'!E11 * '23 DEC'!B11, '30 DEC'!E11 * '30 DEC'!B11, )</f>
+        <f>SUM('2 DEC:30 DEC'!G11)</f>
         <v/>
       </c>
       <c r="F77" s="46">
-        <f>SUM('2 DEC'!E12 * '2 DEC'!B12, '9 DEC'!E12 * '9 DEC'!B12, '16 DEC'!E12 * '16 DEC'!B12, '23 DEC'!E12 * '23 DEC'!B12, '30 DEC'!E12 * '30 DEC'!B12, )</f>
+        <f>SUM('2 DEC:30 DEC'!G12)</f>
         <v/>
       </c>
       <c r="G77" s="46">
-        <f>SUM('2 DEC'!E13 * '2 DEC'!B13, '9 DEC'!E13 * '9 DEC'!B13, '16 DEC'!E13 * '16 DEC'!B13, '23 DEC'!E13 * '23 DEC'!B13, '30 DEC'!E13 * '30 DEC'!B13, )</f>
+        <f>SUM('2 DEC:30 DEC'!G13)</f>
         <v/>
       </c>
       <c r="H77" s="46">
-        <f>SUM('2 DEC'!E14 * '2 DEC'!B14, '9 DEC'!E14 * '9 DEC'!B14, '16 DEC'!E14 * '16 DEC'!B14, '23 DEC'!E14 * '23 DEC'!B14, '30 DEC'!E14 * '30 DEC'!B14, )</f>
+        <f>SUM('2 DEC:30 DEC'!G14)</f>
         <v/>
       </c>
       <c r="I77" s="46">
-        <f>SUM('2 DEC'!E15 * '2 DEC'!B15, '9 DEC'!E15 * '9 DEC'!B15, '16 DEC'!E15 * '16 DEC'!B15, '23 DEC'!E15 * '23 DEC'!B15, '30 DEC'!E15 * '30 DEC'!B15, )</f>
+        <f>SUM('2 DEC:30 DEC'!G15)</f>
         <v/>
       </c>
       <c r="J77" s="46">
-        <f>SUM('2 DEC'!E16 * '2 DEC'!B16, '9 DEC'!E16 * '9 DEC'!B16, '16 DEC'!E16 * '16 DEC'!B16, '23 DEC'!E16 * '23 DEC'!B16, '30 DEC'!E16 * '30 DEC'!B16, )</f>
+        <f>SUM('2 DEC:30 DEC'!G16)</f>
         <v/>
       </c>
     </row>
@@ -3797,31 +3818,31 @@
         </is>
       </c>
       <c r="D78" s="46">
-        <f>SUM('2 DEC'!G10, '9 DEC'!G10, '16 DEC'!G10, '23 DEC'!G10, '30 DEC'!G10, )</f>
+        <f>SUM('2 DEC:30 DEC'!H10)</f>
         <v/>
       </c>
       <c r="E78" s="46">
-        <f>SUM('2 DEC'!G11, '9 DEC'!G11, '16 DEC'!G11, '23 DEC'!G11, '30 DEC'!G11, )</f>
+        <f>SUM('2 DEC:30 DEC'!H11)</f>
         <v/>
       </c>
       <c r="F78" s="46">
-        <f>SUM('2 DEC'!G12, '9 DEC'!G12, '16 DEC'!G12, '23 DEC'!G12, '30 DEC'!G12, )</f>
+        <f>SUM('2 DEC:30 DEC'!H12)</f>
         <v/>
       </c>
       <c r="G78" s="46">
-        <f>SUM('2 DEC'!G13, '9 DEC'!G13, '16 DEC'!G13, '23 DEC'!G13, '30 DEC'!G13, )</f>
+        <f>SUM('2 DEC:30 DEC'!H13)</f>
         <v/>
       </c>
       <c r="H78" s="46">
-        <f>SUM('2 DEC'!G14, '9 DEC'!G14, '16 DEC'!G14, '23 DEC'!G14, '30 DEC'!G14, )</f>
+        <f>SUM('2 DEC:30 DEC'!H14)</f>
         <v/>
       </c>
       <c r="I78" s="46">
-        <f>SUM('2 DEC'!G15, '9 DEC'!G15, '16 DEC'!G15, '23 DEC'!G15, '30 DEC'!G15, )</f>
+        <f>SUM('2 DEC:30 DEC'!H15)</f>
         <v/>
       </c>
       <c r="J78" s="46">
-        <f>SUM('2 DEC'!G16, '9 DEC'!G16, '16 DEC'!G16, '23 DEC'!G16, '30 DEC'!G16, )</f>
+        <f>SUM('2 DEC:30 DEC'!H16)</f>
         <v/>
       </c>
     </row>
@@ -3838,31 +3859,31 @@
         </is>
       </c>
       <c r="D79" s="46">
-        <f>SUM('2 DEC'!H10, '9 DEC'!H10, '16 DEC'!H10, '23 DEC'!H10, '30 DEC'!H10, )</f>
+        <f>'30 DEC'!I10</f>
         <v/>
       </c>
       <c r="E79" s="46">
-        <f>SUM('2 DEC'!H11, '9 DEC'!H11, '16 DEC'!H11, '23 DEC'!H11, '30 DEC'!H11, )</f>
+        <f>'30 DEC'!I11</f>
         <v/>
       </c>
       <c r="F79" s="46">
-        <f>SUM('2 DEC'!H12, '9 DEC'!H12, '16 DEC'!H12, '23 DEC'!H12, '30 DEC'!H12, )</f>
+        <f>'30 DEC'!I12</f>
         <v/>
       </c>
       <c r="G79" s="46">
-        <f>SUM('2 DEC'!H13, '9 DEC'!H13, '16 DEC'!H13, '23 DEC'!H13, '30 DEC'!H13, )</f>
+        <f>'30 DEC'!I13</f>
         <v/>
       </c>
       <c r="H79" s="46">
-        <f>SUM('2 DEC'!H14, '9 DEC'!H14, '16 DEC'!H14, '23 DEC'!H14, '30 DEC'!H14, )</f>
+        <f>'30 DEC'!I14</f>
         <v/>
       </c>
       <c r="I79" s="46">
-        <f>SUM('2 DEC'!H15, '9 DEC'!H15, '16 DEC'!H15, '23 DEC'!H15, '30 DEC'!H15, )</f>
+        <f>'30 DEC'!I15</f>
         <v/>
       </c>
       <c r="J79" s="46">
-        <f>SUM('2 DEC'!H16, '9 DEC'!H16, '16 DEC'!H16, '23 DEC'!H16, '30 DEC'!H16, )</f>
+        <f>'30 DEC'!I16</f>
         <v/>
       </c>
     </row>
@@ -3875,31 +3896,31 @@
         </is>
       </c>
       <c r="D80" s="46">
-        <f>'30 DEC'!I10</f>
+        <f>'30 DEC'!J10</f>
         <v/>
       </c>
       <c r="E80" s="46">
-        <f>'30 DEC'!I11</f>
+        <f>'30 DEC'!J11</f>
         <v/>
       </c>
       <c r="F80" s="46">
-        <f>'30 DEC'!I12</f>
+        <f>'30 DEC'!J12</f>
         <v/>
       </c>
       <c r="G80" s="46">
-        <f>'30 DEC'!I13</f>
+        <f>'30 DEC'!J13</f>
         <v/>
       </c>
       <c r="H80" s="46">
-        <f>'30 DEC'!I14</f>
+        <f>'30 DEC'!J14</f>
         <v/>
       </c>
       <c r="I80" s="46">
-        <f>'30 DEC'!I15</f>
+        <f>'30 DEC'!J15</f>
         <v/>
       </c>
       <c r="J80" s="46">
-        <f>'30 DEC'!I16</f>
+        <f>'30 DEC'!J16</f>
         <v/>
       </c>
     </row>
@@ -3921,31 +3942,31 @@
         </is>
       </c>
       <c r="D81" s="46">
-        <f>SUM(D9, D15, D21, D27, D33, D39, D45, D51, D57, D63, D69, D75, )</f>
+        <f>SUM(D9, D15, D21, D27, D33, D39, D45, D51, D57, D63, D69, D75, D9, D15, D21, D27, D33, D39, D45, D51, D57, D63, D69, D75, D9, D15, D21, D27, D33, D39, D45, D51, D57, D63, D69, D75, D9, D15, D21, D27, D33, D39, D45, D51, D57, D63, D69, D75, D9, D15, D21, D27, D33, D39, D45, D51, D57, D63, D69, D75, D9, D15, D21, D27, D33, D39, D45, D51, D57, D63, D69, D75, D9, D15, D21, D27, D33, D39, D45, D51, D57, D63, D69, D75)</f>
         <v/>
       </c>
       <c r="E81" s="46">
-        <f>SUM(E9, E15, E21, E27, E33, E39, E45, E51, E57, E63, E69, E75, )</f>
+        <f>SUM(E9, E15, E21, E27, E33, E39, E45, E51, E57, E63, E69, E75, E9, E15, E21, E27, E33, E39, E45, E51, E57, E63, E69, E75, E9, E15, E21, E27, E33, E39, E45, E51, E57, E63, E69, E75, E9, E15, E21, E27, E33, E39, E45, E51, E57, E63, E69, E75, E9, E15, E21, E27, E33, E39, E45, E51, E57, E63, E69, E75, E9, E15, E21, E27, E33, E39, E45, E51, E57, E63, E69, E75, E9, E15, E21, E27, E33, E39, E45, E51, E57, E63, E69, E75)</f>
         <v/>
       </c>
       <c r="F81" s="46">
-        <f>SUM(F9, F15, F21, F27, F33, F39, F45, F51, F57, F63, F69, F75, )</f>
+        <f>SUM(F9, F15, F21, F27, F33, F39, F45, F51, F57, F63, F69, F75, F9, F15, F21, F27, F33, F39, F45, F51, F57, F63, F69, F75, F9, F15, F21, F27, F33, F39, F45, F51, F57, F63, F69, F75, F9, F15, F21, F27, F33, F39, F45, F51, F57, F63, F69, F75, F9, F15, F21, F27, F33, F39, F45, F51, F57, F63, F69, F75, F9, F15, F21, F27, F33, F39, F45, F51, F57, F63, F69, F75, F9, F15, F21, F27, F33, F39, F45, F51, F57, F63, F69, F75)</f>
         <v/>
       </c>
       <c r="G81" s="46">
-        <f>SUM(G9, G15, G21, G27, G33, G39, G45, G51, G57, G63, G69, G75, )</f>
+        <f>SUM(G9, G15, G21, G27, G33, G39, G45, G51, G57, G63, G69, G75, G9, G15, G21, G27, G33, G39, G45, G51, G57, G63, G69, G75, G9, G15, G21, G27, G33, G39, G45, G51, G57, G63, G69, G75, G9, G15, G21, G27, G33, G39, G45, G51, G57, G63, G69, G75, G9, G15, G21, G27, G33, G39, G45, G51, G57, G63, G69, G75, G9, G15, G21, G27, G33, G39, G45, G51, G57, G63, G69, G75, G9, G15, G21, G27, G33, G39, G45, G51, G57, G63, G69, G75)</f>
         <v/>
       </c>
       <c r="H81" s="46">
-        <f>SUM(H9, H15, H21, H27, H33, H39, H45, H51, H57, H63, H69, H75, )</f>
+        <f>SUM(H9, H15, H21, H27, H33, H39, H45, H51, H57, H63, H69, H75, H9, H15, H21, H27, H33, H39, H45, H51, H57, H63, H69, H75, H9, H15, H21, H27, H33, H39, H45, H51, H57, H63, H69, H75, H9, H15, H21, H27, H33, H39, H45, H51, H57, H63, H69, H75, H9, H15, H21, H27, H33, H39, H45, H51, H57, H63, H69, H75, H9, H15, H21, H27, H33, H39, H45, H51, H57, H63, H69, H75, H9, H15, H21, H27, H33, H39, H45, H51, H57, H63, H69, H75)</f>
         <v/>
       </c>
       <c r="I81" s="46">
-        <f>SUM(I9, I15, I21, I27, I33, I39, I45, I51, I57, I63, I69, I75, )</f>
+        <f>SUM(I9, I15, I21, I27, I33, I39, I45, I51, I57, I63, I69, I75, I9, I15, I21, I27, I33, I39, I45, I51, I57, I63, I69, I75, I9, I15, I21, I27, I33, I39, I45, I51, I57, I63, I69, I75, I9, I15, I21, I27, I33, I39, I45, I51, I57, I63, I69, I75, I9, I15, I21, I27, I33, I39, I45, I51, I57, I63, I69, I75, I9, I15, I21, I27, I33, I39, I45, I51, I57, I63, I69, I75, I9, I15, I21, I27, I33, I39, I45, I51, I57, I63, I69, I75)</f>
         <v/>
       </c>
       <c r="J81" s="46">
-        <f>SUM(J9, J15, J21, J27, J33, J39, J45, J51, J57, J63, J69, J75, )</f>
+        <f>SUM(J9, J15, J21, J27, J33, J39, J45, J51, J57, J63, J69, J75, J9, J15, J21, J27, J33, J39, J45, J51, J57, J63, J69, J75, J9, J15, J21, J27, J33, J39, J45, J51, J57, J63, J69, J75, J9, J15, J21, J27, J33, J39, J45, J51, J57, J63, J69, J75, J9, J15, J21, J27, J33, J39, J45, J51, J57, J63, J69, J75, J9, J15, J21, J27, J33, J39, J45, J51, J57, J63, J69, J75, J9, J15, J21, J27, J33, J39, J45, J51, J57, J63, J69, J75)</f>
         <v/>
       </c>
     </row>
@@ -3958,31 +3979,31 @@
         </is>
       </c>
       <c r="D82" s="46">
-        <f>SUM(D10, D16, D22, D28, D34, D40, D46, D52, D58, D64, D70, D76, )</f>
+        <f>SUM(D10, D16, D22, D28, D34, D40, D46, D52, D58, D64, D70, D76, D10, D16, D22, D28, D34, D40, D46, D52, D58, D64, D70, D76, D10, D16, D22, D28, D34, D40, D46, D52, D58, D64, D70, D76, D10, D16, D22, D28, D34, D40, D46, D52, D58, D64, D70, D76, D10, D16, D22, D28, D34, D40, D46, D52, D58, D64, D70, D76, D10, D16, D22, D28, D34, D40, D46, D52, D58, D64, D70, D76, D10, D16, D22, D28, D34, D40, D46, D52, D58, D64, D70, D76)</f>
         <v/>
       </c>
       <c r="E82" s="46">
-        <f>SUM(E10, E16, E22, E28, E34, E40, E46, E52, E58, E64, E70, E76, )</f>
+        <f>SUM(E10, E16, E22, E28, E34, E40, E46, E52, E58, E64, E70, E76, E10, E16, E22, E28, E34, E40, E46, E52, E58, E64, E70, E76, E10, E16, E22, E28, E34, E40, E46, E52, E58, E64, E70, E76, E10, E16, E22, E28, E34, E40, E46, E52, E58, E64, E70, E76, E10, E16, E22, E28, E34, E40, E46, E52, E58, E64, E70, E76, E10, E16, E22, E28, E34, E40, E46, E52, E58, E64, E70, E76, E10, E16, E22, E28, E34, E40, E46, E52, E58, E64, E70, E76)</f>
         <v/>
       </c>
       <c r="F82" s="46">
-        <f>SUM(F10, F16, F22, F28, F34, F40, F46, F52, F58, F64, F70, F76, )</f>
+        <f>SUM(F10, F16, F22, F28, F34, F40, F46, F52, F58, F64, F70, F76, F10, F16, F22, F28, F34, F40, F46, F52, F58, F64, F70, F76, F10, F16, F22, F28, F34, F40, F46, F52, F58, F64, F70, F76, F10, F16, F22, F28, F34, F40, F46, F52, F58, F64, F70, F76, F10, F16, F22, F28, F34, F40, F46, F52, F58, F64, F70, F76, F10, F16, F22, F28, F34, F40, F46, F52, F58, F64, F70, F76, F10, F16, F22, F28, F34, F40, F46, F52, F58, F64, F70, F76)</f>
         <v/>
       </c>
       <c r="G82" s="46">
-        <f>SUM(G10, G16, G22, G28, G34, G40, G46, G52, G58, G64, G70, G76, )</f>
+        <f>SUM(G10, G16, G22, G28, G34, G40, G46, G52, G58, G64, G70, G76, G10, G16, G22, G28, G34, G40, G46, G52, G58, G64, G70, G76, G10, G16, G22, G28, G34, G40, G46, G52, G58, G64, G70, G76, G10, G16, G22, G28, G34, G40, G46, G52, G58, G64, G70, G76, G10, G16, G22, G28, G34, G40, G46, G52, G58, G64, G70, G76, G10, G16, G22, G28, G34, G40, G46, G52, G58, G64, G70, G76, G10, G16, G22, G28, G34, G40, G46, G52, G58, G64, G70, G76)</f>
         <v/>
       </c>
       <c r="H82" s="46">
-        <f>SUM(H10, H16, H22, H28, H34, H40, H46, H52, H58, H64, H70, H76, )</f>
+        <f>SUM(H10, H16, H22, H28, H34, H40, H46, H52, H58, H64, H70, H76, H10, H16, H22, H28, H34, H40, H46, H52, H58, H64, H70, H76, H10, H16, H22, H28, H34, H40, H46, H52, H58, H64, H70, H76, H10, H16, H22, H28, H34, H40, H46, H52, H58, H64, H70, H76, H10, H16, H22, H28, H34, H40, H46, H52, H58, H64, H70, H76, H10, H16, H22, H28, H34, H40, H46, H52, H58, H64, H70, H76, H10, H16, H22, H28, H34, H40, H46, H52, H58, H64, H70, H76)</f>
         <v/>
       </c>
       <c r="I82" s="46">
-        <f>SUM(I10, I16, I22, I28, I34, I40, I46, I52, I58, I64, I70, I76, )</f>
+        <f>SUM(I10, I16, I22, I28, I34, I40, I46, I52, I58, I64, I70, I76, I10, I16, I22, I28, I34, I40, I46, I52, I58, I64, I70, I76, I10, I16, I22, I28, I34, I40, I46, I52, I58, I64, I70, I76, I10, I16, I22, I28, I34, I40, I46, I52, I58, I64, I70, I76, I10, I16, I22, I28, I34, I40, I46, I52, I58, I64, I70, I76, I10, I16, I22, I28, I34, I40, I46, I52, I58, I64, I70, I76, I10, I16, I22, I28, I34, I40, I46, I52, I58, I64, I70, I76)</f>
         <v/>
       </c>
       <c r="J82" s="46">
-        <f>SUM(J10, J16, J22, J28, J34, J40, J46, J52, J58, J64, J70, J76, )</f>
+        <f>SUM(J10, J16, J22, J28, J34, J40, J46, J52, J58, J64, J70, J76, J10, J16, J22, J28, J34, J40, J46, J52, J58, J64, J70, J76, J10, J16, J22, J28, J34, J40, J46, J52, J58, J64, J70, J76, J10, J16, J22, J28, J34, J40, J46, J52, J58, J64, J70, J76, J10, J16, J22, J28, J34, J40, J46, J52, J58, J64, J70, J76, J10, J16, J22, J28, J34, J40, J46, J52, J58, J64, J70, J76, J10, J16, J22, J28, J34, J40, J46, J52, J58, J64, J70, J76)</f>
         <v/>
       </c>
     </row>
@@ -3999,31 +4020,31 @@
         </is>
       </c>
       <c r="D83" s="46">
-        <f>SUM(D11, D17, D23, D29, D35, D41, D47, D53, D59, D65, D71, D77, )</f>
+        <f>SUM(D11, D17, D23, D29, D35, D41, D47, D53, D59, D65, D71, D77, D11, D17, D23, D29, D35, D41, D47, D53, D59, D65, D71, D77, D11, D17, D23, D29, D35, D41, D47, D53, D59, D65, D71, D77, D11, D17, D23, D29, D35, D41, D47, D53, D59, D65, D71, D77, D11, D17, D23, D29, D35, D41, D47, D53, D59, D65, D71, D77, D11, D17, D23, D29, D35, D41, D47, D53, D59, D65, D71, D77, D11, D17, D23, D29, D35, D41, D47, D53, D59, D65, D71, D77)</f>
         <v/>
       </c>
       <c r="E83" s="46">
-        <f>SUM(E11, E17, E23, E29, E35, E41, E47, E53, E59, E65, E71, E77, )</f>
+        <f>SUM(E11, E17, E23, E29, E35, E41, E47, E53, E59, E65, E71, E77, E11, E17, E23, E29, E35, E41, E47, E53, E59, E65, E71, E77, E11, E17, E23, E29, E35, E41, E47, E53, E59, E65, E71, E77, E11, E17, E23, E29, E35, E41, E47, E53, E59, E65, E71, E77, E11, E17, E23, E29, E35, E41, E47, E53, E59, E65, E71, E77, E11, E17, E23, E29, E35, E41, E47, E53, E59, E65, E71, E77, E11, E17, E23, E29, E35, E41, E47, E53, E59, E65, E71, E77)</f>
         <v/>
       </c>
       <c r="F83" s="46">
-        <f>SUM(F11, F17, F23, F29, F35, F41, F47, F53, F59, F65, F71, F77, )</f>
+        <f>SUM(F11, F17, F23, F29, F35, F41, F47, F53, F59, F65, F71, F77, F11, F17, F23, F29, F35, F41, F47, F53, F59, F65, F71, F77, F11, F17, F23, F29, F35, F41, F47, F53, F59, F65, F71, F77, F11, F17, F23, F29, F35, F41, F47, F53, F59, F65, F71, F77, F11, F17, F23, F29, F35, F41, F47, F53, F59, F65, F71, F77, F11, F17, F23, F29, F35, F41, F47, F53, F59, F65, F71, F77, F11, F17, F23, F29, F35, F41, F47, F53, F59, F65, F71, F77)</f>
         <v/>
       </c>
       <c r="G83" s="46">
-        <f>SUM(G11, G17, G23, G29, G35, G41, G47, G53, G59, G65, G71, G77, )</f>
+        <f>SUM(G11, G17, G23, G29, G35, G41, G47, G53, G59, G65, G71, G77, G11, G17, G23, G29, G35, G41, G47, G53, G59, G65, G71, G77, G11, G17, G23, G29, G35, G41, G47, G53, G59, G65, G71, G77, G11, G17, G23, G29, G35, G41, G47, G53, G59, G65, G71, G77, G11, G17, G23, G29, G35, G41, G47, G53, G59, G65, G71, G77, G11, G17, G23, G29, G35, G41, G47, G53, G59, G65, G71, G77, G11, G17, G23, G29, G35, G41, G47, G53, G59, G65, G71, G77)</f>
         <v/>
       </c>
       <c r="H83" s="46">
-        <f>SUM(H11, H17, H23, H29, H35, H41, H47, H53, H59, H65, H71, H77, )</f>
+        <f>SUM(H11, H17, H23, H29, H35, H41, H47, H53, H59, H65, H71, H77, H11, H17, H23, H29, H35, H41, H47, H53, H59, H65, H71, H77, H11, H17, H23, H29, H35, H41, H47, H53, H59, H65, H71, H77, H11, H17, H23, H29, H35, H41, H47, H53, H59, H65, H71, H77, H11, H17, H23, H29, H35, H41, H47, H53, H59, H65, H71, H77, H11, H17, H23, H29, H35, H41, H47, H53, H59, H65, H71, H77, H11, H17, H23, H29, H35, H41, H47, H53, H59, H65, H71, H77)</f>
         <v/>
       </c>
       <c r="I83" s="46">
-        <f>SUM(I11, I17, I23, I29, I35, I41, I47, I53, I59, I65, I71, I77, )</f>
+        <f>SUM(I11, I17, I23, I29, I35, I41, I47, I53, I59, I65, I71, I77, I11, I17, I23, I29, I35, I41, I47, I53, I59, I65, I71, I77, I11, I17, I23, I29, I35, I41, I47, I53, I59, I65, I71, I77, I11, I17, I23, I29, I35, I41, I47, I53, I59, I65, I71, I77, I11, I17, I23, I29, I35, I41, I47, I53, I59, I65, I71, I77, I11, I17, I23, I29, I35, I41, I47, I53, I59, I65, I71, I77, I11, I17, I23, I29, I35, I41, I47, I53, I59, I65, I71, I77)</f>
         <v/>
       </c>
       <c r="J83" s="46">
-        <f>SUM(J11, J17, J23, J29, J35, J41, J47, J53, J59, J65, J71, J77, )</f>
+        <f>SUM(J11, J17, J23, J29, J35, J41, J47, J53, J59, J65, J71, J77, J11, J17, J23, J29, J35, J41, J47, J53, J59, J65, J71, J77, J11, J17, J23, J29, J35, J41, J47, J53, J59, J65, J71, J77, J11, J17, J23, J29, J35, J41, J47, J53, J59, J65, J71, J77, J11, J17, J23, J29, J35, J41, J47, J53, J59, J65, J71, J77, J11, J17, J23, J29, J35, J41, J47, J53, J59, J65, J71, J77, J11, J17, J23, J29, J35, J41, J47, J53, J59, J65, J71, J77)</f>
         <v/>
       </c>
     </row>
@@ -4036,31 +4057,31 @@
         </is>
       </c>
       <c r="D84" s="46">
-        <f>SUM(D12, D18, D24, D30, D36, D42, D48, D54, D60, D66, D72, D78, )</f>
+        <f>SUM(D12, D18, D24, D30, D36, D42, D48, D54, D60, D66, D72, D78, D12, D18, D24, D30, D36, D42, D48, D54, D60, D66, D72, D78, D12, D18, D24, D30, D36, D42, D48, D54, D60, D66, D72, D78, D12, D18, D24, D30, D36, D42, D48, D54, D60, D66, D72, D78, D12, D18, D24, D30, D36, D42, D48, D54, D60, D66, D72, D78, D12, D18, D24, D30, D36, D42, D48, D54, D60, D66, D72, D78, D12, D18, D24, D30, D36, D42, D48, D54, D60, D66, D72, D78)</f>
         <v/>
       </c>
       <c r="E84" s="46">
-        <f>SUM(E12, E18, E24, E30, E36, E42, E48, E54, E60, E66, E72, E78, )</f>
+        <f>SUM(E12, E18, E24, E30, E36, E42, E48, E54, E60, E66, E72, E78, E12, E18, E24, E30, E36, E42, E48, E54, E60, E66, E72, E78, E12, E18, E24, E30, E36, E42, E48, E54, E60, E66, E72, E78, E12, E18, E24, E30, E36, E42, E48, E54, E60, E66, E72, E78, E12, E18, E24, E30, E36, E42, E48, E54, E60, E66, E72, E78, E12, E18, E24, E30, E36, E42, E48, E54, E60, E66, E72, E78, E12, E18, E24, E30, E36, E42, E48, E54, E60, E66, E72, E78)</f>
         <v/>
       </c>
       <c r="F84" s="46">
-        <f>SUM(F12, F18, F24, F30, F36, F42, F48, F54, F60, F66, F72, F78, )</f>
+        <f>SUM(F12, F18, F24, F30, F36, F42, F48, F54, F60, F66, F72, F78, F12, F18, F24, F30, F36, F42, F48, F54, F60, F66, F72, F78, F12, F18, F24, F30, F36, F42, F48, F54, F60, F66, F72, F78, F12, F18, F24, F30, F36, F42, F48, F54, F60, F66, F72, F78, F12, F18, F24, F30, F36, F42, F48, F54, F60, F66, F72, F78, F12, F18, F24, F30, F36, F42, F48, F54, F60, F66, F72, F78, F12, F18, F24, F30, F36, F42, F48, F54, F60, F66, F72, F78)</f>
         <v/>
       </c>
       <c r="G84" s="46">
-        <f>SUM(G12, G18, G24, G30, G36, G42, G48, G54, G60, G66, G72, G78, )</f>
+        <f>SUM(G12, G18, G24, G30, G36, G42, G48, G54, G60, G66, G72, G78, G12, G18, G24, G30, G36, G42, G48, G54, G60, G66, G72, G78, G12, G18, G24, G30, G36, G42, G48, G54, G60, G66, G72, G78, G12, G18, G24, G30, G36, G42, G48, G54, G60, G66, G72, G78, G12, G18, G24, G30, G36, G42, G48, G54, G60, G66, G72, G78, G12, G18, G24, G30, G36, G42, G48, G54, G60, G66, G72, G78, G12, G18, G24, G30, G36, G42, G48, G54, G60, G66, G72, G78)</f>
         <v/>
       </c>
       <c r="H84" s="46">
-        <f>SUM(H12, H18, H24, H30, H36, H42, H48, H54, H60, H66, H72, H78, )</f>
+        <f>SUM(H12, H18, H24, H30, H36, H42, H48, H54, H60, H66, H72, H78, H12, H18, H24, H30, H36, H42, H48, H54, H60, H66, H72, H78, H12, H18, H24, H30, H36, H42, H48, H54, H60, H66, H72, H78, H12, H18, H24, H30, H36, H42, H48, H54, H60, H66, H72, H78, H12, H18, H24, H30, H36, H42, H48, H54, H60, H66, H72, H78, H12, H18, H24, H30, H36, H42, H48, H54, H60, H66, H72, H78, H12, H18, H24, H30, H36, H42, H48, H54, H60, H66, H72, H78)</f>
         <v/>
       </c>
       <c r="I84" s="46">
-        <f>SUM(I12, I18, I24, I30, I36, I42, I48, I54, I60, I66, I72, I78, )</f>
+        <f>SUM(I12, I18, I24, I30, I36, I42, I48, I54, I60, I66, I72, I78, I12, I18, I24, I30, I36, I42, I48, I54, I60, I66, I72, I78, I12, I18, I24, I30, I36, I42, I48, I54, I60, I66, I72, I78, I12, I18, I24, I30, I36, I42, I48, I54, I60, I66, I72, I78, I12, I18, I24, I30, I36, I42, I48, I54, I60, I66, I72, I78, I12, I18, I24, I30, I36, I42, I48, I54, I60, I66, I72, I78, I12, I18, I24, I30, I36, I42, I48, I54, I60, I66, I72, I78)</f>
         <v/>
       </c>
       <c r="J84" s="46">
-        <f>SUM(J12, J18, J24, J30, J36, J42, J48, J54, J60, J66, J72, J78, )</f>
+        <f>SUM(J12, J18, J24, J30, J36, J42, J48, J54, J60, J66, J72, J78, J12, J18, J24, J30, J36, J42, J48, J54, J60, J66, J72, J78, J12, J18, J24, J30, J36, J42, J48, J54, J60, J66, J72, J78, J12, J18, J24, J30, J36, J42, J48, J54, J60, J66, J72, J78, J12, J18, J24, J30, J36, J42, J48, J54, J60, J66, J72, J78, J12, J18, J24, J30, J36, J42, J48, J54, J60, J66, J72, J78, J12, J18, J24, J30, J36, J42, J48, J54, J60, J66, J72, J78)</f>
         <v/>
       </c>
     </row>
